--- a/_Gantt Timeline.xlsx
+++ b/_Gantt Timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Alex Gorton</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Pre-processing</t>
-  </si>
-  <si>
-    <t>(individual 1)</t>
   </si>
   <si>
     <t>Selecting features</t>
@@ -168,7 +165,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,6 +440,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +664,7 @@
   <dimension ref="A1:AJ1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -935,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1035,30 +1041,30 @@
     </row>
     <row r="8" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="28"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
       <c r="X8" s="13"/>
@@ -1079,8 +1085,8 @@
       <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>14</v>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
@@ -1119,10 +1125,10 @@
     </row>
     <row r="10" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="28"/>
@@ -1161,10 +1167,10 @@
     </row>
     <row r="11" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="34"/>
@@ -1203,10 +1209,10 @@
     </row>
     <row r="12" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="34"/>
@@ -1245,10 +1251,10 @@
     </row>
     <row r="13" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="34"/>
@@ -1287,10 +1293,10 @@
     </row>
     <row r="14" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="34"/>
@@ -1329,10 +1335,10 @@
     </row>
     <row r="15" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>

--- a/_Gantt Timeline.xlsx
+++ b/_Gantt Timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>Alex Gorton</t>
   </si>
@@ -57,34 +57,19 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>PLAN</t>
-  </si>
-  <si>
     <t>Pre-processing</t>
   </si>
   <si>
     <t>Selecting features</t>
   </si>
   <si>
-    <t>(individual 2)</t>
-  </si>
-  <si>
     <t>Exploring and selecting ML algorithms</t>
-  </si>
-  <si>
-    <t>(individual 3)</t>
   </si>
   <si>
     <t>Refining algorithms</t>
   </si>
   <si>
-    <t>(individual 4)</t>
-  </si>
-  <si>
     <t>Evaluating model and analysing the results</t>
-  </si>
-  <si>
-    <t>(individual 5)</t>
   </si>
   <si>
     <t>(group)</t>
@@ -100,6 +85,30 @@
   </si>
   <si>
     <t>Future work / Discuss results</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>bring same scale, clean/remove noise.</t>
+  </si>
+  <si>
+    <t>file with required features as output, there may be new features created.</t>
+  </si>
+  <si>
+    <t>cleaned file output.</t>
+  </si>
+  <si>
+    <t>PLAN 14/11</t>
+  </si>
+  <si>
+    <t>PLAN 7/11</t>
+  </si>
+  <si>
+    <t>Report 4,000 words (±10%), ~700 words per section</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
 </sst>
 </file>
@@ -165,7 +174,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +232,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
@@ -319,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,6 +469,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,22 +725,23 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ1006"/>
+  <dimension ref="A1:AK1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="22" width="5.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="14.42578125" style="5"/>
+    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
+    <col min="4" max="23" width="5.140625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -686,7 +751,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -715,7 +782,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -754,7 +821,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -795,7 +862,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -836,7 +903,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -877,73 +944,73 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="P6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="11" t="s">
-        <v>25</v>
+      <c r="X6" s="11" t="s">
+        <v>20</v>
       </c>
-      <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -956,76 +1023,79 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>12</v>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>27</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23">
+      <c r="B7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23">
         <v>43779</v>
       </c>
-      <c r="D7" s="23">
+      <c r="E7" s="23">
         <v>43783</v>
       </c>
-      <c r="E7" s="23">
+      <c r="F7" s="23">
         <v>43786</v>
       </c>
-      <c r="F7" s="23">
+      <c r="G7" s="23">
         <v>43790</v>
       </c>
-      <c r="G7" s="23">
+      <c r="H7" s="23">
         <v>43793</v>
       </c>
-      <c r="H7" s="23">
+      <c r="I7" s="23">
         <v>43797</v>
       </c>
-      <c r="I7" s="23">
+      <c r="J7" s="23">
         <v>43800</v>
       </c>
-      <c r="J7" s="23">
+      <c r="K7" s="23">
         <v>43804</v>
       </c>
-      <c r="K7" s="23">
+      <c r="L7" s="23">
         <v>43807</v>
       </c>
-      <c r="L7" s="23">
+      <c r="M7" s="23">
         <v>43811</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <v>43814</v>
       </c>
-      <c r="N7" s="23">
+      <c r="O7" s="23">
         <v>43818</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <v>43821</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="23">
         <v>43825</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="23">
         <v>43828</v>
       </c>
-      <c r="R7" s="23">
+      <c r="S7" s="23">
         <v>43832</v>
       </c>
-      <c r="S7" s="23">
+      <c r="T7" s="23">
         <v>43835</v>
       </c>
-      <c r="T7" s="23">
+      <c r="U7" s="23">
         <v>43839</v>
       </c>
-      <c r="U7" s="23">
+      <c r="V7" s="23">
         <v>43842</v>
       </c>
-      <c r="V7" s="41">
+      <c r="W7" s="41">
         <v>43846</v>
       </c>
-      <c r="W7" s="24">
+      <c r="X7" s="24">
         <v>43849.666666666664</v>
       </c>
-      <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -1038,36 +1108,37 @@
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
-    </row>
-    <row r="8" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK7" s="12"/>
+    </row>
+    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>22</v>
+      <c r="B8" s="46"/>
+      <c r="C8" s="26" t="s">
+        <v>17</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
-      <c r="V8" s="29"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="29"/>
-      <c r="X8" s="13"/>
+      <c r="X8" s="29"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
@@ -1080,36 +1151,34 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
-    </row>
-    <row r="9" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK8" s="13"/>
+    </row>
+    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="26"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="13"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
@@ -1122,36 +1191,32 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
-    </row>
-    <row r="10" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK9" s="13"/>
+    </row>
+    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>15</v>
+      <c r="B10" s="47" t="s">
+        <v>24</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="C10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="Q10" s="28"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="32"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="13"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -1164,36 +1229,31 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-    </row>
-    <row r="11" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK10" s="13"/>
+    </row>
+    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>17</v>
+      <c r="B11" s="47"/>
+      <c r="C11" s="16" t="s">
+        <v>1</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="32"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="32"/>
       <c r="U11" s="28"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="13"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="33"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
@@ -1206,36 +1266,31 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-    </row>
-    <row r="12" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK11" s="13"/>
+    </row>
+    <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>19</v>
+      <c r="B12" s="47"/>
+      <c r="C12" s="20" t="s">
+        <v>9</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="28"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="34"/>
       <c r="S12" s="28"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="13"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
@@ -1248,36 +1303,31 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-    </row>
-    <row r="13" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK12" s="13"/>
+    </row>
+    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>21</v>
+      <c r="B13" s="47"/>
+      <c r="C13" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="28"/>
+      <c r="J13" s="32"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="34"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="13"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="33"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
@@ -1290,36 +1340,37 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
-    </row>
-    <row r="14" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK13" s="13"/>
+    </row>
+    <row r="14" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>22</v>
+      <c r="B14" s="47"/>
+      <c r="C14" s="26" t="s">
+        <v>17</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="26"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="31"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="13"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
@@ -1332,17 +1383,18 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
-    </row>
-    <row r="15" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="13"/>
+    </row>
+    <row r="15" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>22</v>
+      <c r="B15" s="48"/>
+      <c r="C15" s="36" t="s">
+        <v>17</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
@@ -1350,18 +1402,18 @@
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="39"/>
+      <c r="T15" s="37"/>
       <c r="U15" s="39"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="13"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="40"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
@@ -1374,8 +1426,9 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
-    </row>
-    <row r="16" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -1486,31 +1539,73 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+    <row r="19" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
@@ -1523,31 +1618,77 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+    <row r="20" spans="1:35" ht="36.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23">
+        <v>43779</v>
+      </c>
+      <c r="E20" s="23">
+        <v>43783</v>
+      </c>
+      <c r="F20" s="23">
+        <v>43786</v>
+      </c>
+      <c r="G20" s="23">
+        <v>43790</v>
+      </c>
+      <c r="H20" s="23">
+        <v>43793</v>
+      </c>
+      <c r="I20" s="23">
+        <v>43797</v>
+      </c>
+      <c r="J20" s="23">
+        <v>43800</v>
+      </c>
+      <c r="K20" s="23">
+        <v>43804</v>
+      </c>
+      <c r="L20" s="23">
+        <v>43807</v>
+      </c>
+      <c r="M20" s="23">
+        <v>43811</v>
+      </c>
+      <c r="N20" s="23">
+        <v>43814</v>
+      </c>
+      <c r="O20" s="23">
+        <v>43818</v>
+      </c>
+      <c r="P20" s="23">
+        <v>43821</v>
+      </c>
+      <c r="Q20" s="51">
+        <v>43825</v>
+      </c>
+      <c r="R20" s="23">
+        <v>43828</v>
+      </c>
+      <c r="S20" s="51">
+        <v>43832</v>
+      </c>
+      <c r="T20" s="23">
+        <v>43835</v>
+      </c>
+      <c r="U20" s="23">
+        <v>43839</v>
+      </c>
+      <c r="V20" s="23">
+        <v>43842</v>
+      </c>
+      <c r="W20" s="41">
+        <v>43846</v>
+      </c>
+      <c r="X20" s="24">
+        <v>43849.666666666664</v>
+      </c>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
@@ -1561,30 +1702,34 @@
       <c r="AI20" s="13"/>
     </row>
     <row r="21" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
+      <c r="A21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
@@ -1598,30 +1743,31 @@
       <c r="AI21" s="13"/>
     </row>
     <row r="22" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
+      <c r="A22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="33"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
@@ -1635,30 +1781,34 @@
       <c r="AI22" s="13"/>
     </row>
     <row r="23" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="A23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="33"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
@@ -1672,30 +1822,33 @@
       <c r="AI23" s="13"/>
     </row>
     <row r="24" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
+      <c r="A24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="33"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
@@ -1709,30 +1862,33 @@
       <c r="AI24" s="13"/>
     </row>
     <row r="25" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="A25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="28"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="33"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
@@ -1746,30 +1902,33 @@
       <c r="AI25" s="13"/>
     </row>
     <row r="26" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
+      <c r="A26" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="32"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="33"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
@@ -1783,30 +1942,34 @@
       <c r="AI26" s="13"/>
     </row>
     <row r="27" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="A27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="33"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
@@ -1819,31 +1982,37 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
+    <row r="28" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="40"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>

--- a/_Gantt Timeline.xlsx
+++ b/_Gantt Timeline.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="7032"/>
   </bookViews>
   <sheets>
     <sheet name="AML Project plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>Alex Gorton</t>
   </si>
@@ -110,6 +111,24 @@
   <si>
     <t>ready</t>
   </si>
+  <si>
+    <t>test data set</t>
+  </si>
+  <si>
+    <t>clean, scale</t>
+  </si>
+  <si>
+    <t>file with required features as output, there may be new features created. For example, new indicator showing the speed of change in the data volume during last 5 min.</t>
+  </si>
+  <si>
+    <t>Selecting features (reitareble)</t>
+  </si>
+  <si>
+    <t>Refining algorithms (reitareble)</t>
+  </si>
+  <si>
+    <t>train-train and train-validate datasets. Validation set should be of the size of test set.</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +193,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +270,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,6 +531,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,21 +755,21 @@
   </sheetPr>
   <dimension ref="A1:AK1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="208" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
-    <col min="4" max="23" width="5.140625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="36.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="5" customWidth="1"/>
+    <col min="4" max="23" width="5.109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -782,7 +810,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -821,7 +849,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -862,7 +890,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -903,7 +931,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -944,7 +972,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -1025,7 +1053,7 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1138,7 @@
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1181,7 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1221,7 @@
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1259,7 @@
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
     </row>
-    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1296,7 @@
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
     </row>
-    <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1333,7 @@
       <c r="AJ12" s="13"/>
       <c r="AK12" s="13"/>
     </row>
-    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1370,7 @@
       <c r="AJ13" s="13"/>
       <c r="AK13" s="13"/>
     </row>
-    <row r="14" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1413,7 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
     </row>
-    <row r="15" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1456,7 @@
       <c r="AJ15" s="13"/>
       <c r="AK15" s="13"/>
     </row>
-    <row r="16" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -1465,7 +1493,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -1502,7 +1530,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -1539,7 +1567,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1618,7 +1646,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" ht="36.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1729,7 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
@@ -1742,12 +1770,12 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>5</v>
@@ -1780,12 +1808,12 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>13</v>
+    <row r="23" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>3</v>
@@ -1821,7 +1849,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
@@ -1861,11 +1889,13 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>15</v>
+    <row r="25" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>34</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="47" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="20" t="s">
         <v>9</v>
       </c>
@@ -1901,11 +1931,13 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1973,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>21</v>
       </c>
@@ -1982,7 +2014,7 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>28</v>
       </c>
@@ -2025,7 +2057,7 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
     </row>
-    <row r="29" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
@@ -2062,7 +2094,7 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
     </row>
-    <row r="30" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="13"/>
@@ -2099,7 +2131,7 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2136,7 +2168,7 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
-    <row r="32" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="13"/>
@@ -2173,7 +2205,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="13"/>
@@ -2210,7 +2242,7 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
-    <row r="34" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="13"/>
@@ -2247,7 +2279,7 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
     </row>
-    <row r="35" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="13"/>
@@ -2284,7 +2316,7 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
     </row>
-    <row r="36" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="13"/>
@@ -2321,7 +2353,7 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
     </row>
-    <row r="37" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="13"/>
@@ -2358,7 +2390,7 @@
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
     </row>
-    <row r="38" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="13"/>
@@ -2395,7 +2427,7 @@
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
     </row>
-    <row r="39" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="13"/>
@@ -2432,7 +2464,7 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
     </row>
-    <row r="40" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="13"/>
@@ -2469,7 +2501,7 @@
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
     </row>
-    <row r="41" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="13"/>
@@ -2506,7 +2538,7 @@
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
     </row>
-    <row r="42" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="13"/>
@@ -2543,7 +2575,7 @@
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
     </row>
-    <row r="43" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="13"/>
@@ -2580,7 +2612,7 @@
       <c r="AH43" s="13"/>
       <c r="AI43" s="13"/>
     </row>
-    <row r="44" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="13"/>
@@ -2617,7 +2649,7 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
     </row>
-    <row r="45" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="13"/>
@@ -2654,7 +2686,7 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
     </row>
-    <row r="46" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="13"/>
@@ -2691,7 +2723,7 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
     </row>
-    <row r="47" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="13"/>
@@ -2728,7 +2760,7 @@
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
     </row>
-    <row r="48" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="13"/>
@@ -2765,7 +2797,7 @@
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
     </row>
-    <row r="49" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="13"/>
@@ -2802,7 +2834,7 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
     </row>
-    <row r="50" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="13"/>
@@ -2839,7 +2871,7 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
     </row>
-    <row r="51" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="13"/>
@@ -2876,7 +2908,7 @@
       <c r="AH51" s="13"/>
       <c r="AI51" s="13"/>
     </row>
-    <row r="52" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="13"/>
@@ -2913,7 +2945,7 @@
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
     </row>
-    <row r="53" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="13"/>
@@ -2950,7 +2982,7 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
     </row>
-    <row r="54" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="13"/>
@@ -2987,7 +3019,7 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="13"/>
@@ -3024,7 +3056,7 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="13"/>
@@ -3061,7 +3093,7 @@
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
     </row>
-    <row r="57" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="13"/>
@@ -3098,7 +3130,7 @@
       <c r="AH57" s="13"/>
       <c r="AI57" s="13"/>
     </row>
-    <row r="58" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="13"/>
@@ -3135,7 +3167,7 @@
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
     </row>
-    <row r="59" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="13"/>
@@ -3172,7 +3204,7 @@
       <c r="AH59" s="13"/>
       <c r="AI59" s="13"/>
     </row>
-    <row r="60" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="13"/>
@@ -3209,7 +3241,7 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
     </row>
-    <row r="61" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="13"/>
@@ -3246,7 +3278,7 @@
       <c r="AH61" s="13"/>
       <c r="AI61" s="13"/>
     </row>
-    <row r="62" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="13"/>
@@ -3283,7 +3315,7 @@
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
     </row>
-    <row r="63" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="13"/>
@@ -3320,7 +3352,7 @@
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
     </row>
-    <row r="64" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="13"/>
@@ -3357,7 +3389,7 @@
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
     </row>
-    <row r="65" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="13"/>
@@ -3394,7 +3426,7 @@
       <c r="AH65" s="13"/>
       <c r="AI65" s="13"/>
     </row>
-    <row r="66" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="13"/>
@@ -3431,7 +3463,7 @@
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
     </row>
-    <row r="67" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="13"/>
@@ -3468,7 +3500,7 @@
       <c r="AH67" s="13"/>
       <c r="AI67" s="13"/>
     </row>
-    <row r="68" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="13"/>
@@ -3505,7 +3537,7 @@
       <c r="AH68" s="13"/>
       <c r="AI68" s="13"/>
     </row>
-    <row r="69" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="13"/>
@@ -3542,7 +3574,7 @@
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
     </row>
-    <row r="70" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="13"/>
@@ -3579,7 +3611,7 @@
       <c r="AH70" s="13"/>
       <c r="AI70" s="13"/>
     </row>
-    <row r="71" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="13"/>
@@ -3616,7 +3648,7 @@
       <c r="AH71" s="13"/>
       <c r="AI71" s="13"/>
     </row>
-    <row r="72" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="13"/>
@@ -3653,7 +3685,7 @@
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
     </row>
-    <row r="73" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="13"/>
@@ -3690,7 +3722,7 @@
       <c r="AH73" s="13"/>
       <c r="AI73" s="13"/>
     </row>
-    <row r="74" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -3727,7 +3759,7 @@
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
     </row>
-    <row r="75" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="13"/>
@@ -3764,7 +3796,7 @@
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
     </row>
-    <row r="76" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="13"/>
@@ -3801,7 +3833,7 @@
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
     </row>
-    <row r="77" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13"/>
@@ -3838,7 +3870,7 @@
       <c r="AH77" s="13"/>
       <c r="AI77" s="13"/>
     </row>
-    <row r="78" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="13"/>
@@ -3875,7 +3907,7 @@
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
     </row>
-    <row r="79" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="13"/>
@@ -3912,7 +3944,7 @@
       <c r="AH79" s="13"/>
       <c r="AI79" s="13"/>
     </row>
-    <row r="80" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="13"/>
@@ -3949,7 +3981,7 @@
       <c r="AH80" s="13"/>
       <c r="AI80" s="13"/>
     </row>
-    <row r="81" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="13"/>
@@ -3986,7 +4018,7 @@
       <c r="AH81" s="13"/>
       <c r="AI81" s="13"/>
     </row>
-    <row r="82" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="13"/>
@@ -4023,7 +4055,7 @@
       <c r="AH82" s="13"/>
       <c r="AI82" s="13"/>
     </row>
-    <row r="83" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="13"/>
@@ -4060,7 +4092,7 @@
       <c r="AH83" s="13"/>
       <c r="AI83" s="13"/>
     </row>
-    <row r="84" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="13"/>
@@ -4097,7 +4129,7 @@
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
     </row>
-    <row r="85" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="13"/>
@@ -4134,7 +4166,7 @@
       <c r="AH85" s="13"/>
       <c r="AI85" s="13"/>
     </row>
-    <row r="86" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="13"/>
@@ -4171,7 +4203,7 @@
       <c r="AH86" s="13"/>
       <c r="AI86" s="13"/>
     </row>
-    <row r="87" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="13"/>
@@ -4208,7 +4240,7 @@
       <c r="AH87" s="13"/>
       <c r="AI87" s="13"/>
     </row>
-    <row r="88" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="13"/>
@@ -4245,7 +4277,7 @@
       <c r="AH88" s="13"/>
       <c r="AI88" s="13"/>
     </row>
-    <row r="89" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="13"/>
@@ -4282,7 +4314,7 @@
       <c r="AH89" s="13"/>
       <c r="AI89" s="13"/>
     </row>
-    <row r="90" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="13"/>
@@ -4319,7 +4351,7 @@
       <c r="AH90" s="13"/>
       <c r="AI90" s="13"/>
     </row>
-    <row r="91" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="13"/>
@@ -4356,7 +4388,7 @@
       <c r="AH91" s="13"/>
       <c r="AI91" s="13"/>
     </row>
-    <row r="92" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="13"/>
@@ -4393,7 +4425,7 @@
       <c r="AH92" s="13"/>
       <c r="AI92" s="13"/>
     </row>
-    <row r="93" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="13"/>
@@ -4430,7 +4462,7 @@
       <c r="AH93" s="13"/>
       <c r="AI93" s="13"/>
     </row>
-    <row r="94" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="13"/>
@@ -4467,7 +4499,7 @@
       <c r="AH94" s="13"/>
       <c r="AI94" s="13"/>
     </row>
-    <row r="95" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="13"/>
@@ -4504,7 +4536,7 @@
       <c r="AH95" s="13"/>
       <c r="AI95" s="13"/>
     </row>
-    <row r="96" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="13"/>
@@ -4541,7 +4573,7 @@
       <c r="AH96" s="13"/>
       <c r="AI96" s="13"/>
     </row>
-    <row r="97" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="13"/>
@@ -4578,7 +4610,7 @@
       <c r="AH97" s="13"/>
       <c r="AI97" s="13"/>
     </row>
-    <row r="98" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="13"/>
@@ -4615,7 +4647,7 @@
       <c r="AH98" s="13"/>
       <c r="AI98" s="13"/>
     </row>
-    <row r="99" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="13"/>
@@ -4652,7 +4684,7 @@
       <c r="AH99" s="13"/>
       <c r="AI99" s="13"/>
     </row>
-    <row r="100" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="13"/>
@@ -4689,7 +4721,7 @@
       <c r="AH100" s="13"/>
       <c r="AI100" s="13"/>
     </row>
-    <row r="101" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="13"/>
@@ -4726,7 +4758,7 @@
       <c r="AH101" s="13"/>
       <c r="AI101" s="13"/>
     </row>
-    <row r="102" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="13"/>
@@ -4763,7 +4795,7 @@
       <c r="AH102" s="13"/>
       <c r="AI102" s="13"/>
     </row>
-    <row r="103" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="13"/>
@@ -4800,7 +4832,7 @@
       <c r="AH103" s="13"/>
       <c r="AI103" s="13"/>
     </row>
-    <row r="104" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="13"/>
@@ -4837,7 +4869,7 @@
       <c r="AH104" s="13"/>
       <c r="AI104" s="13"/>
     </row>
-    <row r="105" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="13"/>
@@ -4874,7 +4906,7 @@
       <c r="AH105" s="13"/>
       <c r="AI105" s="13"/>
     </row>
-    <row r="106" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="13"/>
@@ -4911,7 +4943,7 @@
       <c r="AH106" s="13"/>
       <c r="AI106" s="13"/>
     </row>
-    <row r="107" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="13"/>
@@ -4948,7 +4980,7 @@
       <c r="AH107" s="13"/>
       <c r="AI107" s="13"/>
     </row>
-    <row r="108" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="13"/>
@@ -4985,7 +5017,7 @@
       <c r="AH108" s="13"/>
       <c r="AI108" s="13"/>
     </row>
-    <row r="109" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="13"/>
@@ -5022,7 +5054,7 @@
       <c r="AH109" s="13"/>
       <c r="AI109" s="13"/>
     </row>
-    <row r="110" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -5059,7 +5091,7 @@
       <c r="AH110" s="13"/>
       <c r="AI110" s="13"/>
     </row>
-    <row r="111" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
@@ -5096,7 +5128,7 @@
       <c r="AH111" s="13"/>
       <c r="AI111" s="13"/>
     </row>
-    <row r="112" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="13"/>
@@ -5133,7 +5165,7 @@
       <c r="AH112" s="13"/>
       <c r="AI112" s="13"/>
     </row>
-    <row r="113" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="13"/>
@@ -5170,7 +5202,7 @@
       <c r="AH113" s="13"/>
       <c r="AI113" s="13"/>
     </row>
-    <row r="114" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="13"/>
@@ -5207,7 +5239,7 @@
       <c r="AH114" s="13"/>
       <c r="AI114" s="13"/>
     </row>
-    <row r="115" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="13"/>
@@ -5244,7 +5276,7 @@
       <c r="AH115" s="13"/>
       <c r="AI115" s="13"/>
     </row>
-    <row r="116" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="13"/>
@@ -5281,7 +5313,7 @@
       <c r="AH116" s="13"/>
       <c r="AI116" s="13"/>
     </row>
-    <row r="117" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="13"/>
@@ -5318,7 +5350,7 @@
       <c r="AH117" s="13"/>
       <c r="AI117" s="13"/>
     </row>
-    <row r="118" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="13"/>
@@ -5355,7 +5387,7 @@
       <c r="AH118" s="13"/>
       <c r="AI118" s="13"/>
     </row>
-    <row r="119" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="13"/>
@@ -5392,7 +5424,7 @@
       <c r="AH119" s="13"/>
       <c r="AI119" s="13"/>
     </row>
-    <row r="120" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="13"/>
@@ -5429,7 +5461,7 @@
       <c r="AH120" s="13"/>
       <c r="AI120" s="13"/>
     </row>
-    <row r="121" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="13"/>
@@ -5466,7 +5498,7 @@
       <c r="AH121" s="13"/>
       <c r="AI121" s="13"/>
     </row>
-    <row r="122" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="13"/>
@@ -5503,7 +5535,7 @@
       <c r="AH122" s="13"/>
       <c r="AI122" s="13"/>
     </row>
-    <row r="123" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="13"/>
@@ -5540,7 +5572,7 @@
       <c r="AH123" s="13"/>
       <c r="AI123" s="13"/>
     </row>
-    <row r="124" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="13"/>
@@ -5577,7 +5609,7 @@
       <c r="AH124" s="13"/>
       <c r="AI124" s="13"/>
     </row>
-    <row r="125" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="13"/>
@@ -5614,7 +5646,7 @@
       <c r="AH125" s="13"/>
       <c r="AI125" s="13"/>
     </row>
-    <row r="126" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="13"/>
@@ -5651,7 +5683,7 @@
       <c r="AH126" s="13"/>
       <c r="AI126" s="13"/>
     </row>
-    <row r="127" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="13"/>
@@ -5688,7 +5720,7 @@
       <c r="AH127" s="13"/>
       <c r="AI127" s="13"/>
     </row>
-    <row r="128" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="13"/>
@@ -5725,7 +5757,7 @@
       <c r="AH128" s="13"/>
       <c r="AI128" s="13"/>
     </row>
-    <row r="129" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="13"/>
@@ -5762,7 +5794,7 @@
       <c r="AH129" s="13"/>
       <c r="AI129" s="13"/>
     </row>
-    <row r="130" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="13"/>
@@ -5799,7 +5831,7 @@
       <c r="AH130" s="13"/>
       <c r="AI130" s="13"/>
     </row>
-    <row r="131" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="13"/>
@@ -5836,7 +5868,7 @@
       <c r="AH131" s="13"/>
       <c r="AI131" s="13"/>
     </row>
-    <row r="132" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="13"/>
@@ -5873,7 +5905,7 @@
       <c r="AH132" s="13"/>
       <c r="AI132" s="13"/>
     </row>
-    <row r="133" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="13"/>
@@ -5910,7 +5942,7 @@
       <c r="AH133" s="13"/>
       <c r="AI133" s="13"/>
     </row>
-    <row r="134" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="13"/>
@@ -5947,7 +5979,7 @@
       <c r="AH134" s="13"/>
       <c r="AI134" s="13"/>
     </row>
-    <row r="135" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="13"/>
@@ -5984,7 +6016,7 @@
       <c r="AH135" s="13"/>
       <c r="AI135" s="13"/>
     </row>
-    <row r="136" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="13"/>
@@ -6021,7 +6053,7 @@
       <c r="AH136" s="13"/>
       <c r="AI136" s="13"/>
     </row>
-    <row r="137" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="13"/>
@@ -6058,7 +6090,7 @@
       <c r="AH137" s="13"/>
       <c r="AI137" s="13"/>
     </row>
-    <row r="138" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="13"/>
@@ -6095,7 +6127,7 @@
       <c r="AH138" s="13"/>
       <c r="AI138" s="13"/>
     </row>
-    <row r="139" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="13"/>
@@ -6132,7 +6164,7 @@
       <c r="AH139" s="13"/>
       <c r="AI139" s="13"/>
     </row>
-    <row r="140" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="13"/>
@@ -6169,7 +6201,7 @@
       <c r="AH140" s="13"/>
       <c r="AI140" s="13"/>
     </row>
-    <row r="141" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="13"/>
@@ -6206,7 +6238,7 @@
       <c r="AH141" s="13"/>
       <c r="AI141" s="13"/>
     </row>
-    <row r="142" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="13"/>
@@ -6243,7 +6275,7 @@
       <c r="AH142" s="13"/>
       <c r="AI142" s="13"/>
     </row>
-    <row r="143" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="13"/>
@@ -6280,7 +6312,7 @@
       <c r="AH143" s="13"/>
       <c r="AI143" s="13"/>
     </row>
-    <row r="144" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="13"/>
@@ -6317,7 +6349,7 @@
       <c r="AH144" s="13"/>
       <c r="AI144" s="13"/>
     </row>
-    <row r="145" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="13"/>
@@ -6354,7 +6386,7 @@
       <c r="AH145" s="13"/>
       <c r="AI145" s="13"/>
     </row>
-    <row r="146" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="13"/>
@@ -6391,7 +6423,7 @@
       <c r="AH146" s="13"/>
       <c r="AI146" s="13"/>
     </row>
-    <row r="147" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="13"/>
@@ -6428,7 +6460,7 @@
       <c r="AH147" s="13"/>
       <c r="AI147" s="13"/>
     </row>
-    <row r="148" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="13"/>
@@ -6465,7 +6497,7 @@
       <c r="AH148" s="13"/>
       <c r="AI148" s="13"/>
     </row>
-    <row r="149" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="13"/>
@@ -6502,7 +6534,7 @@
       <c r="AH149" s="13"/>
       <c r="AI149" s="13"/>
     </row>
-    <row r="150" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="13"/>
@@ -6539,7 +6571,7 @@
       <c r="AH150" s="13"/>
       <c r="AI150" s="13"/>
     </row>
-    <row r="151" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="13"/>
@@ -6576,7 +6608,7 @@
       <c r="AH151" s="13"/>
       <c r="AI151" s="13"/>
     </row>
-    <row r="152" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="13"/>
@@ -6613,7 +6645,7 @@
       <c r="AH152" s="13"/>
       <c r="AI152" s="13"/>
     </row>
-    <row r="153" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="13"/>
@@ -6650,7 +6682,7 @@
       <c r="AH153" s="13"/>
       <c r="AI153" s="13"/>
     </row>
-    <row r="154" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="13"/>
@@ -6687,7 +6719,7 @@
       <c r="AH154" s="13"/>
       <c r="AI154" s="13"/>
     </row>
-    <row r="155" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="13"/>
@@ -6724,7 +6756,7 @@
       <c r="AH155" s="13"/>
       <c r="AI155" s="13"/>
     </row>
-    <row r="156" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="13"/>
@@ -6761,7 +6793,7 @@
       <c r="AH156" s="13"/>
       <c r="AI156" s="13"/>
     </row>
-    <row r="157" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="13"/>
@@ -6798,7 +6830,7 @@
       <c r="AH157" s="13"/>
       <c r="AI157" s="13"/>
     </row>
-    <row r="158" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
@@ -6835,7 +6867,7 @@
       <c r="AH158" s="13"/>
       <c r="AI158" s="13"/>
     </row>
-    <row r="159" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="13"/>
@@ -6872,7 +6904,7 @@
       <c r="AH159" s="13"/>
       <c r="AI159" s="13"/>
     </row>
-    <row r="160" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="13"/>
@@ -6909,7 +6941,7 @@
       <c r="AH160" s="13"/>
       <c r="AI160" s="13"/>
     </row>
-    <row r="161" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="13"/>
@@ -6946,7 +6978,7 @@
       <c r="AH161" s="13"/>
       <c r="AI161" s="13"/>
     </row>
-    <row r="162" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="13"/>
@@ -6983,7 +7015,7 @@
       <c r="AH162" s="13"/>
       <c r="AI162" s="13"/>
     </row>
-    <row r="163" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="13"/>
@@ -7020,7 +7052,7 @@
       <c r="AH163" s="13"/>
       <c r="AI163" s="13"/>
     </row>
-    <row r="164" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="13"/>
@@ -7057,7 +7089,7 @@
       <c r="AH164" s="13"/>
       <c r="AI164" s="13"/>
     </row>
-    <row r="165" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="13"/>
@@ -7094,7 +7126,7 @@
       <c r="AH165" s="13"/>
       <c r="AI165" s="13"/>
     </row>
-    <row r="166" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="13"/>
@@ -7131,7 +7163,7 @@
       <c r="AH166" s="13"/>
       <c r="AI166" s="13"/>
     </row>
-    <row r="167" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="13"/>
@@ -7168,7 +7200,7 @@
       <c r="AH167" s="13"/>
       <c r="AI167" s="13"/>
     </row>
-    <row r="168" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="13"/>
@@ -7205,7 +7237,7 @@
       <c r="AH168" s="13"/>
       <c r="AI168" s="13"/>
     </row>
-    <row r="169" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="13"/>
@@ -7242,7 +7274,7 @@
       <c r="AH169" s="13"/>
       <c r="AI169" s="13"/>
     </row>
-    <row r="170" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="13"/>
@@ -7279,7 +7311,7 @@
       <c r="AH170" s="13"/>
       <c r="AI170" s="13"/>
     </row>
-    <row r="171" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="13"/>
@@ -7316,7 +7348,7 @@
       <c r="AH171" s="13"/>
       <c r="AI171" s="13"/>
     </row>
-    <row r="172" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="13"/>
@@ -7353,7 +7385,7 @@
       <c r="AH172" s="13"/>
       <c r="AI172" s="13"/>
     </row>
-    <row r="173" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="13"/>
@@ -7390,7 +7422,7 @@
       <c r="AH173" s="13"/>
       <c r="AI173" s="13"/>
     </row>
-    <row r="174" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="13"/>
@@ -7427,7 +7459,7 @@
       <c r="AH174" s="13"/>
       <c r="AI174" s="13"/>
     </row>
-    <row r="175" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="13"/>
@@ -7464,7 +7496,7 @@
       <c r="AH175" s="13"/>
       <c r="AI175" s="13"/>
     </row>
-    <row r="176" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="13"/>
@@ -7501,7 +7533,7 @@
       <c r="AH176" s="13"/>
       <c r="AI176" s="13"/>
     </row>
-    <row r="177" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="13"/>
@@ -7538,7 +7570,7 @@
       <c r="AH177" s="13"/>
       <c r="AI177" s="13"/>
     </row>
-    <row r="178" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
       <c r="C178" s="13"/>
@@ -7575,7 +7607,7 @@
       <c r="AH178" s="13"/>
       <c r="AI178" s="13"/>
     </row>
-    <row r="179" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="13"/>
@@ -7612,7 +7644,7 @@
       <c r="AH179" s="13"/>
       <c r="AI179" s="13"/>
     </row>
-    <row r="180" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="13"/>
@@ -7649,7 +7681,7 @@
       <c r="AH180" s="13"/>
       <c r="AI180" s="13"/>
     </row>
-    <row r="181" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="13"/>
@@ -7686,7 +7718,7 @@
       <c r="AH181" s="13"/>
       <c r="AI181" s="13"/>
     </row>
-    <row r="182" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
       <c r="C182" s="13"/>
@@ -7723,7 +7755,7 @@
       <c r="AH182" s="13"/>
       <c r="AI182" s="13"/>
     </row>
-    <row r="183" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
       <c r="C183" s="13"/>
@@ -7760,7 +7792,7 @@
       <c r="AH183" s="13"/>
       <c r="AI183" s="13"/>
     </row>
-    <row r="184" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="13"/>
@@ -7797,7 +7829,7 @@
       <c r="AH184" s="13"/>
       <c r="AI184" s="13"/>
     </row>
-    <row r="185" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="13"/>
@@ -7834,7 +7866,7 @@
       <c r="AH185" s="13"/>
       <c r="AI185" s="13"/>
     </row>
-    <row r="186" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="13"/>
@@ -7871,7 +7903,7 @@
       <c r="AH186" s="13"/>
       <c r="AI186" s="13"/>
     </row>
-    <row r="187" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
       <c r="C187" s="13"/>
@@ -7908,7 +7940,7 @@
       <c r="AH187" s="13"/>
       <c r="AI187" s="13"/>
     </row>
-    <row r="188" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="13"/>
@@ -7945,7 +7977,7 @@
       <c r="AH188" s="13"/>
       <c r="AI188" s="13"/>
     </row>
-    <row r="189" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="13"/>
@@ -7982,7 +8014,7 @@
       <c r="AH189" s="13"/>
       <c r="AI189" s="13"/>
     </row>
-    <row r="190" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="13"/>
@@ -8019,7 +8051,7 @@
       <c r="AH190" s="13"/>
       <c r="AI190" s="13"/>
     </row>
-    <row r="191" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="13"/>
@@ -8056,7 +8088,7 @@
       <c r="AH191" s="13"/>
       <c r="AI191" s="13"/>
     </row>
-    <row r="192" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="13"/>
@@ -8093,7 +8125,7 @@
       <c r="AH192" s="13"/>
       <c r="AI192" s="13"/>
     </row>
-    <row r="193" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="13"/>
@@ -8130,7 +8162,7 @@
       <c r="AH193" s="13"/>
       <c r="AI193" s="13"/>
     </row>
-    <row r="194" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="13"/>
@@ -8167,7 +8199,7 @@
       <c r="AH194" s="13"/>
       <c r="AI194" s="13"/>
     </row>
-    <row r="195" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="13"/>
@@ -8204,7 +8236,7 @@
       <c r="AH195" s="13"/>
       <c r="AI195" s="13"/>
     </row>
-    <row r="196" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="13"/>
@@ -8241,7 +8273,7 @@
       <c r="AH196" s="13"/>
       <c r="AI196" s="13"/>
     </row>
-    <row r="197" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="13"/>
@@ -8278,7 +8310,7 @@
       <c r="AH197" s="13"/>
       <c r="AI197" s="13"/>
     </row>
-    <row r="198" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="13"/>
@@ -8315,7 +8347,7 @@
       <c r="AH198" s="13"/>
       <c r="AI198" s="13"/>
     </row>
-    <row r="199" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="13"/>
@@ -8352,7 +8384,7 @@
       <c r="AH199" s="13"/>
       <c r="AI199" s="13"/>
     </row>
-    <row r="200" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
       <c r="C200" s="13"/>
@@ -8389,7 +8421,7 @@
       <c r="AH200" s="13"/>
       <c r="AI200" s="13"/>
     </row>
-    <row r="201" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="13"/>
@@ -8426,7 +8458,7 @@
       <c r="AH201" s="13"/>
       <c r="AI201" s="13"/>
     </row>
-    <row r="202" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="13"/>
@@ -8463,7 +8495,7 @@
       <c r="AH202" s="13"/>
       <c r="AI202" s="13"/>
     </row>
-    <row r="203" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="13"/>
@@ -8500,7 +8532,7 @@
       <c r="AH203" s="13"/>
       <c r="AI203" s="13"/>
     </row>
-    <row r="204" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="13"/>
@@ -8537,7 +8569,7 @@
       <c r="AH204" s="13"/>
       <c r="AI204" s="13"/>
     </row>
-    <row r="205" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="13"/>
@@ -8574,7 +8606,7 @@
       <c r="AH205" s="13"/>
       <c r="AI205" s="13"/>
     </row>
-    <row r="206" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
       <c r="C206" s="13"/>
@@ -8611,7 +8643,7 @@
       <c r="AH206" s="13"/>
       <c r="AI206" s="13"/>
     </row>
-    <row r="207" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
       <c r="C207" s="13"/>
@@ -8648,7 +8680,7 @@
       <c r="AH207" s="13"/>
       <c r="AI207" s="13"/>
     </row>
-    <row r="208" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="13"/>
@@ -8685,7 +8717,7 @@
       <c r="AH208" s="13"/>
       <c r="AI208" s="13"/>
     </row>
-    <row r="209" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="14"/>
       <c r="C209" s="13"/>
@@ -8722,7 +8754,7 @@
       <c r="AH209" s="13"/>
       <c r="AI209" s="13"/>
     </row>
-    <row r="210" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
       <c r="B210" s="14"/>
       <c r="C210" s="13"/>
@@ -8759,7 +8791,7 @@
       <c r="AH210" s="13"/>
       <c r="AI210" s="13"/>
     </row>
-    <row r="211" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="14"/>
       <c r="C211" s="13"/>
@@ -8796,7 +8828,7 @@
       <c r="AH211" s="13"/>
       <c r="AI211" s="13"/>
     </row>
-    <row r="212" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="13"/>
@@ -8833,7 +8865,7 @@
       <c r="AH212" s="13"/>
       <c r="AI212" s="13"/>
     </row>
-    <row r="213" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="14"/>
       <c r="C213" s="13"/>
@@ -8870,7 +8902,7 @@
       <c r="AH213" s="13"/>
       <c r="AI213" s="13"/>
     </row>
-    <row r="214" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="14"/>
       <c r="C214" s="13"/>
@@ -8907,7 +8939,7 @@
       <c r="AH214" s="13"/>
       <c r="AI214" s="13"/>
     </row>
-    <row r="215" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="14"/>
       <c r="C215" s="13"/>
@@ -8944,7 +8976,7 @@
       <c r="AH215" s="13"/>
       <c r="AI215" s="13"/>
     </row>
-    <row r="216" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="14"/>
       <c r="C216" s="13"/>
@@ -8981,7 +9013,7 @@
       <c r="AH216" s="13"/>
       <c r="AI216" s="13"/>
     </row>
-    <row r="217" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="14"/>
       <c r="C217" s="13"/>
@@ -9018,7 +9050,7 @@
       <c r="AH217" s="13"/>
       <c r="AI217" s="13"/>
     </row>
-    <row r="218" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="14"/>
       <c r="C218" s="13"/>
@@ -9055,7 +9087,7 @@
       <c r="AH218" s="13"/>
       <c r="AI218" s="13"/>
     </row>
-    <row r="219" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="14"/>
       <c r="C219" s="13"/>
@@ -9092,7 +9124,7 @@
       <c r="AH219" s="13"/>
       <c r="AI219" s="13"/>
     </row>
-    <row r="220" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="14"/>
       <c r="C220" s="13"/>
@@ -9129,7 +9161,7 @@
       <c r="AH220" s="13"/>
       <c r="AI220" s="13"/>
     </row>
-    <row r="221" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="14"/>
       <c r="C221" s="13"/>
@@ -9166,7 +9198,7 @@
       <c r="AH221" s="13"/>
       <c r="AI221" s="13"/>
     </row>
-    <row r="222" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="14"/>
       <c r="C222" s="13"/>
@@ -9203,7 +9235,7 @@
       <c r="AH222" s="13"/>
       <c r="AI222" s="13"/>
     </row>
-    <row r="223" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
       <c r="B223" s="14"/>
       <c r="C223" s="13"/>
@@ -9240,7 +9272,7 @@
       <c r="AH223" s="13"/>
       <c r="AI223" s="13"/>
     </row>
-    <row r="224" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
       <c r="B224" s="14"/>
       <c r="C224" s="13"/>
@@ -9277,7 +9309,7 @@
       <c r="AH224" s="13"/>
       <c r="AI224" s="13"/>
     </row>
-    <row r="225" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="13"/>
@@ -9314,7 +9346,7 @@
       <c r="AH225" s="13"/>
       <c r="AI225" s="13"/>
     </row>
-    <row r="226" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="14"/>
       <c r="C226" s="13"/>
@@ -9351,7 +9383,7 @@
       <c r="AH226" s="13"/>
       <c r="AI226" s="13"/>
     </row>
-    <row r="227" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="14"/>
       <c r="C227" s="13"/>
@@ -9388,7 +9420,7 @@
       <c r="AH227" s="13"/>
       <c r="AI227" s="13"/>
     </row>
-    <row r="228" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="14"/>
       <c r="C228" s="13"/>
@@ -9425,7 +9457,7 @@
       <c r="AH228" s="13"/>
       <c r="AI228" s="13"/>
     </row>
-    <row r="229" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="13"/>
@@ -9462,7 +9494,7 @@
       <c r="AH229" s="13"/>
       <c r="AI229" s="13"/>
     </row>
-    <row r="230" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="13"/>
@@ -9499,7 +9531,7 @@
       <c r="AH230" s="13"/>
       <c r="AI230" s="13"/>
     </row>
-    <row r="231" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="14"/>
       <c r="C231" s="13"/>
@@ -9536,7 +9568,7 @@
       <c r="AH231" s="13"/>
       <c r="AI231" s="13"/>
     </row>
-    <row r="232" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="14"/>
       <c r="C232" s="13"/>
@@ -9573,7 +9605,7 @@
       <c r="AH232" s="13"/>
       <c r="AI232" s="13"/>
     </row>
-    <row r="233" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="14"/>
       <c r="C233" s="13"/>
@@ -9610,7 +9642,7 @@
       <c r="AH233" s="13"/>
       <c r="AI233" s="13"/>
     </row>
-    <row r="234" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="13"/>
@@ -9647,7 +9679,7 @@
       <c r="AH234" s="13"/>
       <c r="AI234" s="13"/>
     </row>
-    <row r="235" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="13"/>
@@ -9684,7 +9716,7 @@
       <c r="AH235" s="13"/>
       <c r="AI235" s="13"/>
     </row>
-    <row r="236" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="13"/>
@@ -9721,7 +9753,7 @@
       <c r="AH236" s="13"/>
       <c r="AI236" s="13"/>
     </row>
-    <row r="237" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="14"/>
       <c r="C237" s="13"/>
@@ -9758,7 +9790,7 @@
       <c r="AH237" s="13"/>
       <c r="AI237" s="13"/>
     </row>
-    <row r="238" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="14"/>
       <c r="C238" s="13"/>
@@ -9795,7 +9827,7 @@
       <c r="AH238" s="13"/>
       <c r="AI238" s="13"/>
     </row>
-    <row r="239" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="14"/>
       <c r="C239" s="13"/>
@@ -9832,7 +9864,7 @@
       <c r="AH239" s="13"/>
       <c r="AI239" s="13"/>
     </row>
-    <row r="240" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="14"/>
       <c r="C240" s="13"/>
@@ -9869,7 +9901,7 @@
       <c r="AH240" s="13"/>
       <c r="AI240" s="13"/>
     </row>
-    <row r="241" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="14"/>
       <c r="C241" s="13"/>
@@ -9906,7 +9938,7 @@
       <c r="AH241" s="13"/>
       <c r="AI241" s="13"/>
     </row>
-    <row r="242" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="14"/>
       <c r="C242" s="13"/>
@@ -9943,7 +9975,7 @@
       <c r="AH242" s="13"/>
       <c r="AI242" s="13"/>
     </row>
-    <row r="243" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="14"/>
       <c r="C243" s="13"/>
@@ -9980,7 +10012,7 @@
       <c r="AH243" s="13"/>
       <c r="AI243" s="13"/>
     </row>
-    <row r="244" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="14"/>
       <c r="C244" s="13"/>
@@ -10017,7 +10049,7 @@
       <c r="AH244" s="13"/>
       <c r="AI244" s="13"/>
     </row>
-    <row r="245" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="14"/>
       <c r="C245" s="13"/>
@@ -10054,7 +10086,7 @@
       <c r="AH245" s="13"/>
       <c r="AI245" s="13"/>
     </row>
-    <row r="246" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="14"/>
       <c r="C246" s="13"/>
@@ -10091,7 +10123,7 @@
       <c r="AH246" s="13"/>
       <c r="AI246" s="13"/>
     </row>
-    <row r="247" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="14"/>
       <c r="C247" s="13"/>
@@ -10128,7 +10160,7 @@
       <c r="AH247" s="13"/>
       <c r="AI247" s="13"/>
     </row>
-    <row r="248" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="14"/>
       <c r="C248" s="13"/>
@@ -10165,7 +10197,7 @@
       <c r="AH248" s="13"/>
       <c r="AI248" s="13"/>
     </row>
-    <row r="249" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="14"/>
       <c r="C249" s="13"/>
@@ -10202,7 +10234,7 @@
       <c r="AH249" s="13"/>
       <c r="AI249" s="13"/>
     </row>
-    <row r="250" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="14"/>
       <c r="C250" s="13"/>
@@ -10239,7 +10271,7 @@
       <c r="AH250" s="13"/>
       <c r="AI250" s="13"/>
     </row>
-    <row r="251" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="14"/>
       <c r="C251" s="13"/>
@@ -10276,7 +10308,7 @@
       <c r="AH251" s="13"/>
       <c r="AI251" s="13"/>
     </row>
-    <row r="252" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="14"/>
       <c r="C252" s="13"/>
@@ -10313,7 +10345,7 @@
       <c r="AH252" s="13"/>
       <c r="AI252" s="13"/>
     </row>
-    <row r="253" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="14"/>
       <c r="C253" s="13"/>
@@ -10350,7 +10382,7 @@
       <c r="AH253" s="13"/>
       <c r="AI253" s="13"/>
     </row>
-    <row r="254" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="14"/>
       <c r="C254" s="13"/>
@@ -10387,7 +10419,7 @@
       <c r="AH254" s="13"/>
       <c r="AI254" s="13"/>
     </row>
-    <row r="255" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="14"/>
       <c r="C255" s="13"/>
@@ -10424,7 +10456,7 @@
       <c r="AH255" s="13"/>
       <c r="AI255" s="13"/>
     </row>
-    <row r="256" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="14"/>
       <c r="C256" s="13"/>
@@ -10461,7 +10493,7 @@
       <c r="AH256" s="13"/>
       <c r="AI256" s="13"/>
     </row>
-    <row r="257" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="14"/>
       <c r="C257" s="13"/>
@@ -10498,7 +10530,7 @@
       <c r="AH257" s="13"/>
       <c r="AI257" s="13"/>
     </row>
-    <row r="258" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="14"/>
       <c r="C258" s="13"/>
@@ -10535,7 +10567,7 @@
       <c r="AH258" s="13"/>
       <c r="AI258" s="13"/>
     </row>
-    <row r="259" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="14"/>
       <c r="C259" s="13"/>
@@ -10572,7 +10604,7 @@
       <c r="AH259" s="13"/>
       <c r="AI259" s="13"/>
     </row>
-    <row r="260" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="14"/>
       <c r="C260" s="13"/>
@@ -10609,7 +10641,7 @@
       <c r="AH260" s="13"/>
       <c r="AI260" s="13"/>
     </row>
-    <row r="261" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="14"/>
       <c r="C261" s="13"/>
@@ -10646,7 +10678,7 @@
       <c r="AH261" s="13"/>
       <c r="AI261" s="13"/>
     </row>
-    <row r="262" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="14"/>
       <c r="C262" s="13"/>
@@ -10683,7 +10715,7 @@
       <c r="AH262" s="13"/>
       <c r="AI262" s="13"/>
     </row>
-    <row r="263" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="13"/>
@@ -10720,7 +10752,7 @@
       <c r="AH263" s="13"/>
       <c r="AI263" s="13"/>
     </row>
-    <row r="264" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="14"/>
       <c r="C264" s="13"/>
@@ -10757,7 +10789,7 @@
       <c r="AH264" s="13"/>
       <c r="AI264" s="13"/>
     </row>
-    <row r="265" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="14"/>
       <c r="C265" s="13"/>
@@ -10794,7 +10826,7 @@
       <c r="AH265" s="13"/>
       <c r="AI265" s="13"/>
     </row>
-    <row r="266" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="14"/>
       <c r="C266" s="13"/>
@@ -10831,7 +10863,7 @@
       <c r="AH266" s="13"/>
       <c r="AI266" s="13"/>
     </row>
-    <row r="267" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="14"/>
       <c r="C267" s="13"/>
@@ -10868,7 +10900,7 @@
       <c r="AH267" s="13"/>
       <c r="AI267" s="13"/>
     </row>
-    <row r="268" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
       <c r="B268" s="14"/>
       <c r="C268" s="13"/>
@@ -10905,7 +10937,7 @@
       <c r="AH268" s="13"/>
       <c r="AI268" s="13"/>
     </row>
-    <row r="269" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="14"/>
       <c r="C269" s="13"/>
@@ -10942,7 +10974,7 @@
       <c r="AH269" s="13"/>
       <c r="AI269" s="13"/>
     </row>
-    <row r="270" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="14"/>
       <c r="C270" s="13"/>
@@ -10979,7 +11011,7 @@
       <c r="AH270" s="13"/>
       <c r="AI270" s="13"/>
     </row>
-    <row r="271" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="14"/>
       <c r="C271" s="13"/>
@@ -11016,7 +11048,7 @@
       <c r="AH271" s="13"/>
       <c r="AI271" s="13"/>
     </row>
-    <row r="272" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="14"/>
       <c r="C272" s="13"/>
@@ -11053,7 +11085,7 @@
       <c r="AH272" s="13"/>
       <c r="AI272" s="13"/>
     </row>
-    <row r="273" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="14"/>
       <c r="C273" s="13"/>
@@ -11090,7 +11122,7 @@
       <c r="AH273" s="13"/>
       <c r="AI273" s="13"/>
     </row>
-    <row r="274" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="13"/>
       <c r="B274" s="14"/>
       <c r="C274" s="13"/>
@@ -11127,7 +11159,7 @@
       <c r="AH274" s="13"/>
       <c r="AI274" s="13"/>
     </row>
-    <row r="275" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="14"/>
       <c r="C275" s="13"/>
@@ -11164,7 +11196,7 @@
       <c r="AH275" s="13"/>
       <c r="AI275" s="13"/>
     </row>
-    <row r="276" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
       <c r="B276" s="14"/>
       <c r="C276" s="13"/>
@@ -11201,7 +11233,7 @@
       <c r="AH276" s="13"/>
       <c r="AI276" s="13"/>
     </row>
-    <row r="277" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="14"/>
       <c r="C277" s="13"/>
@@ -11238,7 +11270,7 @@
       <c r="AH277" s="13"/>
       <c r="AI277" s="13"/>
     </row>
-    <row r="278" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="13"/>
       <c r="B278" s="14"/>
       <c r="C278" s="13"/>
@@ -11275,7 +11307,7 @@
       <c r="AH278" s="13"/>
       <c r="AI278" s="13"/>
     </row>
-    <row r="279" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="14"/>
       <c r="C279" s="13"/>
@@ -11312,7 +11344,7 @@
       <c r="AH279" s="13"/>
       <c r="AI279" s="13"/>
     </row>
-    <row r="280" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="13"/>
       <c r="B280" s="14"/>
       <c r="C280" s="13"/>
@@ -11349,7 +11381,7 @@
       <c r="AH280" s="13"/>
       <c r="AI280" s="13"/>
     </row>
-    <row r="281" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="14"/>
       <c r="C281" s="13"/>
@@ -11386,7 +11418,7 @@
       <c r="AH281" s="13"/>
       <c r="AI281" s="13"/>
     </row>
-    <row r="282" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="14"/>
       <c r="C282" s="13"/>
@@ -11423,7 +11455,7 @@
       <c r="AH282" s="13"/>
       <c r="AI282" s="13"/>
     </row>
-    <row r="283" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
       <c r="B283" s="14"/>
       <c r="C283" s="13"/>
@@ -11460,7 +11492,7 @@
       <c r="AH283" s="13"/>
       <c r="AI283" s="13"/>
     </row>
-    <row r="284" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="13"/>
       <c r="B284" s="14"/>
       <c r="C284" s="13"/>
@@ -11497,7 +11529,7 @@
       <c r="AH284" s="13"/>
       <c r="AI284" s="13"/>
     </row>
-    <row r="285" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>
       <c r="B285" s="14"/>
       <c r="C285" s="13"/>
@@ -11534,7 +11566,7 @@
       <c r="AH285" s="13"/>
       <c r="AI285" s="13"/>
     </row>
-    <row r="286" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
       <c r="B286" s="14"/>
       <c r="C286" s="13"/>
@@ -11571,7 +11603,7 @@
       <c r="AH286" s="13"/>
       <c r="AI286" s="13"/>
     </row>
-    <row r="287" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="13"/>
       <c r="B287" s="14"/>
       <c r="C287" s="13"/>
@@ -11608,7 +11640,7 @@
       <c r="AH287" s="13"/>
       <c r="AI287" s="13"/>
     </row>
-    <row r="288" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
       <c r="B288" s="14"/>
       <c r="C288" s="13"/>
@@ -11645,7 +11677,7 @@
       <c r="AH288" s="13"/>
       <c r="AI288" s="13"/>
     </row>
-    <row r="289" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
       <c r="B289" s="14"/>
       <c r="C289" s="13"/>
@@ -11682,7 +11714,7 @@
       <c r="AH289" s="13"/>
       <c r="AI289" s="13"/>
     </row>
-    <row r="290" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="13"/>
       <c r="B290" s="14"/>
       <c r="C290" s="13"/>
@@ -11719,7 +11751,7 @@
       <c r="AH290" s="13"/>
       <c r="AI290" s="13"/>
     </row>
-    <row r="291" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="13"/>
       <c r="B291" s="14"/>
       <c r="C291" s="13"/>
@@ -11756,7 +11788,7 @@
       <c r="AH291" s="13"/>
       <c r="AI291" s="13"/>
     </row>
-    <row r="292" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="13"/>
@@ -11793,7 +11825,7 @@
       <c r="AH292" s="13"/>
       <c r="AI292" s="13"/>
     </row>
-    <row r="293" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="14"/>
       <c r="C293" s="13"/>
@@ -11830,7 +11862,7 @@
       <c r="AH293" s="13"/>
       <c r="AI293" s="13"/>
     </row>
-    <row r="294" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="14"/>
       <c r="C294" s="13"/>
@@ -11867,7 +11899,7 @@
       <c r="AH294" s="13"/>
       <c r="AI294" s="13"/>
     </row>
-    <row r="295" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="14"/>
       <c r="C295" s="13"/>
@@ -11904,7 +11936,7 @@
       <c r="AH295" s="13"/>
       <c r="AI295" s="13"/>
     </row>
-    <row r="296" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="14"/>
       <c r="C296" s="13"/>
@@ -11941,7 +11973,7 @@
       <c r="AH296" s="13"/>
       <c r="AI296" s="13"/>
     </row>
-    <row r="297" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="14"/>
       <c r="C297" s="13"/>
@@ -11978,7 +12010,7 @@
       <c r="AH297" s="13"/>
       <c r="AI297" s="13"/>
     </row>
-    <row r="298" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="14"/>
       <c r="C298" s="13"/>
@@ -12015,7 +12047,7 @@
       <c r="AH298" s="13"/>
       <c r="AI298" s="13"/>
     </row>
-    <row r="299" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="14"/>
       <c r="C299" s="13"/>
@@ -12052,7 +12084,7 @@
       <c r="AH299" s="13"/>
       <c r="AI299" s="13"/>
     </row>
-    <row r="300" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="14"/>
       <c r="C300" s="13"/>
@@ -12089,7 +12121,7 @@
       <c r="AH300" s="13"/>
       <c r="AI300" s="13"/>
     </row>
-    <row r="301" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="14"/>
       <c r="C301" s="13"/>
@@ -12126,7 +12158,7 @@
       <c r="AH301" s="13"/>
       <c r="AI301" s="13"/>
     </row>
-    <row r="302" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="14"/>
       <c r="C302" s="13"/>
@@ -12163,7 +12195,7 @@
       <c r="AH302" s="13"/>
       <c r="AI302" s="13"/>
     </row>
-    <row r="303" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="14"/>
       <c r="C303" s="13"/>
@@ -12200,7 +12232,7 @@
       <c r="AH303" s="13"/>
       <c r="AI303" s="13"/>
     </row>
-    <row r="304" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="14"/>
       <c r="C304" s="13"/>
@@ -12237,7 +12269,7 @@
       <c r="AH304" s="13"/>
       <c r="AI304" s="13"/>
     </row>
-    <row r="305" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="14"/>
       <c r="C305" s="13"/>
@@ -12274,7 +12306,7 @@
       <c r="AH305" s="13"/>
       <c r="AI305" s="13"/>
     </row>
-    <row r="306" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="14"/>
       <c r="C306" s="13"/>
@@ -12311,7 +12343,7 @@
       <c r="AH306" s="13"/>
       <c r="AI306" s="13"/>
     </row>
-    <row r="307" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="14"/>
       <c r="C307" s="13"/>
@@ -12348,7 +12380,7 @@
       <c r="AH307" s="13"/>
       <c r="AI307" s="13"/>
     </row>
-    <row r="308" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="14"/>
       <c r="C308" s="13"/>
@@ -12385,7 +12417,7 @@
       <c r="AH308" s="13"/>
       <c r="AI308" s="13"/>
     </row>
-    <row r="309" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
       <c r="C309" s="13"/>
@@ -12422,7 +12454,7 @@
       <c r="AH309" s="13"/>
       <c r="AI309" s="13"/>
     </row>
-    <row r="310" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="14"/>
       <c r="C310" s="13"/>
@@ -12459,7 +12491,7 @@
       <c r="AH310" s="13"/>
       <c r="AI310" s="13"/>
     </row>
-    <row r="311" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="14"/>
       <c r="C311" s="13"/>
@@ -12496,7 +12528,7 @@
       <c r="AH311" s="13"/>
       <c r="AI311" s="13"/>
     </row>
-    <row r="312" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="13"/>
@@ -12533,7 +12565,7 @@
       <c r="AH312" s="13"/>
       <c r="AI312" s="13"/>
     </row>
-    <row r="313" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="14"/>
       <c r="C313" s="13"/>
@@ -12570,7 +12602,7 @@
       <c r="AH313" s="13"/>
       <c r="AI313" s="13"/>
     </row>
-    <row r="314" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="14"/>
       <c r="C314" s="13"/>
@@ -12607,7 +12639,7 @@
       <c r="AH314" s="13"/>
       <c r="AI314" s="13"/>
     </row>
-    <row r="315" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="14"/>
       <c r="C315" s="13"/>
@@ -12644,7 +12676,7 @@
       <c r="AH315" s="13"/>
       <c r="AI315" s="13"/>
     </row>
-    <row r="316" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="14"/>
       <c r="C316" s="13"/>
@@ -12681,7 +12713,7 @@
       <c r="AH316" s="13"/>
       <c r="AI316" s="13"/>
     </row>
-    <row r="317" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="14"/>
       <c r="C317" s="13"/>
@@ -12718,7 +12750,7 @@
       <c r="AH317" s="13"/>
       <c r="AI317" s="13"/>
     </row>
-    <row r="318" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="14"/>
       <c r="C318" s="13"/>
@@ -12755,7 +12787,7 @@
       <c r="AH318" s="13"/>
       <c r="AI318" s="13"/>
     </row>
-    <row r="319" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="14"/>
       <c r="C319" s="13"/>
@@ -12792,7 +12824,7 @@
       <c r="AH319" s="13"/>
       <c r="AI319" s="13"/>
     </row>
-    <row r="320" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="14"/>
       <c r="C320" s="13"/>
@@ -12829,7 +12861,7 @@
       <c r="AH320" s="13"/>
       <c r="AI320" s="13"/>
     </row>
-    <row r="321" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="14"/>
       <c r="C321" s="13"/>
@@ -12866,7 +12898,7 @@
       <c r="AH321" s="13"/>
       <c r="AI321" s="13"/>
     </row>
-    <row r="322" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="14"/>
       <c r="C322" s="13"/>
@@ -12903,7 +12935,7 @@
       <c r="AH322" s="13"/>
       <c r="AI322" s="13"/>
     </row>
-    <row r="323" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="14"/>
       <c r="C323" s="13"/>
@@ -12940,7 +12972,7 @@
       <c r="AH323" s="13"/>
       <c r="AI323" s="13"/>
     </row>
-    <row r="324" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="14"/>
       <c r="C324" s="13"/>
@@ -12977,7 +13009,7 @@
       <c r="AH324" s="13"/>
       <c r="AI324" s="13"/>
     </row>
-    <row r="325" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="14"/>
       <c r="C325" s="13"/>
@@ -13014,7 +13046,7 @@
       <c r="AH325" s="13"/>
       <c r="AI325" s="13"/>
     </row>
-    <row r="326" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="13"/>
       <c r="B326" s="14"/>
       <c r="C326" s="13"/>
@@ -13051,7 +13083,7 @@
       <c r="AH326" s="13"/>
       <c r="AI326" s="13"/>
     </row>
-    <row r="327" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="14"/>
       <c r="C327" s="13"/>
@@ -13088,7 +13120,7 @@
       <c r="AH327" s="13"/>
       <c r="AI327" s="13"/>
     </row>
-    <row r="328" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="14"/>
       <c r="C328" s="13"/>
@@ -13125,7 +13157,7 @@
       <c r="AH328" s="13"/>
       <c r="AI328" s="13"/>
     </row>
-    <row r="329" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="14"/>
       <c r="C329" s="13"/>
@@ -13162,7 +13194,7 @@
       <c r="AH329" s="13"/>
       <c r="AI329" s="13"/>
     </row>
-    <row r="330" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="14"/>
       <c r="C330" s="13"/>
@@ -13199,7 +13231,7 @@
       <c r="AH330" s="13"/>
       <c r="AI330" s="13"/>
     </row>
-    <row r="331" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="14"/>
       <c r="C331" s="13"/>
@@ -13236,7 +13268,7 @@
       <c r="AH331" s="13"/>
       <c r="AI331" s="13"/>
     </row>
-    <row r="332" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="14"/>
       <c r="C332" s="13"/>
@@ -13273,7 +13305,7 @@
       <c r="AH332" s="13"/>
       <c r="AI332" s="13"/>
     </row>
-    <row r="333" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="14"/>
       <c r="C333" s="13"/>
@@ -13310,7 +13342,7 @@
       <c r="AH333" s="13"/>
       <c r="AI333" s="13"/>
     </row>
-    <row r="334" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="14"/>
       <c r="C334" s="13"/>
@@ -13347,7 +13379,7 @@
       <c r="AH334" s="13"/>
       <c r="AI334" s="13"/>
     </row>
-    <row r="335" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="14"/>
       <c r="C335" s="13"/>
@@ -13384,7 +13416,7 @@
       <c r="AH335" s="13"/>
       <c r="AI335" s="13"/>
     </row>
-    <row r="336" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="14"/>
       <c r="C336" s="13"/>
@@ -13421,7 +13453,7 @@
       <c r="AH336" s="13"/>
       <c r="AI336" s="13"/>
     </row>
-    <row r="337" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="14"/>
       <c r="C337" s="13"/>
@@ -13458,7 +13490,7 @@
       <c r="AH337" s="13"/>
       <c r="AI337" s="13"/>
     </row>
-    <row r="338" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="14"/>
       <c r="C338" s="13"/>
@@ -13495,7 +13527,7 @@
       <c r="AH338" s="13"/>
       <c r="AI338" s="13"/>
     </row>
-    <row r="339" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="14"/>
       <c r="C339" s="13"/>
@@ -13532,7 +13564,7 @@
       <c r="AH339" s="13"/>
       <c r="AI339" s="13"/>
     </row>
-    <row r="340" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="14"/>
       <c r="C340" s="13"/>
@@ -13569,7 +13601,7 @@
       <c r="AH340" s="13"/>
       <c r="AI340" s="13"/>
     </row>
-    <row r="341" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="14"/>
       <c r="C341" s="13"/>
@@ -13606,7 +13638,7 @@
       <c r="AH341" s="13"/>
       <c r="AI341" s="13"/>
     </row>
-    <row r="342" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="13"/>
       <c r="B342" s="14"/>
       <c r="C342" s="13"/>
@@ -13643,7 +13675,7 @@
       <c r="AH342" s="13"/>
       <c r="AI342" s="13"/>
     </row>
-    <row r="343" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="14"/>
       <c r="C343" s="13"/>
@@ -13680,7 +13712,7 @@
       <c r="AH343" s="13"/>
       <c r="AI343" s="13"/>
     </row>
-    <row r="344" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
       <c r="B344" s="14"/>
       <c r="C344" s="13"/>
@@ -13717,7 +13749,7 @@
       <c r="AH344" s="13"/>
       <c r="AI344" s="13"/>
     </row>
-    <row r="345" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
       <c r="B345" s="14"/>
       <c r="C345" s="13"/>
@@ -13754,7 +13786,7 @@
       <c r="AH345" s="13"/>
       <c r="AI345" s="13"/>
     </row>
-    <row r="346" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="14"/>
       <c r="C346" s="13"/>
@@ -13791,7 +13823,7 @@
       <c r="AH346" s="13"/>
       <c r="AI346" s="13"/>
     </row>
-    <row r="347" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="14"/>
       <c r="C347" s="13"/>
@@ -13828,7 +13860,7 @@
       <c r="AH347" s="13"/>
       <c r="AI347" s="13"/>
     </row>
-    <row r="348" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="13"/>
       <c r="B348" s="14"/>
       <c r="C348" s="13"/>
@@ -13865,7 +13897,7 @@
       <c r="AH348" s="13"/>
       <c r="AI348" s="13"/>
     </row>
-    <row r="349" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
       <c r="B349" s="14"/>
       <c r="C349" s="13"/>
@@ -13902,7 +13934,7 @@
       <c r="AH349" s="13"/>
       <c r="AI349" s="13"/>
     </row>
-    <row r="350" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="13"/>
       <c r="B350" s="14"/>
       <c r="C350" s="13"/>
@@ -13939,7 +13971,7 @@
       <c r="AH350" s="13"/>
       <c r="AI350" s="13"/>
     </row>
-    <row r="351" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="13"/>
       <c r="B351" s="14"/>
       <c r="C351" s="13"/>
@@ -13976,7 +14008,7 @@
       <c r="AH351" s="13"/>
       <c r="AI351" s="13"/>
     </row>
-    <row r="352" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="13"/>
       <c r="B352" s="14"/>
       <c r="C352" s="13"/>
@@ -14013,7 +14045,7 @@
       <c r="AH352" s="13"/>
       <c r="AI352" s="13"/>
     </row>
-    <row r="353" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="13"/>
       <c r="B353" s="14"/>
       <c r="C353" s="13"/>
@@ -14050,7 +14082,7 @@
       <c r="AH353" s="13"/>
       <c r="AI353" s="13"/>
     </row>
-    <row r="354" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="13"/>
       <c r="B354" s="14"/>
       <c r="C354" s="13"/>
@@ -14087,7 +14119,7 @@
       <c r="AH354" s="13"/>
       <c r="AI354" s="13"/>
     </row>
-    <row r="355" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
       <c r="B355" s="14"/>
       <c r="C355" s="13"/>
@@ -14124,7 +14156,7 @@
       <c r="AH355" s="13"/>
       <c r="AI355" s="13"/>
     </row>
-    <row r="356" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="13"/>
       <c r="B356" s="14"/>
       <c r="C356" s="13"/>
@@ -14161,7 +14193,7 @@
       <c r="AH356" s="13"/>
       <c r="AI356" s="13"/>
     </row>
-    <row r="357" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="13"/>
       <c r="B357" s="14"/>
       <c r="C357" s="13"/>
@@ -14198,7 +14230,7 @@
       <c r="AH357" s="13"/>
       <c r="AI357" s="13"/>
     </row>
-    <row r="358" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
       <c r="B358" s="14"/>
       <c r="C358" s="13"/>
@@ -14235,7 +14267,7 @@
       <c r="AH358" s="13"/>
       <c r="AI358" s="13"/>
     </row>
-    <row r="359" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="13"/>
       <c r="B359" s="14"/>
       <c r="C359" s="13"/>
@@ -14272,7 +14304,7 @@
       <c r="AH359" s="13"/>
       <c r="AI359" s="13"/>
     </row>
-    <row r="360" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
       <c r="B360" s="14"/>
       <c r="C360" s="13"/>
@@ -14309,7 +14341,7 @@
       <c r="AH360" s="13"/>
       <c r="AI360" s="13"/>
     </row>
-    <row r="361" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="13"/>
       <c r="B361" s="14"/>
       <c r="C361" s="13"/>
@@ -14346,7 +14378,7 @@
       <c r="AH361" s="13"/>
       <c r="AI361" s="13"/>
     </row>
-    <row r="362" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="13"/>
       <c r="B362" s="14"/>
       <c r="C362" s="13"/>
@@ -14383,7 +14415,7 @@
       <c r="AH362" s="13"/>
       <c r="AI362" s="13"/>
     </row>
-    <row r="363" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="13"/>
       <c r="B363" s="14"/>
       <c r="C363" s="13"/>
@@ -14420,7 +14452,7 @@
       <c r="AH363" s="13"/>
       <c r="AI363" s="13"/>
     </row>
-    <row r="364" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="13"/>
       <c r="B364" s="14"/>
       <c r="C364" s="13"/>
@@ -14457,7 +14489,7 @@
       <c r="AH364" s="13"/>
       <c r="AI364" s="13"/>
     </row>
-    <row r="365" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="13"/>
       <c r="B365" s="14"/>
       <c r="C365" s="13"/>
@@ -14494,7 +14526,7 @@
       <c r="AH365" s="13"/>
       <c r="AI365" s="13"/>
     </row>
-    <row r="366" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="13"/>
       <c r="B366" s="14"/>
       <c r="C366" s="13"/>
@@ -14531,7 +14563,7 @@
       <c r="AH366" s="13"/>
       <c r="AI366" s="13"/>
     </row>
-    <row r="367" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="13"/>
       <c r="B367" s="14"/>
       <c r="C367" s="13"/>
@@ -14568,7 +14600,7 @@
       <c r="AH367" s="13"/>
       <c r="AI367" s="13"/>
     </row>
-    <row r="368" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
       <c r="B368" s="14"/>
       <c r="C368" s="13"/>
@@ -14605,7 +14637,7 @@
       <c r="AH368" s="13"/>
       <c r="AI368" s="13"/>
     </row>
-    <row r="369" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="13"/>
       <c r="B369" s="14"/>
       <c r="C369" s="13"/>
@@ -14642,7 +14674,7 @@
       <c r="AH369" s="13"/>
       <c r="AI369" s="13"/>
     </row>
-    <row r="370" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="13"/>
       <c r="B370" s="14"/>
       <c r="C370" s="13"/>
@@ -14679,7 +14711,7 @@
       <c r="AH370" s="13"/>
       <c r="AI370" s="13"/>
     </row>
-    <row r="371" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="13"/>
       <c r="B371" s="14"/>
       <c r="C371" s="13"/>
@@ -14716,7 +14748,7 @@
       <c r="AH371" s="13"/>
       <c r="AI371" s="13"/>
     </row>
-    <row r="372" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="13"/>
       <c r="B372" s="14"/>
       <c r="C372" s="13"/>
@@ -14753,7 +14785,7 @@
       <c r="AH372" s="13"/>
       <c r="AI372" s="13"/>
     </row>
-    <row r="373" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="13"/>
       <c r="B373" s="14"/>
       <c r="C373" s="13"/>
@@ -14790,7 +14822,7 @@
       <c r="AH373" s="13"/>
       <c r="AI373" s="13"/>
     </row>
-    <row r="374" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="13"/>
       <c r="B374" s="14"/>
       <c r="C374" s="13"/>
@@ -14827,7 +14859,7 @@
       <c r="AH374" s="13"/>
       <c r="AI374" s="13"/>
     </row>
-    <row r="375" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="13"/>
       <c r="B375" s="14"/>
       <c r="C375" s="13"/>
@@ -14864,7 +14896,7 @@
       <c r="AH375" s="13"/>
       <c r="AI375" s="13"/>
     </row>
-    <row r="376" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="13"/>
       <c r="B376" s="14"/>
       <c r="C376" s="13"/>
@@ -14901,7 +14933,7 @@
       <c r="AH376" s="13"/>
       <c r="AI376" s="13"/>
     </row>
-    <row r="377" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="13"/>
       <c r="B377" s="14"/>
       <c r="C377" s="13"/>
@@ -14938,7 +14970,7 @@
       <c r="AH377" s="13"/>
       <c r="AI377" s="13"/>
     </row>
-    <row r="378" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
       <c r="B378" s="14"/>
       <c r="C378" s="13"/>
@@ -14975,7 +15007,7 @@
       <c r="AH378" s="13"/>
       <c r="AI378" s="13"/>
     </row>
-    <row r="379" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="13"/>
       <c r="B379" s="14"/>
       <c r="C379" s="13"/>
@@ -15012,7 +15044,7 @@
       <c r="AH379" s="13"/>
       <c r="AI379" s="13"/>
     </row>
-    <row r="380" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="13"/>
       <c r="B380" s="14"/>
       <c r="C380" s="13"/>
@@ -15049,7 +15081,7 @@
       <c r="AH380" s="13"/>
       <c r="AI380" s="13"/>
     </row>
-    <row r="381" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="13"/>
       <c r="B381" s="14"/>
       <c r="C381" s="13"/>
@@ -15086,7 +15118,7 @@
       <c r="AH381" s="13"/>
       <c r="AI381" s="13"/>
     </row>
-    <row r="382" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="13"/>
       <c r="B382" s="14"/>
       <c r="C382" s="13"/>
@@ -15123,7 +15155,7 @@
       <c r="AH382" s="13"/>
       <c r="AI382" s="13"/>
     </row>
-    <row r="383" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="13"/>
       <c r="B383" s="14"/>
       <c r="C383" s="13"/>
@@ -15160,7 +15192,7 @@
       <c r="AH383" s="13"/>
       <c r="AI383" s="13"/>
     </row>
-    <row r="384" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="13"/>
       <c r="B384" s="14"/>
       <c r="C384" s="13"/>
@@ -15197,7 +15229,7 @@
       <c r="AH384" s="13"/>
       <c r="AI384" s="13"/>
     </row>
-    <row r="385" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
       <c r="B385" s="14"/>
       <c r="C385" s="13"/>
@@ -15234,7 +15266,7 @@
       <c r="AH385" s="13"/>
       <c r="AI385" s="13"/>
     </row>
-    <row r="386" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="13"/>
       <c r="B386" s="14"/>
       <c r="C386" s="13"/>
@@ -15271,7 +15303,7 @@
       <c r="AH386" s="13"/>
       <c r="AI386" s="13"/>
     </row>
-    <row r="387" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="13"/>
       <c r="B387" s="14"/>
       <c r="C387" s="13"/>
@@ -15308,7 +15340,7 @@
       <c r="AH387" s="13"/>
       <c r="AI387" s="13"/>
     </row>
-    <row r="388" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="13"/>
       <c r="B388" s="14"/>
       <c r="C388" s="13"/>
@@ -15345,7 +15377,7 @@
       <c r="AH388" s="13"/>
       <c r="AI388" s="13"/>
     </row>
-    <row r="389" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="13"/>
       <c r="B389" s="14"/>
       <c r="C389" s="13"/>
@@ -15382,7 +15414,7 @@
       <c r="AH389" s="13"/>
       <c r="AI389" s="13"/>
     </row>
-    <row r="390" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="13"/>
       <c r="B390" s="14"/>
       <c r="C390" s="13"/>
@@ -15419,7 +15451,7 @@
       <c r="AH390" s="13"/>
       <c r="AI390" s="13"/>
     </row>
-    <row r="391" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="13"/>
       <c r="B391" s="14"/>
       <c r="C391" s="13"/>
@@ -15456,7 +15488,7 @@
       <c r="AH391" s="13"/>
       <c r="AI391" s="13"/>
     </row>
-    <row r="392" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="13"/>
       <c r="B392" s="14"/>
       <c r="C392" s="13"/>
@@ -15493,7 +15525,7 @@
       <c r="AH392" s="13"/>
       <c r="AI392" s="13"/>
     </row>
-    <row r="393" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
       <c r="B393" s="14"/>
       <c r="C393" s="13"/>
@@ -15530,7 +15562,7 @@
       <c r="AH393" s="13"/>
       <c r="AI393" s="13"/>
     </row>
-    <row r="394" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="13"/>
       <c r="B394" s="14"/>
       <c r="C394" s="13"/>
@@ -15567,7 +15599,7 @@
       <c r="AH394" s="13"/>
       <c r="AI394" s="13"/>
     </row>
-    <row r="395" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="13"/>
       <c r="B395" s="14"/>
       <c r="C395" s="13"/>
@@ -15604,7 +15636,7 @@
       <c r="AH395" s="13"/>
       <c r="AI395" s="13"/>
     </row>
-    <row r="396" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="13"/>
       <c r="B396" s="14"/>
       <c r="C396" s="13"/>
@@ -15641,7 +15673,7 @@
       <c r="AH396" s="13"/>
       <c r="AI396" s="13"/>
     </row>
-    <row r="397" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="13"/>
       <c r="B397" s="14"/>
       <c r="C397" s="13"/>
@@ -15678,7 +15710,7 @@
       <c r="AH397" s="13"/>
       <c r="AI397" s="13"/>
     </row>
-    <row r="398" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="13"/>
       <c r="B398" s="14"/>
       <c r="C398" s="13"/>
@@ -15715,7 +15747,7 @@
       <c r="AH398" s="13"/>
       <c r="AI398" s="13"/>
     </row>
-    <row r="399" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
       <c r="B399" s="14"/>
       <c r="C399" s="13"/>
@@ -15752,7 +15784,7 @@
       <c r="AH399" s="13"/>
       <c r="AI399" s="13"/>
     </row>
-    <row r="400" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="13"/>
       <c r="B400" s="14"/>
       <c r="C400" s="13"/>
@@ -15789,7 +15821,7 @@
       <c r="AH400" s="13"/>
       <c r="AI400" s="13"/>
     </row>
-    <row r="401" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="13"/>
       <c r="B401" s="14"/>
       <c r="C401" s="13"/>
@@ -15826,7 +15858,7 @@
       <c r="AH401" s="13"/>
       <c r="AI401" s="13"/>
     </row>
-    <row r="402" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="13"/>
       <c r="B402" s="14"/>
       <c r="C402" s="13"/>
@@ -15863,7 +15895,7 @@
       <c r="AH402" s="13"/>
       <c r="AI402" s="13"/>
     </row>
-    <row r="403" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="13"/>
       <c r="B403" s="14"/>
       <c r="C403" s="13"/>
@@ -15900,7 +15932,7 @@
       <c r="AH403" s="13"/>
       <c r="AI403" s="13"/>
     </row>
-    <row r="404" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="13"/>
       <c r="B404" s="14"/>
       <c r="C404" s="13"/>
@@ -15937,7 +15969,7 @@
       <c r="AH404" s="13"/>
       <c r="AI404" s="13"/>
     </row>
-    <row r="405" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="13"/>
       <c r="B405" s="14"/>
       <c r="C405" s="13"/>
@@ -15974,7 +16006,7 @@
       <c r="AH405" s="13"/>
       <c r="AI405" s="13"/>
     </row>
-    <row r="406" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
       <c r="B406" s="14"/>
       <c r="C406" s="13"/>
@@ -16011,7 +16043,7 @@
       <c r="AH406" s="13"/>
       <c r="AI406" s="13"/>
     </row>
-    <row r="407" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="13"/>
       <c r="B407" s="14"/>
       <c r="C407" s="13"/>
@@ -16048,7 +16080,7 @@
       <c r="AH407" s="13"/>
       <c r="AI407" s="13"/>
     </row>
-    <row r="408" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="13"/>
       <c r="B408" s="14"/>
       <c r="C408" s="13"/>
@@ -16085,7 +16117,7 @@
       <c r="AH408" s="13"/>
       <c r="AI408" s="13"/>
     </row>
-    <row r="409" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
       <c r="B409" s="14"/>
       <c r="C409" s="13"/>
@@ -16122,7 +16154,7 @@
       <c r="AH409" s="13"/>
       <c r="AI409" s="13"/>
     </row>
-    <row r="410" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="13"/>
       <c r="B410" s="14"/>
       <c r="C410" s="13"/>
@@ -16159,7 +16191,7 @@
       <c r="AH410" s="13"/>
       <c r="AI410" s="13"/>
     </row>
-    <row r="411" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="13"/>
       <c r="B411" s="14"/>
       <c r="C411" s="13"/>
@@ -16196,7 +16228,7 @@
       <c r="AH411" s="13"/>
       <c r="AI411" s="13"/>
     </row>
-    <row r="412" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="13"/>
       <c r="B412" s="14"/>
       <c r="C412" s="13"/>
@@ -16233,7 +16265,7 @@
       <c r="AH412" s="13"/>
       <c r="AI412" s="13"/>
     </row>
-    <row r="413" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="13"/>
       <c r="B413" s="14"/>
       <c r="C413" s="13"/>
@@ -16270,7 +16302,7 @@
       <c r="AH413" s="13"/>
       <c r="AI413" s="13"/>
     </row>
-    <row r="414" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="13"/>
       <c r="B414" s="14"/>
       <c r="C414" s="13"/>
@@ -16307,7 +16339,7 @@
       <c r="AH414" s="13"/>
       <c r="AI414" s="13"/>
     </row>
-    <row r="415" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
       <c r="B415" s="14"/>
       <c r="C415" s="13"/>
@@ -16344,7 +16376,7 @@
       <c r="AH415" s="13"/>
       <c r="AI415" s="13"/>
     </row>
-    <row r="416" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="13"/>
       <c r="B416" s="14"/>
       <c r="C416" s="13"/>
@@ -16381,7 +16413,7 @@
       <c r="AH416" s="13"/>
       <c r="AI416" s="13"/>
     </row>
-    <row r="417" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="13"/>
       <c r="B417" s="14"/>
       <c r="C417" s="13"/>
@@ -16418,7 +16450,7 @@
       <c r="AH417" s="13"/>
       <c r="AI417" s="13"/>
     </row>
-    <row r="418" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
       <c r="B418" s="14"/>
       <c r="C418" s="13"/>
@@ -16455,7 +16487,7 @@
       <c r="AH418" s="13"/>
       <c r="AI418" s="13"/>
     </row>
-    <row r="419" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="14"/>
       <c r="C419" s="13"/>
@@ -16492,7 +16524,7 @@
       <c r="AH419" s="13"/>
       <c r="AI419" s="13"/>
     </row>
-    <row r="420" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
       <c r="B420" s="14"/>
       <c r="C420" s="13"/>
@@ -16529,7 +16561,7 @@
       <c r="AH420" s="13"/>
       <c r="AI420" s="13"/>
     </row>
-    <row r="421" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="14"/>
       <c r="C421" s="13"/>
@@ -16566,7 +16598,7 @@
       <c r="AH421" s="13"/>
       <c r="AI421" s="13"/>
     </row>
-    <row r="422" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
       <c r="B422" s="14"/>
       <c r="C422" s="13"/>
@@ -16603,7 +16635,7 @@
       <c r="AH422" s="13"/>
       <c r="AI422" s="13"/>
     </row>
-    <row r="423" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
       <c r="B423" s="14"/>
       <c r="C423" s="13"/>
@@ -16640,7 +16672,7 @@
       <c r="AH423" s="13"/>
       <c r="AI423" s="13"/>
     </row>
-    <row r="424" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
       <c r="B424" s="14"/>
       <c r="C424" s="13"/>
@@ -16677,7 +16709,7 @@
       <c r="AH424" s="13"/>
       <c r="AI424" s="13"/>
     </row>
-    <row r="425" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="14"/>
       <c r="C425" s="13"/>
@@ -16714,7 +16746,7 @@
       <c r="AH425" s="13"/>
       <c r="AI425" s="13"/>
     </row>
-    <row r="426" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="13"/>
       <c r="B426" s="14"/>
       <c r="C426" s="13"/>
@@ -16751,7 +16783,7 @@
       <c r="AH426" s="13"/>
       <c r="AI426" s="13"/>
     </row>
-    <row r="427" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="13"/>
       <c r="B427" s="14"/>
       <c r="C427" s="13"/>
@@ -16788,7 +16820,7 @@
       <c r="AH427" s="13"/>
       <c r="AI427" s="13"/>
     </row>
-    <row r="428" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="13"/>
       <c r="B428" s="14"/>
       <c r="C428" s="13"/>
@@ -16825,7 +16857,7 @@
       <c r="AH428" s="13"/>
       <c r="AI428" s="13"/>
     </row>
-    <row r="429" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
       <c r="B429" s="14"/>
       <c r="C429" s="13"/>
@@ -16862,7 +16894,7 @@
       <c r="AH429" s="13"/>
       <c r="AI429" s="13"/>
     </row>
-    <row r="430" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
       <c r="B430" s="14"/>
       <c r="C430" s="13"/>
@@ -16899,7 +16931,7 @@
       <c r="AH430" s="13"/>
       <c r="AI430" s="13"/>
     </row>
-    <row r="431" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="14"/>
       <c r="C431" s="13"/>
@@ -16936,7 +16968,7 @@
       <c r="AH431" s="13"/>
       <c r="AI431" s="13"/>
     </row>
-    <row r="432" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="13"/>
       <c r="B432" s="14"/>
       <c r="C432" s="13"/>
@@ -16973,7 +17005,7 @@
       <c r="AH432" s="13"/>
       <c r="AI432" s="13"/>
     </row>
-    <row r="433" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="13"/>
       <c r="B433" s="14"/>
       <c r="C433" s="13"/>
@@ -17010,7 +17042,7 @@
       <c r="AH433" s="13"/>
       <c r="AI433" s="13"/>
     </row>
-    <row r="434" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="14"/>
       <c r="C434" s="13"/>
@@ -17047,7 +17079,7 @@
       <c r="AH434" s="13"/>
       <c r="AI434" s="13"/>
     </row>
-    <row r="435" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="13"/>
       <c r="B435" s="14"/>
       <c r="C435" s="13"/>
@@ -17084,7 +17116,7 @@
       <c r="AH435" s="13"/>
       <c r="AI435" s="13"/>
     </row>
-    <row r="436" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="13"/>
       <c r="B436" s="14"/>
       <c r="C436" s="13"/>
@@ -17121,7 +17153,7 @@
       <c r="AH436" s="13"/>
       <c r="AI436" s="13"/>
     </row>
-    <row r="437" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="13"/>
       <c r="B437" s="14"/>
       <c r="C437" s="13"/>
@@ -17158,7 +17190,7 @@
       <c r="AH437" s="13"/>
       <c r="AI437" s="13"/>
     </row>
-    <row r="438" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="13"/>
       <c r="B438" s="14"/>
       <c r="C438" s="13"/>
@@ -17195,7 +17227,7 @@
       <c r="AH438" s="13"/>
       <c r="AI438" s="13"/>
     </row>
-    <row r="439" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
       <c r="B439" s="14"/>
       <c r="C439" s="13"/>
@@ -17232,7 +17264,7 @@
       <c r="AH439" s="13"/>
       <c r="AI439" s="13"/>
     </row>
-    <row r="440" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
       <c r="B440" s="14"/>
       <c r="C440" s="13"/>
@@ -17269,7 +17301,7 @@
       <c r="AH440" s="13"/>
       <c r="AI440" s="13"/>
     </row>
-    <row r="441" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="13"/>
       <c r="B441" s="14"/>
       <c r="C441" s="13"/>
@@ -17306,7 +17338,7 @@
       <c r="AH441" s="13"/>
       <c r="AI441" s="13"/>
     </row>
-    <row r="442" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="13"/>
       <c r="B442" s="14"/>
       <c r="C442" s="13"/>
@@ -17343,7 +17375,7 @@
       <c r="AH442" s="13"/>
       <c r="AI442" s="13"/>
     </row>
-    <row r="443" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="13"/>
       <c r="B443" s="14"/>
       <c r="C443" s="13"/>
@@ -17380,7 +17412,7 @@
       <c r="AH443" s="13"/>
       <c r="AI443" s="13"/>
     </row>
-    <row r="444" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="13"/>
       <c r="B444" s="14"/>
       <c r="C444" s="13"/>
@@ -17417,7 +17449,7 @@
       <c r="AH444" s="13"/>
       <c r="AI444" s="13"/>
     </row>
-    <row r="445" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="13"/>
       <c r="B445" s="14"/>
       <c r="C445" s="13"/>
@@ -17454,7 +17486,7 @@
       <c r="AH445" s="13"/>
       <c r="AI445" s="13"/>
     </row>
-    <row r="446" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="13"/>
       <c r="B446" s="14"/>
       <c r="C446" s="13"/>
@@ -17491,7 +17523,7 @@
       <c r="AH446" s="13"/>
       <c r="AI446" s="13"/>
     </row>
-    <row r="447" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
       <c r="B447" s="14"/>
       <c r="C447" s="13"/>
@@ -17528,7 +17560,7 @@
       <c r="AH447" s="13"/>
       <c r="AI447" s="13"/>
     </row>
-    <row r="448" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="13"/>
       <c r="B448" s="14"/>
       <c r="C448" s="13"/>
@@ -17565,7 +17597,7 @@
       <c r="AH448" s="13"/>
       <c r="AI448" s="13"/>
     </row>
-    <row r="449" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="13"/>
       <c r="B449" s="14"/>
       <c r="C449" s="13"/>
@@ -17602,7 +17634,7 @@
       <c r="AH449" s="13"/>
       <c r="AI449" s="13"/>
     </row>
-    <row r="450" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="13"/>
       <c r="B450" s="14"/>
       <c r="C450" s="13"/>
@@ -17639,7 +17671,7 @@
       <c r="AH450" s="13"/>
       <c r="AI450" s="13"/>
     </row>
-    <row r="451" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="13"/>
       <c r="B451" s="14"/>
       <c r="C451" s="13"/>
@@ -17676,7 +17708,7 @@
       <c r="AH451" s="13"/>
       <c r="AI451" s="13"/>
     </row>
-    <row r="452" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="13"/>
       <c r="B452" s="14"/>
       <c r="C452" s="13"/>
@@ -17713,7 +17745,7 @@
       <c r="AH452" s="13"/>
       <c r="AI452" s="13"/>
     </row>
-    <row r="453" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="13"/>
       <c r="B453" s="14"/>
       <c r="C453" s="13"/>
@@ -17750,7 +17782,7 @@
       <c r="AH453" s="13"/>
       <c r="AI453" s="13"/>
     </row>
-    <row r="454" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="13"/>
       <c r="B454" s="14"/>
       <c r="C454" s="13"/>
@@ -17787,7 +17819,7 @@
       <c r="AH454" s="13"/>
       <c r="AI454" s="13"/>
     </row>
-    <row r="455" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
       <c r="B455" s="14"/>
       <c r="C455" s="13"/>
@@ -17824,7 +17856,7 @@
       <c r="AH455" s="13"/>
       <c r="AI455" s="13"/>
     </row>
-    <row r="456" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="13"/>
       <c r="B456" s="14"/>
       <c r="C456" s="13"/>
@@ -17861,7 +17893,7 @@
       <c r="AH456" s="13"/>
       <c r="AI456" s="13"/>
     </row>
-    <row r="457" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="13"/>
       <c r="B457" s="14"/>
       <c r="C457" s="13"/>
@@ -17898,7 +17930,7 @@
       <c r="AH457" s="13"/>
       <c r="AI457" s="13"/>
     </row>
-    <row r="458" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="13"/>
       <c r="B458" s="14"/>
       <c r="C458" s="13"/>
@@ -17935,7 +17967,7 @@
       <c r="AH458" s="13"/>
       <c r="AI458" s="13"/>
     </row>
-    <row r="459" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="13"/>
       <c r="B459" s="14"/>
       <c r="C459" s="13"/>
@@ -17972,7 +18004,7 @@
       <c r="AH459" s="13"/>
       <c r="AI459" s="13"/>
     </row>
-    <row r="460" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="13"/>
       <c r="B460" s="14"/>
       <c r="C460" s="13"/>
@@ -18009,7 +18041,7 @@
       <c r="AH460" s="13"/>
       <c r="AI460" s="13"/>
     </row>
-    <row r="461" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
       <c r="B461" s="14"/>
       <c r="C461" s="13"/>
@@ -18046,7 +18078,7 @@
       <c r="AH461" s="13"/>
       <c r="AI461" s="13"/>
     </row>
-    <row r="462" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="13"/>
       <c r="B462" s="14"/>
       <c r="C462" s="13"/>
@@ -18083,7 +18115,7 @@
       <c r="AH462" s="13"/>
       <c r="AI462" s="13"/>
     </row>
-    <row r="463" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="13"/>
       <c r="B463" s="14"/>
       <c r="C463" s="13"/>
@@ -18120,7 +18152,7 @@
       <c r="AH463" s="13"/>
       <c r="AI463" s="13"/>
     </row>
-    <row r="464" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="13"/>
       <c r="B464" s="14"/>
       <c r="C464" s="13"/>
@@ -18157,7 +18189,7 @@
       <c r="AH464" s="13"/>
       <c r="AI464" s="13"/>
     </row>
-    <row r="465" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="13"/>
       <c r="B465" s="14"/>
       <c r="C465" s="13"/>
@@ -18194,7 +18226,7 @@
       <c r="AH465" s="13"/>
       <c r="AI465" s="13"/>
     </row>
-    <row r="466" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="13"/>
       <c r="B466" s="14"/>
       <c r="C466" s="13"/>
@@ -18231,7 +18263,7 @@
       <c r="AH466" s="13"/>
       <c r="AI466" s="13"/>
     </row>
-    <row r="467" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="13"/>
       <c r="B467" s="14"/>
       <c r="C467" s="13"/>
@@ -18268,7 +18300,7 @@
       <c r="AH467" s="13"/>
       <c r="AI467" s="13"/>
     </row>
-    <row r="468" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
       <c r="B468" s="14"/>
       <c r="C468" s="13"/>
@@ -18305,7 +18337,7 @@
       <c r="AH468" s="13"/>
       <c r="AI468" s="13"/>
     </row>
-    <row r="469" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="13"/>
       <c r="B469" s="14"/>
       <c r="C469" s="13"/>
@@ -18342,7 +18374,7 @@
       <c r="AH469" s="13"/>
       <c r="AI469" s="13"/>
     </row>
-    <row r="470" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="13"/>
       <c r="B470" s="14"/>
       <c r="C470" s="13"/>
@@ -18379,7 +18411,7 @@
       <c r="AH470" s="13"/>
       <c r="AI470" s="13"/>
     </row>
-    <row r="471" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
       <c r="B471" s="14"/>
       <c r="C471" s="13"/>
@@ -18416,7 +18448,7 @@
       <c r="AH471" s="13"/>
       <c r="AI471" s="13"/>
     </row>
-    <row r="472" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="13"/>
       <c r="B472" s="14"/>
       <c r="C472" s="13"/>
@@ -18453,7 +18485,7 @@
       <c r="AH472" s="13"/>
       <c r="AI472" s="13"/>
     </row>
-    <row r="473" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="13"/>
       <c r="B473" s="14"/>
       <c r="C473" s="13"/>
@@ -18490,7 +18522,7 @@
       <c r="AH473" s="13"/>
       <c r="AI473" s="13"/>
     </row>
-    <row r="474" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="13"/>
       <c r="B474" s="14"/>
       <c r="C474" s="13"/>
@@ -18527,7 +18559,7 @@
       <c r="AH474" s="13"/>
       <c r="AI474" s="13"/>
     </row>
-    <row r="475" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="13"/>
       <c r="B475" s="14"/>
       <c r="C475" s="13"/>
@@ -18564,7 +18596,7 @@
       <c r="AH475" s="13"/>
       <c r="AI475" s="13"/>
     </row>
-    <row r="476" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="13"/>
       <c r="B476" s="14"/>
       <c r="C476" s="13"/>
@@ -18601,7 +18633,7 @@
       <c r="AH476" s="13"/>
       <c r="AI476" s="13"/>
     </row>
-    <row r="477" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
       <c r="B477" s="14"/>
       <c r="C477" s="13"/>
@@ -18638,7 +18670,7 @@
       <c r="AH477" s="13"/>
       <c r="AI477" s="13"/>
     </row>
-    <row r="478" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="13"/>
       <c r="B478" s="14"/>
       <c r="C478" s="13"/>
@@ -18675,7 +18707,7 @@
       <c r="AH478" s="13"/>
       <c r="AI478" s="13"/>
     </row>
-    <row r="479" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="13"/>
       <c r="B479" s="14"/>
       <c r="C479" s="13"/>
@@ -18712,7 +18744,7 @@
       <c r="AH479" s="13"/>
       <c r="AI479" s="13"/>
     </row>
-    <row r="480" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
       <c r="B480" s="14"/>
       <c r="C480" s="13"/>
@@ -18749,7 +18781,7 @@
       <c r="AH480" s="13"/>
       <c r="AI480" s="13"/>
     </row>
-    <row r="481" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="13"/>
       <c r="B481" s="14"/>
       <c r="C481" s="13"/>
@@ -18786,7 +18818,7 @@
       <c r="AH481" s="13"/>
       <c r="AI481" s="13"/>
     </row>
-    <row r="482" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
       <c r="B482" s="14"/>
       <c r="C482" s="13"/>
@@ -18823,7 +18855,7 @@
       <c r="AH482" s="13"/>
       <c r="AI482" s="13"/>
     </row>
-    <row r="483" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="13"/>
       <c r="B483" s="14"/>
       <c r="C483" s="13"/>
@@ -18860,7 +18892,7 @@
       <c r="AH483" s="13"/>
       <c r="AI483" s="13"/>
     </row>
-    <row r="484" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="13"/>
       <c r="B484" s="14"/>
       <c r="C484" s="13"/>
@@ -18897,7 +18929,7 @@
       <c r="AH484" s="13"/>
       <c r="AI484" s="13"/>
     </row>
-    <row r="485" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="13"/>
       <c r="B485" s="14"/>
       <c r="C485" s="13"/>
@@ -18934,7 +18966,7 @@
       <c r="AH485" s="13"/>
       <c r="AI485" s="13"/>
     </row>
-    <row r="486" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="13"/>
       <c r="B486" s="14"/>
       <c r="C486" s="13"/>
@@ -18971,7 +19003,7 @@
       <c r="AH486" s="13"/>
       <c r="AI486" s="13"/>
     </row>
-    <row r="487" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="13"/>
       <c r="B487" s="14"/>
       <c r="C487" s="13"/>
@@ -19008,7 +19040,7 @@
       <c r="AH487" s="13"/>
       <c r="AI487" s="13"/>
     </row>
-    <row r="488" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="13"/>
       <c r="B488" s="14"/>
       <c r="C488" s="13"/>
@@ -19045,7 +19077,7 @@
       <c r="AH488" s="13"/>
       <c r="AI488" s="13"/>
     </row>
-    <row r="489" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="13"/>
       <c r="B489" s="14"/>
       <c r="C489" s="13"/>
@@ -19082,7 +19114,7 @@
       <c r="AH489" s="13"/>
       <c r="AI489" s="13"/>
     </row>
-    <row r="490" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="13"/>
       <c r="B490" s="14"/>
       <c r="C490" s="13"/>
@@ -19119,7 +19151,7 @@
       <c r="AH490" s="13"/>
       <c r="AI490" s="13"/>
     </row>
-    <row r="491" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="13"/>
       <c r="B491" s="14"/>
       <c r="C491" s="13"/>
@@ -19156,7 +19188,7 @@
       <c r="AH491" s="13"/>
       <c r="AI491" s="13"/>
     </row>
-    <row r="492" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
       <c r="B492" s="14"/>
       <c r="C492" s="13"/>
@@ -19193,7 +19225,7 @@
       <c r="AH492" s="13"/>
       <c r="AI492" s="13"/>
     </row>
-    <row r="493" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="13"/>
       <c r="B493" s="14"/>
       <c r="C493" s="13"/>
@@ -19230,7 +19262,7 @@
       <c r="AH493" s="13"/>
       <c r="AI493" s="13"/>
     </row>
-    <row r="494" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="13"/>
       <c r="B494" s="14"/>
       <c r="C494" s="13"/>
@@ -19267,7 +19299,7 @@
       <c r="AH494" s="13"/>
       <c r="AI494" s="13"/>
     </row>
-    <row r="495" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="13"/>
       <c r="B495" s="14"/>
       <c r="C495" s="13"/>
@@ -19304,7 +19336,7 @@
       <c r="AH495" s="13"/>
       <c r="AI495" s="13"/>
     </row>
-    <row r="496" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="13"/>
       <c r="B496" s="14"/>
       <c r="C496" s="13"/>
@@ -19341,7 +19373,7 @@
       <c r="AH496" s="13"/>
       <c r="AI496" s="13"/>
     </row>
-    <row r="497" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="13"/>
       <c r="B497" s="14"/>
       <c r="C497" s="13"/>
@@ -19378,7 +19410,7 @@
       <c r="AH497" s="13"/>
       <c r="AI497" s="13"/>
     </row>
-    <row r="498" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="13"/>
       <c r="B498" s="14"/>
       <c r="C498" s="13"/>
@@ -19415,7 +19447,7 @@
       <c r="AH498" s="13"/>
       <c r="AI498" s="13"/>
     </row>
-    <row r="499" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="13"/>
       <c r="B499" s="14"/>
       <c r="C499" s="13"/>
@@ -19452,7 +19484,7 @@
       <c r="AH499" s="13"/>
       <c r="AI499" s="13"/>
     </row>
-    <row r="500" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="13"/>
       <c r="B500" s="14"/>
       <c r="C500" s="13"/>
@@ -19489,7 +19521,7 @@
       <c r="AH500" s="13"/>
       <c r="AI500" s="13"/>
     </row>
-    <row r="501" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="13"/>
       <c r="B501" s="14"/>
       <c r="C501" s="13"/>
@@ -19526,7 +19558,7 @@
       <c r="AH501" s="13"/>
       <c r="AI501" s="13"/>
     </row>
-    <row r="502" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
       <c r="B502" s="14"/>
       <c r="C502" s="13"/>
@@ -19563,7 +19595,7 @@
       <c r="AH502" s="13"/>
       <c r="AI502" s="13"/>
     </row>
-    <row r="503" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="13"/>
       <c r="B503" s="14"/>
       <c r="C503" s="13"/>
@@ -19600,7 +19632,7 @@
       <c r="AH503" s="13"/>
       <c r="AI503" s="13"/>
     </row>
-    <row r="504" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="13"/>
       <c r="B504" s="14"/>
       <c r="C504" s="13"/>
@@ -19637,7 +19669,7 @@
       <c r="AH504" s="13"/>
       <c r="AI504" s="13"/>
     </row>
-    <row r="505" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="13"/>
       <c r="B505" s="14"/>
       <c r="C505" s="13"/>
@@ -19674,7 +19706,7 @@
       <c r="AH505" s="13"/>
       <c r="AI505" s="13"/>
     </row>
-    <row r="506" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="13"/>
       <c r="B506" s="14"/>
       <c r="C506" s="13"/>
@@ -19711,7 +19743,7 @@
       <c r="AH506" s="13"/>
       <c r="AI506" s="13"/>
     </row>
-    <row r="507" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="13"/>
       <c r="B507" s="14"/>
       <c r="C507" s="13"/>
@@ -19748,7 +19780,7 @@
       <c r="AH507" s="13"/>
       <c r="AI507" s="13"/>
     </row>
-    <row r="508" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="13"/>
       <c r="B508" s="14"/>
       <c r="C508" s="13"/>
@@ -19785,7 +19817,7 @@
       <c r="AH508" s="13"/>
       <c r="AI508" s="13"/>
     </row>
-    <row r="509" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="13"/>
       <c r="B509" s="14"/>
       <c r="C509" s="13"/>
@@ -19822,7 +19854,7 @@
       <c r="AH509" s="13"/>
       <c r="AI509" s="13"/>
     </row>
-    <row r="510" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="13"/>
       <c r="B510" s="14"/>
       <c r="C510" s="13"/>
@@ -19859,7 +19891,7 @@
       <c r="AH510" s="13"/>
       <c r="AI510" s="13"/>
     </row>
-    <row r="511" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
       <c r="B511" s="14"/>
       <c r="C511" s="13"/>
@@ -19896,7 +19928,7 @@
       <c r="AH511" s="13"/>
       <c r="AI511" s="13"/>
     </row>
-    <row r="512" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="13"/>
       <c r="B512" s="14"/>
       <c r="C512" s="13"/>
@@ -19933,7 +19965,7 @@
       <c r="AH512" s="13"/>
       <c r="AI512" s="13"/>
     </row>
-    <row r="513" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="13"/>
       <c r="B513" s="14"/>
       <c r="C513" s="13"/>
@@ -19970,7 +20002,7 @@
       <c r="AH513" s="13"/>
       <c r="AI513" s="13"/>
     </row>
-    <row r="514" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="13"/>
       <c r="B514" s="14"/>
       <c r="C514" s="13"/>
@@ -20007,7 +20039,7 @@
       <c r="AH514" s="13"/>
       <c r="AI514" s="13"/>
     </row>
-    <row r="515" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="13"/>
       <c r="B515" s="14"/>
       <c r="C515" s="13"/>
@@ -20044,7 +20076,7 @@
       <c r="AH515" s="13"/>
       <c r="AI515" s="13"/>
     </row>
-    <row r="516" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="13"/>
       <c r="B516" s="14"/>
       <c r="C516" s="13"/>
@@ -20081,7 +20113,7 @@
       <c r="AH516" s="13"/>
       <c r="AI516" s="13"/>
     </row>
-    <row r="517" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="13"/>
       <c r="B517" s="14"/>
       <c r="C517" s="13"/>
@@ -20118,7 +20150,7 @@
       <c r="AH517" s="13"/>
       <c r="AI517" s="13"/>
     </row>
-    <row r="518" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="13"/>
       <c r="B518" s="14"/>
       <c r="C518" s="13"/>
@@ -20155,7 +20187,7 @@
       <c r="AH518" s="13"/>
       <c r="AI518" s="13"/>
     </row>
-    <row r="519" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
       <c r="B519" s="14"/>
       <c r="C519" s="13"/>
@@ -20192,7 +20224,7 @@
       <c r="AH519" s="13"/>
       <c r="AI519" s="13"/>
     </row>
-    <row r="520" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="13"/>
       <c r="B520" s="14"/>
       <c r="C520" s="13"/>
@@ -20229,7 +20261,7 @@
       <c r="AH520" s="13"/>
       <c r="AI520" s="13"/>
     </row>
-    <row r="521" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="13"/>
       <c r="B521" s="14"/>
       <c r="C521" s="13"/>
@@ -20266,7 +20298,7 @@
       <c r="AH521" s="13"/>
       <c r="AI521" s="13"/>
     </row>
-    <row r="522" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="13"/>
       <c r="B522" s="14"/>
       <c r="C522" s="13"/>
@@ -20303,7 +20335,7 @@
       <c r="AH522" s="13"/>
       <c r="AI522" s="13"/>
     </row>
-    <row r="523" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="13"/>
       <c r="B523" s="14"/>
       <c r="C523" s="13"/>
@@ -20340,7 +20372,7 @@
       <c r="AH523" s="13"/>
       <c r="AI523" s="13"/>
     </row>
-    <row r="524" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="13"/>
       <c r="B524" s="14"/>
       <c r="C524" s="13"/>
@@ -20377,7 +20409,7 @@
       <c r="AH524" s="13"/>
       <c r="AI524" s="13"/>
     </row>
-    <row r="525" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="13"/>
       <c r="B525" s="14"/>
       <c r="C525" s="13"/>
@@ -20414,7 +20446,7 @@
       <c r="AH525" s="13"/>
       <c r="AI525" s="13"/>
     </row>
-    <row r="526" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="13"/>
       <c r="B526" s="14"/>
       <c r="C526" s="13"/>
@@ -20451,7 +20483,7 @@
       <c r="AH526" s="13"/>
       <c r="AI526" s="13"/>
     </row>
-    <row r="527" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="13"/>
       <c r="B527" s="14"/>
       <c r="C527" s="13"/>
@@ -20488,7 +20520,7 @@
       <c r="AH527" s="13"/>
       <c r="AI527" s="13"/>
     </row>
-    <row r="528" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="13"/>
       <c r="B528" s="14"/>
       <c r="C528" s="13"/>
@@ -20525,7 +20557,7 @@
       <c r="AH528" s="13"/>
       <c r="AI528" s="13"/>
     </row>
-    <row r="529" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="13"/>
       <c r="B529" s="14"/>
       <c r="C529" s="13"/>
@@ -20562,7 +20594,7 @@
       <c r="AH529" s="13"/>
       <c r="AI529" s="13"/>
     </row>
-    <row r="530" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="13"/>
       <c r="B530" s="14"/>
       <c r="C530" s="13"/>
@@ -20599,7 +20631,7 @@
       <c r="AH530" s="13"/>
       <c r="AI530" s="13"/>
     </row>
-    <row r="531" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="13"/>
       <c r="B531" s="14"/>
       <c r="C531" s="13"/>
@@ -20636,7 +20668,7 @@
       <c r="AH531" s="13"/>
       <c r="AI531" s="13"/>
     </row>
-    <row r="532" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="13"/>
       <c r="B532" s="14"/>
       <c r="C532" s="13"/>
@@ -20673,7 +20705,7 @@
       <c r="AH532" s="13"/>
       <c r="AI532" s="13"/>
     </row>
-    <row r="533" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="13"/>
       <c r="B533" s="14"/>
       <c r="C533" s="13"/>
@@ -20710,7 +20742,7 @@
       <c r="AH533" s="13"/>
       <c r="AI533" s="13"/>
     </row>
-    <row r="534" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="13"/>
       <c r="B534" s="14"/>
       <c r="C534" s="13"/>
@@ -20747,7 +20779,7 @@
       <c r="AH534" s="13"/>
       <c r="AI534" s="13"/>
     </row>
-    <row r="535" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="13"/>
       <c r="B535" s="14"/>
       <c r="C535" s="13"/>
@@ -20784,7 +20816,7 @@
       <c r="AH535" s="13"/>
       <c r="AI535" s="13"/>
     </row>
-    <row r="536" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="13"/>
       <c r="B536" s="14"/>
       <c r="C536" s="13"/>
@@ -20821,7 +20853,7 @@
       <c r="AH536" s="13"/>
       <c r="AI536" s="13"/>
     </row>
-    <row r="537" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="13"/>
       <c r="B537" s="14"/>
       <c r="C537" s="13"/>
@@ -20858,7 +20890,7 @@
       <c r="AH537" s="13"/>
       <c r="AI537" s="13"/>
     </row>
-    <row r="538" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="13"/>
       <c r="B538" s="14"/>
       <c r="C538" s="13"/>
@@ -20895,7 +20927,7 @@
       <c r="AH538" s="13"/>
       <c r="AI538" s="13"/>
     </row>
-    <row r="539" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="13"/>
       <c r="B539" s="14"/>
       <c r="C539" s="13"/>
@@ -20932,7 +20964,7 @@
       <c r="AH539" s="13"/>
       <c r="AI539" s="13"/>
     </row>
-    <row r="540" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="13"/>
       <c r="B540" s="14"/>
       <c r="C540" s="13"/>
@@ -20969,7 +21001,7 @@
       <c r="AH540" s="13"/>
       <c r="AI540" s="13"/>
     </row>
-    <row r="541" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="13"/>
       <c r="B541" s="14"/>
       <c r="C541" s="13"/>
@@ -21006,7 +21038,7 @@
       <c r="AH541" s="13"/>
       <c r="AI541" s="13"/>
     </row>
-    <row r="542" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="13"/>
       <c r="B542" s="14"/>
       <c r="C542" s="13"/>
@@ -21043,7 +21075,7 @@
       <c r="AH542" s="13"/>
       <c r="AI542" s="13"/>
     </row>
-    <row r="543" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="13"/>
       <c r="B543" s="14"/>
       <c r="C543" s="13"/>
@@ -21080,7 +21112,7 @@
       <c r="AH543" s="13"/>
       <c r="AI543" s="13"/>
     </row>
-    <row r="544" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="13"/>
       <c r="B544" s="14"/>
       <c r="C544" s="13"/>
@@ -21117,7 +21149,7 @@
       <c r="AH544" s="13"/>
       <c r="AI544" s="13"/>
     </row>
-    <row r="545" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="13"/>
       <c r="B545" s="14"/>
       <c r="C545" s="13"/>
@@ -21154,7 +21186,7 @@
       <c r="AH545" s="13"/>
       <c r="AI545" s="13"/>
     </row>
-    <row r="546" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="13"/>
       <c r="B546" s="14"/>
       <c r="C546" s="13"/>
@@ -21191,7 +21223,7 @@
       <c r="AH546" s="13"/>
       <c r="AI546" s="13"/>
     </row>
-    <row r="547" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="13"/>
       <c r="B547" s="14"/>
       <c r="C547" s="13"/>
@@ -21228,7 +21260,7 @@
       <c r="AH547" s="13"/>
       <c r="AI547" s="13"/>
     </row>
-    <row r="548" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="13"/>
       <c r="B548" s="14"/>
       <c r="C548" s="13"/>
@@ -21265,7 +21297,7 @@
       <c r="AH548" s="13"/>
       <c r="AI548" s="13"/>
     </row>
-    <row r="549" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="13"/>
       <c r="B549" s="14"/>
       <c r="C549" s="13"/>
@@ -21302,7 +21334,7 @@
       <c r="AH549" s="13"/>
       <c r="AI549" s="13"/>
     </row>
-    <row r="550" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="13"/>
       <c r="B550" s="14"/>
       <c r="C550" s="13"/>
@@ -21339,7 +21371,7 @@
       <c r="AH550" s="13"/>
       <c r="AI550" s="13"/>
     </row>
-    <row r="551" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="13"/>
       <c r="B551" s="14"/>
       <c r="C551" s="13"/>
@@ -21376,7 +21408,7 @@
       <c r="AH551" s="13"/>
       <c r="AI551" s="13"/>
     </row>
-    <row r="552" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="13"/>
       <c r="B552" s="14"/>
       <c r="C552" s="13"/>
@@ -21413,7 +21445,7 @@
       <c r="AH552" s="13"/>
       <c r="AI552" s="13"/>
     </row>
-    <row r="553" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="13"/>
       <c r="B553" s="14"/>
       <c r="C553" s="13"/>
@@ -21450,7 +21482,7 @@
       <c r="AH553" s="13"/>
       <c r="AI553" s="13"/>
     </row>
-    <row r="554" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="13"/>
       <c r="B554" s="14"/>
       <c r="C554" s="13"/>
@@ -21487,7 +21519,7 @@
       <c r="AH554" s="13"/>
       <c r="AI554" s="13"/>
     </row>
-    <row r="555" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="13"/>
       <c r="B555" s="14"/>
       <c r="C555" s="13"/>
@@ -21524,7 +21556,7 @@
       <c r="AH555" s="13"/>
       <c r="AI555" s="13"/>
     </row>
-    <row r="556" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="13"/>
       <c r="B556" s="14"/>
       <c r="C556" s="13"/>
@@ -21561,7 +21593,7 @@
       <c r="AH556" s="13"/>
       <c r="AI556" s="13"/>
     </row>
-    <row r="557" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="13"/>
       <c r="B557" s="14"/>
       <c r="C557" s="13"/>
@@ -21598,7 +21630,7 @@
       <c r="AH557" s="13"/>
       <c r="AI557" s="13"/>
     </row>
-    <row r="558" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="13"/>
       <c r="B558" s="14"/>
       <c r="C558" s="13"/>
@@ -21635,7 +21667,7 @@
       <c r="AH558" s="13"/>
       <c r="AI558" s="13"/>
     </row>
-    <row r="559" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="13"/>
       <c r="B559" s="14"/>
       <c r="C559" s="13"/>
@@ -21672,7 +21704,7 @@
       <c r="AH559" s="13"/>
       <c r="AI559" s="13"/>
     </row>
-    <row r="560" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="13"/>
       <c r="B560" s="14"/>
       <c r="C560" s="13"/>
@@ -21709,7 +21741,7 @@
       <c r="AH560" s="13"/>
       <c r="AI560" s="13"/>
     </row>
-    <row r="561" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="13"/>
       <c r="B561" s="14"/>
       <c r="C561" s="13"/>
@@ -21746,7 +21778,7 @@
       <c r="AH561" s="13"/>
       <c r="AI561" s="13"/>
     </row>
-    <row r="562" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="13"/>
       <c r="B562" s="14"/>
       <c r="C562" s="13"/>
@@ -21783,7 +21815,7 @@
       <c r="AH562" s="13"/>
       <c r="AI562" s="13"/>
     </row>
-    <row r="563" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="13"/>
       <c r="B563" s="14"/>
       <c r="C563" s="13"/>
@@ -21820,7 +21852,7 @@
       <c r="AH563" s="13"/>
       <c r="AI563" s="13"/>
     </row>
-    <row r="564" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="13"/>
       <c r="B564" s="14"/>
       <c r="C564" s="13"/>
@@ -21857,7 +21889,7 @@
       <c r="AH564" s="13"/>
       <c r="AI564" s="13"/>
     </row>
-    <row r="565" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="13"/>
       <c r="B565" s="14"/>
       <c r="C565" s="13"/>
@@ -21894,7 +21926,7 @@
       <c r="AH565" s="13"/>
       <c r="AI565" s="13"/>
     </row>
-    <row r="566" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="13"/>
       <c r="B566" s="14"/>
       <c r="C566" s="13"/>
@@ -21931,7 +21963,7 @@
       <c r="AH566" s="13"/>
       <c r="AI566" s="13"/>
     </row>
-    <row r="567" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="13"/>
       <c r="B567" s="14"/>
       <c r="C567" s="13"/>
@@ -21968,7 +22000,7 @@
       <c r="AH567" s="13"/>
       <c r="AI567" s="13"/>
     </row>
-    <row r="568" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="13"/>
       <c r="B568" s="14"/>
       <c r="C568" s="13"/>
@@ -22005,7 +22037,7 @@
       <c r="AH568" s="13"/>
       <c r="AI568" s="13"/>
     </row>
-    <row r="569" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="13"/>
       <c r="B569" s="14"/>
       <c r="C569" s="13"/>
@@ -22042,7 +22074,7 @@
       <c r="AH569" s="13"/>
       <c r="AI569" s="13"/>
     </row>
-    <row r="570" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="13"/>
       <c r="B570" s="14"/>
       <c r="C570" s="13"/>
@@ -22079,7 +22111,7 @@
       <c r="AH570" s="13"/>
       <c r="AI570" s="13"/>
     </row>
-    <row r="571" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="13"/>
       <c r="B571" s="14"/>
       <c r="C571" s="13"/>
@@ -22116,7 +22148,7 @@
       <c r="AH571" s="13"/>
       <c r="AI571" s="13"/>
     </row>
-    <row r="572" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="13"/>
       <c r="B572" s="14"/>
       <c r="C572" s="13"/>
@@ -22153,7 +22185,7 @@
       <c r="AH572" s="13"/>
       <c r="AI572" s="13"/>
     </row>
-    <row r="573" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="13"/>
       <c r="B573" s="14"/>
       <c r="C573" s="13"/>
@@ -22190,7 +22222,7 @@
       <c r="AH573" s="13"/>
       <c r="AI573" s="13"/>
     </row>
-    <row r="574" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="13"/>
       <c r="B574" s="14"/>
       <c r="C574" s="13"/>
@@ -22227,7 +22259,7 @@
       <c r="AH574" s="13"/>
       <c r="AI574" s="13"/>
     </row>
-    <row r="575" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="13"/>
       <c r="B575" s="14"/>
       <c r="C575" s="13"/>
@@ -22264,7 +22296,7 @@
       <c r="AH575" s="13"/>
       <c r="AI575" s="13"/>
     </row>
-    <row r="576" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="13"/>
       <c r="B576" s="14"/>
       <c r="C576" s="13"/>
@@ -22301,7 +22333,7 @@
       <c r="AH576" s="13"/>
       <c r="AI576" s="13"/>
     </row>
-    <row r="577" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="13"/>
       <c r="B577" s="14"/>
       <c r="C577" s="13"/>
@@ -22338,7 +22370,7 @@
       <c r="AH577" s="13"/>
       <c r="AI577" s="13"/>
     </row>
-    <row r="578" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="13"/>
       <c r="B578" s="14"/>
       <c r="C578" s="13"/>
@@ -22375,7 +22407,7 @@
       <c r="AH578" s="13"/>
       <c r="AI578" s="13"/>
     </row>
-    <row r="579" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="13"/>
       <c r="B579" s="14"/>
       <c r="C579" s="13"/>
@@ -22412,7 +22444,7 @@
       <c r="AH579" s="13"/>
       <c r="AI579" s="13"/>
     </row>
-    <row r="580" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="13"/>
       <c r="B580" s="14"/>
       <c r="C580" s="13"/>
@@ -22449,7 +22481,7 @@
       <c r="AH580" s="13"/>
       <c r="AI580" s="13"/>
     </row>
-    <row r="581" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="13"/>
       <c r="B581" s="14"/>
       <c r="C581" s="13"/>
@@ -22486,7 +22518,7 @@
       <c r="AH581" s="13"/>
       <c r="AI581" s="13"/>
     </row>
-    <row r="582" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="13"/>
       <c r="B582" s="14"/>
       <c r="C582" s="13"/>
@@ -22523,7 +22555,7 @@
       <c r="AH582" s="13"/>
       <c r="AI582" s="13"/>
     </row>
-    <row r="583" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="13"/>
       <c r="B583" s="14"/>
       <c r="C583" s="13"/>
@@ -22560,7 +22592,7 @@
       <c r="AH583" s="13"/>
       <c r="AI583" s="13"/>
     </row>
-    <row r="584" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="13"/>
       <c r="B584" s="14"/>
       <c r="C584" s="13"/>
@@ -22597,7 +22629,7 @@
       <c r="AH584" s="13"/>
       <c r="AI584" s="13"/>
     </row>
-    <row r="585" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="13"/>
       <c r="B585" s="14"/>
       <c r="C585" s="13"/>
@@ -22634,7 +22666,7 @@
       <c r="AH585" s="13"/>
       <c r="AI585" s="13"/>
     </row>
-    <row r="586" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="13"/>
       <c r="B586" s="14"/>
       <c r="C586" s="13"/>
@@ -22671,7 +22703,7 @@
       <c r="AH586" s="13"/>
       <c r="AI586" s="13"/>
     </row>
-    <row r="587" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="13"/>
       <c r="B587" s="14"/>
       <c r="C587" s="13"/>
@@ -22708,7 +22740,7 @@
       <c r="AH587" s="13"/>
       <c r="AI587" s="13"/>
     </row>
-    <row r="588" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="13"/>
       <c r="B588" s="14"/>
       <c r="C588" s="13"/>
@@ -22745,7 +22777,7 @@
       <c r="AH588" s="13"/>
       <c r="AI588" s="13"/>
     </row>
-    <row r="589" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="13"/>
       <c r="B589" s="14"/>
       <c r="C589" s="13"/>
@@ -22782,7 +22814,7 @@
       <c r="AH589" s="13"/>
       <c r="AI589" s="13"/>
     </row>
-    <row r="590" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="13"/>
       <c r="B590" s="14"/>
       <c r="C590" s="13"/>
@@ -22819,7 +22851,7 @@
       <c r="AH590" s="13"/>
       <c r="AI590" s="13"/>
     </row>
-    <row r="591" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="13"/>
       <c r="B591" s="14"/>
       <c r="C591" s="13"/>
@@ -22856,7 +22888,7 @@
       <c r="AH591" s="13"/>
       <c r="AI591" s="13"/>
     </row>
-    <row r="592" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="13"/>
       <c r="B592" s="14"/>
       <c r="C592" s="13"/>
@@ -22893,7 +22925,7 @@
       <c r="AH592" s="13"/>
       <c r="AI592" s="13"/>
     </row>
-    <row r="593" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="13"/>
       <c r="B593" s="14"/>
       <c r="C593" s="13"/>
@@ -22930,7 +22962,7 @@
       <c r="AH593" s="13"/>
       <c r="AI593" s="13"/>
     </row>
-    <row r="594" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="13"/>
       <c r="B594" s="14"/>
       <c r="C594" s="13"/>
@@ -22967,7 +22999,7 @@
       <c r="AH594" s="13"/>
       <c r="AI594" s="13"/>
     </row>
-    <row r="595" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="13"/>
       <c r="B595" s="14"/>
       <c r="C595" s="13"/>
@@ -23004,7 +23036,7 @@
       <c r="AH595" s="13"/>
       <c r="AI595" s="13"/>
     </row>
-    <row r="596" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="13"/>
       <c r="B596" s="14"/>
       <c r="C596" s="13"/>
@@ -23041,7 +23073,7 @@
       <c r="AH596" s="13"/>
       <c r="AI596" s="13"/>
     </row>
-    <row r="597" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="13"/>
       <c r="B597" s="14"/>
       <c r="C597" s="13"/>
@@ -23078,7 +23110,7 @@
       <c r="AH597" s="13"/>
       <c r="AI597" s="13"/>
     </row>
-    <row r="598" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="13"/>
       <c r="B598" s="14"/>
       <c r="C598" s="13"/>
@@ -23115,7 +23147,7 @@
       <c r="AH598" s="13"/>
       <c r="AI598" s="13"/>
     </row>
-    <row r="599" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="13"/>
       <c r="B599" s="14"/>
       <c r="C599" s="13"/>
@@ -23152,7 +23184,7 @@
       <c r="AH599" s="13"/>
       <c r="AI599" s="13"/>
     </row>
-    <row r="600" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="13"/>
       <c r="B600" s="14"/>
       <c r="C600" s="13"/>
@@ -23189,7 +23221,7 @@
       <c r="AH600" s="13"/>
       <c r="AI600" s="13"/>
     </row>
-    <row r="601" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="13"/>
       <c r="B601" s="14"/>
       <c r="C601" s="13"/>
@@ -23226,7 +23258,7 @@
       <c r="AH601" s="13"/>
       <c r="AI601" s="13"/>
     </row>
-    <row r="602" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="13"/>
       <c r="B602" s="14"/>
       <c r="C602" s="13"/>
@@ -23263,7 +23295,7 @@
       <c r="AH602" s="13"/>
       <c r="AI602" s="13"/>
     </row>
-    <row r="603" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="13"/>
       <c r="B603" s="14"/>
       <c r="C603" s="13"/>
@@ -23300,7 +23332,7 @@
       <c r="AH603" s="13"/>
       <c r="AI603" s="13"/>
     </row>
-    <row r="604" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="13"/>
       <c r="B604" s="14"/>
       <c r="C604" s="13"/>
@@ -23337,7 +23369,7 @@
       <c r="AH604" s="13"/>
       <c r="AI604" s="13"/>
     </row>
-    <row r="605" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="13"/>
       <c r="B605" s="14"/>
       <c r="C605" s="13"/>
@@ -23374,7 +23406,7 @@
       <c r="AH605" s="13"/>
       <c r="AI605" s="13"/>
     </row>
-    <row r="606" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="13"/>
       <c r="B606" s="14"/>
       <c r="C606" s="13"/>
@@ -23411,7 +23443,7 @@
       <c r="AH606" s="13"/>
       <c r="AI606" s="13"/>
     </row>
-    <row r="607" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="13"/>
       <c r="B607" s="14"/>
       <c r="C607" s="13"/>
@@ -23448,7 +23480,7 @@
       <c r="AH607" s="13"/>
       <c r="AI607" s="13"/>
     </row>
-    <row r="608" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="13"/>
       <c r="B608" s="14"/>
       <c r="C608" s="13"/>
@@ -23485,7 +23517,7 @@
       <c r="AH608" s="13"/>
       <c r="AI608" s="13"/>
     </row>
-    <row r="609" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="13"/>
       <c r="B609" s="14"/>
       <c r="C609" s="13"/>
@@ -23522,7 +23554,7 @@
       <c r="AH609" s="13"/>
       <c r="AI609" s="13"/>
     </row>
-    <row r="610" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="13"/>
       <c r="B610" s="14"/>
       <c r="C610" s="13"/>
@@ -23559,7 +23591,7 @@
       <c r="AH610" s="13"/>
       <c r="AI610" s="13"/>
     </row>
-    <row r="611" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="13"/>
       <c r="B611" s="14"/>
       <c r="C611" s="13"/>
@@ -23596,7 +23628,7 @@
       <c r="AH611" s="13"/>
       <c r="AI611" s="13"/>
     </row>
-    <row r="612" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="13"/>
       <c r="B612" s="14"/>
       <c r="C612" s="13"/>
@@ -23633,7 +23665,7 @@
       <c r="AH612" s="13"/>
       <c r="AI612" s="13"/>
     </row>
-    <row r="613" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="13"/>
       <c r="B613" s="14"/>
       <c r="C613" s="13"/>
@@ -23670,7 +23702,7 @@
       <c r="AH613" s="13"/>
       <c r="AI613" s="13"/>
     </row>
-    <row r="614" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="13"/>
       <c r="B614" s="14"/>
       <c r="C614" s="13"/>
@@ -23707,7 +23739,7 @@
       <c r="AH614" s="13"/>
       <c r="AI614" s="13"/>
     </row>
-    <row r="615" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="13"/>
       <c r="B615" s="14"/>
       <c r="C615" s="13"/>
@@ -23744,7 +23776,7 @@
       <c r="AH615" s="13"/>
       <c r="AI615" s="13"/>
     </row>
-    <row r="616" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="13"/>
       <c r="B616" s="14"/>
       <c r="C616" s="13"/>
@@ -23781,7 +23813,7 @@
       <c r="AH616" s="13"/>
       <c r="AI616" s="13"/>
     </row>
-    <row r="617" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="13"/>
       <c r="B617" s="14"/>
       <c r="C617" s="13"/>
@@ -23818,7 +23850,7 @@
       <c r="AH617" s="13"/>
       <c r="AI617" s="13"/>
     </row>
-    <row r="618" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="13"/>
       <c r="B618" s="14"/>
       <c r="C618" s="13"/>
@@ -23855,7 +23887,7 @@
       <c r="AH618" s="13"/>
       <c r="AI618" s="13"/>
     </row>
-    <row r="619" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="13"/>
       <c r="B619" s="14"/>
       <c r="C619" s="13"/>
@@ -23892,7 +23924,7 @@
       <c r="AH619" s="13"/>
       <c r="AI619" s="13"/>
     </row>
-    <row r="620" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="13"/>
       <c r="B620" s="14"/>
       <c r="C620" s="13"/>
@@ -23929,7 +23961,7 @@
       <c r="AH620" s="13"/>
       <c r="AI620" s="13"/>
     </row>
-    <row r="621" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="13"/>
       <c r="B621" s="14"/>
       <c r="C621" s="13"/>
@@ -23966,7 +23998,7 @@
       <c r="AH621" s="13"/>
       <c r="AI621" s="13"/>
     </row>
-    <row r="622" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="13"/>
       <c r="B622" s="14"/>
       <c r="C622" s="13"/>
@@ -24003,7 +24035,7 @@
       <c r="AH622" s="13"/>
       <c r="AI622" s="13"/>
     </row>
-    <row r="623" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="13"/>
       <c r="B623" s="14"/>
       <c r="C623" s="13"/>
@@ -24040,7 +24072,7 @@
       <c r="AH623" s="13"/>
       <c r="AI623" s="13"/>
     </row>
-    <row r="624" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="13"/>
       <c r="B624" s="14"/>
       <c r="C624" s="13"/>
@@ -24077,7 +24109,7 @@
       <c r="AH624" s="13"/>
       <c r="AI624" s="13"/>
     </row>
-    <row r="625" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="13"/>
       <c r="B625" s="14"/>
       <c r="C625" s="13"/>
@@ -24114,7 +24146,7 @@
       <c r="AH625" s="13"/>
       <c r="AI625" s="13"/>
     </row>
-    <row r="626" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="13"/>
       <c r="B626" s="14"/>
       <c r="C626" s="13"/>
@@ -24151,7 +24183,7 @@
       <c r="AH626" s="13"/>
       <c r="AI626" s="13"/>
     </row>
-    <row r="627" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="13"/>
       <c r="B627" s="14"/>
       <c r="C627" s="13"/>
@@ -24188,7 +24220,7 @@
       <c r="AH627" s="13"/>
       <c r="AI627" s="13"/>
     </row>
-    <row r="628" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="13"/>
       <c r="B628" s="14"/>
       <c r="C628" s="13"/>
@@ -24225,7 +24257,7 @@
       <c r="AH628" s="13"/>
       <c r="AI628" s="13"/>
     </row>
-    <row r="629" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="13"/>
       <c r="B629" s="14"/>
       <c r="C629" s="13"/>
@@ -24262,7 +24294,7 @@
       <c r="AH629" s="13"/>
       <c r="AI629" s="13"/>
     </row>
-    <row r="630" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="13"/>
       <c r="B630" s="14"/>
       <c r="C630" s="13"/>
@@ -24299,7 +24331,7 @@
       <c r="AH630" s="13"/>
       <c r="AI630" s="13"/>
     </row>
-    <row r="631" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="13"/>
       <c r="B631" s="14"/>
       <c r="C631" s="13"/>
@@ -24336,7 +24368,7 @@
       <c r="AH631" s="13"/>
       <c r="AI631" s="13"/>
     </row>
-    <row r="632" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="13"/>
       <c r="B632" s="14"/>
       <c r="C632" s="13"/>
@@ -24373,7 +24405,7 @@
       <c r="AH632" s="13"/>
       <c r="AI632" s="13"/>
     </row>
-    <row r="633" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="13"/>
       <c r="B633" s="14"/>
       <c r="C633" s="13"/>
@@ -24410,7 +24442,7 @@
       <c r="AH633" s="13"/>
       <c r="AI633" s="13"/>
     </row>
-    <row r="634" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="13"/>
       <c r="B634" s="14"/>
       <c r="C634" s="13"/>
@@ -24447,7 +24479,7 @@
       <c r="AH634" s="13"/>
       <c r="AI634" s="13"/>
     </row>
-    <row r="635" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="13"/>
       <c r="B635" s="14"/>
       <c r="C635" s="13"/>
@@ -24484,7 +24516,7 @@
       <c r="AH635" s="13"/>
       <c r="AI635" s="13"/>
     </row>
-    <row r="636" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="13"/>
       <c r="B636" s="14"/>
       <c r="C636" s="13"/>
@@ -24521,7 +24553,7 @@
       <c r="AH636" s="13"/>
       <c r="AI636" s="13"/>
     </row>
-    <row r="637" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="13"/>
       <c r="B637" s="14"/>
       <c r="C637" s="13"/>
@@ -24558,7 +24590,7 @@
       <c r="AH637" s="13"/>
       <c r="AI637" s="13"/>
     </row>
-    <row r="638" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="13"/>
       <c r="B638" s="14"/>
       <c r="C638" s="13"/>
@@ -24595,7 +24627,7 @@
       <c r="AH638" s="13"/>
       <c r="AI638" s="13"/>
     </row>
-    <row r="639" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="13"/>
       <c r="B639" s="14"/>
       <c r="C639" s="13"/>
@@ -24632,7 +24664,7 @@
       <c r="AH639" s="13"/>
       <c r="AI639" s="13"/>
     </row>
-    <row r="640" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="13"/>
       <c r="B640" s="14"/>
       <c r="C640" s="13"/>
@@ -24669,7 +24701,7 @@
       <c r="AH640" s="13"/>
       <c r="AI640" s="13"/>
     </row>
-    <row r="641" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="13"/>
       <c r="B641" s="14"/>
       <c r="C641" s="13"/>
@@ -24706,7 +24738,7 @@
       <c r="AH641" s="13"/>
       <c r="AI641" s="13"/>
     </row>
-    <row r="642" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="13"/>
       <c r="B642" s="14"/>
       <c r="C642" s="13"/>
@@ -24743,7 +24775,7 @@
       <c r="AH642" s="13"/>
       <c r="AI642" s="13"/>
     </row>
-    <row r="643" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="13"/>
       <c r="B643" s="14"/>
       <c r="C643" s="13"/>
@@ -24780,7 +24812,7 @@
       <c r="AH643" s="13"/>
       <c r="AI643" s="13"/>
     </row>
-    <row r="644" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="13"/>
       <c r="B644" s="14"/>
       <c r="C644" s="13"/>
@@ -24817,7 +24849,7 @@
       <c r="AH644" s="13"/>
       <c r="AI644" s="13"/>
     </row>
-    <row r="645" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="13"/>
       <c r="B645" s="14"/>
       <c r="C645" s="13"/>
@@ -24854,7 +24886,7 @@
       <c r="AH645" s="13"/>
       <c r="AI645" s="13"/>
     </row>
-    <row r="646" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="13"/>
       <c r="B646" s="14"/>
       <c r="C646" s="13"/>
@@ -24891,7 +24923,7 @@
       <c r="AH646" s="13"/>
       <c r="AI646" s="13"/>
     </row>
-    <row r="647" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="13"/>
       <c r="B647" s="14"/>
       <c r="C647" s="13"/>
@@ -24928,7 +24960,7 @@
       <c r="AH647" s="13"/>
       <c r="AI647" s="13"/>
     </row>
-    <row r="648" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="13"/>
       <c r="B648" s="14"/>
       <c r="C648" s="13"/>
@@ -24965,7 +24997,7 @@
       <c r="AH648" s="13"/>
       <c r="AI648" s="13"/>
     </row>
-    <row r="649" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="13"/>
       <c r="B649" s="14"/>
       <c r="C649" s="13"/>
@@ -25002,7 +25034,7 @@
       <c r="AH649" s="13"/>
       <c r="AI649" s="13"/>
     </row>
-    <row r="650" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="13"/>
       <c r="B650" s="14"/>
       <c r="C650" s="13"/>
@@ -25039,7 +25071,7 @@
       <c r="AH650" s="13"/>
       <c r="AI650" s="13"/>
     </row>
-    <row r="651" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="13"/>
       <c r="B651" s="14"/>
       <c r="C651" s="13"/>
@@ -25076,7 +25108,7 @@
       <c r="AH651" s="13"/>
       <c r="AI651" s="13"/>
     </row>
-    <row r="652" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="13"/>
       <c r="B652" s="14"/>
       <c r="C652" s="13"/>
@@ -25113,7 +25145,7 @@
       <c r="AH652" s="13"/>
       <c r="AI652" s="13"/>
     </row>
-    <row r="653" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="13"/>
       <c r="B653" s="14"/>
       <c r="C653" s="13"/>
@@ -25150,7 +25182,7 @@
       <c r="AH653" s="13"/>
       <c r="AI653" s="13"/>
     </row>
-    <row r="654" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="13"/>
       <c r="B654" s="14"/>
       <c r="C654" s="13"/>
@@ -25187,7 +25219,7 @@
       <c r="AH654" s="13"/>
       <c r="AI654" s="13"/>
     </row>
-    <row r="655" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="13"/>
       <c r="B655" s="14"/>
       <c r="C655" s="13"/>
@@ -25224,7 +25256,7 @@
       <c r="AH655" s="13"/>
       <c r="AI655" s="13"/>
     </row>
-    <row r="656" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="13"/>
       <c r="B656" s="14"/>
       <c r="C656" s="13"/>
@@ -25261,7 +25293,7 @@
       <c r="AH656" s="13"/>
       <c r="AI656" s="13"/>
     </row>
-    <row r="657" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="13"/>
       <c r="B657" s="14"/>
       <c r="C657" s="13"/>
@@ -25298,7 +25330,7 @@
       <c r="AH657" s="13"/>
       <c r="AI657" s="13"/>
     </row>
-    <row r="658" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="13"/>
       <c r="B658" s="14"/>
       <c r="C658" s="13"/>
@@ -25335,7 +25367,7 @@
       <c r="AH658" s="13"/>
       <c r="AI658" s="13"/>
     </row>
-    <row r="659" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="13"/>
       <c r="B659" s="14"/>
       <c r="C659" s="13"/>
@@ -25372,7 +25404,7 @@
       <c r="AH659" s="13"/>
       <c r="AI659" s="13"/>
     </row>
-    <row r="660" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="13"/>
       <c r="B660" s="14"/>
       <c r="C660" s="13"/>
@@ -25409,7 +25441,7 @@
       <c r="AH660" s="13"/>
       <c r="AI660" s="13"/>
     </row>
-    <row r="661" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="13"/>
       <c r="B661" s="14"/>
       <c r="C661" s="13"/>
@@ -25446,7 +25478,7 @@
       <c r="AH661" s="13"/>
       <c r="AI661" s="13"/>
     </row>
-    <row r="662" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="13"/>
       <c r="B662" s="14"/>
       <c r="C662" s="13"/>
@@ -25483,7 +25515,7 @@
       <c r="AH662" s="13"/>
       <c r="AI662" s="13"/>
     </row>
-    <row r="663" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="13"/>
       <c r="B663" s="14"/>
       <c r="C663" s="13"/>
@@ -25520,7 +25552,7 @@
       <c r="AH663" s="13"/>
       <c r="AI663" s="13"/>
     </row>
-    <row r="664" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="13"/>
       <c r="B664" s="14"/>
       <c r="C664" s="13"/>
@@ -25557,7 +25589,7 @@
       <c r="AH664" s="13"/>
       <c r="AI664" s="13"/>
     </row>
-    <row r="665" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="13"/>
       <c r="B665" s="14"/>
       <c r="C665" s="13"/>
@@ -25594,7 +25626,7 @@
       <c r="AH665" s="13"/>
       <c r="AI665" s="13"/>
     </row>
-    <row r="666" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="13"/>
       <c r="B666" s="14"/>
       <c r="C666" s="13"/>
@@ -25631,7 +25663,7 @@
       <c r="AH666" s="13"/>
       <c r="AI666" s="13"/>
     </row>
-    <row r="667" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="13"/>
       <c r="B667" s="14"/>
       <c r="C667" s="13"/>
@@ -25668,7 +25700,7 @@
       <c r="AH667" s="13"/>
       <c r="AI667" s="13"/>
     </row>
-    <row r="668" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="13"/>
       <c r="B668" s="14"/>
       <c r="C668" s="13"/>
@@ -25705,7 +25737,7 @@
       <c r="AH668" s="13"/>
       <c r="AI668" s="13"/>
     </row>
-    <row r="669" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="13"/>
       <c r="B669" s="14"/>
       <c r="C669" s="13"/>
@@ -25742,7 +25774,7 @@
       <c r="AH669" s="13"/>
       <c r="AI669" s="13"/>
     </row>
-    <row r="670" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="13"/>
       <c r="B670" s="14"/>
       <c r="C670" s="13"/>
@@ -25779,7 +25811,7 @@
       <c r="AH670" s="13"/>
       <c r="AI670" s="13"/>
     </row>
-    <row r="671" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="13"/>
       <c r="B671" s="14"/>
       <c r="C671" s="13"/>
@@ -25816,7 +25848,7 @@
       <c r="AH671" s="13"/>
       <c r="AI671" s="13"/>
     </row>
-    <row r="672" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="13"/>
       <c r="B672" s="14"/>
       <c r="C672" s="13"/>
@@ -25853,7 +25885,7 @@
       <c r="AH672" s="13"/>
       <c r="AI672" s="13"/>
     </row>
-    <row r="673" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="13"/>
       <c r="B673" s="14"/>
       <c r="C673" s="13"/>
@@ -25890,7 +25922,7 @@
       <c r="AH673" s="13"/>
       <c r="AI673" s="13"/>
     </row>
-    <row r="674" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="13"/>
       <c r="B674" s="14"/>
       <c r="C674" s="13"/>
@@ -25927,7 +25959,7 @@
       <c r="AH674" s="13"/>
       <c r="AI674" s="13"/>
     </row>
-    <row r="675" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="13"/>
       <c r="B675" s="14"/>
       <c r="C675" s="13"/>
@@ -25964,7 +25996,7 @@
       <c r="AH675" s="13"/>
       <c r="AI675" s="13"/>
     </row>
-    <row r="676" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="13"/>
       <c r="B676" s="14"/>
       <c r="C676" s="13"/>
@@ -26001,7 +26033,7 @@
       <c r="AH676" s="13"/>
       <c r="AI676" s="13"/>
     </row>
-    <row r="677" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="13"/>
       <c r="B677" s="14"/>
       <c r="C677" s="13"/>
@@ -26038,7 +26070,7 @@
       <c r="AH677" s="13"/>
       <c r="AI677" s="13"/>
     </row>
-    <row r="678" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="13"/>
       <c r="B678" s="14"/>
       <c r="C678" s="13"/>
@@ -26075,7 +26107,7 @@
       <c r="AH678" s="13"/>
       <c r="AI678" s="13"/>
     </row>
-    <row r="679" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="13"/>
       <c r="B679" s="14"/>
       <c r="C679" s="13"/>
@@ -26112,7 +26144,7 @@
       <c r="AH679" s="13"/>
       <c r="AI679" s="13"/>
     </row>
-    <row r="680" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="13"/>
       <c r="B680" s="14"/>
       <c r="C680" s="13"/>
@@ -26149,7 +26181,7 @@
       <c r="AH680" s="13"/>
       <c r="AI680" s="13"/>
     </row>
-    <row r="681" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="13"/>
       <c r="B681" s="14"/>
       <c r="C681" s="13"/>
@@ -26186,7 +26218,7 @@
       <c r="AH681" s="13"/>
       <c r="AI681" s="13"/>
     </row>
-    <row r="682" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="13"/>
       <c r="B682" s="14"/>
       <c r="C682" s="13"/>
@@ -26223,7 +26255,7 @@
       <c r="AH682" s="13"/>
       <c r="AI682" s="13"/>
     </row>
-    <row r="683" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="13"/>
       <c r="B683" s="14"/>
       <c r="C683" s="13"/>
@@ -26260,7 +26292,7 @@
       <c r="AH683" s="13"/>
       <c r="AI683" s="13"/>
     </row>
-    <row r="684" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="13"/>
       <c r="B684" s="14"/>
       <c r="C684" s="13"/>
@@ -26297,7 +26329,7 @@
       <c r="AH684" s="13"/>
       <c r="AI684" s="13"/>
     </row>
-    <row r="685" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="13"/>
       <c r="B685" s="14"/>
       <c r="C685" s="13"/>
@@ -26334,7 +26366,7 @@
       <c r="AH685" s="13"/>
       <c r="AI685" s="13"/>
     </row>
-    <row r="686" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="13"/>
       <c r="B686" s="14"/>
       <c r="C686" s="13"/>
@@ -26371,7 +26403,7 @@
       <c r="AH686" s="13"/>
       <c r="AI686" s="13"/>
     </row>
-    <row r="687" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="13"/>
       <c r="B687" s="14"/>
       <c r="C687" s="13"/>
@@ -26408,7 +26440,7 @@
       <c r="AH687" s="13"/>
       <c r="AI687" s="13"/>
     </row>
-    <row r="688" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="13"/>
       <c r="B688" s="14"/>
       <c r="C688" s="13"/>
@@ -26445,7 +26477,7 @@
       <c r="AH688" s="13"/>
       <c r="AI688" s="13"/>
     </row>
-    <row r="689" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="13"/>
       <c r="B689" s="14"/>
       <c r="C689" s="13"/>
@@ -26482,7 +26514,7 @@
       <c r="AH689" s="13"/>
       <c r="AI689" s="13"/>
     </row>
-    <row r="690" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="13"/>
       <c r="B690" s="14"/>
       <c r="C690" s="13"/>
@@ -26519,7 +26551,7 @@
       <c r="AH690" s="13"/>
       <c r="AI690" s="13"/>
     </row>
-    <row r="691" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="13"/>
       <c r="B691" s="14"/>
       <c r="C691" s="13"/>
@@ -26556,7 +26588,7 @@
       <c r="AH691" s="13"/>
       <c r="AI691" s="13"/>
     </row>
-    <row r="692" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="13"/>
       <c r="B692" s="14"/>
       <c r="C692" s="13"/>
@@ -26593,7 +26625,7 @@
       <c r="AH692" s="13"/>
       <c r="AI692" s="13"/>
     </row>
-    <row r="693" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="13"/>
       <c r="B693" s="14"/>
       <c r="C693" s="13"/>
@@ -26630,7 +26662,7 @@
       <c r="AH693" s="13"/>
       <c r="AI693" s="13"/>
     </row>
-    <row r="694" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="13"/>
       <c r="B694" s="14"/>
       <c r="C694" s="13"/>
@@ -26667,7 +26699,7 @@
       <c r="AH694" s="13"/>
       <c r="AI694" s="13"/>
     </row>
-    <row r="695" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="13"/>
       <c r="B695" s="14"/>
       <c r="C695" s="13"/>
@@ -26704,7 +26736,7 @@
       <c r="AH695" s="13"/>
       <c r="AI695" s="13"/>
     </row>
-    <row r="696" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="13"/>
       <c r="B696" s="14"/>
       <c r="C696" s="13"/>
@@ -26741,7 +26773,7 @@
       <c r="AH696" s="13"/>
       <c r="AI696" s="13"/>
     </row>
-    <row r="697" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="13"/>
       <c r="B697" s="14"/>
       <c r="C697" s="13"/>
@@ -26778,7 +26810,7 @@
       <c r="AH697" s="13"/>
       <c r="AI697" s="13"/>
     </row>
-    <row r="698" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="13"/>
       <c r="B698" s="14"/>
       <c r="C698" s="13"/>
@@ -26815,7 +26847,7 @@
       <c r="AH698" s="13"/>
       <c r="AI698" s="13"/>
     </row>
-    <row r="699" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="13"/>
       <c r="B699" s="14"/>
       <c r="C699" s="13"/>
@@ -26852,7 +26884,7 @@
       <c r="AH699" s="13"/>
       <c r="AI699" s="13"/>
     </row>
-    <row r="700" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="13"/>
       <c r="B700" s="14"/>
       <c r="C700" s="13"/>
@@ -26889,7 +26921,7 @@
       <c r="AH700" s="13"/>
       <c r="AI700" s="13"/>
     </row>
-    <row r="701" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="13"/>
       <c r="B701" s="14"/>
       <c r="C701" s="13"/>
@@ -26926,7 +26958,7 @@
       <c r="AH701" s="13"/>
       <c r="AI701" s="13"/>
     </row>
-    <row r="702" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="13"/>
       <c r="B702" s="14"/>
       <c r="C702" s="13"/>
@@ -26963,7 +26995,7 @@
       <c r="AH702" s="13"/>
       <c r="AI702" s="13"/>
     </row>
-    <row r="703" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="13"/>
       <c r="B703" s="14"/>
       <c r="C703" s="13"/>
@@ -27000,7 +27032,7 @@
       <c r="AH703" s="13"/>
       <c r="AI703" s="13"/>
     </row>
-    <row r="704" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="13"/>
       <c r="B704" s="14"/>
       <c r="C704" s="13"/>
@@ -27037,7 +27069,7 @@
       <c r="AH704" s="13"/>
       <c r="AI704" s="13"/>
     </row>
-    <row r="705" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="13"/>
       <c r="B705" s="14"/>
       <c r="C705" s="13"/>
@@ -27074,7 +27106,7 @@
       <c r="AH705" s="13"/>
       <c r="AI705" s="13"/>
     </row>
-    <row r="706" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="13"/>
       <c r="B706" s="14"/>
       <c r="C706" s="13"/>
@@ -27111,7 +27143,7 @@
       <c r="AH706" s="13"/>
       <c r="AI706" s="13"/>
     </row>
-    <row r="707" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="13"/>
       <c r="B707" s="14"/>
       <c r="C707" s="13"/>
@@ -27148,7 +27180,7 @@
       <c r="AH707" s="13"/>
       <c r="AI707" s="13"/>
     </row>
-    <row r="708" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="13"/>
       <c r="B708" s="14"/>
       <c r="C708" s="13"/>
@@ -27185,7 +27217,7 @@
       <c r="AH708" s="13"/>
       <c r="AI708" s="13"/>
     </row>
-    <row r="709" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="13"/>
       <c r="B709" s="14"/>
       <c r="C709" s="13"/>
@@ -27222,7 +27254,7 @@
       <c r="AH709" s="13"/>
       <c r="AI709" s="13"/>
     </row>
-    <row r="710" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="13"/>
       <c r="B710" s="14"/>
       <c r="C710" s="13"/>
@@ -27259,7 +27291,7 @@
       <c r="AH710" s="13"/>
       <c r="AI710" s="13"/>
     </row>
-    <row r="711" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="13"/>
       <c r="B711" s="14"/>
       <c r="C711" s="13"/>
@@ -27296,7 +27328,7 @@
       <c r="AH711" s="13"/>
       <c r="AI711" s="13"/>
     </row>
-    <row r="712" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="13"/>
       <c r="B712" s="14"/>
       <c r="C712" s="13"/>
@@ -27333,7 +27365,7 @@
       <c r="AH712" s="13"/>
       <c r="AI712" s="13"/>
     </row>
-    <row r="713" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="13"/>
       <c r="B713" s="14"/>
       <c r="C713" s="13"/>
@@ -27370,7 +27402,7 @@
       <c r="AH713" s="13"/>
       <c r="AI713" s="13"/>
     </row>
-    <row r="714" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="13"/>
       <c r="B714" s="14"/>
       <c r="C714" s="13"/>
@@ -27407,7 +27439,7 @@
       <c r="AH714" s="13"/>
       <c r="AI714" s="13"/>
     </row>
-    <row r="715" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="13"/>
       <c r="B715" s="14"/>
       <c r="C715" s="13"/>
@@ -27444,7 +27476,7 @@
       <c r="AH715" s="13"/>
       <c r="AI715" s="13"/>
     </row>
-    <row r="716" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="13"/>
       <c r="B716" s="14"/>
       <c r="C716" s="13"/>
@@ -27481,7 +27513,7 @@
       <c r="AH716" s="13"/>
       <c r="AI716" s="13"/>
     </row>
-    <row r="717" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="13"/>
       <c r="B717" s="14"/>
       <c r="C717" s="13"/>
@@ -27518,7 +27550,7 @@
       <c r="AH717" s="13"/>
       <c r="AI717" s="13"/>
     </row>
-    <row r="718" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="13"/>
       <c r="B718" s="14"/>
       <c r="C718" s="13"/>
@@ -27555,7 +27587,7 @@
       <c r="AH718" s="13"/>
       <c r="AI718" s="13"/>
     </row>
-    <row r="719" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="13"/>
       <c r="B719" s="14"/>
       <c r="C719" s="13"/>
@@ -27592,7 +27624,7 @@
       <c r="AH719" s="13"/>
       <c r="AI719" s="13"/>
     </row>
-    <row r="720" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="13"/>
       <c r="B720" s="14"/>
       <c r="C720" s="13"/>
@@ -27629,7 +27661,7 @@
       <c r="AH720" s="13"/>
       <c r="AI720" s="13"/>
     </row>
-    <row r="721" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="13"/>
       <c r="B721" s="14"/>
       <c r="C721" s="13"/>
@@ -27666,7 +27698,7 @@
       <c r="AH721" s="13"/>
       <c r="AI721" s="13"/>
     </row>
-    <row r="722" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="13"/>
       <c r="B722" s="14"/>
       <c r="C722" s="13"/>
@@ -27703,7 +27735,7 @@
       <c r="AH722" s="13"/>
       <c r="AI722" s="13"/>
     </row>
-    <row r="723" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="13"/>
       <c r="B723" s="14"/>
       <c r="C723" s="13"/>
@@ -27740,7 +27772,7 @@
       <c r="AH723" s="13"/>
       <c r="AI723" s="13"/>
     </row>
-    <row r="724" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="13"/>
       <c r="B724" s="14"/>
       <c r="C724" s="13"/>
@@ -27777,7 +27809,7 @@
       <c r="AH724" s="13"/>
       <c r="AI724" s="13"/>
     </row>
-    <row r="725" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="13"/>
       <c r="B725" s="14"/>
       <c r="C725" s="13"/>
@@ -27814,7 +27846,7 @@
       <c r="AH725" s="13"/>
       <c r="AI725" s="13"/>
     </row>
-    <row r="726" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="13"/>
       <c r="B726" s="14"/>
       <c r="C726" s="13"/>
@@ -27851,7 +27883,7 @@
       <c r="AH726" s="13"/>
       <c r="AI726" s="13"/>
     </row>
-    <row r="727" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="13"/>
       <c r="B727" s="14"/>
       <c r="C727" s="13"/>
@@ -27888,7 +27920,7 @@
       <c r="AH727" s="13"/>
       <c r="AI727" s="13"/>
     </row>
-    <row r="728" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="13"/>
       <c r="B728" s="14"/>
       <c r="C728" s="13"/>
@@ -27925,7 +27957,7 @@
       <c r="AH728" s="13"/>
       <c r="AI728" s="13"/>
     </row>
-    <row r="729" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="13"/>
       <c r="B729" s="14"/>
       <c r="C729" s="13"/>
@@ -27962,7 +27994,7 @@
       <c r="AH729" s="13"/>
       <c r="AI729" s="13"/>
     </row>
-    <row r="730" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="13"/>
       <c r="B730" s="14"/>
       <c r="C730" s="13"/>
@@ -27999,7 +28031,7 @@
       <c r="AH730" s="13"/>
       <c r="AI730" s="13"/>
     </row>
-    <row r="731" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="13"/>
       <c r="B731" s="14"/>
       <c r="C731" s="13"/>
@@ -28036,7 +28068,7 @@
       <c r="AH731" s="13"/>
       <c r="AI731" s="13"/>
     </row>
-    <row r="732" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="13"/>
       <c r="B732" s="14"/>
       <c r="C732" s="13"/>
@@ -28073,7 +28105,7 @@
       <c r="AH732" s="13"/>
       <c r="AI732" s="13"/>
     </row>
-    <row r="733" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="13"/>
       <c r="B733" s="14"/>
       <c r="C733" s="13"/>
@@ -28110,7 +28142,7 @@
       <c r="AH733" s="13"/>
       <c r="AI733" s="13"/>
     </row>
-    <row r="734" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="13"/>
       <c r="B734" s="14"/>
       <c r="C734" s="13"/>
@@ -28147,7 +28179,7 @@
       <c r="AH734" s="13"/>
       <c r="AI734" s="13"/>
     </row>
-    <row r="735" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="13"/>
       <c r="B735" s="14"/>
       <c r="C735" s="13"/>
@@ -28184,7 +28216,7 @@
       <c r="AH735" s="13"/>
       <c r="AI735" s="13"/>
     </row>
-    <row r="736" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="13"/>
       <c r="B736" s="14"/>
       <c r="C736" s="13"/>
@@ -28221,7 +28253,7 @@
       <c r="AH736" s="13"/>
       <c r="AI736" s="13"/>
     </row>
-    <row r="737" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="13"/>
       <c r="B737" s="14"/>
       <c r="C737" s="13"/>
@@ -28258,7 +28290,7 @@
       <c r="AH737" s="13"/>
       <c r="AI737" s="13"/>
     </row>
-    <row r="738" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="13"/>
       <c r="B738" s="14"/>
       <c r="C738" s="13"/>
@@ -28295,7 +28327,7 @@
       <c r="AH738" s="13"/>
       <c r="AI738" s="13"/>
     </row>
-    <row r="739" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="13"/>
       <c r="B739" s="14"/>
       <c r="C739" s="13"/>
@@ -28332,7 +28364,7 @@
       <c r="AH739" s="13"/>
       <c r="AI739" s="13"/>
     </row>
-    <row r="740" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="13"/>
       <c r="B740" s="14"/>
       <c r="C740" s="13"/>
@@ -28369,7 +28401,7 @@
       <c r="AH740" s="13"/>
       <c r="AI740" s="13"/>
     </row>
-    <row r="741" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="13"/>
       <c r="B741" s="14"/>
       <c r="C741" s="13"/>
@@ -28406,7 +28438,7 @@
       <c r="AH741" s="13"/>
       <c r="AI741" s="13"/>
     </row>
-    <row r="742" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="13"/>
       <c r="B742" s="14"/>
       <c r="C742" s="13"/>
@@ -28443,7 +28475,7 @@
       <c r="AH742" s="13"/>
       <c r="AI742" s="13"/>
     </row>
-    <row r="743" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="13"/>
       <c r="B743" s="14"/>
       <c r="C743" s="13"/>
@@ -28480,7 +28512,7 @@
       <c r="AH743" s="13"/>
       <c r="AI743" s="13"/>
     </row>
-    <row r="744" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="13"/>
       <c r="B744" s="14"/>
       <c r="C744" s="13"/>
@@ -28517,7 +28549,7 @@
       <c r="AH744" s="13"/>
       <c r="AI744" s="13"/>
     </row>
-    <row r="745" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="13"/>
       <c r="B745" s="14"/>
       <c r="C745" s="13"/>
@@ -28554,7 +28586,7 @@
       <c r="AH745" s="13"/>
       <c r="AI745" s="13"/>
     </row>
-    <row r="746" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="13"/>
       <c r="B746" s="14"/>
       <c r="C746" s="13"/>
@@ -28591,7 +28623,7 @@
       <c r="AH746" s="13"/>
       <c r="AI746" s="13"/>
     </row>
-    <row r="747" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="13"/>
       <c r="B747" s="14"/>
       <c r="C747" s="13"/>
@@ -28628,7 +28660,7 @@
       <c r="AH747" s="13"/>
       <c r="AI747" s="13"/>
     </row>
-    <row r="748" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="13"/>
       <c r="B748" s="14"/>
       <c r="C748" s="13"/>
@@ -28665,7 +28697,7 @@
       <c r="AH748" s="13"/>
       <c r="AI748" s="13"/>
     </row>
-    <row r="749" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="13"/>
       <c r="B749" s="14"/>
       <c r="C749" s="13"/>
@@ -28702,7 +28734,7 @@
       <c r="AH749" s="13"/>
       <c r="AI749" s="13"/>
     </row>
-    <row r="750" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="13"/>
       <c r="B750" s="14"/>
       <c r="C750" s="13"/>
@@ -28739,7 +28771,7 @@
       <c r="AH750" s="13"/>
       <c r="AI750" s="13"/>
     </row>
-    <row r="751" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="13"/>
       <c r="B751" s="14"/>
       <c r="C751" s="13"/>
@@ -28776,7 +28808,7 @@
       <c r="AH751" s="13"/>
       <c r="AI751" s="13"/>
     </row>
-    <row r="752" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="13"/>
       <c r="B752" s="14"/>
       <c r="C752" s="13"/>
@@ -28813,7 +28845,7 @@
       <c r="AH752" s="13"/>
       <c r="AI752" s="13"/>
     </row>
-    <row r="753" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="13"/>
       <c r="B753" s="14"/>
       <c r="C753" s="13"/>
@@ -28850,7 +28882,7 @@
       <c r="AH753" s="13"/>
       <c r="AI753" s="13"/>
     </row>
-    <row r="754" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="13"/>
       <c r="B754" s="14"/>
       <c r="C754" s="13"/>
@@ -28887,7 +28919,7 @@
       <c r="AH754" s="13"/>
       <c r="AI754" s="13"/>
     </row>
-    <row r="755" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="13"/>
       <c r="B755" s="14"/>
       <c r="C755" s="13"/>
@@ -28924,7 +28956,7 @@
       <c r="AH755" s="13"/>
       <c r="AI755" s="13"/>
     </row>
-    <row r="756" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="13"/>
       <c r="B756" s="14"/>
       <c r="C756" s="13"/>
@@ -28961,7 +28993,7 @@
       <c r="AH756" s="13"/>
       <c r="AI756" s="13"/>
     </row>
-    <row r="757" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="13"/>
       <c r="B757" s="14"/>
       <c r="C757" s="13"/>
@@ -28998,7 +29030,7 @@
       <c r="AH757" s="13"/>
       <c r="AI757" s="13"/>
     </row>
-    <row r="758" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="13"/>
       <c r="B758" s="14"/>
       <c r="C758" s="13"/>
@@ -29035,7 +29067,7 @@
       <c r="AH758" s="13"/>
       <c r="AI758" s="13"/>
     </row>
-    <row r="759" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="13"/>
       <c r="B759" s="14"/>
       <c r="C759" s="13"/>
@@ -29072,7 +29104,7 @@
       <c r="AH759" s="13"/>
       <c r="AI759" s="13"/>
     </row>
-    <row r="760" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="13"/>
       <c r="B760" s="14"/>
       <c r="C760" s="13"/>
@@ -29109,7 +29141,7 @@
       <c r="AH760" s="13"/>
       <c r="AI760" s="13"/>
     </row>
-    <row r="761" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="13"/>
       <c r="B761" s="14"/>
       <c r="C761" s="13"/>
@@ -29146,7 +29178,7 @@
       <c r="AH761" s="13"/>
       <c r="AI761" s="13"/>
     </row>
-    <row r="762" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="13"/>
       <c r="B762" s="14"/>
       <c r="C762" s="13"/>
@@ -29183,7 +29215,7 @@
       <c r="AH762" s="13"/>
       <c r="AI762" s="13"/>
     </row>
-    <row r="763" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="13"/>
       <c r="B763" s="14"/>
       <c r="C763" s="13"/>
@@ -29220,7 +29252,7 @@
       <c r="AH763" s="13"/>
       <c r="AI763" s="13"/>
     </row>
-    <row r="764" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="13"/>
       <c r="B764" s="14"/>
       <c r="C764" s="13"/>
@@ -29257,7 +29289,7 @@
       <c r="AH764" s="13"/>
       <c r="AI764" s="13"/>
     </row>
-    <row r="765" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="13"/>
       <c r="B765" s="14"/>
       <c r="C765" s="13"/>
@@ -29294,7 +29326,7 @@
       <c r="AH765" s="13"/>
       <c r="AI765" s="13"/>
     </row>
-    <row r="766" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="13"/>
       <c r="B766" s="14"/>
       <c r="C766" s="13"/>
@@ -29331,7 +29363,7 @@
       <c r="AH766" s="13"/>
       <c r="AI766" s="13"/>
     </row>
-    <row r="767" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="13"/>
       <c r="B767" s="14"/>
       <c r="C767" s="13"/>
@@ -29368,7 +29400,7 @@
       <c r="AH767" s="13"/>
       <c r="AI767" s="13"/>
     </row>
-    <row r="768" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="13"/>
       <c r="B768" s="14"/>
       <c r="C768" s="13"/>
@@ -29405,7 +29437,7 @@
       <c r="AH768" s="13"/>
       <c r="AI768" s="13"/>
     </row>
-    <row r="769" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="13"/>
       <c r="B769" s="14"/>
       <c r="C769" s="13"/>
@@ -29442,7 +29474,7 @@
       <c r="AH769" s="13"/>
       <c r="AI769" s="13"/>
     </row>
-    <row r="770" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="13"/>
       <c r="B770" s="14"/>
       <c r="C770" s="13"/>
@@ -29479,7 +29511,7 @@
       <c r="AH770" s="13"/>
       <c r="AI770" s="13"/>
     </row>
-    <row r="771" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="13"/>
       <c r="B771" s="14"/>
       <c r="C771" s="13"/>
@@ -29516,7 +29548,7 @@
       <c r="AH771" s="13"/>
       <c r="AI771" s="13"/>
     </row>
-    <row r="772" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="13"/>
       <c r="B772" s="14"/>
       <c r="C772" s="13"/>
@@ -29553,7 +29585,7 @@
       <c r="AH772" s="13"/>
       <c r="AI772" s="13"/>
     </row>
-    <row r="773" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="13"/>
       <c r="B773" s="14"/>
       <c r="C773" s="13"/>
@@ -29590,7 +29622,7 @@
       <c r="AH773" s="13"/>
       <c r="AI773" s="13"/>
     </row>
-    <row r="774" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="13"/>
       <c r="B774" s="14"/>
       <c r="C774" s="13"/>
@@ -29627,7 +29659,7 @@
       <c r="AH774" s="13"/>
       <c r="AI774" s="13"/>
     </row>
-    <row r="775" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="13"/>
       <c r="B775" s="14"/>
       <c r="C775" s="13"/>
@@ -29664,7 +29696,7 @@
       <c r="AH775" s="13"/>
       <c r="AI775" s="13"/>
     </row>
-    <row r="776" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="13"/>
       <c r="B776" s="14"/>
       <c r="C776" s="13"/>
@@ -29701,7 +29733,7 @@
       <c r="AH776" s="13"/>
       <c r="AI776" s="13"/>
     </row>
-    <row r="777" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="13"/>
       <c r="B777" s="14"/>
       <c r="C777" s="13"/>
@@ -29738,7 +29770,7 @@
       <c r="AH777" s="13"/>
       <c r="AI777" s="13"/>
     </row>
-    <row r="778" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="13"/>
       <c r="B778" s="14"/>
       <c r="C778" s="13"/>
@@ -29775,7 +29807,7 @@
       <c r="AH778" s="13"/>
       <c r="AI778" s="13"/>
     </row>
-    <row r="779" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="13"/>
       <c r="B779" s="14"/>
       <c r="C779" s="13"/>
@@ -29812,7 +29844,7 @@
       <c r="AH779" s="13"/>
       <c r="AI779" s="13"/>
     </row>
-    <row r="780" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="13"/>
       <c r="B780" s="14"/>
       <c r="C780" s="13"/>
@@ -29849,7 +29881,7 @@
       <c r="AH780" s="13"/>
       <c r="AI780" s="13"/>
     </row>
-    <row r="781" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="13"/>
       <c r="B781" s="14"/>
       <c r="C781" s="13"/>
@@ -29886,7 +29918,7 @@
       <c r="AH781" s="13"/>
       <c r="AI781" s="13"/>
     </row>
-    <row r="782" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="13"/>
       <c r="B782" s="14"/>
       <c r="C782" s="13"/>
@@ -29923,7 +29955,7 @@
       <c r="AH782" s="13"/>
       <c r="AI782" s="13"/>
     </row>
-    <row r="783" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="13"/>
       <c r="B783" s="14"/>
       <c r="C783" s="13"/>
@@ -29960,7 +29992,7 @@
       <c r="AH783" s="13"/>
       <c r="AI783" s="13"/>
     </row>
-    <row r="784" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="13"/>
       <c r="B784" s="14"/>
       <c r="C784" s="13"/>
@@ -29997,7 +30029,7 @@
       <c r="AH784" s="13"/>
       <c r="AI784" s="13"/>
     </row>
-    <row r="785" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="13"/>
       <c r="B785" s="14"/>
       <c r="C785" s="13"/>
@@ -30034,7 +30066,7 @@
       <c r="AH785" s="13"/>
       <c r="AI785" s="13"/>
     </row>
-    <row r="786" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="13"/>
       <c r="B786" s="14"/>
       <c r="C786" s="13"/>
@@ -30071,7 +30103,7 @@
       <c r="AH786" s="13"/>
       <c r="AI786" s="13"/>
     </row>
-    <row r="787" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="13"/>
       <c r="B787" s="14"/>
       <c r="C787" s="13"/>
@@ -30108,7 +30140,7 @@
       <c r="AH787" s="13"/>
       <c r="AI787" s="13"/>
     </row>
-    <row r="788" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="13"/>
       <c r="B788" s="14"/>
       <c r="C788" s="13"/>
@@ -30145,7 +30177,7 @@
       <c r="AH788" s="13"/>
       <c r="AI788" s="13"/>
     </row>
-    <row r="789" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="13"/>
       <c r="B789" s="14"/>
       <c r="C789" s="13"/>
@@ -30182,7 +30214,7 @@
       <c r="AH789" s="13"/>
       <c r="AI789" s="13"/>
     </row>
-    <row r="790" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="13"/>
       <c r="B790" s="14"/>
       <c r="C790" s="13"/>
@@ -30219,7 +30251,7 @@
       <c r="AH790" s="13"/>
       <c r="AI790" s="13"/>
     </row>
-    <row r="791" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="13"/>
       <c r="B791" s="14"/>
       <c r="C791" s="13"/>
@@ -30256,7 +30288,7 @@
       <c r="AH791" s="13"/>
       <c r="AI791" s="13"/>
     </row>
-    <row r="792" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="13"/>
       <c r="B792" s="14"/>
       <c r="C792" s="13"/>
@@ -30293,7 +30325,7 @@
       <c r="AH792" s="13"/>
       <c r="AI792" s="13"/>
     </row>
-    <row r="793" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="13"/>
       <c r="B793" s="14"/>
       <c r="C793" s="13"/>
@@ -30330,7 +30362,7 @@
       <c r="AH793" s="13"/>
       <c r="AI793" s="13"/>
     </row>
-    <row r="794" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="13"/>
       <c r="B794" s="14"/>
       <c r="C794" s="13"/>
@@ -30367,7 +30399,7 @@
       <c r="AH794" s="13"/>
       <c r="AI794" s="13"/>
     </row>
-    <row r="795" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="13"/>
       <c r="B795" s="14"/>
       <c r="C795" s="13"/>
@@ -30404,7 +30436,7 @@
       <c r="AH795" s="13"/>
       <c r="AI795" s="13"/>
     </row>
-    <row r="796" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="13"/>
       <c r="B796" s="14"/>
       <c r="C796" s="13"/>
@@ -30441,7 +30473,7 @@
       <c r="AH796" s="13"/>
       <c r="AI796" s="13"/>
     </row>
-    <row r="797" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="13"/>
       <c r="B797" s="14"/>
       <c r="C797" s="13"/>
@@ -30478,7 +30510,7 @@
       <c r="AH797" s="13"/>
       <c r="AI797" s="13"/>
     </row>
-    <row r="798" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="13"/>
       <c r="B798" s="14"/>
       <c r="C798" s="13"/>
@@ -30515,7 +30547,7 @@
       <c r="AH798" s="13"/>
       <c r="AI798" s="13"/>
     </row>
-    <row r="799" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="13"/>
       <c r="B799" s="14"/>
       <c r="C799" s="13"/>
@@ -30552,7 +30584,7 @@
       <c r="AH799" s="13"/>
       <c r="AI799" s="13"/>
     </row>
-    <row r="800" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="13"/>
       <c r="B800" s="14"/>
       <c r="C800" s="13"/>
@@ -30589,7 +30621,7 @@
       <c r="AH800" s="13"/>
       <c r="AI800" s="13"/>
     </row>
-    <row r="801" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="13"/>
       <c r="B801" s="14"/>
       <c r="C801" s="13"/>
@@ -30626,7 +30658,7 @@
       <c r="AH801" s="13"/>
       <c r="AI801" s="13"/>
     </row>
-    <row r="802" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="13"/>
       <c r="B802" s="14"/>
       <c r="C802" s="13"/>
@@ -30663,7 +30695,7 @@
       <c r="AH802" s="13"/>
       <c r="AI802" s="13"/>
     </row>
-    <row r="803" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="13"/>
       <c r="B803" s="14"/>
       <c r="C803" s="13"/>
@@ -30700,7 +30732,7 @@
       <c r="AH803" s="13"/>
       <c r="AI803" s="13"/>
     </row>
-    <row r="804" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="13"/>
       <c r="B804" s="14"/>
       <c r="C804" s="13"/>
@@ -30737,7 +30769,7 @@
       <c r="AH804" s="13"/>
       <c r="AI804" s="13"/>
     </row>
-    <row r="805" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="13"/>
       <c r="B805" s="14"/>
       <c r="C805" s="13"/>
@@ -30774,7 +30806,7 @@
       <c r="AH805" s="13"/>
       <c r="AI805" s="13"/>
     </row>
-    <row r="806" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="13"/>
       <c r="B806" s="14"/>
       <c r="C806" s="13"/>
@@ -30811,7 +30843,7 @@
       <c r="AH806" s="13"/>
       <c r="AI806" s="13"/>
     </row>
-    <row r="807" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="13"/>
       <c r="B807" s="14"/>
       <c r="C807" s="13"/>
@@ -30848,7 +30880,7 @@
       <c r="AH807" s="13"/>
       <c r="AI807" s="13"/>
     </row>
-    <row r="808" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="13"/>
       <c r="B808" s="14"/>
       <c r="C808" s="13"/>
@@ -30885,7 +30917,7 @@
       <c r="AH808" s="13"/>
       <c r="AI808" s="13"/>
     </row>
-    <row r="809" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="13"/>
       <c r="B809" s="14"/>
       <c r="C809" s="13"/>
@@ -30922,7 +30954,7 @@
       <c r="AH809" s="13"/>
       <c r="AI809" s="13"/>
     </row>
-    <row r="810" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="13"/>
       <c r="B810" s="14"/>
       <c r="C810" s="13"/>
@@ -30959,7 +30991,7 @@
       <c r="AH810" s="13"/>
       <c r="AI810" s="13"/>
     </row>
-    <row r="811" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="13"/>
       <c r="B811" s="14"/>
       <c r="C811" s="13"/>
@@ -30996,7 +31028,7 @@
       <c r="AH811" s="13"/>
       <c r="AI811" s="13"/>
     </row>
-    <row r="812" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="13"/>
       <c r="B812" s="14"/>
       <c r="C812" s="13"/>
@@ -31033,7 +31065,7 @@
       <c r="AH812" s="13"/>
       <c r="AI812" s="13"/>
     </row>
-    <row r="813" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="13"/>
       <c r="B813" s="14"/>
       <c r="C813" s="13"/>
@@ -31070,7 +31102,7 @@
       <c r="AH813" s="13"/>
       <c r="AI813" s="13"/>
     </row>
-    <row r="814" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="13"/>
       <c r="B814" s="14"/>
       <c r="C814" s="13"/>
@@ -31107,7 +31139,7 @@
       <c r="AH814" s="13"/>
       <c r="AI814" s="13"/>
     </row>
-    <row r="815" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="13"/>
       <c r="B815" s="14"/>
       <c r="C815" s="13"/>
@@ -31144,7 +31176,7 @@
       <c r="AH815" s="13"/>
       <c r="AI815" s="13"/>
     </row>
-    <row r="816" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="13"/>
       <c r="B816" s="14"/>
       <c r="C816" s="13"/>
@@ -31181,7 +31213,7 @@
       <c r="AH816" s="13"/>
       <c r="AI816" s="13"/>
     </row>
-    <row r="817" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="13"/>
       <c r="B817" s="14"/>
       <c r="C817" s="13"/>
@@ -31218,7 +31250,7 @@
       <c r="AH817" s="13"/>
       <c r="AI817" s="13"/>
     </row>
-    <row r="818" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="13"/>
       <c r="B818" s="14"/>
       <c r="C818" s="13"/>
@@ -31255,7 +31287,7 @@
       <c r="AH818" s="13"/>
       <c r="AI818" s="13"/>
     </row>
-    <row r="819" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="13"/>
       <c r="B819" s="14"/>
       <c r="C819" s="13"/>
@@ -31292,7 +31324,7 @@
       <c r="AH819" s="13"/>
       <c r="AI819" s="13"/>
     </row>
-    <row r="820" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="13"/>
       <c r="B820" s="14"/>
       <c r="C820" s="13"/>
@@ -31329,7 +31361,7 @@
       <c r="AH820" s="13"/>
       <c r="AI820" s="13"/>
     </row>
-    <row r="821" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="13"/>
       <c r="B821" s="14"/>
       <c r="C821" s="13"/>
@@ -31366,7 +31398,7 @@
       <c r="AH821" s="13"/>
       <c r="AI821" s="13"/>
     </row>
-    <row r="822" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="13"/>
       <c r="B822" s="14"/>
       <c r="C822" s="13"/>
@@ -31403,7 +31435,7 @@
       <c r="AH822" s="13"/>
       <c r="AI822" s="13"/>
     </row>
-    <row r="823" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="13"/>
       <c r="B823" s="14"/>
       <c r="C823" s="13"/>
@@ -31440,7 +31472,7 @@
       <c r="AH823" s="13"/>
       <c r="AI823" s="13"/>
     </row>
-    <row r="824" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="13"/>
       <c r="B824" s="14"/>
       <c r="C824" s="13"/>
@@ -31477,7 +31509,7 @@
       <c r="AH824" s="13"/>
       <c r="AI824" s="13"/>
     </row>
-    <row r="825" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="13"/>
       <c r="B825" s="14"/>
       <c r="C825" s="13"/>
@@ -31514,7 +31546,7 @@
       <c r="AH825" s="13"/>
       <c r="AI825" s="13"/>
     </row>
-    <row r="826" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="13"/>
       <c r="B826" s="14"/>
       <c r="C826" s="13"/>
@@ -31551,7 +31583,7 @@
       <c r="AH826" s="13"/>
       <c r="AI826" s="13"/>
     </row>
-    <row r="827" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="13"/>
       <c r="B827" s="14"/>
       <c r="C827" s="13"/>
@@ -31588,7 +31620,7 @@
       <c r="AH827" s="13"/>
       <c r="AI827" s="13"/>
     </row>
-    <row r="828" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="13"/>
       <c r="B828" s="14"/>
       <c r="C828" s="13"/>
@@ -31625,7 +31657,7 @@
       <c r="AH828" s="13"/>
       <c r="AI828" s="13"/>
     </row>
-    <row r="829" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="13"/>
       <c r="B829" s="14"/>
       <c r="C829" s="13"/>
@@ -31662,7 +31694,7 @@
       <c r="AH829" s="13"/>
       <c r="AI829" s="13"/>
     </row>
-    <row r="830" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="13"/>
       <c r="B830" s="14"/>
       <c r="C830" s="13"/>
@@ -31699,7 +31731,7 @@
       <c r="AH830" s="13"/>
       <c r="AI830" s="13"/>
     </row>
-    <row r="831" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="13"/>
       <c r="B831" s="14"/>
       <c r="C831" s="13"/>
@@ -31736,7 +31768,7 @@
       <c r="AH831" s="13"/>
       <c r="AI831" s="13"/>
     </row>
-    <row r="832" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="13"/>
       <c r="B832" s="14"/>
       <c r="C832" s="13"/>
@@ -31773,7 +31805,7 @@
       <c r="AH832" s="13"/>
       <c r="AI832" s="13"/>
     </row>
-    <row r="833" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="13"/>
       <c r="B833" s="14"/>
       <c r="C833" s="13"/>
@@ -31810,7 +31842,7 @@
       <c r="AH833" s="13"/>
       <c r="AI833" s="13"/>
     </row>
-    <row r="834" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="13"/>
       <c r="B834" s="14"/>
       <c r="C834" s="13"/>
@@ -31847,7 +31879,7 @@
       <c r="AH834" s="13"/>
       <c r="AI834" s="13"/>
     </row>
-    <row r="835" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="13"/>
       <c r="B835" s="14"/>
       <c r="C835" s="13"/>
@@ -31884,7 +31916,7 @@
       <c r="AH835" s="13"/>
       <c r="AI835" s="13"/>
     </row>
-    <row r="836" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="13"/>
       <c r="B836" s="14"/>
       <c r="C836" s="13"/>
@@ -31921,7 +31953,7 @@
       <c r="AH836" s="13"/>
       <c r="AI836" s="13"/>
     </row>
-    <row r="837" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="13"/>
       <c r="B837" s="14"/>
       <c r="C837" s="13"/>
@@ -31958,7 +31990,7 @@
       <c r="AH837" s="13"/>
       <c r="AI837" s="13"/>
     </row>
-    <row r="838" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="13"/>
       <c r="B838" s="14"/>
       <c r="C838" s="13"/>
@@ -31995,7 +32027,7 @@
       <c r="AH838" s="13"/>
       <c r="AI838" s="13"/>
     </row>
-    <row r="839" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="13"/>
       <c r="B839" s="14"/>
       <c r="C839" s="13"/>
@@ -32032,7 +32064,7 @@
       <c r="AH839" s="13"/>
       <c r="AI839" s="13"/>
     </row>
-    <row r="840" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="13"/>
       <c r="B840" s="14"/>
       <c r="C840" s="13"/>
@@ -32069,7 +32101,7 @@
       <c r="AH840" s="13"/>
       <c r="AI840" s="13"/>
     </row>
-    <row r="841" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="13"/>
       <c r="B841" s="14"/>
       <c r="C841" s="13"/>
@@ -32106,7 +32138,7 @@
       <c r="AH841" s="13"/>
       <c r="AI841" s="13"/>
     </row>
-    <row r="842" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="13"/>
       <c r="B842" s="14"/>
       <c r="C842" s="13"/>
@@ -32143,7 +32175,7 @@
       <c r="AH842" s="13"/>
       <c r="AI842" s="13"/>
     </row>
-    <row r="843" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="13"/>
       <c r="B843" s="14"/>
       <c r="C843" s="13"/>
@@ -32180,7 +32212,7 @@
       <c r="AH843" s="13"/>
       <c r="AI843" s="13"/>
     </row>
-    <row r="844" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="13"/>
       <c r="B844" s="14"/>
       <c r="C844" s="13"/>
@@ -32217,7 +32249,7 @@
       <c r="AH844" s="13"/>
       <c r="AI844" s="13"/>
     </row>
-    <row r="845" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="13"/>
       <c r="B845" s="14"/>
       <c r="C845" s="13"/>
@@ -32254,7 +32286,7 @@
       <c r="AH845" s="13"/>
       <c r="AI845" s="13"/>
     </row>
-    <row r="846" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="13"/>
       <c r="B846" s="14"/>
       <c r="C846" s="13"/>
@@ -32291,7 +32323,7 @@
       <c r="AH846" s="13"/>
       <c r="AI846" s="13"/>
     </row>
-    <row r="847" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="13"/>
       <c r="B847" s="14"/>
       <c r="C847" s="13"/>
@@ -32328,7 +32360,7 @@
       <c r="AH847" s="13"/>
       <c r="AI847" s="13"/>
     </row>
-    <row r="848" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="13"/>
       <c r="B848" s="14"/>
       <c r="C848" s="13"/>
@@ -32365,7 +32397,7 @@
       <c r="AH848" s="13"/>
       <c r="AI848" s="13"/>
     </row>
-    <row r="849" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="13"/>
       <c r="B849" s="14"/>
       <c r="C849" s="13"/>
@@ -32402,7 +32434,7 @@
       <c r="AH849" s="13"/>
       <c r="AI849" s="13"/>
     </row>
-    <row r="850" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="13"/>
       <c r="B850" s="14"/>
       <c r="C850" s="13"/>
@@ -32439,7 +32471,7 @@
       <c r="AH850" s="13"/>
       <c r="AI850" s="13"/>
     </row>
-    <row r="851" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="13"/>
       <c r="B851" s="14"/>
       <c r="C851" s="13"/>
@@ -32476,7 +32508,7 @@
       <c r="AH851" s="13"/>
       <c r="AI851" s="13"/>
     </row>
-    <row r="852" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="13"/>
       <c r="B852" s="14"/>
       <c r="C852" s="13"/>
@@ -32513,7 +32545,7 @@
       <c r="AH852" s="13"/>
       <c r="AI852" s="13"/>
     </row>
-    <row r="853" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="13"/>
       <c r="B853" s="14"/>
       <c r="C853" s="13"/>
@@ -32550,7 +32582,7 @@
       <c r="AH853" s="13"/>
       <c r="AI853" s="13"/>
     </row>
-    <row r="854" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="13"/>
       <c r="B854" s="14"/>
       <c r="C854" s="13"/>
@@ -32587,7 +32619,7 @@
       <c r="AH854" s="13"/>
       <c r="AI854" s="13"/>
     </row>
-    <row r="855" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="13"/>
       <c r="B855" s="14"/>
       <c r="C855" s="13"/>
@@ -32624,7 +32656,7 @@
       <c r="AH855" s="13"/>
       <c r="AI855" s="13"/>
     </row>
-    <row r="856" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="13"/>
       <c r="B856" s="14"/>
       <c r="C856" s="13"/>
@@ -32661,7 +32693,7 @@
       <c r="AH856" s="13"/>
       <c r="AI856" s="13"/>
     </row>
-    <row r="857" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="13"/>
       <c r="B857" s="14"/>
       <c r="C857" s="13"/>
@@ -32698,7 +32730,7 @@
       <c r="AH857" s="13"/>
       <c r="AI857" s="13"/>
     </row>
-    <row r="858" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="13"/>
       <c r="B858" s="14"/>
       <c r="C858" s="13"/>
@@ -32735,7 +32767,7 @@
       <c r="AH858" s="13"/>
       <c r="AI858" s="13"/>
     </row>
-    <row r="859" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="13"/>
       <c r="B859" s="14"/>
       <c r="C859" s="13"/>
@@ -32772,7 +32804,7 @@
       <c r="AH859" s="13"/>
       <c r="AI859" s="13"/>
     </row>
-    <row r="860" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="13"/>
       <c r="B860" s="14"/>
       <c r="C860" s="13"/>
@@ -32809,7 +32841,7 @@
       <c r="AH860" s="13"/>
       <c r="AI860" s="13"/>
     </row>
-    <row r="861" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="13"/>
       <c r="B861" s="14"/>
       <c r="C861" s="13"/>
@@ -32846,7 +32878,7 @@
       <c r="AH861" s="13"/>
       <c r="AI861" s="13"/>
     </row>
-    <row r="862" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="13"/>
       <c r="B862" s="14"/>
       <c r="C862" s="13"/>
@@ -32883,7 +32915,7 @@
       <c r="AH862" s="13"/>
       <c r="AI862" s="13"/>
     </row>
-    <row r="863" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="13"/>
       <c r="B863" s="14"/>
       <c r="C863" s="13"/>
@@ -32920,7 +32952,7 @@
       <c r="AH863" s="13"/>
       <c r="AI863" s="13"/>
     </row>
-    <row r="864" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="13"/>
       <c r="B864" s="14"/>
       <c r="C864" s="13"/>
@@ -32957,7 +32989,7 @@
       <c r="AH864" s="13"/>
       <c r="AI864" s="13"/>
     </row>
-    <row r="865" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="13"/>
       <c r="B865" s="14"/>
       <c r="C865" s="13"/>
@@ -32994,7 +33026,7 @@
       <c r="AH865" s="13"/>
       <c r="AI865" s="13"/>
     </row>
-    <row r="866" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="13"/>
       <c r="B866" s="14"/>
       <c r="C866" s="13"/>
@@ -33031,7 +33063,7 @@
       <c r="AH866" s="13"/>
       <c r="AI866" s="13"/>
     </row>
-    <row r="867" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="13"/>
       <c r="B867" s="14"/>
       <c r="C867" s="13"/>
@@ -33068,7 +33100,7 @@
       <c r="AH867" s="13"/>
       <c r="AI867" s="13"/>
     </row>
-    <row r="868" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="13"/>
       <c r="B868" s="14"/>
       <c r="C868" s="13"/>
@@ -33105,7 +33137,7 @@
       <c r="AH868" s="13"/>
       <c r="AI868" s="13"/>
     </row>
-    <row r="869" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="13"/>
       <c r="B869" s="14"/>
       <c r="C869" s="13"/>
@@ -33142,7 +33174,7 @@
       <c r="AH869" s="13"/>
       <c r="AI869" s="13"/>
     </row>
-    <row r="870" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="13"/>
       <c r="B870" s="14"/>
       <c r="C870" s="13"/>
@@ -33179,7 +33211,7 @@
       <c r="AH870" s="13"/>
       <c r="AI870" s="13"/>
     </row>
-    <row r="871" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="13"/>
       <c r="B871" s="14"/>
       <c r="C871" s="13"/>
@@ -33216,7 +33248,7 @@
       <c r="AH871" s="13"/>
       <c r="AI871" s="13"/>
     </row>
-    <row r="872" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="13"/>
       <c r="B872" s="14"/>
       <c r="C872" s="13"/>
@@ -33253,7 +33285,7 @@
       <c r="AH872" s="13"/>
       <c r="AI872" s="13"/>
     </row>
-    <row r="873" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="13"/>
       <c r="B873" s="14"/>
       <c r="C873" s="13"/>
@@ -33290,7 +33322,7 @@
       <c r="AH873" s="13"/>
       <c r="AI873" s="13"/>
     </row>
-    <row r="874" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="13"/>
       <c r="B874" s="14"/>
       <c r="C874" s="13"/>
@@ -33327,7 +33359,7 @@
       <c r="AH874" s="13"/>
       <c r="AI874" s="13"/>
     </row>
-    <row r="875" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="13"/>
       <c r="B875" s="14"/>
       <c r="C875" s="13"/>
@@ -33364,7 +33396,7 @@
       <c r="AH875" s="13"/>
       <c r="AI875" s="13"/>
     </row>
-    <row r="876" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="13"/>
       <c r="B876" s="14"/>
       <c r="C876" s="13"/>
@@ -33401,7 +33433,7 @@
       <c r="AH876" s="13"/>
       <c r="AI876" s="13"/>
     </row>
-    <row r="877" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="13"/>
       <c r="B877" s="14"/>
       <c r="C877" s="13"/>
@@ -33438,7 +33470,7 @@
       <c r="AH877" s="13"/>
       <c r="AI877" s="13"/>
     </row>
-    <row r="878" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="13"/>
       <c r="B878" s="14"/>
       <c r="C878" s="13"/>
@@ -33475,7 +33507,7 @@
       <c r="AH878" s="13"/>
       <c r="AI878" s="13"/>
     </row>
-    <row r="879" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="13"/>
       <c r="B879" s="14"/>
       <c r="C879" s="13"/>
@@ -33512,7 +33544,7 @@
       <c r="AH879" s="13"/>
       <c r="AI879" s="13"/>
     </row>
-    <row r="880" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="13"/>
       <c r="B880" s="14"/>
       <c r="C880" s="13"/>
@@ -33549,7 +33581,7 @@
       <c r="AH880" s="13"/>
       <c r="AI880" s="13"/>
     </row>
-    <row r="881" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="13"/>
       <c r="B881" s="14"/>
       <c r="C881" s="13"/>
@@ -33586,7 +33618,7 @@
       <c r="AH881" s="13"/>
       <c r="AI881" s="13"/>
     </row>
-    <row r="882" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="13"/>
       <c r="B882" s="14"/>
       <c r="C882" s="13"/>
@@ -33623,7 +33655,7 @@
       <c r="AH882" s="13"/>
       <c r="AI882" s="13"/>
     </row>
-    <row r="883" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="13"/>
       <c r="B883" s="14"/>
       <c r="C883" s="13"/>
@@ -33660,7 +33692,7 @@
       <c r="AH883" s="13"/>
       <c r="AI883" s="13"/>
     </row>
-    <row r="884" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="13"/>
       <c r="B884" s="14"/>
       <c r="C884" s="13"/>
@@ -33697,7 +33729,7 @@
       <c r="AH884" s="13"/>
       <c r="AI884" s="13"/>
     </row>
-    <row r="885" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="13"/>
       <c r="B885" s="14"/>
       <c r="C885" s="13"/>
@@ -33734,7 +33766,7 @@
       <c r="AH885" s="13"/>
       <c r="AI885" s="13"/>
     </row>
-    <row r="886" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="13"/>
       <c r="B886" s="14"/>
       <c r="C886" s="13"/>
@@ -33771,7 +33803,7 @@
       <c r="AH886" s="13"/>
       <c r="AI886" s="13"/>
     </row>
-    <row r="887" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="13"/>
       <c r="B887" s="14"/>
       <c r="C887" s="13"/>
@@ -33808,7 +33840,7 @@
       <c r="AH887" s="13"/>
       <c r="AI887" s="13"/>
     </row>
-    <row r="888" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="13"/>
       <c r="B888" s="14"/>
       <c r="C888" s="13"/>
@@ -33845,7 +33877,7 @@
       <c r="AH888" s="13"/>
       <c r="AI888" s="13"/>
     </row>
-    <row r="889" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="13"/>
       <c r="B889" s="14"/>
       <c r="C889" s="13"/>
@@ -33882,7 +33914,7 @@
       <c r="AH889" s="13"/>
       <c r="AI889" s="13"/>
     </row>
-    <row r="890" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="13"/>
       <c r="B890" s="14"/>
       <c r="C890" s="13"/>
@@ -33919,7 +33951,7 @@
       <c r="AH890" s="13"/>
       <c r="AI890" s="13"/>
     </row>
-    <row r="891" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="13"/>
       <c r="B891" s="14"/>
       <c r="C891" s="13"/>
@@ -33956,7 +33988,7 @@
       <c r="AH891" s="13"/>
       <c r="AI891" s="13"/>
     </row>
-    <row r="892" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="13"/>
       <c r="B892" s="14"/>
       <c r="C892" s="13"/>
@@ -33993,7 +34025,7 @@
       <c r="AH892" s="13"/>
       <c r="AI892" s="13"/>
     </row>
-    <row r="893" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="13"/>
       <c r="B893" s="14"/>
       <c r="C893" s="13"/>
@@ -34030,7 +34062,7 @@
       <c r="AH893" s="13"/>
       <c r="AI893" s="13"/>
     </row>
-    <row r="894" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="13"/>
       <c r="B894" s="14"/>
       <c r="C894" s="13"/>
@@ -34067,7 +34099,7 @@
       <c r="AH894" s="13"/>
       <c r="AI894" s="13"/>
     </row>
-    <row r="895" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="13"/>
       <c r="B895" s="14"/>
       <c r="C895" s="13"/>
@@ -34104,7 +34136,7 @@
       <c r="AH895" s="13"/>
       <c r="AI895" s="13"/>
     </row>
-    <row r="896" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="13"/>
       <c r="B896" s="14"/>
       <c r="C896" s="13"/>
@@ -34141,7 +34173,7 @@
       <c r="AH896" s="13"/>
       <c r="AI896" s="13"/>
     </row>
-    <row r="897" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="13"/>
       <c r="B897" s="14"/>
       <c r="C897" s="13"/>
@@ -34178,7 +34210,7 @@
       <c r="AH897" s="13"/>
       <c r="AI897" s="13"/>
     </row>
-    <row r="898" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="13"/>
       <c r="B898" s="14"/>
       <c r="C898" s="13"/>
@@ -34215,7 +34247,7 @@
       <c r="AH898" s="13"/>
       <c r="AI898" s="13"/>
     </row>
-    <row r="899" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="13"/>
       <c r="B899" s="14"/>
       <c r="C899" s="13"/>
@@ -34252,7 +34284,7 @@
       <c r="AH899" s="13"/>
       <c r="AI899" s="13"/>
     </row>
-    <row r="900" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="13"/>
       <c r="B900" s="14"/>
       <c r="C900" s="13"/>
@@ -34289,7 +34321,7 @@
       <c r="AH900" s="13"/>
       <c r="AI900" s="13"/>
     </row>
-    <row r="901" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="13"/>
       <c r="B901" s="14"/>
       <c r="C901" s="13"/>
@@ -34326,7 +34358,7 @@
       <c r="AH901" s="13"/>
       <c r="AI901" s="13"/>
     </row>
-    <row r="902" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="13"/>
       <c r="B902" s="14"/>
       <c r="C902" s="13"/>
@@ -34363,7 +34395,7 @@
       <c r="AH902" s="13"/>
       <c r="AI902" s="13"/>
     </row>
-    <row r="903" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="13"/>
       <c r="B903" s="14"/>
       <c r="C903" s="13"/>
@@ -34400,7 +34432,7 @@
       <c r="AH903" s="13"/>
       <c r="AI903" s="13"/>
     </row>
-    <row r="904" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="13"/>
       <c r="B904" s="14"/>
       <c r="C904" s="13"/>
@@ -34437,7 +34469,7 @@
       <c r="AH904" s="13"/>
       <c r="AI904" s="13"/>
     </row>
-    <row r="905" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="13"/>
       <c r="B905" s="14"/>
       <c r="C905" s="13"/>
@@ -34474,7 +34506,7 @@
       <c r="AH905" s="13"/>
       <c r="AI905" s="13"/>
     </row>
-    <row r="906" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="13"/>
       <c r="B906" s="14"/>
       <c r="C906" s="13"/>
@@ -34511,7 +34543,7 @@
       <c r="AH906" s="13"/>
       <c r="AI906" s="13"/>
     </row>
-    <row r="907" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="13"/>
       <c r="B907" s="14"/>
       <c r="C907" s="13"/>
@@ -34548,7 +34580,7 @@
       <c r="AH907" s="13"/>
       <c r="AI907" s="13"/>
     </row>
-    <row r="908" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="13"/>
       <c r="B908" s="14"/>
       <c r="C908" s="13"/>
@@ -34585,7 +34617,7 @@
       <c r="AH908" s="13"/>
       <c r="AI908" s="13"/>
     </row>
-    <row r="909" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="13"/>
       <c r="B909" s="14"/>
       <c r="C909" s="13"/>
@@ -34622,7 +34654,7 @@
       <c r="AH909" s="13"/>
       <c r="AI909" s="13"/>
     </row>
-    <row r="910" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="13"/>
       <c r="B910" s="14"/>
       <c r="C910" s="13"/>
@@ -34659,7 +34691,7 @@
       <c r="AH910" s="13"/>
       <c r="AI910" s="13"/>
     </row>
-    <row r="911" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="13"/>
       <c r="B911" s="14"/>
       <c r="C911" s="13"/>
@@ -34696,7 +34728,7 @@
       <c r="AH911" s="13"/>
       <c r="AI911" s="13"/>
     </row>
-    <row r="912" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="13"/>
       <c r="B912" s="14"/>
       <c r="C912" s="13"/>
@@ -34733,7 +34765,7 @@
       <c r="AH912" s="13"/>
       <c r="AI912" s="13"/>
     </row>
-    <row r="913" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="13"/>
       <c r="B913" s="14"/>
       <c r="C913" s="13"/>
@@ -34770,7 +34802,7 @@
       <c r="AH913" s="13"/>
       <c r="AI913" s="13"/>
     </row>
-    <row r="914" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="13"/>
       <c r="B914" s="14"/>
       <c r="C914" s="13"/>
@@ -34807,7 +34839,7 @@
       <c r="AH914" s="13"/>
       <c r="AI914" s="13"/>
     </row>
-    <row r="915" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="13"/>
       <c r="B915" s="14"/>
       <c r="C915" s="13"/>
@@ -34844,7 +34876,7 @@
       <c r="AH915" s="13"/>
       <c r="AI915" s="13"/>
     </row>
-    <row r="916" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="13"/>
       <c r="B916" s="14"/>
       <c r="C916" s="13"/>
@@ -34881,7 +34913,7 @@
       <c r="AH916" s="13"/>
       <c r="AI916" s="13"/>
     </row>
-    <row r="917" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="13"/>
       <c r="B917" s="14"/>
       <c r="C917" s="13"/>
@@ -34918,7 +34950,7 @@
       <c r="AH917" s="13"/>
       <c r="AI917" s="13"/>
     </row>
-    <row r="918" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="13"/>
       <c r="B918" s="14"/>
       <c r="C918" s="13"/>
@@ -34955,7 +34987,7 @@
       <c r="AH918" s="13"/>
       <c r="AI918" s="13"/>
     </row>
-    <row r="919" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="13"/>
       <c r="B919" s="14"/>
       <c r="C919" s="13"/>
@@ -34992,7 +35024,7 @@
       <c r="AH919" s="13"/>
       <c r="AI919" s="13"/>
     </row>
-    <row r="920" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="13"/>
       <c r="B920" s="14"/>
       <c r="C920" s="13"/>
@@ -35029,7 +35061,7 @@
       <c r="AH920" s="13"/>
       <c r="AI920" s="13"/>
     </row>
-    <row r="921" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="13"/>
       <c r="B921" s="14"/>
       <c r="C921" s="13"/>
@@ -35066,7 +35098,7 @@
       <c r="AH921" s="13"/>
       <c r="AI921" s="13"/>
     </row>
-    <row r="922" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="13"/>
       <c r="B922" s="14"/>
       <c r="C922" s="13"/>
@@ -35103,7 +35135,7 @@
       <c r="AH922" s="13"/>
       <c r="AI922" s="13"/>
     </row>
-    <row r="923" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="13"/>
       <c r="B923" s="14"/>
       <c r="C923" s="13"/>
@@ -35140,7 +35172,7 @@
       <c r="AH923" s="13"/>
       <c r="AI923" s="13"/>
     </row>
-    <row r="924" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="13"/>
       <c r="B924" s="14"/>
       <c r="C924" s="13"/>
@@ -35177,7 +35209,7 @@
       <c r="AH924" s="13"/>
       <c r="AI924" s="13"/>
     </row>
-    <row r="925" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="13"/>
       <c r="B925" s="14"/>
       <c r="C925" s="13"/>
@@ -35214,7 +35246,7 @@
       <c r="AH925" s="13"/>
       <c r="AI925" s="13"/>
     </row>
-    <row r="926" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="13"/>
       <c r="B926" s="14"/>
       <c r="C926" s="13"/>
@@ -35251,7 +35283,7 @@
       <c r="AH926" s="13"/>
       <c r="AI926" s="13"/>
     </row>
-    <row r="927" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="13"/>
       <c r="B927" s="14"/>
       <c r="C927" s="13"/>
@@ -35288,7 +35320,7 @@
       <c r="AH927" s="13"/>
       <c r="AI927" s="13"/>
     </row>
-    <row r="928" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="13"/>
       <c r="B928" s="14"/>
       <c r="C928" s="13"/>
@@ -35325,7 +35357,7 @@
       <c r="AH928" s="13"/>
       <c r="AI928" s="13"/>
     </row>
-    <row r="929" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="13"/>
       <c r="B929" s="14"/>
       <c r="C929" s="13"/>
@@ -35362,7 +35394,7 @@
       <c r="AH929" s="13"/>
       <c r="AI929" s="13"/>
     </row>
-    <row r="930" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="13"/>
       <c r="B930" s="14"/>
       <c r="C930" s="13"/>
@@ -35399,7 +35431,7 @@
       <c r="AH930" s="13"/>
       <c r="AI930" s="13"/>
     </row>
-    <row r="931" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="13"/>
       <c r="B931" s="14"/>
       <c r="C931" s="13"/>
@@ -35436,7 +35468,7 @@
       <c r="AH931" s="13"/>
       <c r="AI931" s="13"/>
     </row>
-    <row r="932" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="13"/>
       <c r="B932" s="14"/>
       <c r="C932" s="13"/>
@@ -35473,7 +35505,7 @@
       <c r="AH932" s="13"/>
       <c r="AI932" s="13"/>
     </row>
-    <row r="933" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="13"/>
       <c r="B933" s="14"/>
       <c r="C933" s="13"/>
@@ -35510,7 +35542,7 @@
       <c r="AH933" s="13"/>
       <c r="AI933" s="13"/>
     </row>
-    <row r="934" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="13"/>
       <c r="B934" s="14"/>
       <c r="C934" s="13"/>
@@ -35547,7 +35579,7 @@
       <c r="AH934" s="13"/>
       <c r="AI934" s="13"/>
     </row>
-    <row r="935" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="13"/>
       <c r="B935" s="14"/>
       <c r="C935" s="13"/>
@@ -35584,7 +35616,7 @@
       <c r="AH935" s="13"/>
       <c r="AI935" s="13"/>
     </row>
-    <row r="936" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="13"/>
       <c r="B936" s="14"/>
       <c r="C936" s="13"/>
@@ -35621,7 +35653,7 @@
       <c r="AH936" s="13"/>
       <c r="AI936" s="13"/>
     </row>
-    <row r="937" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="13"/>
       <c r="B937" s="14"/>
       <c r="C937" s="13"/>
@@ -35658,7 +35690,7 @@
       <c r="AH937" s="13"/>
       <c r="AI937" s="13"/>
     </row>
-    <row r="938" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="13"/>
       <c r="B938" s="14"/>
       <c r="C938" s="13"/>
@@ -35695,7 +35727,7 @@
       <c r="AH938" s="13"/>
       <c r="AI938" s="13"/>
     </row>
-    <row r="939" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="13"/>
       <c r="B939" s="14"/>
       <c r="C939" s="13"/>
@@ -35732,7 +35764,7 @@
       <c r="AH939" s="13"/>
       <c r="AI939" s="13"/>
     </row>
-    <row r="940" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="13"/>
       <c r="B940" s="14"/>
       <c r="C940" s="13"/>
@@ -35769,7 +35801,7 @@
       <c r="AH940" s="13"/>
       <c r="AI940" s="13"/>
     </row>
-    <row r="941" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="13"/>
       <c r="B941" s="14"/>
       <c r="C941" s="13"/>
@@ -35806,7 +35838,7 @@
       <c r="AH941" s="13"/>
       <c r="AI941" s="13"/>
     </row>
-    <row r="942" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="13"/>
       <c r="B942" s="14"/>
       <c r="C942" s="13"/>
@@ -35843,7 +35875,7 @@
       <c r="AH942" s="13"/>
       <c r="AI942" s="13"/>
     </row>
-    <row r="943" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="13"/>
       <c r="B943" s="14"/>
       <c r="C943" s="13"/>
@@ -35880,7 +35912,7 @@
       <c r="AH943" s="13"/>
       <c r="AI943" s="13"/>
     </row>
-    <row r="944" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="13"/>
       <c r="B944" s="14"/>
       <c r="C944" s="13"/>
@@ -35917,7 +35949,7 @@
       <c r="AH944" s="13"/>
       <c r="AI944" s="13"/>
     </row>
-    <row r="945" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="13"/>
       <c r="B945" s="14"/>
       <c r="C945" s="13"/>
@@ -35954,7 +35986,7 @@
       <c r="AH945" s="13"/>
       <c r="AI945" s="13"/>
     </row>
-    <row r="946" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="13"/>
       <c r="B946" s="14"/>
       <c r="C946" s="13"/>
@@ -35991,7 +36023,7 @@
       <c r="AH946" s="13"/>
       <c r="AI946" s="13"/>
     </row>
-    <row r="947" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="13"/>
       <c r="B947" s="14"/>
       <c r="C947" s="13"/>
@@ -36028,7 +36060,7 @@
       <c r="AH947" s="13"/>
       <c r="AI947" s="13"/>
     </row>
-    <row r="948" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="13"/>
       <c r="B948" s="14"/>
       <c r="C948" s="13"/>
@@ -36065,7 +36097,7 @@
       <c r="AH948" s="13"/>
       <c r="AI948" s="13"/>
     </row>
-    <row r="949" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="13"/>
       <c r="B949" s="14"/>
       <c r="C949" s="13"/>
@@ -36102,7 +36134,7 @@
       <c r="AH949" s="13"/>
       <c r="AI949" s="13"/>
     </row>
-    <row r="950" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="13"/>
       <c r="B950" s="14"/>
       <c r="C950" s="13"/>
@@ -36139,7 +36171,7 @@
       <c r="AH950" s="13"/>
       <c r="AI950" s="13"/>
     </row>
-    <row r="951" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="13"/>
       <c r="B951" s="14"/>
       <c r="C951" s="13"/>
@@ -36176,7 +36208,7 @@
       <c r="AH951" s="13"/>
       <c r="AI951" s="13"/>
     </row>
-    <row r="952" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="13"/>
       <c r="B952" s="14"/>
       <c r="C952" s="13"/>
@@ -36213,7 +36245,7 @@
       <c r="AH952" s="13"/>
       <c r="AI952" s="13"/>
     </row>
-    <row r="953" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="13"/>
       <c r="B953" s="14"/>
       <c r="C953" s="13"/>
@@ -36250,7 +36282,7 @@
       <c r="AH953" s="13"/>
       <c r="AI953" s="13"/>
     </row>
-    <row r="954" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="13"/>
       <c r="B954" s="14"/>
       <c r="C954" s="13"/>
@@ -36287,7 +36319,7 @@
       <c r="AH954" s="13"/>
       <c r="AI954" s="13"/>
     </row>
-    <row r="955" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="13"/>
       <c r="B955" s="14"/>
       <c r="C955" s="13"/>
@@ -36324,7 +36356,7 @@
       <c r="AH955" s="13"/>
       <c r="AI955" s="13"/>
     </row>
-    <row r="956" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="13"/>
       <c r="B956" s="14"/>
       <c r="C956" s="13"/>
@@ -36361,7 +36393,7 @@
       <c r="AH956" s="13"/>
       <c r="AI956" s="13"/>
     </row>
-    <row r="957" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="13"/>
       <c r="B957" s="14"/>
       <c r="C957" s="13"/>
@@ -36398,7 +36430,7 @@
       <c r="AH957" s="13"/>
       <c r="AI957" s="13"/>
     </row>
-    <row r="958" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="13"/>
       <c r="B958" s="14"/>
       <c r="C958" s="13"/>
@@ -36435,7 +36467,7 @@
       <c r="AH958" s="13"/>
       <c r="AI958" s="13"/>
     </row>
-    <row r="959" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="13"/>
       <c r="B959" s="14"/>
       <c r="C959" s="13"/>
@@ -36472,7 +36504,7 @@
       <c r="AH959" s="13"/>
       <c r="AI959" s="13"/>
     </row>
-    <row r="960" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="13"/>
       <c r="B960" s="14"/>
       <c r="C960" s="13"/>
@@ -36509,7 +36541,7 @@
       <c r="AH960" s="13"/>
       <c r="AI960" s="13"/>
     </row>
-    <row r="961" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="13"/>
       <c r="B961" s="14"/>
       <c r="C961" s="13"/>
@@ -36546,7 +36578,7 @@
       <c r="AH961" s="13"/>
       <c r="AI961" s="13"/>
     </row>
-    <row r="962" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="13"/>
       <c r="B962" s="14"/>
       <c r="C962" s="13"/>
@@ -36583,7 +36615,7 @@
       <c r="AH962" s="13"/>
       <c r="AI962" s="13"/>
     </row>
-    <row r="963" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="13"/>
       <c r="B963" s="14"/>
       <c r="C963" s="13"/>
@@ -36620,7 +36652,7 @@
       <c r="AH963" s="13"/>
       <c r="AI963" s="13"/>
     </row>
-    <row r="964" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="13"/>
       <c r="B964" s="14"/>
       <c r="C964" s="13"/>
@@ -36657,7 +36689,7 @@
       <c r="AH964" s="13"/>
       <c r="AI964" s="13"/>
     </row>
-    <row r="965" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="13"/>
       <c r="B965" s="14"/>
       <c r="C965" s="13"/>
@@ -36694,7 +36726,7 @@
       <c r="AH965" s="13"/>
       <c r="AI965" s="13"/>
     </row>
-    <row r="966" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="13"/>
       <c r="B966" s="14"/>
       <c r="C966" s="13"/>
@@ -36731,7 +36763,7 @@
       <c r="AH966" s="13"/>
       <c r="AI966" s="13"/>
     </row>
-    <row r="967" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="13"/>
       <c r="B967" s="14"/>
       <c r="C967" s="13"/>
@@ -36768,7 +36800,7 @@
       <c r="AH967" s="13"/>
       <c r="AI967" s="13"/>
     </row>
-    <row r="968" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="13"/>
       <c r="B968" s="14"/>
       <c r="C968" s="13"/>
@@ -36805,7 +36837,7 @@
       <c r="AH968" s="13"/>
       <c r="AI968" s="13"/>
     </row>
-    <row r="969" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="13"/>
       <c r="B969" s="14"/>
       <c r="C969" s="13"/>
@@ -36842,7 +36874,7 @@
       <c r="AH969" s="13"/>
       <c r="AI969" s="13"/>
     </row>
-    <row r="970" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="13"/>
       <c r="B970" s="14"/>
       <c r="C970" s="13"/>
@@ -36879,7 +36911,7 @@
       <c r="AH970" s="13"/>
       <c r="AI970" s="13"/>
     </row>
-    <row r="971" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="13"/>
       <c r="B971" s="14"/>
       <c r="C971" s="13"/>
@@ -36916,7 +36948,7 @@
       <c r="AH971" s="13"/>
       <c r="AI971" s="13"/>
     </row>
-    <row r="972" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="13"/>
       <c r="B972" s="14"/>
       <c r="C972" s="13"/>
@@ -36953,7 +36985,7 @@
       <c r="AH972" s="13"/>
       <c r="AI972" s="13"/>
     </row>
-    <row r="973" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="13"/>
       <c r="B973" s="14"/>
       <c r="C973" s="13"/>
@@ -36990,7 +37022,7 @@
       <c r="AH973" s="13"/>
       <c r="AI973" s="13"/>
     </row>
-    <row r="974" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="13"/>
       <c r="B974" s="14"/>
       <c r="C974" s="13"/>
@@ -37027,7 +37059,7 @@
       <c r="AH974" s="13"/>
       <c r="AI974" s="13"/>
     </row>
-    <row r="975" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="13"/>
       <c r="B975" s="14"/>
       <c r="C975" s="13"/>
@@ -37064,7 +37096,7 @@
       <c r="AH975" s="13"/>
       <c r="AI975" s="13"/>
     </row>
-    <row r="976" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="13"/>
       <c r="B976" s="14"/>
       <c r="C976" s="13"/>
@@ -37101,7 +37133,7 @@
       <c r="AH976" s="13"/>
       <c r="AI976" s="13"/>
     </row>
-    <row r="977" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="13"/>
       <c r="B977" s="14"/>
       <c r="C977" s="13"/>
@@ -37138,7 +37170,7 @@
       <c r="AH977" s="13"/>
       <c r="AI977" s="13"/>
     </row>
-    <row r="978" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="13"/>
       <c r="B978" s="14"/>
       <c r="C978" s="13"/>
@@ -37175,7 +37207,7 @@
       <c r="AH978" s="13"/>
       <c r="AI978" s="13"/>
     </row>
-    <row r="979" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="13"/>
       <c r="B979" s="14"/>
       <c r="C979" s="13"/>
@@ -37212,7 +37244,7 @@
       <c r="AH979" s="13"/>
       <c r="AI979" s="13"/>
     </row>
-    <row r="980" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="13"/>
       <c r="B980" s="14"/>
       <c r="C980" s="13"/>
@@ -37249,7 +37281,7 @@
       <c r="AH980" s="13"/>
       <c r="AI980" s="13"/>
     </row>
-    <row r="981" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="13"/>
       <c r="B981" s="14"/>
       <c r="C981" s="13"/>
@@ -37286,7 +37318,7 @@
       <c r="AH981" s="13"/>
       <c r="AI981" s="13"/>
     </row>
-    <row r="982" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="13"/>
       <c r="B982" s="14"/>
       <c r="C982" s="13"/>
@@ -37323,7 +37355,7 @@
       <c r="AH982" s="13"/>
       <c r="AI982" s="13"/>
     </row>
-    <row r="983" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="13"/>
       <c r="B983" s="14"/>
       <c r="C983" s="13"/>
@@ -37360,7 +37392,7 @@
       <c r="AH983" s="13"/>
       <c r="AI983" s="13"/>
     </row>
-    <row r="984" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="13"/>
       <c r="B984" s="14"/>
       <c r="C984" s="13"/>
@@ -37397,7 +37429,7 @@
       <c r="AH984" s="13"/>
       <c r="AI984" s="13"/>
     </row>
-    <row r="985" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="13"/>
       <c r="B985" s="14"/>
       <c r="C985" s="13"/>
@@ -37434,7 +37466,7 @@
       <c r="AH985" s="13"/>
       <c r="AI985" s="13"/>
     </row>
-    <row r="986" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="13"/>
       <c r="B986" s="14"/>
       <c r="C986" s="13"/>
@@ -37471,7 +37503,7 @@
       <c r="AH986" s="13"/>
       <c r="AI986" s="13"/>
     </row>
-    <row r="987" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="13"/>
       <c r="B987" s="14"/>
       <c r="C987" s="13"/>
@@ -37508,7 +37540,7 @@
       <c r="AH987" s="13"/>
       <c r="AI987" s="13"/>
     </row>
-    <row r="988" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="13"/>
       <c r="B988" s="14"/>
       <c r="C988" s="13"/>
@@ -37545,7 +37577,7 @@
       <c r="AH988" s="13"/>
       <c r="AI988" s="13"/>
     </row>
-    <row r="989" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="13"/>
       <c r="B989" s="14"/>
       <c r="C989" s="13"/>
@@ -37582,7 +37614,7 @@
       <c r="AH989" s="13"/>
       <c r="AI989" s="13"/>
     </row>
-    <row r="990" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="13"/>
       <c r="B990" s="14"/>
       <c r="C990" s="13"/>
@@ -37619,7 +37651,7 @@
       <c r="AH990" s="13"/>
       <c r="AI990" s="13"/>
     </row>
-    <row r="991" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="13"/>
       <c r="B991" s="14"/>
       <c r="C991" s="13"/>
@@ -37656,7 +37688,7 @@
       <c r="AH991" s="13"/>
       <c r="AI991" s="13"/>
     </row>
-    <row r="992" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="13"/>
       <c r="B992" s="14"/>
       <c r="C992" s="13"/>
@@ -37693,7 +37725,7 @@
       <c r="AH992" s="13"/>
       <c r="AI992" s="13"/>
     </row>
-    <row r="993" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="13"/>
       <c r="B993" s="14"/>
       <c r="C993" s="13"/>
@@ -37730,7 +37762,7 @@
       <c r="AH993" s="13"/>
       <c r="AI993" s="13"/>
     </row>
-    <row r="994" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="13"/>
       <c r="B994" s="14"/>
       <c r="C994" s="13"/>
@@ -37767,7 +37799,7 @@
       <c r="AH994" s="13"/>
       <c r="AI994" s="13"/>
     </row>
-    <row r="995" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="13"/>
       <c r="B995" s="14"/>
       <c r="C995" s="13"/>
@@ -37804,7 +37836,7 @@
       <c r="AH995" s="13"/>
       <c r="AI995" s="13"/>
     </row>
-    <row r="996" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="13"/>
       <c r="B996" s="14"/>
       <c r="C996" s="13"/>
@@ -37841,7 +37873,7 @@
       <c r="AH996" s="13"/>
       <c r="AI996" s="13"/>
     </row>
-    <row r="997" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="13"/>
       <c r="B997" s="14"/>
       <c r="C997" s="13"/>
@@ -37878,7 +37910,7 @@
       <c r="AH997" s="13"/>
       <c r="AI997" s="13"/>
     </row>
-    <row r="998" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="13"/>
       <c r="B998" s="14"/>
       <c r="C998" s="13"/>
@@ -37915,7 +37947,7 @@
       <c r="AH998" s="13"/>
       <c r="AI998" s="13"/>
     </row>
-    <row r="999" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="13"/>
       <c r="B999" s="14"/>
       <c r="C999" s="13"/>
@@ -37952,7 +37984,7 @@
       <c r="AH999" s="13"/>
       <c r="AI999" s="13"/>
     </row>
-    <row r="1000" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="13"/>
       <c r="B1000" s="14"/>
       <c r="C1000" s="13"/>
@@ -37989,7 +38021,7 @@
       <c r="AH1000" s="13"/>
       <c r="AI1000" s="13"/>
     </row>
-    <row r="1001" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1001" s="13"/>
       <c r="B1001" s="14"/>
       <c r="C1001" s="13"/>
@@ -38026,7 +38058,7 @@
       <c r="AH1001" s="13"/>
       <c r="AI1001" s="13"/>
     </row>
-    <row r="1002" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1002" s="13"/>
       <c r="B1002" s="14"/>
       <c r="C1002" s="13"/>
@@ -38063,7 +38095,7 @@
       <c r="AH1002" s="13"/>
       <c r="AI1002" s="13"/>
     </row>
-    <row r="1003" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1003" s="13"/>
       <c r="B1003" s="14"/>
       <c r="C1003" s="13"/>
@@ -38100,7 +38132,7 @@
       <c r="AH1003" s="13"/>
       <c r="AI1003" s="13"/>
     </row>
-    <row r="1004" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1004" s="13"/>
       <c r="B1004" s="14"/>
       <c r="C1004" s="13"/>
@@ -38137,7 +38169,7 @@
       <c r="AH1004" s="13"/>
       <c r="AI1004" s="13"/>
     </row>
-    <row r="1005" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1005" s="13"/>
       <c r="B1005" s="14"/>
       <c r="C1005" s="13"/>
@@ -38174,7 +38206,7 @@
       <c r="AH1005" s="13"/>
       <c r="AI1005" s="13"/>
     </row>
-    <row r="1006" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1006" s="13"/>
       <c r="B1006" s="14"/>
       <c r="C1006" s="13"/>

--- a/_Gantt Timeline.xlsx
+++ b/_Gantt Timeline.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="7032"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="AML Project plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>Alex Gorton</t>
   </si>
@@ -112,13 +111,7 @@
     <t>ready</t>
   </si>
   <si>
-    <t>test data set</t>
-  </si>
-  <si>
     <t>clean, scale</t>
-  </si>
-  <si>
-    <t>file with required features as output, there may be new features created. For example, new indicator showing the speed of change in the data volume during last 5 min.</t>
   </si>
   <si>
     <t>Selecting features (reitareble)</t>
@@ -127,7 +120,16 @@
     <t>Refining algorithms (reitareble)</t>
   </si>
   <si>
-    <t>train-train and train-validate datasets. Validation set should be of the size of test set.</t>
+    <t>file with list of features to use, there may be new features created. For example, new indicator showing the speed of change in the data volume during last 5 min.</t>
+  </si>
+  <si>
+    <t>list of five ML algorythm that fit to the task.</t>
+  </si>
+  <si>
+    <t>Split TRAIN dataset into train-train and train-validate datasets. Validation set should be of the size of TEST set.</t>
+  </si>
+  <si>
+    <t>Test model on TEST data set. If accuracy is similar to test-validate results it is good since means the model is generalized.</t>
   </si>
 </sst>
 </file>
@@ -193,7 +195,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,7 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +541,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,21 +774,21 @@
   </sheetPr>
   <dimension ref="A1:AK1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="208" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="5" customWidth="1"/>
-    <col min="4" max="23" width="5.109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="14.44140625" style="5"/>
+    <col min="1" max="1" width="36.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
+    <col min="4" max="23" width="5.140625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -779,7 +798,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="4"/>
@@ -810,7 +829,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -849,7 +868,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -890,7 +909,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -931,7 +950,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -972,7 +991,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -1053,11 +1072,11 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="22"/>
@@ -1138,33 +1157,33 @@
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
     </row>
-    <row r="8" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="G8" s="32"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="O8" s="32"/>
       <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="27"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="63"/>
       <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="T8" s="63"/>
       <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
+      <c r="V8" s="63"/>
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
       <c r="Y8" s="13"/>
@@ -1181,7 +1200,7 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
     </row>
-    <row r="9" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
@@ -1197,10 +1216,14 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="31"/>
-      <c r="R9" s="27"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
@@ -1221,25 +1244,31 @@
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
     </row>
-    <row r="10" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="26"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="32"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="28"/>
-      <c r="S10" s="32"/>
+      <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
       <c r="V10" s="28"/>
@@ -1259,25 +1288,31 @@
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
     </row>
-    <row r="11" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="32"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
-      <c r="R11" s="34"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="28"/>
-      <c r="T11" s="32"/>
+      <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="42"/>
@@ -1296,26 +1331,32 @@
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
     </row>
-    <row r="12" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="32"/>
       <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="32"/>
       <c r="T12" s="28"/>
-      <c r="U12" s="32"/>
+      <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="42"/>
       <c r="X12" s="33"/>
@@ -1333,28 +1374,34 @@
       <c r="AJ12" s="13"/>
       <c r="AK12" s="13"/>
     </row>
-    <row r="13" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
-      <c r="R13" s="34"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="28"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="42"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
@@ -1370,11 +1417,11 @@
       <c r="AJ13" s="13"/>
       <c r="AK13" s="13"/>
     </row>
-    <row r="14" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="26" t="s">
         <v>17</v>
       </c>
@@ -1395,9 +1442,9 @@
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="60"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
@@ -1413,11 +1460,11 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
     </row>
-    <row r="15" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="36" t="s">
         <v>17</v>
       </c>
@@ -1439,8 +1486,8 @@
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="43"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="62"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
@@ -1456,7 +1503,7 @@
       <c r="AJ15" s="13"/>
       <c r="AK15" s="13"/>
     </row>
-    <row r="16" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -1493,7 +1540,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -1530,7 +1577,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -1567,7 +1614,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1610,13 +1657,13 @@
       <c r="P19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="50" t="s">
+      <c r="Q19" s="49" t="s">
         <v>10</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S19" s="50" t="s">
+      <c r="S19" s="49" t="s">
         <v>10</v>
       </c>
       <c r="T19" s="11" t="s">
@@ -1646,11 +1693,11 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" ht="38.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="36.75" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="22"/>
@@ -1693,13 +1740,13 @@
       <c r="P20" s="23">
         <v>43821</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="50">
         <v>43825</v>
       </c>
       <c r="R20" s="23">
         <v>43828</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="50">
         <v>43832</v>
       </c>
       <c r="T20" s="23">
@@ -1729,15 +1776,15 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="32"/>
@@ -1750,9 +1797,9 @@
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
-      <c r="Q21" s="52"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="34"/>
-      <c r="S21" s="55"/>
+      <c r="S21" s="54"/>
       <c r="T21" s="31"/>
       <c r="U21" s="31"/>
       <c r="V21" s="31"/>
@@ -1770,12 +1817,12 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>5</v>
@@ -1788,9 +1835,9 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="34"/>
-      <c r="S22" s="52"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
@@ -1808,12 +1855,12 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>32</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>3</v>
@@ -1829,9 +1876,9 @@
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
-      <c r="Q23" s="53"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="28"/>
-      <c r="S23" s="56"/>
+      <c r="S23" s="55"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
@@ -1849,11 +1896,13 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="16" t="s">
         <v>1</v>
       </c>
@@ -1869,9 +1918,9 @@
       <c r="M24" s="32"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
-      <c r="Q24" s="53"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="34"/>
-      <c r="S24" s="53"/>
+      <c r="S24" s="52"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
@@ -1889,11 +1938,11 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>34</v>
+    <row r="25" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>32</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -1911,9 +1960,9 @@
       <c r="M25" s="28"/>
       <c r="N25" s="32"/>
       <c r="O25" s="28"/>
-      <c r="Q25" s="53"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="34"/>
-      <c r="S25" s="53"/>
+      <c r="S25" s="52"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
       <c r="V25" s="31"/>
@@ -1931,12 +1980,12 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>30</v>
+      <c r="B26" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>7</v>
@@ -1953,9 +2002,9 @@
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
       <c r="O26" s="32"/>
-      <c r="Q26" s="53"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="34"/>
-      <c r="S26" s="53"/>
+      <c r="S26" s="52"/>
       <c r="T26" s="31"/>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
@@ -1973,11 +2022,11 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="26" t="s">
         <v>17</v>
       </c>
@@ -1994,9 +2043,9 @@
       <c r="N27" s="28"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
-      <c r="Q27" s="53"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="26"/>
-      <c r="S27" s="57"/>
+      <c r="S27" s="56"/>
       <c r="T27" s="26"/>
       <c r="U27" s="31"/>
       <c r="V27" s="31"/>
@@ -2014,11 +2063,11 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="36" t="s">
         <v>17</v>
       </c>
@@ -2035,9 +2084,9 @@
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
-      <c r="Q28" s="54"/>
+      <c r="Q28" s="53"/>
       <c r="R28" s="27"/>
-      <c r="S28" s="54"/>
+      <c r="S28" s="53"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27" t="s">
         <v>29</v>
@@ -2057,7 +2106,7 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
     </row>
-    <row r="29" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
@@ -2094,7 +2143,7 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
     </row>
-    <row r="30" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="13"/>
@@ -2131,7 +2180,7 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2168,7 +2217,7 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
-    <row r="32" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="13"/>
@@ -2205,7 +2254,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="13"/>
@@ -2242,7 +2291,7 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
-    <row r="34" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="13"/>
@@ -2279,7 +2328,7 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
     </row>
-    <row r="35" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="13"/>
@@ -2316,7 +2365,7 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
     </row>
-    <row r="36" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="13"/>
@@ -2353,7 +2402,7 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
     </row>
-    <row r="37" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="13"/>
@@ -2390,7 +2439,7 @@
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
     </row>
-    <row r="38" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="13"/>
@@ -2427,7 +2476,7 @@
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
     </row>
-    <row r="39" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="13"/>
@@ -2464,7 +2513,7 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
     </row>
-    <row r="40" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="13"/>
@@ -2501,7 +2550,7 @@
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
     </row>
-    <row r="41" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="13"/>
@@ -2538,7 +2587,7 @@
       <c r="AH41" s="13"/>
       <c r="AI41" s="13"/>
     </row>
-    <row r="42" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="13"/>
@@ -2575,7 +2624,7 @@
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
     </row>
-    <row r="43" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="13"/>
@@ -2612,7 +2661,7 @@
       <c r="AH43" s="13"/>
       <c r="AI43" s="13"/>
     </row>
-    <row r="44" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="13"/>
@@ -2649,7 +2698,7 @@
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
     </row>
-    <row r="45" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="13"/>
@@ -2686,7 +2735,7 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
     </row>
-    <row r="46" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="13"/>
@@ -2723,7 +2772,7 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
     </row>
-    <row r="47" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="13"/>
@@ -2760,7 +2809,7 @@
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
     </row>
-    <row r="48" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="13"/>
@@ -2797,7 +2846,7 @@
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
     </row>
-    <row r="49" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="13"/>
@@ -2834,7 +2883,7 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
     </row>
-    <row r="50" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="13"/>
@@ -2871,7 +2920,7 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
     </row>
-    <row r="51" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="13"/>
@@ -2908,7 +2957,7 @@
       <c r="AH51" s="13"/>
       <c r="AI51" s="13"/>
     </row>
-    <row r="52" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="13"/>
@@ -2945,7 +2994,7 @@
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
     </row>
-    <row r="53" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="13"/>
@@ -2982,7 +3031,7 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
     </row>
-    <row r="54" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="13"/>
@@ -3019,7 +3068,7 @@
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
     </row>
-    <row r="55" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="13"/>
@@ -3056,7 +3105,7 @@
       <c r="AH55" s="13"/>
       <c r="AI55" s="13"/>
     </row>
-    <row r="56" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="13"/>
@@ -3093,7 +3142,7 @@
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
     </row>
-    <row r="57" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="13"/>
@@ -3130,7 +3179,7 @@
       <c r="AH57" s="13"/>
       <c r="AI57" s="13"/>
     </row>
-    <row r="58" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="13"/>
@@ -3167,7 +3216,7 @@
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
     </row>
-    <row r="59" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="13"/>
@@ -3204,7 +3253,7 @@
       <c r="AH59" s="13"/>
       <c r="AI59" s="13"/>
     </row>
-    <row r="60" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="13"/>
@@ -3241,7 +3290,7 @@
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
     </row>
-    <row r="61" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="13"/>
@@ -3278,7 +3327,7 @@
       <c r="AH61" s="13"/>
       <c r="AI61" s="13"/>
     </row>
-    <row r="62" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="13"/>
@@ -3315,7 +3364,7 @@
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
     </row>
-    <row r="63" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="13"/>
@@ -3352,7 +3401,7 @@
       <c r="AH63" s="13"/>
       <c r="AI63" s="13"/>
     </row>
-    <row r="64" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="13"/>
@@ -3389,7 +3438,7 @@
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
     </row>
-    <row r="65" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="13"/>
@@ -3426,7 +3475,7 @@
       <c r="AH65" s="13"/>
       <c r="AI65" s="13"/>
     </row>
-    <row r="66" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="13"/>
@@ -3463,7 +3512,7 @@
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
     </row>
-    <row r="67" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="13"/>
@@ -3500,7 +3549,7 @@
       <c r="AH67" s="13"/>
       <c r="AI67" s="13"/>
     </row>
-    <row r="68" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="13"/>
@@ -3537,7 +3586,7 @@
       <c r="AH68" s="13"/>
       <c r="AI68" s="13"/>
     </row>
-    <row r="69" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="13"/>
@@ -3574,7 +3623,7 @@
       <c r="AH69" s="13"/>
       <c r="AI69" s="13"/>
     </row>
-    <row r="70" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="13"/>
@@ -3611,7 +3660,7 @@
       <c r="AH70" s="13"/>
       <c r="AI70" s="13"/>
     </row>
-    <row r="71" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="13"/>
@@ -3648,7 +3697,7 @@
       <c r="AH71" s="13"/>
       <c r="AI71" s="13"/>
     </row>
-    <row r="72" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="13"/>
@@ -3685,7 +3734,7 @@
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
     </row>
-    <row r="73" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="13"/>
@@ -3722,7 +3771,7 @@
       <c r="AH73" s="13"/>
       <c r="AI73" s="13"/>
     </row>
-    <row r="74" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -3759,7 +3808,7 @@
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
     </row>
-    <row r="75" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="13"/>
@@ -3796,7 +3845,7 @@
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
     </row>
-    <row r="76" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="13"/>
@@ -3833,7 +3882,7 @@
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
     </row>
-    <row r="77" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="13"/>
@@ -3870,7 +3919,7 @@
       <c r="AH77" s="13"/>
       <c r="AI77" s="13"/>
     </row>
-    <row r="78" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="13"/>
@@ -3907,7 +3956,7 @@
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
     </row>
-    <row r="79" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="13"/>
@@ -3944,7 +3993,7 @@
       <c r="AH79" s="13"/>
       <c r="AI79" s="13"/>
     </row>
-    <row r="80" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="13"/>
@@ -3981,7 +4030,7 @@
       <c r="AH80" s="13"/>
       <c r="AI80" s="13"/>
     </row>
-    <row r="81" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="13"/>
@@ -4018,7 +4067,7 @@
       <c r="AH81" s="13"/>
       <c r="AI81" s="13"/>
     </row>
-    <row r="82" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="13"/>
@@ -4055,7 +4104,7 @@
       <c r="AH82" s="13"/>
       <c r="AI82" s="13"/>
     </row>
-    <row r="83" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="13"/>
@@ -4092,7 +4141,7 @@
       <c r="AH83" s="13"/>
       <c r="AI83" s="13"/>
     </row>
-    <row r="84" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="13"/>
@@ -4129,7 +4178,7 @@
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
     </row>
-    <row r="85" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="13"/>
@@ -4166,7 +4215,7 @@
       <c r="AH85" s="13"/>
       <c r="AI85" s="13"/>
     </row>
-    <row r="86" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="13"/>
@@ -4203,7 +4252,7 @@
       <c r="AH86" s="13"/>
       <c r="AI86" s="13"/>
     </row>
-    <row r="87" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="13"/>
@@ -4240,7 +4289,7 @@
       <c r="AH87" s="13"/>
       <c r="AI87" s="13"/>
     </row>
-    <row r="88" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="13"/>
@@ -4277,7 +4326,7 @@
       <c r="AH88" s="13"/>
       <c r="AI88" s="13"/>
     </row>
-    <row r="89" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="13"/>
@@ -4314,7 +4363,7 @@
       <c r="AH89" s="13"/>
       <c r="AI89" s="13"/>
     </row>
-    <row r="90" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="13"/>
@@ -4351,7 +4400,7 @@
       <c r="AH90" s="13"/>
       <c r="AI90" s="13"/>
     </row>
-    <row r="91" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="13"/>
@@ -4388,7 +4437,7 @@
       <c r="AH91" s="13"/>
       <c r="AI91" s="13"/>
     </row>
-    <row r="92" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="13"/>
@@ -4425,7 +4474,7 @@
       <c r="AH92" s="13"/>
       <c r="AI92" s="13"/>
     </row>
-    <row r="93" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="13"/>
@@ -4462,7 +4511,7 @@
       <c r="AH93" s="13"/>
       <c r="AI93" s="13"/>
     </row>
-    <row r="94" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="13"/>
@@ -4499,7 +4548,7 @@
       <c r="AH94" s="13"/>
       <c r="AI94" s="13"/>
     </row>
-    <row r="95" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="13"/>
@@ -4536,7 +4585,7 @@
       <c r="AH95" s="13"/>
       <c r="AI95" s="13"/>
     </row>
-    <row r="96" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="13"/>
@@ -4573,7 +4622,7 @@
       <c r="AH96" s="13"/>
       <c r="AI96" s="13"/>
     </row>
-    <row r="97" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="13"/>
@@ -4610,7 +4659,7 @@
       <c r="AH97" s="13"/>
       <c r="AI97" s="13"/>
     </row>
-    <row r="98" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="13"/>
@@ -4647,7 +4696,7 @@
       <c r="AH98" s="13"/>
       <c r="AI98" s="13"/>
     </row>
-    <row r="99" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="13"/>
@@ -4684,7 +4733,7 @@
       <c r="AH99" s="13"/>
       <c r="AI99" s="13"/>
     </row>
-    <row r="100" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="13"/>
@@ -4721,7 +4770,7 @@
       <c r="AH100" s="13"/>
       <c r="AI100" s="13"/>
     </row>
-    <row r="101" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="13"/>
@@ -4758,7 +4807,7 @@
       <c r="AH101" s="13"/>
       <c r="AI101" s="13"/>
     </row>
-    <row r="102" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="13"/>
@@ -4795,7 +4844,7 @@
       <c r="AH102" s="13"/>
       <c r="AI102" s="13"/>
     </row>
-    <row r="103" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="13"/>
@@ -4832,7 +4881,7 @@
       <c r="AH103" s="13"/>
       <c r="AI103" s="13"/>
     </row>
-    <row r="104" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="13"/>
@@ -4869,7 +4918,7 @@
       <c r="AH104" s="13"/>
       <c r="AI104" s="13"/>
     </row>
-    <row r="105" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="13"/>
@@ -4906,7 +4955,7 @@
       <c r="AH105" s="13"/>
       <c r="AI105" s="13"/>
     </row>
-    <row r="106" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="13"/>
@@ -4943,7 +4992,7 @@
       <c r="AH106" s="13"/>
       <c r="AI106" s="13"/>
     </row>
-    <row r="107" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="13"/>
@@ -4980,7 +5029,7 @@
       <c r="AH107" s="13"/>
       <c r="AI107" s="13"/>
     </row>
-    <row r="108" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="13"/>
@@ -5017,7 +5066,7 @@
       <c r="AH108" s="13"/>
       <c r="AI108" s="13"/>
     </row>
-    <row r="109" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="13"/>
@@ -5054,7 +5103,7 @@
       <c r="AH109" s="13"/>
       <c r="AI109" s="13"/>
     </row>
-    <row r="110" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -5091,7 +5140,7 @@
       <c r="AH110" s="13"/>
       <c r="AI110" s="13"/>
     </row>
-    <row r="111" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
@@ -5128,7 +5177,7 @@
       <c r="AH111" s="13"/>
       <c r="AI111" s="13"/>
     </row>
-    <row r="112" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="13"/>
@@ -5165,7 +5214,7 @@
       <c r="AH112" s="13"/>
       <c r="AI112" s="13"/>
     </row>
-    <row r="113" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="13"/>
@@ -5202,7 +5251,7 @@
       <c r="AH113" s="13"/>
       <c r="AI113" s="13"/>
     </row>
-    <row r="114" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="13"/>
@@ -5239,7 +5288,7 @@
       <c r="AH114" s="13"/>
       <c r="AI114" s="13"/>
     </row>
-    <row r="115" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="13"/>
@@ -5276,7 +5325,7 @@
       <c r="AH115" s="13"/>
       <c r="AI115" s="13"/>
     </row>
-    <row r="116" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="13"/>
@@ -5313,7 +5362,7 @@
       <c r="AH116" s="13"/>
       <c r="AI116" s="13"/>
     </row>
-    <row r="117" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="13"/>
@@ -5350,7 +5399,7 @@
       <c r="AH117" s="13"/>
       <c r="AI117" s="13"/>
     </row>
-    <row r="118" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="13"/>
@@ -5387,7 +5436,7 @@
       <c r="AH118" s="13"/>
       <c r="AI118" s="13"/>
     </row>
-    <row r="119" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="13"/>
@@ -5424,7 +5473,7 @@
       <c r="AH119" s="13"/>
       <c r="AI119" s="13"/>
     </row>
-    <row r="120" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="13"/>
@@ -5461,7 +5510,7 @@
       <c r="AH120" s="13"/>
       <c r="AI120" s="13"/>
     </row>
-    <row r="121" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="13"/>
@@ -5498,7 +5547,7 @@
       <c r="AH121" s="13"/>
       <c r="AI121" s="13"/>
     </row>
-    <row r="122" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="13"/>
@@ -5535,7 +5584,7 @@
       <c r="AH122" s="13"/>
       <c r="AI122" s="13"/>
     </row>
-    <row r="123" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="13"/>
@@ -5572,7 +5621,7 @@
       <c r="AH123" s="13"/>
       <c r="AI123" s="13"/>
     </row>
-    <row r="124" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="13"/>
@@ -5609,7 +5658,7 @@
       <c r="AH124" s="13"/>
       <c r="AI124" s="13"/>
     </row>
-    <row r="125" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="13"/>
@@ -5646,7 +5695,7 @@
       <c r="AH125" s="13"/>
       <c r="AI125" s="13"/>
     </row>
-    <row r="126" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="13"/>
@@ -5683,7 +5732,7 @@
       <c r="AH126" s="13"/>
       <c r="AI126" s="13"/>
     </row>
-    <row r="127" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="13"/>
@@ -5720,7 +5769,7 @@
       <c r="AH127" s="13"/>
       <c r="AI127" s="13"/>
     </row>
-    <row r="128" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="13"/>
@@ -5757,7 +5806,7 @@
       <c r="AH128" s="13"/>
       <c r="AI128" s="13"/>
     </row>
-    <row r="129" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="13"/>
@@ -5794,7 +5843,7 @@
       <c r="AH129" s="13"/>
       <c r="AI129" s="13"/>
     </row>
-    <row r="130" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="13"/>
@@ -5831,7 +5880,7 @@
       <c r="AH130" s="13"/>
       <c r="AI130" s="13"/>
     </row>
-    <row r="131" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="13"/>
@@ -5868,7 +5917,7 @@
       <c r="AH131" s="13"/>
       <c r="AI131" s="13"/>
     </row>
-    <row r="132" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="13"/>
@@ -5905,7 +5954,7 @@
       <c r="AH132" s="13"/>
       <c r="AI132" s="13"/>
     </row>
-    <row r="133" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="13"/>
@@ -5942,7 +5991,7 @@
       <c r="AH133" s="13"/>
       <c r="AI133" s="13"/>
     </row>
-    <row r="134" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="13"/>
@@ -5979,7 +6028,7 @@
       <c r="AH134" s="13"/>
       <c r="AI134" s="13"/>
     </row>
-    <row r="135" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="13"/>
@@ -6016,7 +6065,7 @@
       <c r="AH135" s="13"/>
       <c r="AI135" s="13"/>
     </row>
-    <row r="136" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="13"/>
@@ -6053,7 +6102,7 @@
       <c r="AH136" s="13"/>
       <c r="AI136" s="13"/>
     </row>
-    <row r="137" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="13"/>
@@ -6090,7 +6139,7 @@
       <c r="AH137" s="13"/>
       <c r="AI137" s="13"/>
     </row>
-    <row r="138" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="13"/>
@@ -6127,7 +6176,7 @@
       <c r="AH138" s="13"/>
       <c r="AI138" s="13"/>
     </row>
-    <row r="139" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="13"/>
@@ -6164,7 +6213,7 @@
       <c r="AH139" s="13"/>
       <c r="AI139" s="13"/>
     </row>
-    <row r="140" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="13"/>
@@ -6201,7 +6250,7 @@
       <c r="AH140" s="13"/>
       <c r="AI140" s="13"/>
     </row>
-    <row r="141" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="13"/>
@@ -6238,7 +6287,7 @@
       <c r="AH141" s="13"/>
       <c r="AI141" s="13"/>
     </row>
-    <row r="142" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="13"/>
@@ -6275,7 +6324,7 @@
       <c r="AH142" s="13"/>
       <c r="AI142" s="13"/>
     </row>
-    <row r="143" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="13"/>
@@ -6312,7 +6361,7 @@
       <c r="AH143" s="13"/>
       <c r="AI143" s="13"/>
     </row>
-    <row r="144" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="13"/>
@@ -6349,7 +6398,7 @@
       <c r="AH144" s="13"/>
       <c r="AI144" s="13"/>
     </row>
-    <row r="145" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="13"/>
@@ -6386,7 +6435,7 @@
       <c r="AH145" s="13"/>
       <c r="AI145" s="13"/>
     </row>
-    <row r="146" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="13"/>
@@ -6423,7 +6472,7 @@
       <c r="AH146" s="13"/>
       <c r="AI146" s="13"/>
     </row>
-    <row r="147" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="13"/>
@@ -6460,7 +6509,7 @@
       <c r="AH147" s="13"/>
       <c r="AI147" s="13"/>
     </row>
-    <row r="148" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="13"/>
@@ -6497,7 +6546,7 @@
       <c r="AH148" s="13"/>
       <c r="AI148" s="13"/>
     </row>
-    <row r="149" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="13"/>
@@ -6534,7 +6583,7 @@
       <c r="AH149" s="13"/>
       <c r="AI149" s="13"/>
     </row>
-    <row r="150" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="13"/>
@@ -6571,7 +6620,7 @@
       <c r="AH150" s="13"/>
       <c r="AI150" s="13"/>
     </row>
-    <row r="151" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="13"/>
@@ -6608,7 +6657,7 @@
       <c r="AH151" s="13"/>
       <c r="AI151" s="13"/>
     </row>
-    <row r="152" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="13"/>
@@ -6645,7 +6694,7 @@
       <c r="AH152" s="13"/>
       <c r="AI152" s="13"/>
     </row>
-    <row r="153" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="13"/>
@@ -6682,7 +6731,7 @@
       <c r="AH153" s="13"/>
       <c r="AI153" s="13"/>
     </row>
-    <row r="154" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="13"/>
@@ -6719,7 +6768,7 @@
       <c r="AH154" s="13"/>
       <c r="AI154" s="13"/>
     </row>
-    <row r="155" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="13"/>
@@ -6756,7 +6805,7 @@
       <c r="AH155" s="13"/>
       <c r="AI155" s="13"/>
     </row>
-    <row r="156" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="13"/>
@@ -6793,7 +6842,7 @@
       <c r="AH156" s="13"/>
       <c r="AI156" s="13"/>
     </row>
-    <row r="157" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="13"/>
@@ -6830,7 +6879,7 @@
       <c r="AH157" s="13"/>
       <c r="AI157" s="13"/>
     </row>
-    <row r="158" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
@@ -6867,7 +6916,7 @@
       <c r="AH158" s="13"/>
       <c r="AI158" s="13"/>
     </row>
-    <row r="159" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="13"/>
@@ -6904,7 +6953,7 @@
       <c r="AH159" s="13"/>
       <c r="AI159" s="13"/>
     </row>
-    <row r="160" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="13"/>
@@ -6941,7 +6990,7 @@
       <c r="AH160" s="13"/>
       <c r="AI160" s="13"/>
     </row>
-    <row r="161" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="13"/>
@@ -6978,7 +7027,7 @@
       <c r="AH161" s="13"/>
       <c r="AI161" s="13"/>
     </row>
-    <row r="162" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="13"/>
@@ -7015,7 +7064,7 @@
       <c r="AH162" s="13"/>
       <c r="AI162" s="13"/>
     </row>
-    <row r="163" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="13"/>
@@ -7052,7 +7101,7 @@
       <c r="AH163" s="13"/>
       <c r="AI163" s="13"/>
     </row>
-    <row r="164" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="13"/>
@@ -7089,7 +7138,7 @@
       <c r="AH164" s="13"/>
       <c r="AI164" s="13"/>
     </row>
-    <row r="165" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="13"/>
@@ -7126,7 +7175,7 @@
       <c r="AH165" s="13"/>
       <c r="AI165" s="13"/>
     </row>
-    <row r="166" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="13"/>
@@ -7163,7 +7212,7 @@
       <c r="AH166" s="13"/>
       <c r="AI166" s="13"/>
     </row>
-    <row r="167" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="13"/>
@@ -7200,7 +7249,7 @@
       <c r="AH167" s="13"/>
       <c r="AI167" s="13"/>
     </row>
-    <row r="168" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="13"/>
@@ -7237,7 +7286,7 @@
       <c r="AH168" s="13"/>
       <c r="AI168" s="13"/>
     </row>
-    <row r="169" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="13"/>
@@ -7274,7 +7323,7 @@
       <c r="AH169" s="13"/>
       <c r="AI169" s="13"/>
     </row>
-    <row r="170" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="13"/>
@@ -7311,7 +7360,7 @@
       <c r="AH170" s="13"/>
       <c r="AI170" s="13"/>
     </row>
-    <row r="171" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="13"/>
@@ -7348,7 +7397,7 @@
       <c r="AH171" s="13"/>
       <c r="AI171" s="13"/>
     </row>
-    <row r="172" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="13"/>
@@ -7385,7 +7434,7 @@
       <c r="AH172" s="13"/>
       <c r="AI172" s="13"/>
     </row>
-    <row r="173" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="13"/>
@@ -7422,7 +7471,7 @@
       <c r="AH173" s="13"/>
       <c r="AI173" s="13"/>
     </row>
-    <row r="174" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="13"/>
@@ -7459,7 +7508,7 @@
       <c r="AH174" s="13"/>
       <c r="AI174" s="13"/>
     </row>
-    <row r="175" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="13"/>
@@ -7496,7 +7545,7 @@
       <c r="AH175" s="13"/>
       <c r="AI175" s="13"/>
     </row>
-    <row r="176" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="13"/>
@@ -7533,7 +7582,7 @@
       <c r="AH176" s="13"/>
       <c r="AI176" s="13"/>
     </row>
-    <row r="177" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="13"/>
@@ -7570,7 +7619,7 @@
       <c r="AH177" s="13"/>
       <c r="AI177" s="13"/>
     </row>
-    <row r="178" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
       <c r="C178" s="13"/>
@@ -7607,7 +7656,7 @@
       <c r="AH178" s="13"/>
       <c r="AI178" s="13"/>
     </row>
-    <row r="179" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="13"/>
@@ -7644,7 +7693,7 @@
       <c r="AH179" s="13"/>
       <c r="AI179" s="13"/>
     </row>
-    <row r="180" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="13"/>
@@ -7681,7 +7730,7 @@
       <c r="AH180" s="13"/>
       <c r="AI180" s="13"/>
     </row>
-    <row r="181" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="13"/>
@@ -7718,7 +7767,7 @@
       <c r="AH181" s="13"/>
       <c r="AI181" s="13"/>
     </row>
-    <row r="182" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
       <c r="C182" s="13"/>
@@ -7755,7 +7804,7 @@
       <c r="AH182" s="13"/>
       <c r="AI182" s="13"/>
     </row>
-    <row r="183" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
       <c r="C183" s="13"/>
@@ -7792,7 +7841,7 @@
       <c r="AH183" s="13"/>
       <c r="AI183" s="13"/>
     </row>
-    <row r="184" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="13"/>
@@ -7829,7 +7878,7 @@
       <c r="AH184" s="13"/>
       <c r="AI184" s="13"/>
     </row>
-    <row r="185" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="13"/>
@@ -7866,7 +7915,7 @@
       <c r="AH185" s="13"/>
       <c r="AI185" s="13"/>
     </row>
-    <row r="186" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="13"/>
@@ -7903,7 +7952,7 @@
       <c r="AH186" s="13"/>
       <c r="AI186" s="13"/>
     </row>
-    <row r="187" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
       <c r="C187" s="13"/>
@@ -7940,7 +7989,7 @@
       <c r="AH187" s="13"/>
       <c r="AI187" s="13"/>
     </row>
-    <row r="188" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="13"/>
@@ -7977,7 +8026,7 @@
       <c r="AH188" s="13"/>
       <c r="AI188" s="13"/>
     </row>
-    <row r="189" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="13"/>
@@ -8014,7 +8063,7 @@
       <c r="AH189" s="13"/>
       <c r="AI189" s="13"/>
     </row>
-    <row r="190" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="13"/>
@@ -8051,7 +8100,7 @@
       <c r="AH190" s="13"/>
       <c r="AI190" s="13"/>
     </row>
-    <row r="191" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="13"/>
@@ -8088,7 +8137,7 @@
       <c r="AH191" s="13"/>
       <c r="AI191" s="13"/>
     </row>
-    <row r="192" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="13"/>
@@ -8125,7 +8174,7 @@
       <c r="AH192" s="13"/>
       <c r="AI192" s="13"/>
     </row>
-    <row r="193" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="13"/>
@@ -8162,7 +8211,7 @@
       <c r="AH193" s="13"/>
       <c r="AI193" s="13"/>
     </row>
-    <row r="194" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="13"/>
@@ -8199,7 +8248,7 @@
       <c r="AH194" s="13"/>
       <c r="AI194" s="13"/>
     </row>
-    <row r="195" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="13"/>
@@ -8236,7 +8285,7 @@
       <c r="AH195" s="13"/>
       <c r="AI195" s="13"/>
     </row>
-    <row r="196" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="13"/>
@@ -8273,7 +8322,7 @@
       <c r="AH196" s="13"/>
       <c r="AI196" s="13"/>
     </row>
-    <row r="197" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="13"/>
@@ -8310,7 +8359,7 @@
       <c r="AH197" s="13"/>
       <c r="AI197" s="13"/>
     </row>
-    <row r="198" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="13"/>
@@ -8347,7 +8396,7 @@
       <c r="AH198" s="13"/>
       <c r="AI198" s="13"/>
     </row>
-    <row r="199" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="13"/>
@@ -8384,7 +8433,7 @@
       <c r="AH199" s="13"/>
       <c r="AI199" s="13"/>
     </row>
-    <row r="200" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
       <c r="C200" s="13"/>
@@ -8421,7 +8470,7 @@
       <c r="AH200" s="13"/>
       <c r="AI200" s="13"/>
     </row>
-    <row r="201" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="13"/>
@@ -8458,7 +8507,7 @@
       <c r="AH201" s="13"/>
       <c r="AI201" s="13"/>
     </row>
-    <row r="202" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="13"/>
@@ -8495,7 +8544,7 @@
       <c r="AH202" s="13"/>
       <c r="AI202" s="13"/>
     </row>
-    <row r="203" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="13"/>
@@ -8532,7 +8581,7 @@
       <c r="AH203" s="13"/>
       <c r="AI203" s="13"/>
     </row>
-    <row r="204" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="13"/>
@@ -8569,7 +8618,7 @@
       <c r="AH204" s="13"/>
       <c r="AI204" s="13"/>
     </row>
-    <row r="205" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="13"/>
@@ -8606,7 +8655,7 @@
       <c r="AH205" s="13"/>
       <c r="AI205" s="13"/>
     </row>
-    <row r="206" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
       <c r="C206" s="13"/>
@@ -8643,7 +8692,7 @@
       <c r="AH206" s="13"/>
       <c r="AI206" s="13"/>
     </row>
-    <row r="207" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
       <c r="C207" s="13"/>
@@ -8680,7 +8729,7 @@
       <c r="AH207" s="13"/>
       <c r="AI207" s="13"/>
     </row>
-    <row r="208" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="13"/>
@@ -8717,7 +8766,7 @@
       <c r="AH208" s="13"/>
       <c r="AI208" s="13"/>
     </row>
-    <row r="209" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="13"/>
       <c r="B209" s="14"/>
       <c r="C209" s="13"/>
@@ -8754,7 +8803,7 @@
       <c r="AH209" s="13"/>
       <c r="AI209" s="13"/>
     </row>
-    <row r="210" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="13"/>
       <c r="B210" s="14"/>
       <c r="C210" s="13"/>
@@ -8791,7 +8840,7 @@
       <c r="AH210" s="13"/>
       <c r="AI210" s="13"/>
     </row>
-    <row r="211" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="13"/>
       <c r="B211" s="14"/>
       <c r="C211" s="13"/>
@@ -8828,7 +8877,7 @@
       <c r="AH211" s="13"/>
       <c r="AI211" s="13"/>
     </row>
-    <row r="212" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="13"/>
@@ -8865,7 +8914,7 @@
       <c r="AH212" s="13"/>
       <c r="AI212" s="13"/>
     </row>
-    <row r="213" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="13"/>
       <c r="B213" s="14"/>
       <c r="C213" s="13"/>
@@ -8902,7 +8951,7 @@
       <c r="AH213" s="13"/>
       <c r="AI213" s="13"/>
     </row>
-    <row r="214" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="13"/>
       <c r="B214" s="14"/>
       <c r="C214" s="13"/>
@@ -8939,7 +8988,7 @@
       <c r="AH214" s="13"/>
       <c r="AI214" s="13"/>
     </row>
-    <row r="215" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="13"/>
       <c r="B215" s="14"/>
       <c r="C215" s="13"/>
@@ -8976,7 +9025,7 @@
       <c r="AH215" s="13"/>
       <c r="AI215" s="13"/>
     </row>
-    <row r="216" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="13"/>
       <c r="B216" s="14"/>
       <c r="C216" s="13"/>
@@ -9013,7 +9062,7 @@
       <c r="AH216" s="13"/>
       <c r="AI216" s="13"/>
     </row>
-    <row r="217" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="13"/>
       <c r="B217" s="14"/>
       <c r="C217" s="13"/>
@@ -9050,7 +9099,7 @@
       <c r="AH217" s="13"/>
       <c r="AI217" s="13"/>
     </row>
-    <row r="218" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="13"/>
       <c r="B218" s="14"/>
       <c r="C218" s="13"/>
@@ -9087,7 +9136,7 @@
       <c r="AH218" s="13"/>
       <c r="AI218" s="13"/>
     </row>
-    <row r="219" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="13"/>
       <c r="B219" s="14"/>
       <c r="C219" s="13"/>
@@ -9124,7 +9173,7 @@
       <c r="AH219" s="13"/>
       <c r="AI219" s="13"/>
     </row>
-    <row r="220" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="13"/>
       <c r="B220" s="14"/>
       <c r="C220" s="13"/>
@@ -9161,7 +9210,7 @@
       <c r="AH220" s="13"/>
       <c r="AI220" s="13"/>
     </row>
-    <row r="221" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="13"/>
       <c r="B221" s="14"/>
       <c r="C221" s="13"/>
@@ -9198,7 +9247,7 @@
       <c r="AH221" s="13"/>
       <c r="AI221" s="13"/>
     </row>
-    <row r="222" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="13"/>
       <c r="B222" s="14"/>
       <c r="C222" s="13"/>
@@ -9235,7 +9284,7 @@
       <c r="AH222" s="13"/>
       <c r="AI222" s="13"/>
     </row>
-    <row r="223" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="13"/>
       <c r="B223" s="14"/>
       <c r="C223" s="13"/>
@@ -9272,7 +9321,7 @@
       <c r="AH223" s="13"/>
       <c r="AI223" s="13"/>
     </row>
-    <row r="224" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="13"/>
       <c r="B224" s="14"/>
       <c r="C224" s="13"/>
@@ -9309,7 +9358,7 @@
       <c r="AH224" s="13"/>
       <c r="AI224" s="13"/>
     </row>
-    <row r="225" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="13"/>
@@ -9346,7 +9395,7 @@
       <c r="AH225" s="13"/>
       <c r="AI225" s="13"/>
     </row>
-    <row r="226" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="13"/>
       <c r="B226" s="14"/>
       <c r="C226" s="13"/>
@@ -9383,7 +9432,7 @@
       <c r="AH226" s="13"/>
       <c r="AI226" s="13"/>
     </row>
-    <row r="227" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="13"/>
       <c r="B227" s="14"/>
       <c r="C227" s="13"/>
@@ -9420,7 +9469,7 @@
       <c r="AH227" s="13"/>
       <c r="AI227" s="13"/>
     </row>
-    <row r="228" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="13"/>
       <c r="B228" s="14"/>
       <c r="C228" s="13"/>
@@ -9457,7 +9506,7 @@
       <c r="AH228" s="13"/>
       <c r="AI228" s="13"/>
     </row>
-    <row r="229" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="13"/>
@@ -9494,7 +9543,7 @@
       <c r="AH229" s="13"/>
       <c r="AI229" s="13"/>
     </row>
-    <row r="230" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="13"/>
@@ -9531,7 +9580,7 @@
       <c r="AH230" s="13"/>
       <c r="AI230" s="13"/>
     </row>
-    <row r="231" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="13"/>
       <c r="B231" s="14"/>
       <c r="C231" s="13"/>
@@ -9568,7 +9617,7 @@
       <c r="AH231" s="13"/>
       <c r="AI231" s="13"/>
     </row>
-    <row r="232" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="13"/>
       <c r="B232" s="14"/>
       <c r="C232" s="13"/>
@@ -9605,7 +9654,7 @@
       <c r="AH232" s="13"/>
       <c r="AI232" s="13"/>
     </row>
-    <row r="233" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="13"/>
       <c r="B233" s="14"/>
       <c r="C233" s="13"/>
@@ -9642,7 +9691,7 @@
       <c r="AH233" s="13"/>
       <c r="AI233" s="13"/>
     </row>
-    <row r="234" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="13"/>
@@ -9679,7 +9728,7 @@
       <c r="AH234" s="13"/>
       <c r="AI234" s="13"/>
     </row>
-    <row r="235" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="13"/>
@@ -9716,7 +9765,7 @@
       <c r="AH235" s="13"/>
       <c r="AI235" s="13"/>
     </row>
-    <row r="236" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="13"/>
@@ -9753,7 +9802,7 @@
       <c r="AH236" s="13"/>
       <c r="AI236" s="13"/>
     </row>
-    <row r="237" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="13"/>
       <c r="B237" s="14"/>
       <c r="C237" s="13"/>
@@ -9790,7 +9839,7 @@
       <c r="AH237" s="13"/>
       <c r="AI237" s="13"/>
     </row>
-    <row r="238" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="13"/>
       <c r="B238" s="14"/>
       <c r="C238" s="13"/>
@@ -9827,7 +9876,7 @@
       <c r="AH238" s="13"/>
       <c r="AI238" s="13"/>
     </row>
-    <row r="239" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="13"/>
       <c r="B239" s="14"/>
       <c r="C239" s="13"/>
@@ -9864,7 +9913,7 @@
       <c r="AH239" s="13"/>
       <c r="AI239" s="13"/>
     </row>
-    <row r="240" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="13"/>
       <c r="B240" s="14"/>
       <c r="C240" s="13"/>
@@ -9901,7 +9950,7 @@
       <c r="AH240" s="13"/>
       <c r="AI240" s="13"/>
     </row>
-    <row r="241" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="13"/>
       <c r="B241" s="14"/>
       <c r="C241" s="13"/>
@@ -9938,7 +9987,7 @@
       <c r="AH241" s="13"/>
       <c r="AI241" s="13"/>
     </row>
-    <row r="242" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="13"/>
       <c r="B242" s="14"/>
       <c r="C242" s="13"/>
@@ -9975,7 +10024,7 @@
       <c r="AH242" s="13"/>
       <c r="AI242" s="13"/>
     </row>
-    <row r="243" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="13"/>
       <c r="B243" s="14"/>
       <c r="C243" s="13"/>
@@ -10012,7 +10061,7 @@
       <c r="AH243" s="13"/>
       <c r="AI243" s="13"/>
     </row>
-    <row r="244" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="13"/>
       <c r="B244" s="14"/>
       <c r="C244" s="13"/>
@@ -10049,7 +10098,7 @@
       <c r="AH244" s="13"/>
       <c r="AI244" s="13"/>
     </row>
-    <row r="245" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="13"/>
       <c r="B245" s="14"/>
       <c r="C245" s="13"/>
@@ -10086,7 +10135,7 @@
       <c r="AH245" s="13"/>
       <c r="AI245" s="13"/>
     </row>
-    <row r="246" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="13"/>
       <c r="B246" s="14"/>
       <c r="C246" s="13"/>
@@ -10123,7 +10172,7 @@
       <c r="AH246" s="13"/>
       <c r="AI246" s="13"/>
     </row>
-    <row r="247" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="13"/>
       <c r="B247" s="14"/>
       <c r="C247" s="13"/>
@@ -10160,7 +10209,7 @@
       <c r="AH247" s="13"/>
       <c r="AI247" s="13"/>
     </row>
-    <row r="248" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="13"/>
       <c r="B248" s="14"/>
       <c r="C248" s="13"/>
@@ -10197,7 +10246,7 @@
       <c r="AH248" s="13"/>
       <c r="AI248" s="13"/>
     </row>
-    <row r="249" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="13"/>
       <c r="B249" s="14"/>
       <c r="C249" s="13"/>
@@ -10234,7 +10283,7 @@
       <c r="AH249" s="13"/>
       <c r="AI249" s="13"/>
     </row>
-    <row r="250" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="13"/>
       <c r="B250" s="14"/>
       <c r="C250" s="13"/>
@@ -10271,7 +10320,7 @@
       <c r="AH250" s="13"/>
       <c r="AI250" s="13"/>
     </row>
-    <row r="251" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
       <c r="B251" s="14"/>
       <c r="C251" s="13"/>
@@ -10308,7 +10357,7 @@
       <c r="AH251" s="13"/>
       <c r="AI251" s="13"/>
     </row>
-    <row r="252" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
       <c r="B252" s="14"/>
       <c r="C252" s="13"/>
@@ -10345,7 +10394,7 @@
       <c r="AH252" s="13"/>
       <c r="AI252" s="13"/>
     </row>
-    <row r="253" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
       <c r="B253" s="14"/>
       <c r="C253" s="13"/>
@@ -10382,7 +10431,7 @@
       <c r="AH253" s="13"/>
       <c r="AI253" s="13"/>
     </row>
-    <row r="254" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="13"/>
       <c r="B254" s="14"/>
       <c r="C254" s="13"/>
@@ -10419,7 +10468,7 @@
       <c r="AH254" s="13"/>
       <c r="AI254" s="13"/>
     </row>
-    <row r="255" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="13"/>
       <c r="B255" s="14"/>
       <c r="C255" s="13"/>
@@ -10456,7 +10505,7 @@
       <c r="AH255" s="13"/>
       <c r="AI255" s="13"/>
     </row>
-    <row r="256" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="13"/>
       <c r="B256" s="14"/>
       <c r="C256" s="13"/>
@@ -10493,7 +10542,7 @@
       <c r="AH256" s="13"/>
       <c r="AI256" s="13"/>
     </row>
-    <row r="257" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="13"/>
       <c r="B257" s="14"/>
       <c r="C257" s="13"/>
@@ -10530,7 +10579,7 @@
       <c r="AH257" s="13"/>
       <c r="AI257" s="13"/>
     </row>
-    <row r="258" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="13"/>
       <c r="B258" s="14"/>
       <c r="C258" s="13"/>
@@ -10567,7 +10616,7 @@
       <c r="AH258" s="13"/>
       <c r="AI258" s="13"/>
     </row>
-    <row r="259" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="13"/>
       <c r="B259" s="14"/>
       <c r="C259" s="13"/>
@@ -10604,7 +10653,7 @@
       <c r="AH259" s="13"/>
       <c r="AI259" s="13"/>
     </row>
-    <row r="260" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="13"/>
       <c r="B260" s="14"/>
       <c r="C260" s="13"/>
@@ -10641,7 +10690,7 @@
       <c r="AH260" s="13"/>
       <c r="AI260" s="13"/>
     </row>
-    <row r="261" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="13"/>
       <c r="B261" s="14"/>
       <c r="C261" s="13"/>
@@ -10678,7 +10727,7 @@
       <c r="AH261" s="13"/>
       <c r="AI261" s="13"/>
     </row>
-    <row r="262" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="13"/>
       <c r="B262" s="14"/>
       <c r="C262" s="13"/>
@@ -10715,7 +10764,7 @@
       <c r="AH262" s="13"/>
       <c r="AI262" s="13"/>
     </row>
-    <row r="263" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="13"/>
@@ -10752,7 +10801,7 @@
       <c r="AH263" s="13"/>
       <c r="AI263" s="13"/>
     </row>
-    <row r="264" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="13"/>
       <c r="B264" s="14"/>
       <c r="C264" s="13"/>
@@ -10789,7 +10838,7 @@
       <c r="AH264" s="13"/>
       <c r="AI264" s="13"/>
     </row>
-    <row r="265" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="13"/>
       <c r="B265" s="14"/>
       <c r="C265" s="13"/>
@@ -10826,7 +10875,7 @@
       <c r="AH265" s="13"/>
       <c r="AI265" s="13"/>
     </row>
-    <row r="266" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="13"/>
       <c r="B266" s="14"/>
       <c r="C266" s="13"/>
@@ -10863,7 +10912,7 @@
       <c r="AH266" s="13"/>
       <c r="AI266" s="13"/>
     </row>
-    <row r="267" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="13"/>
       <c r="B267" s="14"/>
       <c r="C267" s="13"/>
@@ -10900,7 +10949,7 @@
       <c r="AH267" s="13"/>
       <c r="AI267" s="13"/>
     </row>
-    <row r="268" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="13"/>
       <c r="B268" s="14"/>
       <c r="C268" s="13"/>
@@ -10937,7 +10986,7 @@
       <c r="AH268" s="13"/>
       <c r="AI268" s="13"/>
     </row>
-    <row r="269" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="13"/>
       <c r="B269" s="14"/>
       <c r="C269" s="13"/>
@@ -10974,7 +11023,7 @@
       <c r="AH269" s="13"/>
       <c r="AI269" s="13"/>
     </row>
-    <row r="270" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="13"/>
       <c r="B270" s="14"/>
       <c r="C270" s="13"/>
@@ -11011,7 +11060,7 @@
       <c r="AH270" s="13"/>
       <c r="AI270" s="13"/>
     </row>
-    <row r="271" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="13"/>
       <c r="B271" s="14"/>
       <c r="C271" s="13"/>
@@ -11048,7 +11097,7 @@
       <c r="AH271" s="13"/>
       <c r="AI271" s="13"/>
     </row>
-    <row r="272" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="13"/>
       <c r="B272" s="14"/>
       <c r="C272" s="13"/>
@@ -11085,7 +11134,7 @@
       <c r="AH272" s="13"/>
       <c r="AI272" s="13"/>
     </row>
-    <row r="273" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="13"/>
       <c r="B273" s="14"/>
       <c r="C273" s="13"/>
@@ -11122,7 +11171,7 @@
       <c r="AH273" s="13"/>
       <c r="AI273" s="13"/>
     </row>
-    <row r="274" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="13"/>
       <c r="B274" s="14"/>
       <c r="C274" s="13"/>
@@ -11159,7 +11208,7 @@
       <c r="AH274" s="13"/>
       <c r="AI274" s="13"/>
     </row>
-    <row r="275" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="13"/>
       <c r="B275" s="14"/>
       <c r="C275" s="13"/>
@@ -11196,7 +11245,7 @@
       <c r="AH275" s="13"/>
       <c r="AI275" s="13"/>
     </row>
-    <row r="276" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="13"/>
       <c r="B276" s="14"/>
       <c r="C276" s="13"/>
@@ -11233,7 +11282,7 @@
       <c r="AH276" s="13"/>
       <c r="AI276" s="13"/>
     </row>
-    <row r="277" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="13"/>
       <c r="B277" s="14"/>
       <c r="C277" s="13"/>
@@ -11270,7 +11319,7 @@
       <c r="AH277" s="13"/>
       <c r="AI277" s="13"/>
     </row>
-    <row r="278" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="13"/>
       <c r="B278" s="14"/>
       <c r="C278" s="13"/>
@@ -11307,7 +11356,7 @@
       <c r="AH278" s="13"/>
       <c r="AI278" s="13"/>
     </row>
-    <row r="279" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="13"/>
       <c r="B279" s="14"/>
       <c r="C279" s="13"/>
@@ -11344,7 +11393,7 @@
       <c r="AH279" s="13"/>
       <c r="AI279" s="13"/>
     </row>
-    <row r="280" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="13"/>
       <c r="B280" s="14"/>
       <c r="C280" s="13"/>
@@ -11381,7 +11430,7 @@
       <c r="AH280" s="13"/>
       <c r="AI280" s="13"/>
     </row>
-    <row r="281" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="13"/>
       <c r="B281" s="14"/>
       <c r="C281" s="13"/>
@@ -11418,7 +11467,7 @@
       <c r="AH281" s="13"/>
       <c r="AI281" s="13"/>
     </row>
-    <row r="282" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="13"/>
       <c r="B282" s="14"/>
       <c r="C282" s="13"/>
@@ -11455,7 +11504,7 @@
       <c r="AH282" s="13"/>
       <c r="AI282" s="13"/>
     </row>
-    <row r="283" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="13"/>
       <c r="B283" s="14"/>
       <c r="C283" s="13"/>
@@ -11492,7 +11541,7 @@
       <c r="AH283" s="13"/>
       <c r="AI283" s="13"/>
     </row>
-    <row r="284" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="13"/>
       <c r="B284" s="14"/>
       <c r="C284" s="13"/>
@@ -11529,7 +11578,7 @@
       <c r="AH284" s="13"/>
       <c r="AI284" s="13"/>
     </row>
-    <row r="285" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="13"/>
       <c r="B285" s="14"/>
       <c r="C285" s="13"/>
@@ -11566,7 +11615,7 @@
       <c r="AH285" s="13"/>
       <c r="AI285" s="13"/>
     </row>
-    <row r="286" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="13"/>
       <c r="B286" s="14"/>
       <c r="C286" s="13"/>
@@ -11603,7 +11652,7 @@
       <c r="AH286" s="13"/>
       <c r="AI286" s="13"/>
     </row>
-    <row r="287" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="13"/>
       <c r="B287" s="14"/>
       <c r="C287" s="13"/>
@@ -11640,7 +11689,7 @@
       <c r="AH287" s="13"/>
       <c r="AI287" s="13"/>
     </row>
-    <row r="288" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="13"/>
       <c r="B288" s="14"/>
       <c r="C288" s="13"/>
@@ -11677,7 +11726,7 @@
       <c r="AH288" s="13"/>
       <c r="AI288" s="13"/>
     </row>
-    <row r="289" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="13"/>
       <c r="B289" s="14"/>
       <c r="C289" s="13"/>
@@ -11714,7 +11763,7 @@
       <c r="AH289" s="13"/>
       <c r="AI289" s="13"/>
     </row>
-    <row r="290" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="13"/>
       <c r="B290" s="14"/>
       <c r="C290" s="13"/>
@@ -11751,7 +11800,7 @@
       <c r="AH290" s="13"/>
       <c r="AI290" s="13"/>
     </row>
-    <row r="291" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="13"/>
       <c r="B291" s="14"/>
       <c r="C291" s="13"/>
@@ -11788,7 +11837,7 @@
       <c r="AH291" s="13"/>
       <c r="AI291" s="13"/>
     </row>
-    <row r="292" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="13"/>
@@ -11825,7 +11874,7 @@
       <c r="AH292" s="13"/>
       <c r="AI292" s="13"/>
     </row>
-    <row r="293" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="13"/>
       <c r="B293" s="14"/>
       <c r="C293" s="13"/>
@@ -11862,7 +11911,7 @@
       <c r="AH293" s="13"/>
       <c r="AI293" s="13"/>
     </row>
-    <row r="294" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="13"/>
       <c r="B294" s="14"/>
       <c r="C294" s="13"/>
@@ -11899,7 +11948,7 @@
       <c r="AH294" s="13"/>
       <c r="AI294" s="13"/>
     </row>
-    <row r="295" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="13"/>
       <c r="B295" s="14"/>
       <c r="C295" s="13"/>
@@ -11936,7 +11985,7 @@
       <c r="AH295" s="13"/>
       <c r="AI295" s="13"/>
     </row>
-    <row r="296" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="13"/>
       <c r="B296" s="14"/>
       <c r="C296" s="13"/>
@@ -11973,7 +12022,7 @@
       <c r="AH296" s="13"/>
       <c r="AI296" s="13"/>
     </row>
-    <row r="297" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="13"/>
       <c r="B297" s="14"/>
       <c r="C297" s="13"/>
@@ -12010,7 +12059,7 @@
       <c r="AH297" s="13"/>
       <c r="AI297" s="13"/>
     </row>
-    <row r="298" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="13"/>
       <c r="B298" s="14"/>
       <c r="C298" s="13"/>
@@ -12047,7 +12096,7 @@
       <c r="AH298" s="13"/>
       <c r="AI298" s="13"/>
     </row>
-    <row r="299" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="13"/>
       <c r="B299" s="14"/>
       <c r="C299" s="13"/>
@@ -12084,7 +12133,7 @@
       <c r="AH299" s="13"/>
       <c r="AI299" s="13"/>
     </row>
-    <row r="300" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="13"/>
       <c r="B300" s="14"/>
       <c r="C300" s="13"/>
@@ -12121,7 +12170,7 @@
       <c r="AH300" s="13"/>
       <c r="AI300" s="13"/>
     </row>
-    <row r="301" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="13"/>
       <c r="B301" s="14"/>
       <c r="C301" s="13"/>
@@ -12158,7 +12207,7 @@
       <c r="AH301" s="13"/>
       <c r="AI301" s="13"/>
     </row>
-    <row r="302" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="13"/>
       <c r="B302" s="14"/>
       <c r="C302" s="13"/>
@@ -12195,7 +12244,7 @@
       <c r="AH302" s="13"/>
       <c r="AI302" s="13"/>
     </row>
-    <row r="303" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="13"/>
       <c r="B303" s="14"/>
       <c r="C303" s="13"/>
@@ -12232,7 +12281,7 @@
       <c r="AH303" s="13"/>
       <c r="AI303" s="13"/>
     </row>
-    <row r="304" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="13"/>
       <c r="B304" s="14"/>
       <c r="C304" s="13"/>
@@ -12269,7 +12318,7 @@
       <c r="AH304" s="13"/>
       <c r="AI304" s="13"/>
     </row>
-    <row r="305" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="13"/>
       <c r="B305" s="14"/>
       <c r="C305" s="13"/>
@@ -12306,7 +12355,7 @@
       <c r="AH305" s="13"/>
       <c r="AI305" s="13"/>
     </row>
-    <row r="306" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="13"/>
       <c r="B306" s="14"/>
       <c r="C306" s="13"/>
@@ -12343,7 +12392,7 @@
       <c r="AH306" s="13"/>
       <c r="AI306" s="13"/>
     </row>
-    <row r="307" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="13"/>
       <c r="B307" s="14"/>
       <c r="C307" s="13"/>
@@ -12380,7 +12429,7 @@
       <c r="AH307" s="13"/>
       <c r="AI307" s="13"/>
     </row>
-    <row r="308" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="13"/>
       <c r="B308" s="14"/>
       <c r="C308" s="13"/>
@@ -12417,7 +12466,7 @@
       <c r="AH308" s="13"/>
       <c r="AI308" s="13"/>
     </row>
-    <row r="309" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
       <c r="C309" s="13"/>
@@ -12454,7 +12503,7 @@
       <c r="AH309" s="13"/>
       <c r="AI309" s="13"/>
     </row>
-    <row r="310" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="13"/>
       <c r="B310" s="14"/>
       <c r="C310" s="13"/>
@@ -12491,7 +12540,7 @@
       <c r="AH310" s="13"/>
       <c r="AI310" s="13"/>
     </row>
-    <row r="311" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="13"/>
       <c r="B311" s="14"/>
       <c r="C311" s="13"/>
@@ -12528,7 +12577,7 @@
       <c r="AH311" s="13"/>
       <c r="AI311" s="13"/>
     </row>
-    <row r="312" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="13"/>
@@ -12565,7 +12614,7 @@
       <c r="AH312" s="13"/>
       <c r="AI312" s="13"/>
     </row>
-    <row r="313" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="13"/>
       <c r="B313" s="14"/>
       <c r="C313" s="13"/>
@@ -12602,7 +12651,7 @@
       <c r="AH313" s="13"/>
       <c r="AI313" s="13"/>
     </row>
-    <row r="314" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="13"/>
       <c r="B314" s="14"/>
       <c r="C314" s="13"/>
@@ -12639,7 +12688,7 @@
       <c r="AH314" s="13"/>
       <c r="AI314" s="13"/>
     </row>
-    <row r="315" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="13"/>
       <c r="B315" s="14"/>
       <c r="C315" s="13"/>
@@ -12676,7 +12725,7 @@
       <c r="AH315" s="13"/>
       <c r="AI315" s="13"/>
     </row>
-    <row r="316" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="13"/>
       <c r="B316" s="14"/>
       <c r="C316" s="13"/>
@@ -12713,7 +12762,7 @@
       <c r="AH316" s="13"/>
       <c r="AI316" s="13"/>
     </row>
-    <row r="317" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="13"/>
       <c r="B317" s="14"/>
       <c r="C317" s="13"/>
@@ -12750,7 +12799,7 @@
       <c r="AH317" s="13"/>
       <c r="AI317" s="13"/>
     </row>
-    <row r="318" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="13"/>
       <c r="B318" s="14"/>
       <c r="C318" s="13"/>
@@ -12787,7 +12836,7 @@
       <c r="AH318" s="13"/>
       <c r="AI318" s="13"/>
     </row>
-    <row r="319" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="13"/>
       <c r="B319" s="14"/>
       <c r="C319" s="13"/>
@@ -12824,7 +12873,7 @@
       <c r="AH319" s="13"/>
       <c r="AI319" s="13"/>
     </row>
-    <row r="320" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="13"/>
       <c r="B320" s="14"/>
       <c r="C320" s="13"/>
@@ -12861,7 +12910,7 @@
       <c r="AH320" s="13"/>
       <c r="AI320" s="13"/>
     </row>
-    <row r="321" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="13"/>
       <c r="B321" s="14"/>
       <c r="C321" s="13"/>
@@ -12898,7 +12947,7 @@
       <c r="AH321" s="13"/>
       <c r="AI321" s="13"/>
     </row>
-    <row r="322" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="13"/>
       <c r="B322" s="14"/>
       <c r="C322" s="13"/>
@@ -12935,7 +12984,7 @@
       <c r="AH322" s="13"/>
       <c r="AI322" s="13"/>
     </row>
-    <row r="323" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="13"/>
       <c r="B323" s="14"/>
       <c r="C323" s="13"/>
@@ -12972,7 +13021,7 @@
       <c r="AH323" s="13"/>
       <c r="AI323" s="13"/>
     </row>
-    <row r="324" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="13"/>
       <c r="B324" s="14"/>
       <c r="C324" s="13"/>
@@ -13009,7 +13058,7 @@
       <c r="AH324" s="13"/>
       <c r="AI324" s="13"/>
     </row>
-    <row r="325" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="13"/>
       <c r="B325" s="14"/>
       <c r="C325" s="13"/>
@@ -13046,7 +13095,7 @@
       <c r="AH325" s="13"/>
       <c r="AI325" s="13"/>
     </row>
-    <row r="326" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="13"/>
       <c r="B326" s="14"/>
       <c r="C326" s="13"/>
@@ -13083,7 +13132,7 @@
       <c r="AH326" s="13"/>
       <c r="AI326" s="13"/>
     </row>
-    <row r="327" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="13"/>
       <c r="B327" s="14"/>
       <c r="C327" s="13"/>
@@ -13120,7 +13169,7 @@
       <c r="AH327" s="13"/>
       <c r="AI327" s="13"/>
     </row>
-    <row r="328" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="13"/>
       <c r="B328" s="14"/>
       <c r="C328" s="13"/>
@@ -13157,7 +13206,7 @@
       <c r="AH328" s="13"/>
       <c r="AI328" s="13"/>
     </row>
-    <row r="329" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="13"/>
       <c r="B329" s="14"/>
       <c r="C329" s="13"/>
@@ -13194,7 +13243,7 @@
       <c r="AH329" s="13"/>
       <c r="AI329" s="13"/>
     </row>
-    <row r="330" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="13"/>
       <c r="B330" s="14"/>
       <c r="C330" s="13"/>
@@ -13231,7 +13280,7 @@
       <c r="AH330" s="13"/>
       <c r="AI330" s="13"/>
     </row>
-    <row r="331" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="13"/>
       <c r="B331" s="14"/>
       <c r="C331" s="13"/>
@@ -13268,7 +13317,7 @@
       <c r="AH331" s="13"/>
       <c r="AI331" s="13"/>
     </row>
-    <row r="332" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="13"/>
       <c r="B332" s="14"/>
       <c r="C332" s="13"/>
@@ -13305,7 +13354,7 @@
       <c r="AH332" s="13"/>
       <c r="AI332" s="13"/>
     </row>
-    <row r="333" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="13"/>
       <c r="B333" s="14"/>
       <c r="C333" s="13"/>
@@ -13342,7 +13391,7 @@
       <c r="AH333" s="13"/>
       <c r="AI333" s="13"/>
     </row>
-    <row r="334" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="13"/>
       <c r="B334" s="14"/>
       <c r="C334" s="13"/>
@@ -13379,7 +13428,7 @@
       <c r="AH334" s="13"/>
       <c r="AI334" s="13"/>
     </row>
-    <row r="335" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="13"/>
       <c r="B335" s="14"/>
       <c r="C335" s="13"/>
@@ -13416,7 +13465,7 @@
       <c r="AH335" s="13"/>
       <c r="AI335" s="13"/>
     </row>
-    <row r="336" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="13"/>
       <c r="B336" s="14"/>
       <c r="C336" s="13"/>
@@ -13453,7 +13502,7 @@
       <c r="AH336" s="13"/>
       <c r="AI336" s="13"/>
     </row>
-    <row r="337" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="13"/>
       <c r="B337" s="14"/>
       <c r="C337" s="13"/>
@@ -13490,7 +13539,7 @@
       <c r="AH337" s="13"/>
       <c r="AI337" s="13"/>
     </row>
-    <row r="338" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="13"/>
       <c r="B338" s="14"/>
       <c r="C338" s="13"/>
@@ -13527,7 +13576,7 @@
       <c r="AH338" s="13"/>
       <c r="AI338" s="13"/>
     </row>
-    <row r="339" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="13"/>
       <c r="B339" s="14"/>
       <c r="C339" s="13"/>
@@ -13564,7 +13613,7 @@
       <c r="AH339" s="13"/>
       <c r="AI339" s="13"/>
     </row>
-    <row r="340" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="13"/>
       <c r="B340" s="14"/>
       <c r="C340" s="13"/>
@@ -13601,7 +13650,7 @@
       <c r="AH340" s="13"/>
       <c r="AI340" s="13"/>
     </row>
-    <row r="341" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="13"/>
       <c r="B341" s="14"/>
       <c r="C341" s="13"/>
@@ -13638,7 +13687,7 @@
       <c r="AH341" s="13"/>
       <c r="AI341" s="13"/>
     </row>
-    <row r="342" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="13"/>
       <c r="B342" s="14"/>
       <c r="C342" s="13"/>
@@ -13675,7 +13724,7 @@
       <c r="AH342" s="13"/>
       <c r="AI342" s="13"/>
     </row>
-    <row r="343" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="13"/>
       <c r="B343" s="14"/>
       <c r="C343" s="13"/>
@@ -13712,7 +13761,7 @@
       <c r="AH343" s="13"/>
       <c r="AI343" s="13"/>
     </row>
-    <row r="344" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="13"/>
       <c r="B344" s="14"/>
       <c r="C344" s="13"/>
@@ -13749,7 +13798,7 @@
       <c r="AH344" s="13"/>
       <c r="AI344" s="13"/>
     </row>
-    <row r="345" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="13"/>
       <c r="B345" s="14"/>
       <c r="C345" s="13"/>
@@ -13786,7 +13835,7 @@
       <c r="AH345" s="13"/>
       <c r="AI345" s="13"/>
     </row>
-    <row r="346" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="13"/>
       <c r="B346" s="14"/>
       <c r="C346" s="13"/>
@@ -13823,7 +13872,7 @@
       <c r="AH346" s="13"/>
       <c r="AI346" s="13"/>
     </row>
-    <row r="347" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="13"/>
       <c r="B347" s="14"/>
       <c r="C347" s="13"/>
@@ -13860,7 +13909,7 @@
       <c r="AH347" s="13"/>
       <c r="AI347" s="13"/>
     </row>
-    <row r="348" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="13"/>
       <c r="B348" s="14"/>
       <c r="C348" s="13"/>
@@ -13897,7 +13946,7 @@
       <c r="AH348" s="13"/>
       <c r="AI348" s="13"/>
     </row>
-    <row r="349" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="13"/>
       <c r="B349" s="14"/>
       <c r="C349" s="13"/>
@@ -13934,7 +13983,7 @@
       <c r="AH349" s="13"/>
       <c r="AI349" s="13"/>
     </row>
-    <row r="350" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="13"/>
       <c r="B350" s="14"/>
       <c r="C350" s="13"/>
@@ -13971,7 +14020,7 @@
       <c r="AH350" s="13"/>
       <c r="AI350" s="13"/>
     </row>
-    <row r="351" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="13"/>
       <c r="B351" s="14"/>
       <c r="C351" s="13"/>
@@ -14008,7 +14057,7 @@
       <c r="AH351" s="13"/>
       <c r="AI351" s="13"/>
     </row>
-    <row r="352" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="13"/>
       <c r="B352" s="14"/>
       <c r="C352" s="13"/>
@@ -14045,7 +14094,7 @@
       <c r="AH352" s="13"/>
       <c r="AI352" s="13"/>
     </row>
-    <row r="353" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="13"/>
       <c r="B353" s="14"/>
       <c r="C353" s="13"/>
@@ -14082,7 +14131,7 @@
       <c r="AH353" s="13"/>
       <c r="AI353" s="13"/>
     </row>
-    <row r="354" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="13"/>
       <c r="B354" s="14"/>
       <c r="C354" s="13"/>
@@ -14119,7 +14168,7 @@
       <c r="AH354" s="13"/>
       <c r="AI354" s="13"/>
     </row>
-    <row r="355" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="13"/>
       <c r="B355" s="14"/>
       <c r="C355" s="13"/>
@@ -14156,7 +14205,7 @@
       <c r="AH355" s="13"/>
       <c r="AI355" s="13"/>
     </row>
-    <row r="356" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="13"/>
       <c r="B356" s="14"/>
       <c r="C356" s="13"/>
@@ -14193,7 +14242,7 @@
       <c r="AH356" s="13"/>
       <c r="AI356" s="13"/>
     </row>
-    <row r="357" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="13"/>
       <c r="B357" s="14"/>
       <c r="C357" s="13"/>
@@ -14230,7 +14279,7 @@
       <c r="AH357" s="13"/>
       <c r="AI357" s="13"/>
     </row>
-    <row r="358" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="13"/>
       <c r="B358" s="14"/>
       <c r="C358" s="13"/>
@@ -14267,7 +14316,7 @@
       <c r="AH358" s="13"/>
       <c r="AI358" s="13"/>
     </row>
-    <row r="359" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="13"/>
       <c r="B359" s="14"/>
       <c r="C359" s="13"/>
@@ -14304,7 +14353,7 @@
       <c r="AH359" s="13"/>
       <c r="AI359" s="13"/>
     </row>
-    <row r="360" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="13"/>
       <c r="B360" s="14"/>
       <c r="C360" s="13"/>
@@ -14341,7 +14390,7 @@
       <c r="AH360" s="13"/>
       <c r="AI360" s="13"/>
     </row>
-    <row r="361" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="13"/>
       <c r="B361" s="14"/>
       <c r="C361" s="13"/>
@@ -14378,7 +14427,7 @@
       <c r="AH361" s="13"/>
       <c r="AI361" s="13"/>
     </row>
-    <row r="362" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="13"/>
       <c r="B362" s="14"/>
       <c r="C362" s="13"/>
@@ -14415,7 +14464,7 @@
       <c r="AH362" s="13"/>
       <c r="AI362" s="13"/>
     </row>
-    <row r="363" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="13"/>
       <c r="B363" s="14"/>
       <c r="C363" s="13"/>
@@ -14452,7 +14501,7 @@
       <c r="AH363" s="13"/>
       <c r="AI363" s="13"/>
     </row>
-    <row r="364" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="13"/>
       <c r="B364" s="14"/>
       <c r="C364" s="13"/>
@@ -14489,7 +14538,7 @@
       <c r="AH364" s="13"/>
       <c r="AI364" s="13"/>
     </row>
-    <row r="365" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="13"/>
       <c r="B365" s="14"/>
       <c r="C365" s="13"/>
@@ -14526,7 +14575,7 @@
       <c r="AH365" s="13"/>
       <c r="AI365" s="13"/>
     </row>
-    <row r="366" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="13"/>
       <c r="B366" s="14"/>
       <c r="C366" s="13"/>
@@ -14563,7 +14612,7 @@
       <c r="AH366" s="13"/>
       <c r="AI366" s="13"/>
     </row>
-    <row r="367" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="13"/>
       <c r="B367" s="14"/>
       <c r="C367" s="13"/>
@@ -14600,7 +14649,7 @@
       <c r="AH367" s="13"/>
       <c r="AI367" s="13"/>
     </row>
-    <row r="368" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="13"/>
       <c r="B368" s="14"/>
       <c r="C368" s="13"/>
@@ -14637,7 +14686,7 @@
       <c r="AH368" s="13"/>
       <c r="AI368" s="13"/>
     </row>
-    <row r="369" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="13"/>
       <c r="B369" s="14"/>
       <c r="C369" s="13"/>
@@ -14674,7 +14723,7 @@
       <c r="AH369" s="13"/>
       <c r="AI369" s="13"/>
     </row>
-    <row r="370" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="13"/>
       <c r="B370" s="14"/>
       <c r="C370" s="13"/>
@@ -14711,7 +14760,7 @@
       <c r="AH370" s="13"/>
       <c r="AI370" s="13"/>
     </row>
-    <row r="371" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="13"/>
       <c r="B371" s="14"/>
       <c r="C371" s="13"/>
@@ -14748,7 +14797,7 @@
       <c r="AH371" s="13"/>
       <c r="AI371" s="13"/>
     </row>
-    <row r="372" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="13"/>
       <c r="B372" s="14"/>
       <c r="C372" s="13"/>
@@ -14785,7 +14834,7 @@
       <c r="AH372" s="13"/>
       <c r="AI372" s="13"/>
     </row>
-    <row r="373" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="13"/>
       <c r="B373" s="14"/>
       <c r="C373" s="13"/>
@@ -14822,7 +14871,7 @@
       <c r="AH373" s="13"/>
       <c r="AI373" s="13"/>
     </row>
-    <row r="374" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="13"/>
       <c r="B374" s="14"/>
       <c r="C374" s="13"/>
@@ -14859,7 +14908,7 @@
       <c r="AH374" s="13"/>
       <c r="AI374" s="13"/>
     </row>
-    <row r="375" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="13"/>
       <c r="B375" s="14"/>
       <c r="C375" s="13"/>
@@ -14896,7 +14945,7 @@
       <c r="AH375" s="13"/>
       <c r="AI375" s="13"/>
     </row>
-    <row r="376" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="13"/>
       <c r="B376" s="14"/>
       <c r="C376" s="13"/>
@@ -14933,7 +14982,7 @@
       <c r="AH376" s="13"/>
       <c r="AI376" s="13"/>
     </row>
-    <row r="377" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="13"/>
       <c r="B377" s="14"/>
       <c r="C377" s="13"/>
@@ -14970,7 +15019,7 @@
       <c r="AH377" s="13"/>
       <c r="AI377" s="13"/>
     </row>
-    <row r="378" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="13"/>
       <c r="B378" s="14"/>
       <c r="C378" s="13"/>
@@ -15007,7 +15056,7 @@
       <c r="AH378" s="13"/>
       <c r="AI378" s="13"/>
     </row>
-    <row r="379" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="13"/>
       <c r="B379" s="14"/>
       <c r="C379" s="13"/>
@@ -15044,7 +15093,7 @@
       <c r="AH379" s="13"/>
       <c r="AI379" s="13"/>
     </row>
-    <row r="380" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="13"/>
       <c r="B380" s="14"/>
       <c r="C380" s="13"/>
@@ -15081,7 +15130,7 @@
       <c r="AH380" s="13"/>
       <c r="AI380" s="13"/>
     </row>
-    <row r="381" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="13"/>
       <c r="B381" s="14"/>
       <c r="C381" s="13"/>
@@ -15118,7 +15167,7 @@
       <c r="AH381" s="13"/>
       <c r="AI381" s="13"/>
     </row>
-    <row r="382" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="13"/>
       <c r="B382" s="14"/>
       <c r="C382" s="13"/>
@@ -15155,7 +15204,7 @@
       <c r="AH382" s="13"/>
       <c r="AI382" s="13"/>
     </row>
-    <row r="383" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="13"/>
       <c r="B383" s="14"/>
       <c r="C383" s="13"/>
@@ -15192,7 +15241,7 @@
       <c r="AH383" s="13"/>
       <c r="AI383" s="13"/>
     </row>
-    <row r="384" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="13"/>
       <c r="B384" s="14"/>
       <c r="C384" s="13"/>
@@ -15229,7 +15278,7 @@
       <c r="AH384" s="13"/>
       <c r="AI384" s="13"/>
     </row>
-    <row r="385" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="13"/>
       <c r="B385" s="14"/>
       <c r="C385" s="13"/>
@@ -15266,7 +15315,7 @@
       <c r="AH385" s="13"/>
       <c r="AI385" s="13"/>
     </row>
-    <row r="386" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="13"/>
       <c r="B386" s="14"/>
       <c r="C386" s="13"/>
@@ -15303,7 +15352,7 @@
       <c r="AH386" s="13"/>
       <c r="AI386" s="13"/>
     </row>
-    <row r="387" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="13"/>
       <c r="B387" s="14"/>
       <c r="C387" s="13"/>
@@ -15340,7 +15389,7 @@
       <c r="AH387" s="13"/>
       <c r="AI387" s="13"/>
     </row>
-    <row r="388" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="13"/>
       <c r="B388" s="14"/>
       <c r="C388" s="13"/>
@@ -15377,7 +15426,7 @@
       <c r="AH388" s="13"/>
       <c r="AI388" s="13"/>
     </row>
-    <row r="389" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="13"/>
       <c r="B389" s="14"/>
       <c r="C389" s="13"/>
@@ -15414,7 +15463,7 @@
       <c r="AH389" s="13"/>
       <c r="AI389" s="13"/>
     </row>
-    <row r="390" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="13"/>
       <c r="B390" s="14"/>
       <c r="C390" s="13"/>
@@ -15451,7 +15500,7 @@
       <c r="AH390" s="13"/>
       <c r="AI390" s="13"/>
     </row>
-    <row r="391" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="13"/>
       <c r="B391" s="14"/>
       <c r="C391" s="13"/>
@@ -15488,7 +15537,7 @@
       <c r="AH391" s="13"/>
       <c r="AI391" s="13"/>
     </row>
-    <row r="392" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="13"/>
       <c r="B392" s="14"/>
       <c r="C392" s="13"/>
@@ -15525,7 +15574,7 @@
       <c r="AH392" s="13"/>
       <c r="AI392" s="13"/>
     </row>
-    <row r="393" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="13"/>
       <c r="B393" s="14"/>
       <c r="C393" s="13"/>
@@ -15562,7 +15611,7 @@
       <c r="AH393" s="13"/>
       <c r="AI393" s="13"/>
     </row>
-    <row r="394" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="13"/>
       <c r="B394" s="14"/>
       <c r="C394" s="13"/>
@@ -15599,7 +15648,7 @@
       <c r="AH394" s="13"/>
       <c r="AI394" s="13"/>
     </row>
-    <row r="395" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="13"/>
       <c r="B395" s="14"/>
       <c r="C395" s="13"/>
@@ -15636,7 +15685,7 @@
       <c r="AH395" s="13"/>
       <c r="AI395" s="13"/>
     </row>
-    <row r="396" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="13"/>
       <c r="B396" s="14"/>
       <c r="C396" s="13"/>
@@ -15673,7 +15722,7 @@
       <c r="AH396" s="13"/>
       <c r="AI396" s="13"/>
     </row>
-    <row r="397" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="13"/>
       <c r="B397" s="14"/>
       <c r="C397" s="13"/>
@@ -15710,7 +15759,7 @@
       <c r="AH397" s="13"/>
       <c r="AI397" s="13"/>
     </row>
-    <row r="398" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="13"/>
       <c r="B398" s="14"/>
       <c r="C398" s="13"/>
@@ -15747,7 +15796,7 @@
       <c r="AH398" s="13"/>
       <c r="AI398" s="13"/>
     </row>
-    <row r="399" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="13"/>
       <c r="B399" s="14"/>
       <c r="C399" s="13"/>
@@ -15784,7 +15833,7 @@
       <c r="AH399" s="13"/>
       <c r="AI399" s="13"/>
     </row>
-    <row r="400" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="13"/>
       <c r="B400" s="14"/>
       <c r="C400" s="13"/>
@@ -15821,7 +15870,7 @@
       <c r="AH400" s="13"/>
       <c r="AI400" s="13"/>
     </row>
-    <row r="401" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="13"/>
       <c r="B401" s="14"/>
       <c r="C401" s="13"/>
@@ -15858,7 +15907,7 @@
       <c r="AH401" s="13"/>
       <c r="AI401" s="13"/>
     </row>
-    <row r="402" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="13"/>
       <c r="B402" s="14"/>
       <c r="C402" s="13"/>
@@ -15895,7 +15944,7 @@
       <c r="AH402" s="13"/>
       <c r="AI402" s="13"/>
     </row>
-    <row r="403" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="13"/>
       <c r="B403" s="14"/>
       <c r="C403" s="13"/>
@@ -15932,7 +15981,7 @@
       <c r="AH403" s="13"/>
       <c r="AI403" s="13"/>
     </row>
-    <row r="404" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="13"/>
       <c r="B404" s="14"/>
       <c r="C404" s="13"/>
@@ -15969,7 +16018,7 @@
       <c r="AH404" s="13"/>
       <c r="AI404" s="13"/>
     </row>
-    <row r="405" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="13"/>
       <c r="B405" s="14"/>
       <c r="C405" s="13"/>
@@ -16006,7 +16055,7 @@
       <c r="AH405" s="13"/>
       <c r="AI405" s="13"/>
     </row>
-    <row r="406" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="13"/>
       <c r="B406" s="14"/>
       <c r="C406" s="13"/>
@@ -16043,7 +16092,7 @@
       <c r="AH406" s="13"/>
       <c r="AI406" s="13"/>
     </row>
-    <row r="407" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="13"/>
       <c r="B407" s="14"/>
       <c r="C407" s="13"/>
@@ -16080,7 +16129,7 @@
       <c r="AH407" s="13"/>
       <c r="AI407" s="13"/>
     </row>
-    <row r="408" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="13"/>
       <c r="B408" s="14"/>
       <c r="C408" s="13"/>
@@ -16117,7 +16166,7 @@
       <c r="AH408" s="13"/>
       <c r="AI408" s="13"/>
     </row>
-    <row r="409" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="13"/>
       <c r="B409" s="14"/>
       <c r="C409" s="13"/>
@@ -16154,7 +16203,7 @@
       <c r="AH409" s="13"/>
       <c r="AI409" s="13"/>
     </row>
-    <row r="410" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="13"/>
       <c r="B410" s="14"/>
       <c r="C410" s="13"/>
@@ -16191,7 +16240,7 @@
       <c r="AH410" s="13"/>
       <c r="AI410" s="13"/>
     </row>
-    <row r="411" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="13"/>
       <c r="B411" s="14"/>
       <c r="C411" s="13"/>
@@ -16228,7 +16277,7 @@
       <c r="AH411" s="13"/>
       <c r="AI411" s="13"/>
     </row>
-    <row r="412" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="13"/>
       <c r="B412" s="14"/>
       <c r="C412" s="13"/>
@@ -16265,7 +16314,7 @@
       <c r="AH412" s="13"/>
       <c r="AI412" s="13"/>
     </row>
-    <row r="413" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="13"/>
       <c r="B413" s="14"/>
       <c r="C413" s="13"/>
@@ -16302,7 +16351,7 @@
       <c r="AH413" s="13"/>
       <c r="AI413" s="13"/>
     </row>
-    <row r="414" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="13"/>
       <c r="B414" s="14"/>
       <c r="C414" s="13"/>
@@ -16339,7 +16388,7 @@
       <c r="AH414" s="13"/>
       <c r="AI414" s="13"/>
     </row>
-    <row r="415" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="13"/>
       <c r="B415" s="14"/>
       <c r="C415" s="13"/>
@@ -16376,7 +16425,7 @@
       <c r="AH415" s="13"/>
       <c r="AI415" s="13"/>
     </row>
-    <row r="416" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="13"/>
       <c r="B416" s="14"/>
       <c r="C416" s="13"/>
@@ -16413,7 +16462,7 @@
       <c r="AH416" s="13"/>
       <c r="AI416" s="13"/>
     </row>
-    <row r="417" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="13"/>
       <c r="B417" s="14"/>
       <c r="C417" s="13"/>
@@ -16450,7 +16499,7 @@
       <c r="AH417" s="13"/>
       <c r="AI417" s="13"/>
     </row>
-    <row r="418" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="13"/>
       <c r="B418" s="14"/>
       <c r="C418" s="13"/>
@@ -16487,7 +16536,7 @@
       <c r="AH418" s="13"/>
       <c r="AI418" s="13"/>
     </row>
-    <row r="419" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="13"/>
       <c r="B419" s="14"/>
       <c r="C419" s="13"/>
@@ -16524,7 +16573,7 @@
       <c r="AH419" s="13"/>
       <c r="AI419" s="13"/>
     </row>
-    <row r="420" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="13"/>
       <c r="B420" s="14"/>
       <c r="C420" s="13"/>
@@ -16561,7 +16610,7 @@
       <c r="AH420" s="13"/>
       <c r="AI420" s="13"/>
     </row>
-    <row r="421" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="13"/>
       <c r="B421" s="14"/>
       <c r="C421" s="13"/>
@@ -16598,7 +16647,7 @@
       <c r="AH421" s="13"/>
       <c r="AI421" s="13"/>
     </row>
-    <row r="422" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="13"/>
       <c r="B422" s="14"/>
       <c r="C422" s="13"/>
@@ -16635,7 +16684,7 @@
       <c r="AH422" s="13"/>
       <c r="AI422" s="13"/>
     </row>
-    <row r="423" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="13"/>
       <c r="B423" s="14"/>
       <c r="C423" s="13"/>
@@ -16672,7 +16721,7 @@
       <c r="AH423" s="13"/>
       <c r="AI423" s="13"/>
     </row>
-    <row r="424" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="13"/>
       <c r="B424" s="14"/>
       <c r="C424" s="13"/>
@@ -16709,7 +16758,7 @@
       <c r="AH424" s="13"/>
       <c r="AI424" s="13"/>
     </row>
-    <row r="425" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="13"/>
       <c r="B425" s="14"/>
       <c r="C425" s="13"/>
@@ -16746,7 +16795,7 @@
       <c r="AH425" s="13"/>
       <c r="AI425" s="13"/>
     </row>
-    <row r="426" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="13"/>
       <c r="B426" s="14"/>
       <c r="C426" s="13"/>
@@ -16783,7 +16832,7 @@
       <c r="AH426" s="13"/>
       <c r="AI426" s="13"/>
     </row>
-    <row r="427" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="13"/>
       <c r="B427" s="14"/>
       <c r="C427" s="13"/>
@@ -16820,7 +16869,7 @@
       <c r="AH427" s="13"/>
       <c r="AI427" s="13"/>
     </row>
-    <row r="428" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="13"/>
       <c r="B428" s="14"/>
       <c r="C428" s="13"/>
@@ -16857,7 +16906,7 @@
       <c r="AH428" s="13"/>
       <c r="AI428" s="13"/>
     </row>
-    <row r="429" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="13"/>
       <c r="B429" s="14"/>
       <c r="C429" s="13"/>
@@ -16894,7 +16943,7 @@
       <c r="AH429" s="13"/>
       <c r="AI429" s="13"/>
     </row>
-    <row r="430" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="13"/>
       <c r="B430" s="14"/>
       <c r="C430" s="13"/>
@@ -16931,7 +16980,7 @@
       <c r="AH430" s="13"/>
       <c r="AI430" s="13"/>
     </row>
-    <row r="431" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="13"/>
       <c r="B431" s="14"/>
       <c r="C431" s="13"/>
@@ -16968,7 +17017,7 @@
       <c r="AH431" s="13"/>
       <c r="AI431" s="13"/>
     </row>
-    <row r="432" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="13"/>
       <c r="B432" s="14"/>
       <c r="C432" s="13"/>
@@ -17005,7 +17054,7 @@
       <c r="AH432" s="13"/>
       <c r="AI432" s="13"/>
     </row>
-    <row r="433" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="13"/>
       <c r="B433" s="14"/>
       <c r="C433" s="13"/>
@@ -17042,7 +17091,7 @@
       <c r="AH433" s="13"/>
       <c r="AI433" s="13"/>
     </row>
-    <row r="434" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="13"/>
       <c r="B434" s="14"/>
       <c r="C434" s="13"/>
@@ -17079,7 +17128,7 @@
       <c r="AH434" s="13"/>
       <c r="AI434" s="13"/>
     </row>
-    <row r="435" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="13"/>
       <c r="B435" s="14"/>
       <c r="C435" s="13"/>
@@ -17116,7 +17165,7 @@
       <c r="AH435" s="13"/>
       <c r="AI435" s="13"/>
     </row>
-    <row r="436" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="13"/>
       <c r="B436" s="14"/>
       <c r="C436" s="13"/>
@@ -17153,7 +17202,7 @@
       <c r="AH436" s="13"/>
       <c r="AI436" s="13"/>
     </row>
-    <row r="437" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="13"/>
       <c r="B437" s="14"/>
       <c r="C437" s="13"/>
@@ -17190,7 +17239,7 @@
       <c r="AH437" s="13"/>
       <c r="AI437" s="13"/>
     </row>
-    <row r="438" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="13"/>
       <c r="B438" s="14"/>
       <c r="C438" s="13"/>
@@ -17227,7 +17276,7 @@
       <c r="AH438" s="13"/>
       <c r="AI438" s="13"/>
     </row>
-    <row r="439" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="13"/>
       <c r="B439" s="14"/>
       <c r="C439" s="13"/>
@@ -17264,7 +17313,7 @@
       <c r="AH439" s="13"/>
       <c r="AI439" s="13"/>
     </row>
-    <row r="440" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="13"/>
       <c r="B440" s="14"/>
       <c r="C440" s="13"/>
@@ -17301,7 +17350,7 @@
       <c r="AH440" s="13"/>
       <c r="AI440" s="13"/>
     </row>
-    <row r="441" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="13"/>
       <c r="B441" s="14"/>
       <c r="C441" s="13"/>
@@ -17338,7 +17387,7 @@
       <c r="AH441" s="13"/>
       <c r="AI441" s="13"/>
     </row>
-    <row r="442" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="13"/>
       <c r="B442" s="14"/>
       <c r="C442" s="13"/>
@@ -17375,7 +17424,7 @@
       <c r="AH442" s="13"/>
       <c r="AI442" s="13"/>
     </row>
-    <row r="443" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="13"/>
       <c r="B443" s="14"/>
       <c r="C443" s="13"/>
@@ -17412,7 +17461,7 @@
       <c r="AH443" s="13"/>
       <c r="AI443" s="13"/>
     </row>
-    <row r="444" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="13"/>
       <c r="B444" s="14"/>
       <c r="C444" s="13"/>
@@ -17449,7 +17498,7 @@
       <c r="AH444" s="13"/>
       <c r="AI444" s="13"/>
     </row>
-    <row r="445" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="13"/>
       <c r="B445" s="14"/>
       <c r="C445" s="13"/>
@@ -17486,7 +17535,7 @@
       <c r="AH445" s="13"/>
       <c r="AI445" s="13"/>
     </row>
-    <row r="446" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="13"/>
       <c r="B446" s="14"/>
       <c r="C446" s="13"/>
@@ -17523,7 +17572,7 @@
       <c r="AH446" s="13"/>
       <c r="AI446" s="13"/>
     </row>
-    <row r="447" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="13"/>
       <c r="B447" s="14"/>
       <c r="C447" s="13"/>
@@ -17560,7 +17609,7 @@
       <c r="AH447" s="13"/>
       <c r="AI447" s="13"/>
     </row>
-    <row r="448" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="13"/>
       <c r="B448" s="14"/>
       <c r="C448" s="13"/>
@@ -17597,7 +17646,7 @@
       <c r="AH448" s="13"/>
       <c r="AI448" s="13"/>
     </row>
-    <row r="449" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="13"/>
       <c r="B449" s="14"/>
       <c r="C449" s="13"/>
@@ -17634,7 +17683,7 @@
       <c r="AH449" s="13"/>
       <c r="AI449" s="13"/>
     </row>
-    <row r="450" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="13"/>
       <c r="B450" s="14"/>
       <c r="C450" s="13"/>
@@ -17671,7 +17720,7 @@
       <c r="AH450" s="13"/>
       <c r="AI450" s="13"/>
     </row>
-    <row r="451" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="13"/>
       <c r="B451" s="14"/>
       <c r="C451" s="13"/>
@@ -17708,7 +17757,7 @@
       <c r="AH451" s="13"/>
       <c r="AI451" s="13"/>
     </row>
-    <row r="452" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="13"/>
       <c r="B452" s="14"/>
       <c r="C452" s="13"/>
@@ -17745,7 +17794,7 @@
       <c r="AH452" s="13"/>
       <c r="AI452" s="13"/>
     </row>
-    <row r="453" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="13"/>
       <c r="B453" s="14"/>
       <c r="C453" s="13"/>
@@ -17782,7 +17831,7 @@
       <c r="AH453" s="13"/>
       <c r="AI453" s="13"/>
     </row>
-    <row r="454" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="13"/>
       <c r="B454" s="14"/>
       <c r="C454" s="13"/>
@@ -17819,7 +17868,7 @@
       <c r="AH454" s="13"/>
       <c r="AI454" s="13"/>
     </row>
-    <row r="455" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="13"/>
       <c r="B455" s="14"/>
       <c r="C455" s="13"/>
@@ -17856,7 +17905,7 @@
       <c r="AH455" s="13"/>
       <c r="AI455" s="13"/>
     </row>
-    <row r="456" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="13"/>
       <c r="B456" s="14"/>
       <c r="C456" s="13"/>
@@ -17893,7 +17942,7 @@
       <c r="AH456" s="13"/>
       <c r="AI456" s="13"/>
     </row>
-    <row r="457" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="13"/>
       <c r="B457" s="14"/>
       <c r="C457" s="13"/>
@@ -17930,7 +17979,7 @@
       <c r="AH457" s="13"/>
       <c r="AI457" s="13"/>
     </row>
-    <row r="458" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="13"/>
       <c r="B458" s="14"/>
       <c r="C458" s="13"/>
@@ -17967,7 +18016,7 @@
       <c r="AH458" s="13"/>
       <c r="AI458" s="13"/>
     </row>
-    <row r="459" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="13"/>
       <c r="B459" s="14"/>
       <c r="C459" s="13"/>
@@ -18004,7 +18053,7 @@
       <c r="AH459" s="13"/>
       <c r="AI459" s="13"/>
     </row>
-    <row r="460" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="13"/>
       <c r="B460" s="14"/>
       <c r="C460" s="13"/>
@@ -18041,7 +18090,7 @@
       <c r="AH460" s="13"/>
       <c r="AI460" s="13"/>
     </row>
-    <row r="461" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="13"/>
       <c r="B461" s="14"/>
       <c r="C461" s="13"/>
@@ -18078,7 +18127,7 @@
       <c r="AH461" s="13"/>
       <c r="AI461" s="13"/>
     </row>
-    <row r="462" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="13"/>
       <c r="B462" s="14"/>
       <c r="C462" s="13"/>
@@ -18115,7 +18164,7 @@
       <c r="AH462" s="13"/>
       <c r="AI462" s="13"/>
     </row>
-    <row r="463" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="13"/>
       <c r="B463" s="14"/>
       <c r="C463" s="13"/>
@@ -18152,7 +18201,7 @@
       <c r="AH463" s="13"/>
       <c r="AI463" s="13"/>
     </row>
-    <row r="464" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="13"/>
       <c r="B464" s="14"/>
       <c r="C464" s="13"/>
@@ -18189,7 +18238,7 @@
       <c r="AH464" s="13"/>
       <c r="AI464" s="13"/>
     </row>
-    <row r="465" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="13"/>
       <c r="B465" s="14"/>
       <c r="C465" s="13"/>
@@ -18226,7 +18275,7 @@
       <c r="AH465" s="13"/>
       <c r="AI465" s="13"/>
     </row>
-    <row r="466" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="13"/>
       <c r="B466" s="14"/>
       <c r="C466" s="13"/>
@@ -18263,7 +18312,7 @@
       <c r="AH466" s="13"/>
       <c r="AI466" s="13"/>
     </row>
-    <row r="467" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="13"/>
       <c r="B467" s="14"/>
       <c r="C467" s="13"/>
@@ -18300,7 +18349,7 @@
       <c r="AH467" s="13"/>
       <c r="AI467" s="13"/>
     </row>
-    <row r="468" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="13"/>
       <c r="B468" s="14"/>
       <c r="C468" s="13"/>
@@ -18337,7 +18386,7 @@
       <c r="AH468" s="13"/>
       <c r="AI468" s="13"/>
     </row>
-    <row r="469" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="13"/>
       <c r="B469" s="14"/>
       <c r="C469" s="13"/>
@@ -18374,7 +18423,7 @@
       <c r="AH469" s="13"/>
       <c r="AI469" s="13"/>
     </row>
-    <row r="470" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="13"/>
       <c r="B470" s="14"/>
       <c r="C470" s="13"/>
@@ -18411,7 +18460,7 @@
       <c r="AH470" s="13"/>
       <c r="AI470" s="13"/>
     </row>
-    <row r="471" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="13"/>
       <c r="B471" s="14"/>
       <c r="C471" s="13"/>
@@ -18448,7 +18497,7 @@
       <c r="AH471" s="13"/>
       <c r="AI471" s="13"/>
     </row>
-    <row r="472" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="13"/>
       <c r="B472" s="14"/>
       <c r="C472" s="13"/>
@@ -18485,7 +18534,7 @@
       <c r="AH472" s="13"/>
       <c r="AI472" s="13"/>
     </row>
-    <row r="473" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="13"/>
       <c r="B473" s="14"/>
       <c r="C473" s="13"/>
@@ -18522,7 +18571,7 @@
       <c r="AH473" s="13"/>
       <c r="AI473" s="13"/>
     </row>
-    <row r="474" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="13"/>
       <c r="B474" s="14"/>
       <c r="C474" s="13"/>
@@ -18559,7 +18608,7 @@
       <c r="AH474" s="13"/>
       <c r="AI474" s="13"/>
     </row>
-    <row r="475" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="13"/>
       <c r="B475" s="14"/>
       <c r="C475" s="13"/>
@@ -18596,7 +18645,7 @@
       <c r="AH475" s="13"/>
       <c r="AI475" s="13"/>
     </row>
-    <row r="476" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="13"/>
       <c r="B476" s="14"/>
       <c r="C476" s="13"/>
@@ -18633,7 +18682,7 @@
       <c r="AH476" s="13"/>
       <c r="AI476" s="13"/>
     </row>
-    <row r="477" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="13"/>
       <c r="B477" s="14"/>
       <c r="C477" s="13"/>
@@ -18670,7 +18719,7 @@
       <c r="AH477" s="13"/>
       <c r="AI477" s="13"/>
     </row>
-    <row r="478" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="13"/>
       <c r="B478" s="14"/>
       <c r="C478" s="13"/>
@@ -18707,7 +18756,7 @@
       <c r="AH478" s="13"/>
       <c r="AI478" s="13"/>
     </row>
-    <row r="479" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="13"/>
       <c r="B479" s="14"/>
       <c r="C479" s="13"/>
@@ -18744,7 +18793,7 @@
       <c r="AH479" s="13"/>
       <c r="AI479" s="13"/>
     </row>
-    <row r="480" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="13"/>
       <c r="B480" s="14"/>
       <c r="C480" s="13"/>
@@ -18781,7 +18830,7 @@
       <c r="AH480" s="13"/>
       <c r="AI480" s="13"/>
     </row>
-    <row r="481" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="13"/>
       <c r="B481" s="14"/>
       <c r="C481" s="13"/>
@@ -18818,7 +18867,7 @@
       <c r="AH481" s="13"/>
       <c r="AI481" s="13"/>
     </row>
-    <row r="482" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="13"/>
       <c r="B482" s="14"/>
       <c r="C482" s="13"/>
@@ -18855,7 +18904,7 @@
       <c r="AH482" s="13"/>
       <c r="AI482" s="13"/>
     </row>
-    <row r="483" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="13"/>
       <c r="B483" s="14"/>
       <c r="C483" s="13"/>
@@ -18892,7 +18941,7 @@
       <c r="AH483" s="13"/>
       <c r="AI483" s="13"/>
     </row>
-    <row r="484" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="13"/>
       <c r="B484" s="14"/>
       <c r="C484" s="13"/>
@@ -18929,7 +18978,7 @@
       <c r="AH484" s="13"/>
       <c r="AI484" s="13"/>
     </row>
-    <row r="485" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="13"/>
       <c r="B485" s="14"/>
       <c r="C485" s="13"/>
@@ -18966,7 +19015,7 @@
       <c r="AH485" s="13"/>
       <c r="AI485" s="13"/>
     </row>
-    <row r="486" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="13"/>
       <c r="B486" s="14"/>
       <c r="C486" s="13"/>
@@ -19003,7 +19052,7 @@
       <c r="AH486" s="13"/>
       <c r="AI486" s="13"/>
     </row>
-    <row r="487" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="13"/>
       <c r="B487" s="14"/>
       <c r="C487" s="13"/>
@@ -19040,7 +19089,7 @@
       <c r="AH487" s="13"/>
       <c r="AI487" s="13"/>
     </row>
-    <row r="488" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="13"/>
       <c r="B488" s="14"/>
       <c r="C488" s="13"/>
@@ -19077,7 +19126,7 @@
       <c r="AH488" s="13"/>
       <c r="AI488" s="13"/>
     </row>
-    <row r="489" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="13"/>
       <c r="B489" s="14"/>
       <c r="C489" s="13"/>
@@ -19114,7 +19163,7 @@
       <c r="AH489" s="13"/>
       <c r="AI489" s="13"/>
     </row>
-    <row r="490" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="13"/>
       <c r="B490" s="14"/>
       <c r="C490" s="13"/>
@@ -19151,7 +19200,7 @@
       <c r="AH490" s="13"/>
       <c r="AI490" s="13"/>
     </row>
-    <row r="491" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="13"/>
       <c r="B491" s="14"/>
       <c r="C491" s="13"/>
@@ -19188,7 +19237,7 @@
       <c r="AH491" s="13"/>
       <c r="AI491" s="13"/>
     </row>
-    <row r="492" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="13"/>
       <c r="B492" s="14"/>
       <c r="C492" s="13"/>
@@ -19225,7 +19274,7 @@
       <c r="AH492" s="13"/>
       <c r="AI492" s="13"/>
     </row>
-    <row r="493" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="13"/>
       <c r="B493" s="14"/>
       <c r="C493" s="13"/>
@@ -19262,7 +19311,7 @@
       <c r="AH493" s="13"/>
       <c r="AI493" s="13"/>
     </row>
-    <row r="494" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="13"/>
       <c r="B494" s="14"/>
       <c r="C494" s="13"/>
@@ -19299,7 +19348,7 @@
       <c r="AH494" s="13"/>
       <c r="AI494" s="13"/>
     </row>
-    <row r="495" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="13"/>
       <c r="B495" s="14"/>
       <c r="C495" s="13"/>
@@ -19336,7 +19385,7 @@
       <c r="AH495" s="13"/>
       <c r="AI495" s="13"/>
     </row>
-    <row r="496" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="13"/>
       <c r="B496" s="14"/>
       <c r="C496" s="13"/>
@@ -19373,7 +19422,7 @@
       <c r="AH496" s="13"/>
       <c r="AI496" s="13"/>
     </row>
-    <row r="497" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="13"/>
       <c r="B497" s="14"/>
       <c r="C497" s="13"/>
@@ -19410,7 +19459,7 @@
       <c r="AH497" s="13"/>
       <c r="AI497" s="13"/>
     </row>
-    <row r="498" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="13"/>
       <c r="B498" s="14"/>
       <c r="C498" s="13"/>
@@ -19447,7 +19496,7 @@
       <c r="AH498" s="13"/>
       <c r="AI498" s="13"/>
     </row>
-    <row r="499" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="13"/>
       <c r="B499" s="14"/>
       <c r="C499" s="13"/>
@@ -19484,7 +19533,7 @@
       <c r="AH499" s="13"/>
       <c r="AI499" s="13"/>
     </row>
-    <row r="500" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="13"/>
       <c r="B500" s="14"/>
       <c r="C500" s="13"/>
@@ -19521,7 +19570,7 @@
       <c r="AH500" s="13"/>
       <c r="AI500" s="13"/>
     </row>
-    <row r="501" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="13"/>
       <c r="B501" s="14"/>
       <c r="C501" s="13"/>
@@ -19558,7 +19607,7 @@
       <c r="AH501" s="13"/>
       <c r="AI501" s="13"/>
     </row>
-    <row r="502" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="13"/>
       <c r="B502" s="14"/>
       <c r="C502" s="13"/>
@@ -19595,7 +19644,7 @@
       <c r="AH502" s="13"/>
       <c r="AI502" s="13"/>
     </row>
-    <row r="503" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="13"/>
       <c r="B503" s="14"/>
       <c r="C503" s="13"/>
@@ -19632,7 +19681,7 @@
       <c r="AH503" s="13"/>
       <c r="AI503" s="13"/>
     </row>
-    <row r="504" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="13"/>
       <c r="B504" s="14"/>
       <c r="C504" s="13"/>
@@ -19669,7 +19718,7 @@
       <c r="AH504" s="13"/>
       <c r="AI504" s="13"/>
     </row>
-    <row r="505" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="13"/>
       <c r="B505" s="14"/>
       <c r="C505" s="13"/>
@@ -19706,7 +19755,7 @@
       <c r="AH505" s="13"/>
       <c r="AI505" s="13"/>
     </row>
-    <row r="506" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="13"/>
       <c r="B506" s="14"/>
       <c r="C506" s="13"/>
@@ -19743,7 +19792,7 @@
       <c r="AH506" s="13"/>
       <c r="AI506" s="13"/>
     </row>
-    <row r="507" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="13"/>
       <c r="B507" s="14"/>
       <c r="C507" s="13"/>
@@ -19780,7 +19829,7 @@
       <c r="AH507" s="13"/>
       <c r="AI507" s="13"/>
     </row>
-    <row r="508" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="13"/>
       <c r="B508" s="14"/>
       <c r="C508" s="13"/>
@@ -19817,7 +19866,7 @@
       <c r="AH508" s="13"/>
       <c r="AI508" s="13"/>
     </row>
-    <row r="509" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="13"/>
       <c r="B509" s="14"/>
       <c r="C509" s="13"/>
@@ -19854,7 +19903,7 @@
       <c r="AH509" s="13"/>
       <c r="AI509" s="13"/>
     </row>
-    <row r="510" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="13"/>
       <c r="B510" s="14"/>
       <c r="C510" s="13"/>
@@ -19891,7 +19940,7 @@
       <c r="AH510" s="13"/>
       <c r="AI510" s="13"/>
     </row>
-    <row r="511" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="13"/>
       <c r="B511" s="14"/>
       <c r="C511" s="13"/>
@@ -19928,7 +19977,7 @@
       <c r="AH511" s="13"/>
       <c r="AI511" s="13"/>
     </row>
-    <row r="512" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="13"/>
       <c r="B512" s="14"/>
       <c r="C512" s="13"/>
@@ -19965,7 +20014,7 @@
       <c r="AH512" s="13"/>
       <c r="AI512" s="13"/>
     </row>
-    <row r="513" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="13"/>
       <c r="B513" s="14"/>
       <c r="C513" s="13"/>
@@ -20002,7 +20051,7 @@
       <c r="AH513" s="13"/>
       <c r="AI513" s="13"/>
     </row>
-    <row r="514" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="13"/>
       <c r="B514" s="14"/>
       <c r="C514" s="13"/>
@@ -20039,7 +20088,7 @@
       <c r="AH514" s="13"/>
       <c r="AI514" s="13"/>
     </row>
-    <row r="515" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="13"/>
       <c r="B515" s="14"/>
       <c r="C515" s="13"/>
@@ -20076,7 +20125,7 @@
       <c r="AH515" s="13"/>
       <c r="AI515" s="13"/>
     </row>
-    <row r="516" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="13"/>
       <c r="B516" s="14"/>
       <c r="C516" s="13"/>
@@ -20113,7 +20162,7 @@
       <c r="AH516" s="13"/>
       <c r="AI516" s="13"/>
     </row>
-    <row r="517" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="13"/>
       <c r="B517" s="14"/>
       <c r="C517" s="13"/>
@@ -20150,7 +20199,7 @@
       <c r="AH517" s="13"/>
       <c r="AI517" s="13"/>
     </row>
-    <row r="518" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="13"/>
       <c r="B518" s="14"/>
       <c r="C518" s="13"/>
@@ -20187,7 +20236,7 @@
       <c r="AH518" s="13"/>
       <c r="AI518" s="13"/>
     </row>
-    <row r="519" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="13"/>
       <c r="B519" s="14"/>
       <c r="C519" s="13"/>
@@ -20224,7 +20273,7 @@
       <c r="AH519" s="13"/>
       <c r="AI519" s="13"/>
     </row>
-    <row r="520" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="13"/>
       <c r="B520" s="14"/>
       <c r="C520" s="13"/>
@@ -20261,7 +20310,7 @@
       <c r="AH520" s="13"/>
       <c r="AI520" s="13"/>
     </row>
-    <row r="521" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="13"/>
       <c r="B521" s="14"/>
       <c r="C521" s="13"/>
@@ -20298,7 +20347,7 @@
       <c r="AH521" s="13"/>
       <c r="AI521" s="13"/>
     </row>
-    <row r="522" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="13"/>
       <c r="B522" s="14"/>
       <c r="C522" s="13"/>
@@ -20335,7 +20384,7 @@
       <c r="AH522" s="13"/>
       <c r="AI522" s="13"/>
     </row>
-    <row r="523" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="13"/>
       <c r="B523" s="14"/>
       <c r="C523" s="13"/>
@@ -20372,7 +20421,7 @@
       <c r="AH523" s="13"/>
       <c r="AI523" s="13"/>
     </row>
-    <row r="524" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="13"/>
       <c r="B524" s="14"/>
       <c r="C524" s="13"/>
@@ -20409,7 +20458,7 @@
       <c r="AH524" s="13"/>
       <c r="AI524" s="13"/>
     </row>
-    <row r="525" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="13"/>
       <c r="B525" s="14"/>
       <c r="C525" s="13"/>
@@ -20446,7 +20495,7 @@
       <c r="AH525" s="13"/>
       <c r="AI525" s="13"/>
     </row>
-    <row r="526" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="13"/>
       <c r="B526" s="14"/>
       <c r="C526" s="13"/>
@@ -20483,7 +20532,7 @@
       <c r="AH526" s="13"/>
       <c r="AI526" s="13"/>
     </row>
-    <row r="527" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="13"/>
       <c r="B527" s="14"/>
       <c r="C527" s="13"/>
@@ -20520,7 +20569,7 @@
       <c r="AH527" s="13"/>
       <c r="AI527" s="13"/>
     </row>
-    <row r="528" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="13"/>
       <c r="B528" s="14"/>
       <c r="C528" s="13"/>
@@ -20557,7 +20606,7 @@
       <c r="AH528" s="13"/>
       <c r="AI528" s="13"/>
     </row>
-    <row r="529" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="13"/>
       <c r="B529" s="14"/>
       <c r="C529" s="13"/>
@@ -20594,7 +20643,7 @@
       <c r="AH529" s="13"/>
       <c r="AI529" s="13"/>
     </row>
-    <row r="530" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="13"/>
       <c r="B530" s="14"/>
       <c r="C530" s="13"/>
@@ -20631,7 +20680,7 @@
       <c r="AH530" s="13"/>
       <c r="AI530" s="13"/>
     </row>
-    <row r="531" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="13"/>
       <c r="B531" s="14"/>
       <c r="C531" s="13"/>
@@ -20668,7 +20717,7 @@
       <c r="AH531" s="13"/>
       <c r="AI531" s="13"/>
     </row>
-    <row r="532" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="13"/>
       <c r="B532" s="14"/>
       <c r="C532" s="13"/>
@@ -20705,7 +20754,7 @@
       <c r="AH532" s="13"/>
       <c r="AI532" s="13"/>
     </row>
-    <row r="533" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="13"/>
       <c r="B533" s="14"/>
       <c r="C533" s="13"/>
@@ -20742,7 +20791,7 @@
       <c r="AH533" s="13"/>
       <c r="AI533" s="13"/>
     </row>
-    <row r="534" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="13"/>
       <c r="B534" s="14"/>
       <c r="C534" s="13"/>
@@ -20779,7 +20828,7 @@
       <c r="AH534" s="13"/>
       <c r="AI534" s="13"/>
     </row>
-    <row r="535" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="13"/>
       <c r="B535" s="14"/>
       <c r="C535" s="13"/>
@@ -20816,7 +20865,7 @@
       <c r="AH535" s="13"/>
       <c r="AI535" s="13"/>
     </row>
-    <row r="536" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="13"/>
       <c r="B536" s="14"/>
       <c r="C536" s="13"/>
@@ -20853,7 +20902,7 @@
       <c r="AH536" s="13"/>
       <c r="AI536" s="13"/>
     </row>
-    <row r="537" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="13"/>
       <c r="B537" s="14"/>
       <c r="C537" s="13"/>
@@ -20890,7 +20939,7 @@
       <c r="AH537" s="13"/>
       <c r="AI537" s="13"/>
     </row>
-    <row r="538" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="13"/>
       <c r="B538" s="14"/>
       <c r="C538" s="13"/>
@@ -20927,7 +20976,7 @@
       <c r="AH538" s="13"/>
       <c r="AI538" s="13"/>
     </row>
-    <row r="539" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="13"/>
       <c r="B539" s="14"/>
       <c r="C539" s="13"/>
@@ -20964,7 +21013,7 @@
       <c r="AH539" s="13"/>
       <c r="AI539" s="13"/>
     </row>
-    <row r="540" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="13"/>
       <c r="B540" s="14"/>
       <c r="C540" s="13"/>
@@ -21001,7 +21050,7 @@
       <c r="AH540" s="13"/>
       <c r="AI540" s="13"/>
     </row>
-    <row r="541" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="13"/>
       <c r="B541" s="14"/>
       <c r="C541" s="13"/>
@@ -21038,7 +21087,7 @@
       <c r="AH541" s="13"/>
       <c r="AI541" s="13"/>
     </row>
-    <row r="542" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="13"/>
       <c r="B542" s="14"/>
       <c r="C542" s="13"/>
@@ -21075,7 +21124,7 @@
       <c r="AH542" s="13"/>
       <c r="AI542" s="13"/>
     </row>
-    <row r="543" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="13"/>
       <c r="B543" s="14"/>
       <c r="C543" s="13"/>
@@ -21112,7 +21161,7 @@
       <c r="AH543" s="13"/>
       <c r="AI543" s="13"/>
     </row>
-    <row r="544" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="13"/>
       <c r="B544" s="14"/>
       <c r="C544" s="13"/>
@@ -21149,7 +21198,7 @@
       <c r="AH544" s="13"/>
       <c r="AI544" s="13"/>
     </row>
-    <row r="545" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="13"/>
       <c r="B545" s="14"/>
       <c r="C545" s="13"/>
@@ -21186,7 +21235,7 @@
       <c r="AH545" s="13"/>
       <c r="AI545" s="13"/>
     </row>
-    <row r="546" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="13"/>
       <c r="B546" s="14"/>
       <c r="C546" s="13"/>
@@ -21223,7 +21272,7 @@
       <c r="AH546" s="13"/>
       <c r="AI546" s="13"/>
     </row>
-    <row r="547" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="13"/>
       <c r="B547" s="14"/>
       <c r="C547" s="13"/>
@@ -21260,7 +21309,7 @@
       <c r="AH547" s="13"/>
       <c r="AI547" s="13"/>
     </row>
-    <row r="548" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="13"/>
       <c r="B548" s="14"/>
       <c r="C548" s="13"/>
@@ -21297,7 +21346,7 @@
       <c r="AH548" s="13"/>
       <c r="AI548" s="13"/>
     </row>
-    <row r="549" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="13"/>
       <c r="B549" s="14"/>
       <c r="C549" s="13"/>
@@ -21334,7 +21383,7 @@
       <c r="AH549" s="13"/>
       <c r="AI549" s="13"/>
     </row>
-    <row r="550" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="13"/>
       <c r="B550" s="14"/>
       <c r="C550" s="13"/>
@@ -21371,7 +21420,7 @@
       <c r="AH550" s="13"/>
       <c r="AI550" s="13"/>
     </row>
-    <row r="551" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="13"/>
       <c r="B551" s="14"/>
       <c r="C551" s="13"/>
@@ -21408,7 +21457,7 @@
       <c r="AH551" s="13"/>
       <c r="AI551" s="13"/>
     </row>
-    <row r="552" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="13"/>
       <c r="B552" s="14"/>
       <c r="C552" s="13"/>
@@ -21445,7 +21494,7 @@
       <c r="AH552" s="13"/>
       <c r="AI552" s="13"/>
     </row>
-    <row r="553" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="13"/>
       <c r="B553" s="14"/>
       <c r="C553" s="13"/>
@@ -21482,7 +21531,7 @@
       <c r="AH553" s="13"/>
       <c r="AI553" s="13"/>
     </row>
-    <row r="554" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="13"/>
       <c r="B554" s="14"/>
       <c r="C554" s="13"/>
@@ -21519,7 +21568,7 @@
       <c r="AH554" s="13"/>
       <c r="AI554" s="13"/>
     </row>
-    <row r="555" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="13"/>
       <c r="B555" s="14"/>
       <c r="C555" s="13"/>
@@ -21556,7 +21605,7 @@
       <c r="AH555" s="13"/>
       <c r="AI555" s="13"/>
     </row>
-    <row r="556" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="13"/>
       <c r="B556" s="14"/>
       <c r="C556" s="13"/>
@@ -21593,7 +21642,7 @@
       <c r="AH556" s="13"/>
       <c r="AI556" s="13"/>
     </row>
-    <row r="557" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="13"/>
       <c r="B557" s="14"/>
       <c r="C557" s="13"/>
@@ -21630,7 +21679,7 @@
       <c r="AH557" s="13"/>
       <c r="AI557" s="13"/>
     </row>
-    <row r="558" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="13"/>
       <c r="B558" s="14"/>
       <c r="C558" s="13"/>
@@ -21667,7 +21716,7 @@
       <c r="AH558" s="13"/>
       <c r="AI558" s="13"/>
     </row>
-    <row r="559" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="13"/>
       <c r="B559" s="14"/>
       <c r="C559" s="13"/>
@@ -21704,7 +21753,7 @@
       <c r="AH559" s="13"/>
       <c r="AI559" s="13"/>
     </row>
-    <row r="560" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="13"/>
       <c r="B560" s="14"/>
       <c r="C560" s="13"/>
@@ -21741,7 +21790,7 @@
       <c r="AH560" s="13"/>
       <c r="AI560" s="13"/>
     </row>
-    <row r="561" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="13"/>
       <c r="B561" s="14"/>
       <c r="C561" s="13"/>
@@ -21778,7 +21827,7 @@
       <c r="AH561" s="13"/>
       <c r="AI561" s="13"/>
     </row>
-    <row r="562" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="13"/>
       <c r="B562" s="14"/>
       <c r="C562" s="13"/>
@@ -21815,7 +21864,7 @@
       <c r="AH562" s="13"/>
       <c r="AI562" s="13"/>
     </row>
-    <row r="563" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="13"/>
       <c r="B563" s="14"/>
       <c r="C563" s="13"/>
@@ -21852,7 +21901,7 @@
       <c r="AH563" s="13"/>
       <c r="AI563" s="13"/>
     </row>
-    <row r="564" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="13"/>
       <c r="B564" s="14"/>
       <c r="C564" s="13"/>
@@ -21889,7 +21938,7 @@
       <c r="AH564" s="13"/>
       <c r="AI564" s="13"/>
     </row>
-    <row r="565" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="13"/>
       <c r="B565" s="14"/>
       <c r="C565" s="13"/>
@@ -21926,7 +21975,7 @@
       <c r="AH565" s="13"/>
       <c r="AI565" s="13"/>
     </row>
-    <row r="566" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="13"/>
       <c r="B566" s="14"/>
       <c r="C566" s="13"/>
@@ -21963,7 +22012,7 @@
       <c r="AH566" s="13"/>
       <c r="AI566" s="13"/>
     </row>
-    <row r="567" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="13"/>
       <c r="B567" s="14"/>
       <c r="C567" s="13"/>
@@ -22000,7 +22049,7 @@
       <c r="AH567" s="13"/>
       <c r="AI567" s="13"/>
     </row>
-    <row r="568" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="13"/>
       <c r="B568" s="14"/>
       <c r="C568" s="13"/>
@@ -22037,7 +22086,7 @@
       <c r="AH568" s="13"/>
       <c r="AI568" s="13"/>
     </row>
-    <row r="569" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="13"/>
       <c r="B569" s="14"/>
       <c r="C569" s="13"/>
@@ -22074,7 +22123,7 @@
       <c r="AH569" s="13"/>
       <c r="AI569" s="13"/>
     </row>
-    <row r="570" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="13"/>
       <c r="B570" s="14"/>
       <c r="C570" s="13"/>
@@ -22111,7 +22160,7 @@
       <c r="AH570" s="13"/>
       <c r="AI570" s="13"/>
     </row>
-    <row r="571" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="13"/>
       <c r="B571" s="14"/>
       <c r="C571" s="13"/>
@@ -22148,7 +22197,7 @@
       <c r="AH571" s="13"/>
       <c r="AI571" s="13"/>
     </row>
-    <row r="572" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="13"/>
       <c r="B572" s="14"/>
       <c r="C572" s="13"/>
@@ -22185,7 +22234,7 @@
       <c r="AH572" s="13"/>
       <c r="AI572" s="13"/>
     </row>
-    <row r="573" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="13"/>
       <c r="B573" s="14"/>
       <c r="C573" s="13"/>
@@ -22222,7 +22271,7 @@
       <c r="AH573" s="13"/>
       <c r="AI573" s="13"/>
     </row>
-    <row r="574" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="13"/>
       <c r="B574" s="14"/>
       <c r="C574" s="13"/>
@@ -22259,7 +22308,7 @@
       <c r="AH574" s="13"/>
       <c r="AI574" s="13"/>
     </row>
-    <row r="575" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="13"/>
       <c r="B575" s="14"/>
       <c r="C575" s="13"/>
@@ -22296,7 +22345,7 @@
       <c r="AH575" s="13"/>
       <c r="AI575" s="13"/>
     </row>
-    <row r="576" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="13"/>
       <c r="B576" s="14"/>
       <c r="C576" s="13"/>
@@ -22333,7 +22382,7 @@
       <c r="AH576" s="13"/>
       <c r="AI576" s="13"/>
     </row>
-    <row r="577" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="13"/>
       <c r="B577" s="14"/>
       <c r="C577" s="13"/>
@@ -22370,7 +22419,7 @@
       <c r="AH577" s="13"/>
       <c r="AI577" s="13"/>
     </row>
-    <row r="578" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="13"/>
       <c r="B578" s="14"/>
       <c r="C578" s="13"/>
@@ -22407,7 +22456,7 @@
       <c r="AH578" s="13"/>
       <c r="AI578" s="13"/>
     </row>
-    <row r="579" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="13"/>
       <c r="B579" s="14"/>
       <c r="C579" s="13"/>
@@ -22444,7 +22493,7 @@
       <c r="AH579" s="13"/>
       <c r="AI579" s="13"/>
     </row>
-    <row r="580" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="13"/>
       <c r="B580" s="14"/>
       <c r="C580" s="13"/>
@@ -22481,7 +22530,7 @@
       <c r="AH580" s="13"/>
       <c r="AI580" s="13"/>
     </row>
-    <row r="581" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="13"/>
       <c r="B581" s="14"/>
       <c r="C581" s="13"/>
@@ -22518,7 +22567,7 @@
       <c r="AH581" s="13"/>
       <c r="AI581" s="13"/>
     </row>
-    <row r="582" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="13"/>
       <c r="B582" s="14"/>
       <c r="C582" s="13"/>
@@ -22555,7 +22604,7 @@
       <c r="AH582" s="13"/>
       <c r="AI582" s="13"/>
     </row>
-    <row r="583" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="13"/>
       <c r="B583" s="14"/>
       <c r="C583" s="13"/>
@@ -22592,7 +22641,7 @@
       <c r="AH583" s="13"/>
       <c r="AI583" s="13"/>
     </row>
-    <row r="584" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="13"/>
       <c r="B584" s="14"/>
       <c r="C584" s="13"/>
@@ -22629,7 +22678,7 @@
       <c r="AH584" s="13"/>
       <c r="AI584" s="13"/>
     </row>
-    <row r="585" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="13"/>
       <c r="B585" s="14"/>
       <c r="C585" s="13"/>
@@ -22666,7 +22715,7 @@
       <c r="AH585" s="13"/>
       <c r="AI585" s="13"/>
     </row>
-    <row r="586" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="13"/>
       <c r="B586" s="14"/>
       <c r="C586" s="13"/>
@@ -22703,7 +22752,7 @@
       <c r="AH586" s="13"/>
       <c r="AI586" s="13"/>
     </row>
-    <row r="587" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="13"/>
       <c r="B587" s="14"/>
       <c r="C587" s="13"/>
@@ -22740,7 +22789,7 @@
       <c r="AH587" s="13"/>
       <c r="AI587" s="13"/>
     </row>
-    <row r="588" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="13"/>
       <c r="B588" s="14"/>
       <c r="C588" s="13"/>
@@ -22777,7 +22826,7 @@
       <c r="AH588" s="13"/>
       <c r="AI588" s="13"/>
     </row>
-    <row r="589" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="13"/>
       <c r="B589" s="14"/>
       <c r="C589" s="13"/>
@@ -22814,7 +22863,7 @@
       <c r="AH589" s="13"/>
       <c r="AI589" s="13"/>
     </row>
-    <row r="590" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="13"/>
       <c r="B590" s="14"/>
       <c r="C590" s="13"/>
@@ -22851,7 +22900,7 @@
       <c r="AH590" s="13"/>
       <c r="AI590" s="13"/>
     </row>
-    <row r="591" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="13"/>
       <c r="B591" s="14"/>
       <c r="C591" s="13"/>
@@ -22888,7 +22937,7 @@
       <c r="AH591" s="13"/>
       <c r="AI591" s="13"/>
     </row>
-    <row r="592" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="13"/>
       <c r="B592" s="14"/>
       <c r="C592" s="13"/>
@@ -22925,7 +22974,7 @@
       <c r="AH592" s="13"/>
       <c r="AI592" s="13"/>
     </row>
-    <row r="593" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="13"/>
       <c r="B593" s="14"/>
       <c r="C593" s="13"/>
@@ -22962,7 +23011,7 @@
       <c r="AH593" s="13"/>
       <c r="AI593" s="13"/>
     </row>
-    <row r="594" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="13"/>
       <c r="B594" s="14"/>
       <c r="C594" s="13"/>
@@ -22999,7 +23048,7 @@
       <c r="AH594" s="13"/>
       <c r="AI594" s="13"/>
     </row>
-    <row r="595" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="13"/>
       <c r="B595" s="14"/>
       <c r="C595" s="13"/>
@@ -23036,7 +23085,7 @@
       <c r="AH595" s="13"/>
       <c r="AI595" s="13"/>
     </row>
-    <row r="596" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="13"/>
       <c r="B596" s="14"/>
       <c r="C596" s="13"/>
@@ -23073,7 +23122,7 @@
       <c r="AH596" s="13"/>
       <c r="AI596" s="13"/>
     </row>
-    <row r="597" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="13"/>
       <c r="B597" s="14"/>
       <c r="C597" s="13"/>
@@ -23110,7 +23159,7 @@
       <c r="AH597" s="13"/>
       <c r="AI597" s="13"/>
     </row>
-    <row r="598" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="13"/>
       <c r="B598" s="14"/>
       <c r="C598" s="13"/>
@@ -23147,7 +23196,7 @@
       <c r="AH598" s="13"/>
       <c r="AI598" s="13"/>
     </row>
-    <row r="599" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="13"/>
       <c r="B599" s="14"/>
       <c r="C599" s="13"/>
@@ -23184,7 +23233,7 @@
       <c r="AH599" s="13"/>
       <c r="AI599" s="13"/>
     </row>
-    <row r="600" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="13"/>
       <c r="B600" s="14"/>
       <c r="C600" s="13"/>
@@ -23221,7 +23270,7 @@
       <c r="AH600" s="13"/>
       <c r="AI600" s="13"/>
     </row>
-    <row r="601" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="13"/>
       <c r="B601" s="14"/>
       <c r="C601" s="13"/>
@@ -23258,7 +23307,7 @@
       <c r="AH601" s="13"/>
       <c r="AI601" s="13"/>
     </row>
-    <row r="602" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="13"/>
       <c r="B602" s="14"/>
       <c r="C602" s="13"/>
@@ -23295,7 +23344,7 @@
       <c r="AH602" s="13"/>
       <c r="AI602" s="13"/>
     </row>
-    <row r="603" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="13"/>
       <c r="B603" s="14"/>
       <c r="C603" s="13"/>
@@ -23332,7 +23381,7 @@
       <c r="AH603" s="13"/>
       <c r="AI603" s="13"/>
     </row>
-    <row r="604" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="13"/>
       <c r="B604" s="14"/>
       <c r="C604" s="13"/>
@@ -23369,7 +23418,7 @@
       <c r="AH604" s="13"/>
       <c r="AI604" s="13"/>
     </row>
-    <row r="605" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="13"/>
       <c r="B605" s="14"/>
       <c r="C605" s="13"/>
@@ -23406,7 +23455,7 @@
       <c r="AH605" s="13"/>
       <c r="AI605" s="13"/>
     </row>
-    <row r="606" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="13"/>
       <c r="B606" s="14"/>
       <c r="C606" s="13"/>
@@ -23443,7 +23492,7 @@
       <c r="AH606" s="13"/>
       <c r="AI606" s="13"/>
     </row>
-    <row r="607" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="13"/>
       <c r="B607" s="14"/>
       <c r="C607" s="13"/>
@@ -23480,7 +23529,7 @@
       <c r="AH607" s="13"/>
       <c r="AI607" s="13"/>
     </row>
-    <row r="608" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="13"/>
       <c r="B608" s="14"/>
       <c r="C608" s="13"/>
@@ -23517,7 +23566,7 @@
       <c r="AH608" s="13"/>
       <c r="AI608" s="13"/>
     </row>
-    <row r="609" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="13"/>
       <c r="B609" s="14"/>
       <c r="C609" s="13"/>
@@ -23554,7 +23603,7 @@
       <c r="AH609" s="13"/>
       <c r="AI609" s="13"/>
     </row>
-    <row r="610" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="13"/>
       <c r="B610" s="14"/>
       <c r="C610" s="13"/>
@@ -23591,7 +23640,7 @@
       <c r="AH610" s="13"/>
       <c r="AI610" s="13"/>
     </row>
-    <row r="611" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="13"/>
       <c r="B611" s="14"/>
       <c r="C611" s="13"/>
@@ -23628,7 +23677,7 @@
       <c r="AH611" s="13"/>
       <c r="AI611" s="13"/>
     </row>
-    <row r="612" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="13"/>
       <c r="B612" s="14"/>
       <c r="C612" s="13"/>
@@ -23665,7 +23714,7 @@
       <c r="AH612" s="13"/>
       <c r="AI612" s="13"/>
     </row>
-    <row r="613" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="13"/>
       <c r="B613" s="14"/>
       <c r="C613" s="13"/>
@@ -23702,7 +23751,7 @@
       <c r="AH613" s="13"/>
       <c r="AI613" s="13"/>
     </row>
-    <row r="614" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="13"/>
       <c r="B614" s="14"/>
       <c r="C614" s="13"/>
@@ -23739,7 +23788,7 @@
       <c r="AH614" s="13"/>
       <c r="AI614" s="13"/>
     </row>
-    <row r="615" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="13"/>
       <c r="B615" s="14"/>
       <c r="C615" s="13"/>
@@ -23776,7 +23825,7 @@
       <c r="AH615" s="13"/>
       <c r="AI615" s="13"/>
     </row>
-    <row r="616" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="13"/>
       <c r="B616" s="14"/>
       <c r="C616" s="13"/>
@@ -23813,7 +23862,7 @@
       <c r="AH616" s="13"/>
       <c r="AI616" s="13"/>
     </row>
-    <row r="617" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="13"/>
       <c r="B617" s="14"/>
       <c r="C617" s="13"/>
@@ -23850,7 +23899,7 @@
       <c r="AH617" s="13"/>
       <c r="AI617" s="13"/>
     </row>
-    <row r="618" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="13"/>
       <c r="B618" s="14"/>
       <c r="C618" s="13"/>
@@ -23887,7 +23936,7 @@
       <c r="AH618" s="13"/>
       <c r="AI618" s="13"/>
     </row>
-    <row r="619" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="13"/>
       <c r="B619" s="14"/>
       <c r="C619" s="13"/>
@@ -23924,7 +23973,7 @@
       <c r="AH619" s="13"/>
       <c r="AI619" s="13"/>
     </row>
-    <row r="620" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="13"/>
       <c r="B620" s="14"/>
       <c r="C620" s="13"/>
@@ -23961,7 +24010,7 @@
       <c r="AH620" s="13"/>
       <c r="AI620" s="13"/>
     </row>
-    <row r="621" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="13"/>
       <c r="B621" s="14"/>
       <c r="C621" s="13"/>
@@ -23998,7 +24047,7 @@
       <c r="AH621" s="13"/>
       <c r="AI621" s="13"/>
     </row>
-    <row r="622" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="13"/>
       <c r="B622" s="14"/>
       <c r="C622" s="13"/>
@@ -24035,7 +24084,7 @@
       <c r="AH622" s="13"/>
       <c r="AI622" s="13"/>
     </row>
-    <row r="623" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="13"/>
       <c r="B623" s="14"/>
       <c r="C623" s="13"/>
@@ -24072,7 +24121,7 @@
       <c r="AH623" s="13"/>
       <c r="AI623" s="13"/>
     </row>
-    <row r="624" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="13"/>
       <c r="B624" s="14"/>
       <c r="C624" s="13"/>
@@ -24109,7 +24158,7 @@
       <c r="AH624" s="13"/>
       <c r="AI624" s="13"/>
     </row>
-    <row r="625" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="13"/>
       <c r="B625" s="14"/>
       <c r="C625" s="13"/>
@@ -24146,7 +24195,7 @@
       <c r="AH625" s="13"/>
       <c r="AI625" s="13"/>
     </row>
-    <row r="626" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="13"/>
       <c r="B626" s="14"/>
       <c r="C626" s="13"/>
@@ -24183,7 +24232,7 @@
       <c r="AH626" s="13"/>
       <c r="AI626" s="13"/>
     </row>
-    <row r="627" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="13"/>
       <c r="B627" s="14"/>
       <c r="C627" s="13"/>
@@ -24220,7 +24269,7 @@
       <c r="AH627" s="13"/>
       <c r="AI627" s="13"/>
     </row>
-    <row r="628" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="13"/>
       <c r="B628" s="14"/>
       <c r="C628" s="13"/>
@@ -24257,7 +24306,7 @@
       <c r="AH628" s="13"/>
       <c r="AI628" s="13"/>
     </row>
-    <row r="629" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="13"/>
       <c r="B629" s="14"/>
       <c r="C629" s="13"/>
@@ -24294,7 +24343,7 @@
       <c r="AH629" s="13"/>
       <c r="AI629" s="13"/>
     </row>
-    <row r="630" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="13"/>
       <c r="B630" s="14"/>
       <c r="C630" s="13"/>
@@ -24331,7 +24380,7 @@
       <c r="AH630" s="13"/>
       <c r="AI630" s="13"/>
     </row>
-    <row r="631" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="13"/>
       <c r="B631" s="14"/>
       <c r="C631" s="13"/>
@@ -24368,7 +24417,7 @@
       <c r="AH631" s="13"/>
       <c r="AI631" s="13"/>
     </row>
-    <row r="632" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="13"/>
       <c r="B632" s="14"/>
       <c r="C632" s="13"/>
@@ -24405,7 +24454,7 @@
       <c r="AH632" s="13"/>
       <c r="AI632" s="13"/>
     </row>
-    <row r="633" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="13"/>
       <c r="B633" s="14"/>
       <c r="C633" s="13"/>
@@ -24442,7 +24491,7 @@
       <c r="AH633" s="13"/>
       <c r="AI633" s="13"/>
     </row>
-    <row r="634" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="13"/>
       <c r="B634" s="14"/>
       <c r="C634" s="13"/>
@@ -24479,7 +24528,7 @@
       <c r="AH634" s="13"/>
       <c r="AI634" s="13"/>
     </row>
-    <row r="635" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="13"/>
       <c r="B635" s="14"/>
       <c r="C635" s="13"/>
@@ -24516,7 +24565,7 @@
       <c r="AH635" s="13"/>
       <c r="AI635" s="13"/>
     </row>
-    <row r="636" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="13"/>
       <c r="B636" s="14"/>
       <c r="C636" s="13"/>
@@ -24553,7 +24602,7 @@
       <c r="AH636" s="13"/>
       <c r="AI636" s="13"/>
     </row>
-    <row r="637" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="13"/>
       <c r="B637" s="14"/>
       <c r="C637" s="13"/>
@@ -24590,7 +24639,7 @@
       <c r="AH637" s="13"/>
       <c r="AI637" s="13"/>
     </row>
-    <row r="638" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="13"/>
       <c r="B638" s="14"/>
       <c r="C638" s="13"/>
@@ -24627,7 +24676,7 @@
       <c r="AH638" s="13"/>
       <c r="AI638" s="13"/>
     </row>
-    <row r="639" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="13"/>
       <c r="B639" s="14"/>
       <c r="C639" s="13"/>
@@ -24664,7 +24713,7 @@
       <c r="AH639" s="13"/>
       <c r="AI639" s="13"/>
     </row>
-    <row r="640" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="13"/>
       <c r="B640" s="14"/>
       <c r="C640" s="13"/>
@@ -24701,7 +24750,7 @@
       <c r="AH640" s="13"/>
       <c r="AI640" s="13"/>
     </row>
-    <row r="641" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="13"/>
       <c r="B641" s="14"/>
       <c r="C641" s="13"/>
@@ -24738,7 +24787,7 @@
       <c r="AH641" s="13"/>
       <c r="AI641" s="13"/>
     </row>
-    <row r="642" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="13"/>
       <c r="B642" s="14"/>
       <c r="C642" s="13"/>
@@ -24775,7 +24824,7 @@
       <c r="AH642" s="13"/>
       <c r="AI642" s="13"/>
     </row>
-    <row r="643" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="13"/>
       <c r="B643" s="14"/>
       <c r="C643" s="13"/>
@@ -24812,7 +24861,7 @@
       <c r="AH643" s="13"/>
       <c r="AI643" s="13"/>
     </row>
-    <row r="644" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="13"/>
       <c r="B644" s="14"/>
       <c r="C644" s="13"/>
@@ -24849,7 +24898,7 @@
       <c r="AH644" s="13"/>
       <c r="AI644" s="13"/>
     </row>
-    <row r="645" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="13"/>
       <c r="B645" s="14"/>
       <c r="C645" s="13"/>
@@ -24886,7 +24935,7 @@
       <c r="AH645" s="13"/>
       <c r="AI645" s="13"/>
     </row>
-    <row r="646" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="13"/>
       <c r="B646" s="14"/>
       <c r="C646" s="13"/>
@@ -24923,7 +24972,7 @@
       <c r="AH646" s="13"/>
       <c r="AI646" s="13"/>
     </row>
-    <row r="647" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="13"/>
       <c r="B647" s="14"/>
       <c r="C647" s="13"/>
@@ -24960,7 +25009,7 @@
       <c r="AH647" s="13"/>
       <c r="AI647" s="13"/>
     </row>
-    <row r="648" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="13"/>
       <c r="B648" s="14"/>
       <c r="C648" s="13"/>
@@ -24997,7 +25046,7 @@
       <c r="AH648" s="13"/>
       <c r="AI648" s="13"/>
     </row>
-    <row r="649" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="13"/>
       <c r="B649" s="14"/>
       <c r="C649" s="13"/>
@@ -25034,7 +25083,7 @@
       <c r="AH649" s="13"/>
       <c r="AI649" s="13"/>
     </row>
-    <row r="650" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="13"/>
       <c r="B650" s="14"/>
       <c r="C650" s="13"/>
@@ -25071,7 +25120,7 @@
       <c r="AH650" s="13"/>
       <c r="AI650" s="13"/>
     </row>
-    <row r="651" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="13"/>
       <c r="B651" s="14"/>
       <c r="C651" s="13"/>
@@ -25108,7 +25157,7 @@
       <c r="AH651" s="13"/>
       <c r="AI651" s="13"/>
     </row>
-    <row r="652" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="13"/>
       <c r="B652" s="14"/>
       <c r="C652" s="13"/>
@@ -25145,7 +25194,7 @@
       <c r="AH652" s="13"/>
       <c r="AI652" s="13"/>
     </row>
-    <row r="653" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="13"/>
       <c r="B653" s="14"/>
       <c r="C653" s="13"/>
@@ -25182,7 +25231,7 @@
       <c r="AH653" s="13"/>
       <c r="AI653" s="13"/>
     </row>
-    <row r="654" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="13"/>
       <c r="B654" s="14"/>
       <c r="C654" s="13"/>
@@ -25219,7 +25268,7 @@
       <c r="AH654" s="13"/>
       <c r="AI654" s="13"/>
     </row>
-    <row r="655" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="13"/>
       <c r="B655" s="14"/>
       <c r="C655" s="13"/>
@@ -25256,7 +25305,7 @@
       <c r="AH655" s="13"/>
       <c r="AI655" s="13"/>
     </row>
-    <row r="656" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="13"/>
       <c r="B656" s="14"/>
       <c r="C656" s="13"/>
@@ -25293,7 +25342,7 @@
       <c r="AH656" s="13"/>
       <c r="AI656" s="13"/>
     </row>
-    <row r="657" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="13"/>
       <c r="B657" s="14"/>
       <c r="C657" s="13"/>
@@ -25330,7 +25379,7 @@
       <c r="AH657" s="13"/>
       <c r="AI657" s="13"/>
     </row>
-    <row r="658" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="13"/>
       <c r="B658" s="14"/>
       <c r="C658" s="13"/>
@@ -25367,7 +25416,7 @@
       <c r="AH658" s="13"/>
       <c r="AI658" s="13"/>
     </row>
-    <row r="659" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="13"/>
       <c r="B659" s="14"/>
       <c r="C659" s="13"/>
@@ -25404,7 +25453,7 @@
       <c r="AH659" s="13"/>
       <c r="AI659" s="13"/>
     </row>
-    <row r="660" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="13"/>
       <c r="B660" s="14"/>
       <c r="C660" s="13"/>
@@ -25441,7 +25490,7 @@
       <c r="AH660" s="13"/>
       <c r="AI660" s="13"/>
     </row>
-    <row r="661" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="13"/>
       <c r="B661" s="14"/>
       <c r="C661" s="13"/>
@@ -25478,7 +25527,7 @@
       <c r="AH661" s="13"/>
       <c r="AI661" s="13"/>
     </row>
-    <row r="662" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="13"/>
       <c r="B662" s="14"/>
       <c r="C662" s="13"/>
@@ -25515,7 +25564,7 @@
       <c r="AH662" s="13"/>
       <c r="AI662" s="13"/>
     </row>
-    <row r="663" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="13"/>
       <c r="B663" s="14"/>
       <c r="C663" s="13"/>
@@ -25552,7 +25601,7 @@
       <c r="AH663" s="13"/>
       <c r="AI663" s="13"/>
     </row>
-    <row r="664" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="13"/>
       <c r="B664" s="14"/>
       <c r="C664" s="13"/>
@@ -25589,7 +25638,7 @@
       <c r="AH664" s="13"/>
       <c r="AI664" s="13"/>
     </row>
-    <row r="665" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="13"/>
       <c r="B665" s="14"/>
       <c r="C665" s="13"/>
@@ -25626,7 +25675,7 @@
       <c r="AH665" s="13"/>
       <c r="AI665" s="13"/>
     </row>
-    <row r="666" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="13"/>
       <c r="B666" s="14"/>
       <c r="C666" s="13"/>
@@ -25663,7 +25712,7 @@
       <c r="AH666" s="13"/>
       <c r="AI666" s="13"/>
     </row>
-    <row r="667" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="13"/>
       <c r="B667" s="14"/>
       <c r="C667" s="13"/>
@@ -25700,7 +25749,7 @@
       <c r="AH667" s="13"/>
       <c r="AI667" s="13"/>
     </row>
-    <row r="668" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="13"/>
       <c r="B668" s="14"/>
       <c r="C668" s="13"/>
@@ -25737,7 +25786,7 @@
       <c r="AH668" s="13"/>
       <c r="AI668" s="13"/>
     </row>
-    <row r="669" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="13"/>
       <c r="B669" s="14"/>
       <c r="C669" s="13"/>
@@ -25774,7 +25823,7 @@
       <c r="AH669" s="13"/>
       <c r="AI669" s="13"/>
     </row>
-    <row r="670" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="13"/>
       <c r="B670" s="14"/>
       <c r="C670" s="13"/>
@@ -25811,7 +25860,7 @@
       <c r="AH670" s="13"/>
       <c r="AI670" s="13"/>
     </row>
-    <row r="671" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="13"/>
       <c r="B671" s="14"/>
       <c r="C671" s="13"/>
@@ -25848,7 +25897,7 @@
       <c r="AH671" s="13"/>
       <c r="AI671" s="13"/>
     </row>
-    <row r="672" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="13"/>
       <c r="B672" s="14"/>
       <c r="C672" s="13"/>
@@ -25885,7 +25934,7 @@
       <c r="AH672" s="13"/>
       <c r="AI672" s="13"/>
     </row>
-    <row r="673" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="13"/>
       <c r="B673" s="14"/>
       <c r="C673" s="13"/>
@@ -25922,7 +25971,7 @@
       <c r="AH673" s="13"/>
       <c r="AI673" s="13"/>
     </row>
-    <row r="674" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="13"/>
       <c r="B674" s="14"/>
       <c r="C674" s="13"/>
@@ -25959,7 +26008,7 @@
       <c r="AH674" s="13"/>
       <c r="AI674" s="13"/>
     </row>
-    <row r="675" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="13"/>
       <c r="B675" s="14"/>
       <c r="C675" s="13"/>
@@ -25996,7 +26045,7 @@
       <c r="AH675" s="13"/>
       <c r="AI675" s="13"/>
     </row>
-    <row r="676" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="13"/>
       <c r="B676" s="14"/>
       <c r="C676" s="13"/>
@@ -26033,7 +26082,7 @@
       <c r="AH676" s="13"/>
       <c r="AI676" s="13"/>
     </row>
-    <row r="677" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="13"/>
       <c r="B677" s="14"/>
       <c r="C677" s="13"/>
@@ -26070,7 +26119,7 @@
       <c r="AH677" s="13"/>
       <c r="AI677" s="13"/>
     </row>
-    <row r="678" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="13"/>
       <c r="B678" s="14"/>
       <c r="C678" s="13"/>
@@ -26107,7 +26156,7 @@
       <c r="AH678" s="13"/>
       <c r="AI678" s="13"/>
     </row>
-    <row r="679" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="13"/>
       <c r="B679" s="14"/>
       <c r="C679" s="13"/>
@@ -26144,7 +26193,7 @@
       <c r="AH679" s="13"/>
       <c r="AI679" s="13"/>
     </row>
-    <row r="680" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="13"/>
       <c r="B680" s="14"/>
       <c r="C680" s="13"/>
@@ -26181,7 +26230,7 @@
       <c r="AH680" s="13"/>
       <c r="AI680" s="13"/>
     </row>
-    <row r="681" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="13"/>
       <c r="B681" s="14"/>
       <c r="C681" s="13"/>
@@ -26218,7 +26267,7 @@
       <c r="AH681" s="13"/>
       <c r="AI681" s="13"/>
     </row>
-    <row r="682" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="13"/>
       <c r="B682" s="14"/>
       <c r="C682" s="13"/>
@@ -26255,7 +26304,7 @@
       <c r="AH682" s="13"/>
       <c r="AI682" s="13"/>
     </row>
-    <row r="683" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="13"/>
       <c r="B683" s="14"/>
       <c r="C683" s="13"/>
@@ -26292,7 +26341,7 @@
       <c r="AH683" s="13"/>
       <c r="AI683" s="13"/>
     </row>
-    <row r="684" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="13"/>
       <c r="B684" s="14"/>
       <c r="C684" s="13"/>
@@ -26329,7 +26378,7 @@
       <c r="AH684" s="13"/>
       <c r="AI684" s="13"/>
     </row>
-    <row r="685" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="13"/>
       <c r="B685" s="14"/>
       <c r="C685" s="13"/>
@@ -26366,7 +26415,7 @@
       <c r="AH685" s="13"/>
       <c r="AI685" s="13"/>
     </row>
-    <row r="686" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="13"/>
       <c r="B686" s="14"/>
       <c r="C686" s="13"/>
@@ -26403,7 +26452,7 @@
       <c r="AH686" s="13"/>
       <c r="AI686" s="13"/>
     </row>
-    <row r="687" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="13"/>
       <c r="B687" s="14"/>
       <c r="C687" s="13"/>
@@ -26440,7 +26489,7 @@
       <c r="AH687" s="13"/>
       <c r="AI687" s="13"/>
     </row>
-    <row r="688" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="13"/>
       <c r="B688" s="14"/>
       <c r="C688" s="13"/>
@@ -26477,7 +26526,7 @@
       <c r="AH688" s="13"/>
       <c r="AI688" s="13"/>
     </row>
-    <row r="689" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="13"/>
       <c r="B689" s="14"/>
       <c r="C689" s="13"/>
@@ -26514,7 +26563,7 @@
       <c r="AH689" s="13"/>
       <c r="AI689" s="13"/>
     </row>
-    <row r="690" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="13"/>
       <c r="B690" s="14"/>
       <c r="C690" s="13"/>
@@ -26551,7 +26600,7 @@
       <c r="AH690" s="13"/>
       <c r="AI690" s="13"/>
     </row>
-    <row r="691" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="13"/>
       <c r="B691" s="14"/>
       <c r="C691" s="13"/>
@@ -26588,7 +26637,7 @@
       <c r="AH691" s="13"/>
       <c r="AI691" s="13"/>
     </row>
-    <row r="692" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="13"/>
       <c r="B692" s="14"/>
       <c r="C692" s="13"/>
@@ -26625,7 +26674,7 @@
       <c r="AH692" s="13"/>
       <c r="AI692" s="13"/>
     </row>
-    <row r="693" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="13"/>
       <c r="B693" s="14"/>
       <c r="C693" s="13"/>
@@ -26662,7 +26711,7 @@
       <c r="AH693" s="13"/>
       <c r="AI693" s="13"/>
     </row>
-    <row r="694" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="13"/>
       <c r="B694" s="14"/>
       <c r="C694" s="13"/>
@@ -26699,7 +26748,7 @@
       <c r="AH694" s="13"/>
       <c r="AI694" s="13"/>
     </row>
-    <row r="695" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="13"/>
       <c r="B695" s="14"/>
       <c r="C695" s="13"/>
@@ -26736,7 +26785,7 @@
       <c r="AH695" s="13"/>
       <c r="AI695" s="13"/>
     </row>
-    <row r="696" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="13"/>
       <c r="B696" s="14"/>
       <c r="C696" s="13"/>
@@ -26773,7 +26822,7 @@
       <c r="AH696" s="13"/>
       <c r="AI696" s="13"/>
     </row>
-    <row r="697" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="13"/>
       <c r="B697" s="14"/>
       <c r="C697" s="13"/>
@@ -26810,7 +26859,7 @@
       <c r="AH697" s="13"/>
       <c r="AI697" s="13"/>
     </row>
-    <row r="698" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="13"/>
       <c r="B698" s="14"/>
       <c r="C698" s="13"/>
@@ -26847,7 +26896,7 @@
       <c r="AH698" s="13"/>
       <c r="AI698" s="13"/>
     </row>
-    <row r="699" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="13"/>
       <c r="B699" s="14"/>
       <c r="C699" s="13"/>
@@ -26884,7 +26933,7 @@
       <c r="AH699" s="13"/>
       <c r="AI699" s="13"/>
     </row>
-    <row r="700" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="13"/>
       <c r="B700" s="14"/>
       <c r="C700" s="13"/>
@@ -26921,7 +26970,7 @@
       <c r="AH700" s="13"/>
       <c r="AI700" s="13"/>
     </row>
-    <row r="701" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="13"/>
       <c r="B701" s="14"/>
       <c r="C701" s="13"/>
@@ -26958,7 +27007,7 @@
       <c r="AH701" s="13"/>
       <c r="AI701" s="13"/>
     </row>
-    <row r="702" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="13"/>
       <c r="B702" s="14"/>
       <c r="C702" s="13"/>
@@ -26995,7 +27044,7 @@
       <c r="AH702" s="13"/>
       <c r="AI702" s="13"/>
     </row>
-    <row r="703" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="13"/>
       <c r="B703" s="14"/>
       <c r="C703" s="13"/>
@@ -27032,7 +27081,7 @@
       <c r="AH703" s="13"/>
       <c r="AI703" s="13"/>
     </row>
-    <row r="704" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="13"/>
       <c r="B704" s="14"/>
       <c r="C704" s="13"/>
@@ -27069,7 +27118,7 @@
       <c r="AH704" s="13"/>
       <c r="AI704" s="13"/>
     </row>
-    <row r="705" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="13"/>
       <c r="B705" s="14"/>
       <c r="C705" s="13"/>
@@ -27106,7 +27155,7 @@
       <c r="AH705" s="13"/>
       <c r="AI705" s="13"/>
     </row>
-    <row r="706" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="13"/>
       <c r="B706" s="14"/>
       <c r="C706" s="13"/>
@@ -27143,7 +27192,7 @@
       <c r="AH706" s="13"/>
       <c r="AI706" s="13"/>
     </row>
-    <row r="707" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="13"/>
       <c r="B707" s="14"/>
       <c r="C707" s="13"/>
@@ -27180,7 +27229,7 @@
       <c r="AH707" s="13"/>
       <c r="AI707" s="13"/>
     </row>
-    <row r="708" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="13"/>
       <c r="B708" s="14"/>
       <c r="C708" s="13"/>
@@ -27217,7 +27266,7 @@
       <c r="AH708" s="13"/>
       <c r="AI708" s="13"/>
     </row>
-    <row r="709" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="13"/>
       <c r="B709" s="14"/>
       <c r="C709" s="13"/>
@@ -27254,7 +27303,7 @@
       <c r="AH709" s="13"/>
       <c r="AI709" s="13"/>
     </row>
-    <row r="710" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="13"/>
       <c r="B710" s="14"/>
       <c r="C710" s="13"/>
@@ -27291,7 +27340,7 @@
       <c r="AH710" s="13"/>
       <c r="AI710" s="13"/>
     </row>
-    <row r="711" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="13"/>
       <c r="B711" s="14"/>
       <c r="C711" s="13"/>
@@ -27328,7 +27377,7 @@
       <c r="AH711" s="13"/>
       <c r="AI711" s="13"/>
     </row>
-    <row r="712" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="13"/>
       <c r="B712" s="14"/>
       <c r="C712" s="13"/>
@@ -27365,7 +27414,7 @@
       <c r="AH712" s="13"/>
       <c r="AI712" s="13"/>
     </row>
-    <row r="713" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="13"/>
       <c r="B713" s="14"/>
       <c r="C713" s="13"/>
@@ -27402,7 +27451,7 @@
       <c r="AH713" s="13"/>
       <c r="AI713" s="13"/>
     </row>
-    <row r="714" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="13"/>
       <c r="B714" s="14"/>
       <c r="C714" s="13"/>
@@ -27439,7 +27488,7 @@
       <c r="AH714" s="13"/>
       <c r="AI714" s="13"/>
     </row>
-    <row r="715" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="13"/>
       <c r="B715" s="14"/>
       <c r="C715" s="13"/>
@@ -27476,7 +27525,7 @@
       <c r="AH715" s="13"/>
       <c r="AI715" s="13"/>
     </row>
-    <row r="716" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="13"/>
       <c r="B716" s="14"/>
       <c r="C716" s="13"/>
@@ -27513,7 +27562,7 @@
       <c r="AH716" s="13"/>
       <c r="AI716" s="13"/>
     </row>
-    <row r="717" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="13"/>
       <c r="B717" s="14"/>
       <c r="C717" s="13"/>
@@ -27550,7 +27599,7 @@
       <c r="AH717" s="13"/>
       <c r="AI717" s="13"/>
     </row>
-    <row r="718" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="13"/>
       <c r="B718" s="14"/>
       <c r="C718" s="13"/>
@@ -27587,7 +27636,7 @@
       <c r="AH718" s="13"/>
       <c r="AI718" s="13"/>
     </row>
-    <row r="719" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="13"/>
       <c r="B719" s="14"/>
       <c r="C719" s="13"/>
@@ -27624,7 +27673,7 @@
       <c r="AH719" s="13"/>
       <c r="AI719" s="13"/>
     </row>
-    <row r="720" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="13"/>
       <c r="B720" s="14"/>
       <c r="C720" s="13"/>
@@ -27661,7 +27710,7 @@
       <c r="AH720" s="13"/>
       <c r="AI720" s="13"/>
     </row>
-    <row r="721" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="13"/>
       <c r="B721" s="14"/>
       <c r="C721" s="13"/>
@@ -27698,7 +27747,7 @@
       <c r="AH721" s="13"/>
       <c r="AI721" s="13"/>
     </row>
-    <row r="722" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="13"/>
       <c r="B722" s="14"/>
       <c r="C722" s="13"/>
@@ -27735,7 +27784,7 @@
       <c r="AH722" s="13"/>
       <c r="AI722" s="13"/>
     </row>
-    <row r="723" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="13"/>
       <c r="B723" s="14"/>
       <c r="C723" s="13"/>
@@ -27772,7 +27821,7 @@
       <c r="AH723" s="13"/>
       <c r="AI723" s="13"/>
     </row>
-    <row r="724" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="13"/>
       <c r="B724" s="14"/>
       <c r="C724" s="13"/>
@@ -27809,7 +27858,7 @@
       <c r="AH724" s="13"/>
       <c r="AI724" s="13"/>
     </row>
-    <row r="725" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="13"/>
       <c r="B725" s="14"/>
       <c r="C725" s="13"/>
@@ -27846,7 +27895,7 @@
       <c r="AH725" s="13"/>
       <c r="AI725" s="13"/>
     </row>
-    <row r="726" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="13"/>
       <c r="B726" s="14"/>
       <c r="C726" s="13"/>
@@ -27883,7 +27932,7 @@
       <c r="AH726" s="13"/>
       <c r="AI726" s="13"/>
     </row>
-    <row r="727" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="13"/>
       <c r="B727" s="14"/>
       <c r="C727" s="13"/>
@@ -27920,7 +27969,7 @@
       <c r="AH727" s="13"/>
       <c r="AI727" s="13"/>
     </row>
-    <row r="728" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="13"/>
       <c r="B728" s="14"/>
       <c r="C728" s="13"/>
@@ -27957,7 +28006,7 @@
       <c r="AH728" s="13"/>
       <c r="AI728" s="13"/>
     </row>
-    <row r="729" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="13"/>
       <c r="B729" s="14"/>
       <c r="C729" s="13"/>
@@ -27994,7 +28043,7 @@
       <c r="AH729" s="13"/>
       <c r="AI729" s="13"/>
     </row>
-    <row r="730" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="13"/>
       <c r="B730" s="14"/>
       <c r="C730" s="13"/>
@@ -28031,7 +28080,7 @@
       <c r="AH730" s="13"/>
       <c r="AI730" s="13"/>
     </row>
-    <row r="731" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="13"/>
       <c r="B731" s="14"/>
       <c r="C731" s="13"/>
@@ -28068,7 +28117,7 @@
       <c r="AH731" s="13"/>
       <c r="AI731" s="13"/>
     </row>
-    <row r="732" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="13"/>
       <c r="B732" s="14"/>
       <c r="C732" s="13"/>
@@ -28105,7 +28154,7 @@
       <c r="AH732" s="13"/>
       <c r="AI732" s="13"/>
     </row>
-    <row r="733" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="13"/>
       <c r="B733" s="14"/>
       <c r="C733" s="13"/>
@@ -28142,7 +28191,7 @@
       <c r="AH733" s="13"/>
       <c r="AI733" s="13"/>
     </row>
-    <row r="734" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="13"/>
       <c r="B734" s="14"/>
       <c r="C734" s="13"/>
@@ -28179,7 +28228,7 @@
       <c r="AH734" s="13"/>
       <c r="AI734" s="13"/>
     </row>
-    <row r="735" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="13"/>
       <c r="B735" s="14"/>
       <c r="C735" s="13"/>
@@ -28216,7 +28265,7 @@
       <c r="AH735" s="13"/>
       <c r="AI735" s="13"/>
     </row>
-    <row r="736" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="13"/>
       <c r="B736" s="14"/>
       <c r="C736" s="13"/>
@@ -28253,7 +28302,7 @@
       <c r="AH736" s="13"/>
       <c r="AI736" s="13"/>
     </row>
-    <row r="737" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="13"/>
       <c r="B737" s="14"/>
       <c r="C737" s="13"/>
@@ -28290,7 +28339,7 @@
       <c r="AH737" s="13"/>
       <c r="AI737" s="13"/>
     </row>
-    <row r="738" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="13"/>
       <c r="B738" s="14"/>
       <c r="C738" s="13"/>
@@ -28327,7 +28376,7 @@
       <c r="AH738" s="13"/>
       <c r="AI738" s="13"/>
     </row>
-    <row r="739" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="13"/>
       <c r="B739" s="14"/>
       <c r="C739" s="13"/>
@@ -28364,7 +28413,7 @@
       <c r="AH739" s="13"/>
       <c r="AI739" s="13"/>
     </row>
-    <row r="740" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="13"/>
       <c r="B740" s="14"/>
       <c r="C740" s="13"/>
@@ -28401,7 +28450,7 @@
       <c r="AH740" s="13"/>
       <c r="AI740" s="13"/>
     </row>
-    <row r="741" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="13"/>
       <c r="B741" s="14"/>
       <c r="C741" s="13"/>
@@ -28438,7 +28487,7 @@
       <c r="AH741" s="13"/>
       <c r="AI741" s="13"/>
     </row>
-    <row r="742" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="13"/>
       <c r="B742" s="14"/>
       <c r="C742" s="13"/>
@@ -28475,7 +28524,7 @@
       <c r="AH742" s="13"/>
       <c r="AI742" s="13"/>
     </row>
-    <row r="743" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="13"/>
       <c r="B743" s="14"/>
       <c r="C743" s="13"/>
@@ -28512,7 +28561,7 @@
       <c r="AH743" s="13"/>
       <c r="AI743" s="13"/>
     </row>
-    <row r="744" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="13"/>
       <c r="B744" s="14"/>
       <c r="C744" s="13"/>
@@ -28549,7 +28598,7 @@
       <c r="AH744" s="13"/>
       <c r="AI744" s="13"/>
     </row>
-    <row r="745" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="13"/>
       <c r="B745" s="14"/>
       <c r="C745" s="13"/>
@@ -28586,7 +28635,7 @@
       <c r="AH745" s="13"/>
       <c r="AI745" s="13"/>
     </row>
-    <row r="746" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="13"/>
       <c r="B746" s="14"/>
       <c r="C746" s="13"/>
@@ -28623,7 +28672,7 @@
       <c r="AH746" s="13"/>
       <c r="AI746" s="13"/>
     </row>
-    <row r="747" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="13"/>
       <c r="B747" s="14"/>
       <c r="C747" s="13"/>
@@ -28660,7 +28709,7 @@
       <c r="AH747" s="13"/>
       <c r="AI747" s="13"/>
     </row>
-    <row r="748" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="13"/>
       <c r="B748" s="14"/>
       <c r="C748" s="13"/>
@@ -28697,7 +28746,7 @@
       <c r="AH748" s="13"/>
       <c r="AI748" s="13"/>
     </row>
-    <row r="749" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="13"/>
       <c r="B749" s="14"/>
       <c r="C749" s="13"/>
@@ -28734,7 +28783,7 @@
       <c r="AH749" s="13"/>
       <c r="AI749" s="13"/>
     </row>
-    <row r="750" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="13"/>
       <c r="B750" s="14"/>
       <c r="C750" s="13"/>
@@ -28771,7 +28820,7 @@
       <c r="AH750" s="13"/>
       <c r="AI750" s="13"/>
     </row>
-    <row r="751" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="13"/>
       <c r="B751" s="14"/>
       <c r="C751" s="13"/>
@@ -28808,7 +28857,7 @@
       <c r="AH751" s="13"/>
       <c r="AI751" s="13"/>
     </row>
-    <row r="752" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="13"/>
       <c r="B752" s="14"/>
       <c r="C752" s="13"/>
@@ -28845,7 +28894,7 @@
       <c r="AH752" s="13"/>
       <c r="AI752" s="13"/>
     </row>
-    <row r="753" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="13"/>
       <c r="B753" s="14"/>
       <c r="C753" s="13"/>
@@ -28882,7 +28931,7 @@
       <c r="AH753" s="13"/>
       <c r="AI753" s="13"/>
     </row>
-    <row r="754" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="13"/>
       <c r="B754" s="14"/>
       <c r="C754" s="13"/>
@@ -28919,7 +28968,7 @@
       <c r="AH754" s="13"/>
       <c r="AI754" s="13"/>
     </row>
-    <row r="755" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="13"/>
       <c r="B755" s="14"/>
       <c r="C755" s="13"/>
@@ -28956,7 +29005,7 @@
       <c r="AH755" s="13"/>
       <c r="AI755" s="13"/>
     </row>
-    <row r="756" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="13"/>
       <c r="B756" s="14"/>
       <c r="C756" s="13"/>
@@ -28993,7 +29042,7 @@
       <c r="AH756" s="13"/>
       <c r="AI756" s="13"/>
     </row>
-    <row r="757" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="13"/>
       <c r="B757" s="14"/>
       <c r="C757" s="13"/>
@@ -29030,7 +29079,7 @@
       <c r="AH757" s="13"/>
       <c r="AI757" s="13"/>
     </row>
-    <row r="758" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="13"/>
       <c r="B758" s="14"/>
       <c r="C758" s="13"/>
@@ -29067,7 +29116,7 @@
       <c r="AH758" s="13"/>
       <c r="AI758" s="13"/>
     </row>
-    <row r="759" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="13"/>
       <c r="B759" s="14"/>
       <c r="C759" s="13"/>
@@ -29104,7 +29153,7 @@
       <c r="AH759" s="13"/>
       <c r="AI759" s="13"/>
     </row>
-    <row r="760" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="13"/>
       <c r="B760" s="14"/>
       <c r="C760" s="13"/>
@@ -29141,7 +29190,7 @@
       <c r="AH760" s="13"/>
       <c r="AI760" s="13"/>
     </row>
-    <row r="761" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="13"/>
       <c r="B761" s="14"/>
       <c r="C761" s="13"/>
@@ -29178,7 +29227,7 @@
       <c r="AH761" s="13"/>
       <c r="AI761" s="13"/>
     </row>
-    <row r="762" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="13"/>
       <c r="B762" s="14"/>
       <c r="C762" s="13"/>
@@ -29215,7 +29264,7 @@
       <c r="AH762" s="13"/>
       <c r="AI762" s="13"/>
     </row>
-    <row r="763" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="13"/>
       <c r="B763" s="14"/>
       <c r="C763" s="13"/>
@@ -29252,7 +29301,7 @@
       <c r="AH763" s="13"/>
       <c r="AI763" s="13"/>
     </row>
-    <row r="764" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="13"/>
       <c r="B764" s="14"/>
       <c r="C764" s="13"/>
@@ -29289,7 +29338,7 @@
       <c r="AH764" s="13"/>
       <c r="AI764" s="13"/>
     </row>
-    <row r="765" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="13"/>
       <c r="B765" s="14"/>
       <c r="C765" s="13"/>
@@ -29326,7 +29375,7 @@
       <c r="AH765" s="13"/>
       <c r="AI765" s="13"/>
     </row>
-    <row r="766" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="13"/>
       <c r="B766" s="14"/>
       <c r="C766" s="13"/>
@@ -29363,7 +29412,7 @@
       <c r="AH766" s="13"/>
       <c r="AI766" s="13"/>
     </row>
-    <row r="767" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="13"/>
       <c r="B767" s="14"/>
       <c r="C767" s="13"/>
@@ -29400,7 +29449,7 @@
       <c r="AH767" s="13"/>
       <c r="AI767" s="13"/>
     </row>
-    <row r="768" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="13"/>
       <c r="B768" s="14"/>
       <c r="C768" s="13"/>
@@ -29437,7 +29486,7 @@
       <c r="AH768" s="13"/>
       <c r="AI768" s="13"/>
     </row>
-    <row r="769" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="13"/>
       <c r="B769" s="14"/>
       <c r="C769" s="13"/>
@@ -29474,7 +29523,7 @@
       <c r="AH769" s="13"/>
       <c r="AI769" s="13"/>
     </row>
-    <row r="770" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="13"/>
       <c r="B770" s="14"/>
       <c r="C770" s="13"/>
@@ -29511,7 +29560,7 @@
       <c r="AH770" s="13"/>
       <c r="AI770" s="13"/>
     </row>
-    <row r="771" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="13"/>
       <c r="B771" s="14"/>
       <c r="C771" s="13"/>
@@ -29548,7 +29597,7 @@
       <c r="AH771" s="13"/>
       <c r="AI771" s="13"/>
     </row>
-    <row r="772" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="13"/>
       <c r="B772" s="14"/>
       <c r="C772" s="13"/>
@@ -29585,7 +29634,7 @@
       <c r="AH772" s="13"/>
       <c r="AI772" s="13"/>
     </row>
-    <row r="773" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="13"/>
       <c r="B773" s="14"/>
       <c r="C773" s="13"/>
@@ -29622,7 +29671,7 @@
       <c r="AH773" s="13"/>
       <c r="AI773" s="13"/>
     </row>
-    <row r="774" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="13"/>
       <c r="B774" s="14"/>
       <c r="C774" s="13"/>
@@ -29659,7 +29708,7 @@
       <c r="AH774" s="13"/>
       <c r="AI774" s="13"/>
     </row>
-    <row r="775" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="13"/>
       <c r="B775" s="14"/>
       <c r="C775" s="13"/>
@@ -29696,7 +29745,7 @@
       <c r="AH775" s="13"/>
       <c r="AI775" s="13"/>
     </row>
-    <row r="776" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="13"/>
       <c r="B776" s="14"/>
       <c r="C776" s="13"/>
@@ -29733,7 +29782,7 @@
       <c r="AH776" s="13"/>
       <c r="AI776" s="13"/>
     </row>
-    <row r="777" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="13"/>
       <c r="B777" s="14"/>
       <c r="C777" s="13"/>
@@ -29770,7 +29819,7 @@
       <c r="AH777" s="13"/>
       <c r="AI777" s="13"/>
     </row>
-    <row r="778" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="13"/>
       <c r="B778" s="14"/>
       <c r="C778" s="13"/>
@@ -29807,7 +29856,7 @@
       <c r="AH778" s="13"/>
       <c r="AI778" s="13"/>
     </row>
-    <row r="779" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="13"/>
       <c r="B779" s="14"/>
       <c r="C779" s="13"/>
@@ -29844,7 +29893,7 @@
       <c r="AH779" s="13"/>
       <c r="AI779" s="13"/>
     </row>
-    <row r="780" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="13"/>
       <c r="B780" s="14"/>
       <c r="C780" s="13"/>
@@ -29881,7 +29930,7 @@
       <c r="AH780" s="13"/>
       <c r="AI780" s="13"/>
     </row>
-    <row r="781" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="13"/>
       <c r="B781" s="14"/>
       <c r="C781" s="13"/>
@@ -29918,7 +29967,7 @@
       <c r="AH781" s="13"/>
       <c r="AI781" s="13"/>
     </row>
-    <row r="782" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="13"/>
       <c r="B782" s="14"/>
       <c r="C782" s="13"/>
@@ -29955,7 +30004,7 @@
       <c r="AH782" s="13"/>
       <c r="AI782" s="13"/>
     </row>
-    <row r="783" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="13"/>
       <c r="B783" s="14"/>
       <c r="C783" s="13"/>
@@ -29992,7 +30041,7 @@
       <c r="AH783" s="13"/>
       <c r="AI783" s="13"/>
     </row>
-    <row r="784" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="13"/>
       <c r="B784" s="14"/>
       <c r="C784" s="13"/>
@@ -30029,7 +30078,7 @@
       <c r="AH784" s="13"/>
       <c r="AI784" s="13"/>
     </row>
-    <row r="785" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="13"/>
       <c r="B785" s="14"/>
       <c r="C785" s="13"/>
@@ -30066,7 +30115,7 @@
       <c r="AH785" s="13"/>
       <c r="AI785" s="13"/>
     </row>
-    <row r="786" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="13"/>
       <c r="B786" s="14"/>
       <c r="C786" s="13"/>
@@ -30103,7 +30152,7 @@
       <c r="AH786" s="13"/>
       <c r="AI786" s="13"/>
     </row>
-    <row r="787" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="13"/>
       <c r="B787" s="14"/>
       <c r="C787" s="13"/>
@@ -30140,7 +30189,7 @@
       <c r="AH787" s="13"/>
       <c r="AI787" s="13"/>
     </row>
-    <row r="788" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="13"/>
       <c r="B788" s="14"/>
       <c r="C788" s="13"/>
@@ -30177,7 +30226,7 @@
       <c r="AH788" s="13"/>
       <c r="AI788" s="13"/>
     </row>
-    <row r="789" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="13"/>
       <c r="B789" s="14"/>
       <c r="C789" s="13"/>
@@ -30214,7 +30263,7 @@
       <c r="AH789" s="13"/>
       <c r="AI789" s="13"/>
     </row>
-    <row r="790" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="13"/>
       <c r="B790" s="14"/>
       <c r="C790" s="13"/>
@@ -30251,7 +30300,7 @@
       <c r="AH790" s="13"/>
       <c r="AI790" s="13"/>
     </row>
-    <row r="791" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="13"/>
       <c r="B791" s="14"/>
       <c r="C791" s="13"/>
@@ -30288,7 +30337,7 @@
       <c r="AH791" s="13"/>
       <c r="AI791" s="13"/>
     </row>
-    <row r="792" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="13"/>
       <c r="B792" s="14"/>
       <c r="C792" s="13"/>
@@ -30325,7 +30374,7 @@
       <c r="AH792" s="13"/>
       <c r="AI792" s="13"/>
     </row>
-    <row r="793" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="13"/>
       <c r="B793" s="14"/>
       <c r="C793" s="13"/>
@@ -30362,7 +30411,7 @@
       <c r="AH793" s="13"/>
       <c r="AI793" s="13"/>
     </row>
-    <row r="794" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="13"/>
       <c r="B794" s="14"/>
       <c r="C794" s="13"/>
@@ -30399,7 +30448,7 @@
       <c r="AH794" s="13"/>
       <c r="AI794" s="13"/>
     </row>
-    <row r="795" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="13"/>
       <c r="B795" s="14"/>
       <c r="C795" s="13"/>
@@ -30436,7 +30485,7 @@
       <c r="AH795" s="13"/>
       <c r="AI795" s="13"/>
     </row>
-    <row r="796" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="13"/>
       <c r="B796" s="14"/>
       <c r="C796" s="13"/>
@@ -30473,7 +30522,7 @@
       <c r="AH796" s="13"/>
       <c r="AI796" s="13"/>
     </row>
-    <row r="797" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="13"/>
       <c r="B797" s="14"/>
       <c r="C797" s="13"/>
@@ -30510,7 +30559,7 @@
       <c r="AH797" s="13"/>
       <c r="AI797" s="13"/>
     </row>
-    <row r="798" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="13"/>
       <c r="B798" s="14"/>
       <c r="C798" s="13"/>
@@ -30547,7 +30596,7 @@
       <c r="AH798" s="13"/>
       <c r="AI798" s="13"/>
     </row>
-    <row r="799" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="13"/>
       <c r="B799" s="14"/>
       <c r="C799" s="13"/>
@@ -30584,7 +30633,7 @@
       <c r="AH799" s="13"/>
       <c r="AI799" s="13"/>
     </row>
-    <row r="800" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="13"/>
       <c r="B800" s="14"/>
       <c r="C800" s="13"/>
@@ -30621,7 +30670,7 @@
       <c r="AH800" s="13"/>
       <c r="AI800" s="13"/>
     </row>
-    <row r="801" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="13"/>
       <c r="B801" s="14"/>
       <c r="C801" s="13"/>
@@ -30658,7 +30707,7 @@
       <c r="AH801" s="13"/>
       <c r="AI801" s="13"/>
     </row>
-    <row r="802" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="13"/>
       <c r="B802" s="14"/>
       <c r="C802" s="13"/>
@@ -30695,7 +30744,7 @@
       <c r="AH802" s="13"/>
       <c r="AI802" s="13"/>
     </row>
-    <row r="803" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="13"/>
       <c r="B803" s="14"/>
       <c r="C803" s="13"/>
@@ -30732,7 +30781,7 @@
       <c r="AH803" s="13"/>
       <c r="AI803" s="13"/>
     </row>
-    <row r="804" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="13"/>
       <c r="B804" s="14"/>
       <c r="C804" s="13"/>
@@ -30769,7 +30818,7 @@
       <c r="AH804" s="13"/>
       <c r="AI804" s="13"/>
     </row>
-    <row r="805" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="13"/>
       <c r="B805" s="14"/>
       <c r="C805" s="13"/>
@@ -30806,7 +30855,7 @@
       <c r="AH805" s="13"/>
       <c r="AI805" s="13"/>
     </row>
-    <row r="806" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="13"/>
       <c r="B806" s="14"/>
       <c r="C806" s="13"/>
@@ -30843,7 +30892,7 @@
       <c r="AH806" s="13"/>
       <c r="AI806" s="13"/>
     </row>
-    <row r="807" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="13"/>
       <c r="B807" s="14"/>
       <c r="C807" s="13"/>
@@ -30880,7 +30929,7 @@
       <c r="AH807" s="13"/>
       <c r="AI807" s="13"/>
     </row>
-    <row r="808" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="13"/>
       <c r="B808" s="14"/>
       <c r="C808" s="13"/>
@@ -30917,7 +30966,7 @@
       <c r="AH808" s="13"/>
       <c r="AI808" s="13"/>
     </row>
-    <row r="809" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="13"/>
       <c r="B809" s="14"/>
       <c r="C809" s="13"/>
@@ -30954,7 +31003,7 @@
       <c r="AH809" s="13"/>
       <c r="AI809" s="13"/>
     </row>
-    <row r="810" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="13"/>
       <c r="B810" s="14"/>
       <c r="C810" s="13"/>
@@ -30991,7 +31040,7 @@
       <c r="AH810" s="13"/>
       <c r="AI810" s="13"/>
     </row>
-    <row r="811" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="13"/>
       <c r="B811" s="14"/>
       <c r="C811" s="13"/>
@@ -31028,7 +31077,7 @@
       <c r="AH811" s="13"/>
       <c r="AI811" s="13"/>
     </row>
-    <row r="812" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="13"/>
       <c r="B812" s="14"/>
       <c r="C812" s="13"/>
@@ -31065,7 +31114,7 @@
       <c r="AH812" s="13"/>
       <c r="AI812" s="13"/>
     </row>
-    <row r="813" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="13"/>
       <c r="B813" s="14"/>
       <c r="C813" s="13"/>
@@ -31102,7 +31151,7 @@
       <c r="AH813" s="13"/>
       <c r="AI813" s="13"/>
     </row>
-    <row r="814" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="13"/>
       <c r="B814" s="14"/>
       <c r="C814" s="13"/>
@@ -31139,7 +31188,7 @@
       <c r="AH814" s="13"/>
       <c r="AI814" s="13"/>
     </row>
-    <row r="815" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="13"/>
       <c r="B815" s="14"/>
       <c r="C815" s="13"/>
@@ -31176,7 +31225,7 @@
       <c r="AH815" s="13"/>
       <c r="AI815" s="13"/>
     </row>
-    <row r="816" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="13"/>
       <c r="B816" s="14"/>
       <c r="C816" s="13"/>
@@ -31213,7 +31262,7 @@
       <c r="AH816" s="13"/>
       <c r="AI816" s="13"/>
     </row>
-    <row r="817" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="13"/>
       <c r="B817" s="14"/>
       <c r="C817" s="13"/>
@@ -31250,7 +31299,7 @@
       <c r="AH817" s="13"/>
       <c r="AI817" s="13"/>
     </row>
-    <row r="818" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="13"/>
       <c r="B818" s="14"/>
       <c r="C818" s="13"/>
@@ -31287,7 +31336,7 @@
       <c r="AH818" s="13"/>
       <c r="AI818" s="13"/>
     </row>
-    <row r="819" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="13"/>
       <c r="B819" s="14"/>
       <c r="C819" s="13"/>
@@ -31324,7 +31373,7 @@
       <c r="AH819" s="13"/>
       <c r="AI819" s="13"/>
     </row>
-    <row r="820" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="13"/>
       <c r="B820" s="14"/>
       <c r="C820" s="13"/>
@@ -31361,7 +31410,7 @@
       <c r="AH820" s="13"/>
       <c r="AI820" s="13"/>
     </row>
-    <row r="821" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="13"/>
       <c r="B821" s="14"/>
       <c r="C821" s="13"/>
@@ -31398,7 +31447,7 @@
       <c r="AH821" s="13"/>
       <c r="AI821" s="13"/>
     </row>
-    <row r="822" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="13"/>
       <c r="B822" s="14"/>
       <c r="C822" s="13"/>
@@ -31435,7 +31484,7 @@
       <c r="AH822" s="13"/>
       <c r="AI822" s="13"/>
     </row>
-    <row r="823" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="13"/>
       <c r="B823" s="14"/>
       <c r="C823" s="13"/>
@@ -31472,7 +31521,7 @@
       <c r="AH823" s="13"/>
       <c r="AI823" s="13"/>
     </row>
-    <row r="824" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="13"/>
       <c r="B824" s="14"/>
       <c r="C824" s="13"/>
@@ -31509,7 +31558,7 @@
       <c r="AH824" s="13"/>
       <c r="AI824" s="13"/>
     </row>
-    <row r="825" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="13"/>
       <c r="B825" s="14"/>
       <c r="C825" s="13"/>
@@ -31546,7 +31595,7 @@
       <c r="AH825" s="13"/>
       <c r="AI825" s="13"/>
     </row>
-    <row r="826" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="13"/>
       <c r="B826" s="14"/>
       <c r="C826" s="13"/>
@@ -31583,7 +31632,7 @@
       <c r="AH826" s="13"/>
       <c r="AI826" s="13"/>
     </row>
-    <row r="827" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="13"/>
       <c r="B827" s="14"/>
       <c r="C827" s="13"/>
@@ -31620,7 +31669,7 @@
       <c r="AH827" s="13"/>
       <c r="AI827" s="13"/>
     </row>
-    <row r="828" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="13"/>
       <c r="B828" s="14"/>
       <c r="C828" s="13"/>
@@ -31657,7 +31706,7 @@
       <c r="AH828" s="13"/>
       <c r="AI828" s="13"/>
     </row>
-    <row r="829" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="13"/>
       <c r="B829" s="14"/>
       <c r="C829" s="13"/>
@@ -31694,7 +31743,7 @@
       <c r="AH829" s="13"/>
       <c r="AI829" s="13"/>
     </row>
-    <row r="830" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="13"/>
       <c r="B830" s="14"/>
       <c r="C830" s="13"/>
@@ -31731,7 +31780,7 @@
       <c r="AH830" s="13"/>
       <c r="AI830" s="13"/>
     </row>
-    <row r="831" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="13"/>
       <c r="B831" s="14"/>
       <c r="C831" s="13"/>
@@ -31768,7 +31817,7 @@
       <c r="AH831" s="13"/>
       <c r="AI831" s="13"/>
     </row>
-    <row r="832" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="13"/>
       <c r="B832" s="14"/>
       <c r="C832" s="13"/>
@@ -31805,7 +31854,7 @@
       <c r="AH832" s="13"/>
       <c r="AI832" s="13"/>
     </row>
-    <row r="833" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="13"/>
       <c r="B833" s="14"/>
       <c r="C833" s="13"/>
@@ -31842,7 +31891,7 @@
       <c r="AH833" s="13"/>
       <c r="AI833" s="13"/>
     </row>
-    <row r="834" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="13"/>
       <c r="B834" s="14"/>
       <c r="C834" s="13"/>
@@ -31879,7 +31928,7 @@
       <c r="AH834" s="13"/>
       <c r="AI834" s="13"/>
     </row>
-    <row r="835" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="13"/>
       <c r="B835" s="14"/>
       <c r="C835" s="13"/>
@@ -31916,7 +31965,7 @@
       <c r="AH835" s="13"/>
       <c r="AI835" s="13"/>
     </row>
-    <row r="836" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="13"/>
       <c r="B836" s="14"/>
       <c r="C836" s="13"/>
@@ -31953,7 +32002,7 @@
       <c r="AH836" s="13"/>
       <c r="AI836" s="13"/>
     </row>
-    <row r="837" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="13"/>
       <c r="B837" s="14"/>
       <c r="C837" s="13"/>
@@ -31990,7 +32039,7 @@
       <c r="AH837" s="13"/>
       <c r="AI837" s="13"/>
     </row>
-    <row r="838" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="13"/>
       <c r="B838" s="14"/>
       <c r="C838" s="13"/>
@@ -32027,7 +32076,7 @@
       <c r="AH838" s="13"/>
       <c r="AI838" s="13"/>
     </row>
-    <row r="839" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="13"/>
       <c r="B839" s="14"/>
       <c r="C839" s="13"/>
@@ -32064,7 +32113,7 @@
       <c r="AH839" s="13"/>
       <c r="AI839" s="13"/>
     </row>
-    <row r="840" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="13"/>
       <c r="B840" s="14"/>
       <c r="C840" s="13"/>
@@ -32101,7 +32150,7 @@
       <c r="AH840" s="13"/>
       <c r="AI840" s="13"/>
     </row>
-    <row r="841" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="13"/>
       <c r="B841" s="14"/>
       <c r="C841" s="13"/>
@@ -32138,7 +32187,7 @@
       <c r="AH841" s="13"/>
       <c r="AI841" s="13"/>
     </row>
-    <row r="842" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="13"/>
       <c r="B842" s="14"/>
       <c r="C842" s="13"/>
@@ -32175,7 +32224,7 @@
       <c r="AH842" s="13"/>
       <c r="AI842" s="13"/>
     </row>
-    <row r="843" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="13"/>
       <c r="B843" s="14"/>
       <c r="C843" s="13"/>
@@ -32212,7 +32261,7 @@
       <c r="AH843" s="13"/>
       <c r="AI843" s="13"/>
     </row>
-    <row r="844" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="13"/>
       <c r="B844" s="14"/>
       <c r="C844" s="13"/>
@@ -32249,7 +32298,7 @@
       <c r="AH844" s="13"/>
       <c r="AI844" s="13"/>
     </row>
-    <row r="845" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="13"/>
       <c r="B845" s="14"/>
       <c r="C845" s="13"/>
@@ -32286,7 +32335,7 @@
       <c r="AH845" s="13"/>
       <c r="AI845" s="13"/>
     </row>
-    <row r="846" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="13"/>
       <c r="B846" s="14"/>
       <c r="C846" s="13"/>
@@ -32323,7 +32372,7 @@
       <c r="AH846" s="13"/>
       <c r="AI846" s="13"/>
     </row>
-    <row r="847" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="13"/>
       <c r="B847" s="14"/>
       <c r="C847" s="13"/>
@@ -32360,7 +32409,7 @@
       <c r="AH847" s="13"/>
       <c r="AI847" s="13"/>
     </row>
-    <row r="848" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="13"/>
       <c r="B848" s="14"/>
       <c r="C848" s="13"/>
@@ -32397,7 +32446,7 @@
       <c r="AH848" s="13"/>
       <c r="AI848" s="13"/>
     </row>
-    <row r="849" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="13"/>
       <c r="B849" s="14"/>
       <c r="C849" s="13"/>
@@ -32434,7 +32483,7 @@
       <c r="AH849" s="13"/>
       <c r="AI849" s="13"/>
     </row>
-    <row r="850" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="13"/>
       <c r="B850" s="14"/>
       <c r="C850" s="13"/>
@@ -32471,7 +32520,7 @@
       <c r="AH850" s="13"/>
       <c r="AI850" s="13"/>
     </row>
-    <row r="851" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="13"/>
       <c r="B851" s="14"/>
       <c r="C851" s="13"/>
@@ -32508,7 +32557,7 @@
       <c r="AH851" s="13"/>
       <c r="AI851" s="13"/>
     </row>
-    <row r="852" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="13"/>
       <c r="B852" s="14"/>
       <c r="C852" s="13"/>
@@ -32545,7 +32594,7 @@
       <c r="AH852" s="13"/>
       <c r="AI852" s="13"/>
     </row>
-    <row r="853" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="13"/>
       <c r="B853" s="14"/>
       <c r="C853" s="13"/>
@@ -32582,7 +32631,7 @@
       <c r="AH853" s="13"/>
       <c r="AI853" s="13"/>
     </row>
-    <row r="854" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="13"/>
       <c r="B854" s="14"/>
       <c r="C854" s="13"/>
@@ -32619,7 +32668,7 @@
       <c r="AH854" s="13"/>
       <c r="AI854" s="13"/>
     </row>
-    <row r="855" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="13"/>
       <c r="B855" s="14"/>
       <c r="C855" s="13"/>
@@ -32656,7 +32705,7 @@
       <c r="AH855" s="13"/>
       <c r="AI855" s="13"/>
     </row>
-    <row r="856" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="13"/>
       <c r="B856" s="14"/>
       <c r="C856" s="13"/>
@@ -32693,7 +32742,7 @@
       <c r="AH856" s="13"/>
       <c r="AI856" s="13"/>
     </row>
-    <row r="857" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="13"/>
       <c r="B857" s="14"/>
       <c r="C857" s="13"/>
@@ -32730,7 +32779,7 @@
       <c r="AH857" s="13"/>
       <c r="AI857" s="13"/>
     </row>
-    <row r="858" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="13"/>
       <c r="B858" s="14"/>
       <c r="C858" s="13"/>
@@ -32767,7 +32816,7 @@
       <c r="AH858" s="13"/>
       <c r="AI858" s="13"/>
     </row>
-    <row r="859" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="13"/>
       <c r="B859" s="14"/>
       <c r="C859" s="13"/>
@@ -32804,7 +32853,7 @@
       <c r="AH859" s="13"/>
       <c r="AI859" s="13"/>
     </row>
-    <row r="860" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="13"/>
       <c r="B860" s="14"/>
       <c r="C860" s="13"/>
@@ -32841,7 +32890,7 @@
       <c r="AH860" s="13"/>
       <c r="AI860" s="13"/>
     </row>
-    <row r="861" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="13"/>
       <c r="B861" s="14"/>
       <c r="C861" s="13"/>
@@ -32878,7 +32927,7 @@
       <c r="AH861" s="13"/>
       <c r="AI861" s="13"/>
     </row>
-    <row r="862" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="13"/>
       <c r="B862" s="14"/>
       <c r="C862" s="13"/>
@@ -32915,7 +32964,7 @@
       <c r="AH862" s="13"/>
       <c r="AI862" s="13"/>
     </row>
-    <row r="863" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="13"/>
       <c r="B863" s="14"/>
       <c r="C863" s="13"/>
@@ -32952,7 +33001,7 @@
       <c r="AH863" s="13"/>
       <c r="AI863" s="13"/>
     </row>
-    <row r="864" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="13"/>
       <c r="B864" s="14"/>
       <c r="C864" s="13"/>
@@ -32989,7 +33038,7 @@
       <c r="AH864" s="13"/>
       <c r="AI864" s="13"/>
     </row>
-    <row r="865" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="13"/>
       <c r="B865" s="14"/>
       <c r="C865" s="13"/>
@@ -33026,7 +33075,7 @@
       <c r="AH865" s="13"/>
       <c r="AI865" s="13"/>
     </row>
-    <row r="866" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="13"/>
       <c r="B866" s="14"/>
       <c r="C866" s="13"/>
@@ -33063,7 +33112,7 @@
       <c r="AH866" s="13"/>
       <c r="AI866" s="13"/>
     </row>
-    <row r="867" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="13"/>
       <c r="B867" s="14"/>
       <c r="C867" s="13"/>
@@ -33100,7 +33149,7 @@
       <c r="AH867" s="13"/>
       <c r="AI867" s="13"/>
     </row>
-    <row r="868" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="13"/>
       <c r="B868" s="14"/>
       <c r="C868" s="13"/>
@@ -33137,7 +33186,7 @@
       <c r="AH868" s="13"/>
       <c r="AI868" s="13"/>
     </row>
-    <row r="869" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="13"/>
       <c r="B869" s="14"/>
       <c r="C869" s="13"/>
@@ -33174,7 +33223,7 @@
       <c r="AH869" s="13"/>
       <c r="AI869" s="13"/>
     </row>
-    <row r="870" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="13"/>
       <c r="B870" s="14"/>
       <c r="C870" s="13"/>
@@ -33211,7 +33260,7 @@
       <c r="AH870" s="13"/>
       <c r="AI870" s="13"/>
     </row>
-    <row r="871" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="13"/>
       <c r="B871" s="14"/>
       <c r="C871" s="13"/>
@@ -33248,7 +33297,7 @@
       <c r="AH871" s="13"/>
       <c r="AI871" s="13"/>
     </row>
-    <row r="872" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="13"/>
       <c r="B872" s="14"/>
       <c r="C872" s="13"/>
@@ -33285,7 +33334,7 @@
       <c r="AH872" s="13"/>
       <c r="AI872" s="13"/>
     </row>
-    <row r="873" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="13"/>
       <c r="B873" s="14"/>
       <c r="C873" s="13"/>
@@ -33322,7 +33371,7 @@
       <c r="AH873" s="13"/>
       <c r="AI873" s="13"/>
     </row>
-    <row r="874" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="13"/>
       <c r="B874" s="14"/>
       <c r="C874" s="13"/>
@@ -33359,7 +33408,7 @@
       <c r="AH874" s="13"/>
       <c r="AI874" s="13"/>
     </row>
-    <row r="875" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="13"/>
       <c r="B875" s="14"/>
       <c r="C875" s="13"/>
@@ -33396,7 +33445,7 @@
       <c r="AH875" s="13"/>
       <c r="AI875" s="13"/>
     </row>
-    <row r="876" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="13"/>
       <c r="B876" s="14"/>
       <c r="C876" s="13"/>
@@ -33433,7 +33482,7 @@
       <c r="AH876" s="13"/>
       <c r="AI876" s="13"/>
     </row>
-    <row r="877" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="13"/>
       <c r="B877" s="14"/>
       <c r="C877" s="13"/>
@@ -33470,7 +33519,7 @@
       <c r="AH877" s="13"/>
       <c r="AI877" s="13"/>
     </row>
-    <row r="878" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="13"/>
       <c r="B878" s="14"/>
       <c r="C878" s="13"/>
@@ -33507,7 +33556,7 @@
       <c r="AH878" s="13"/>
       <c r="AI878" s="13"/>
     </row>
-    <row r="879" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="13"/>
       <c r="B879" s="14"/>
       <c r="C879" s="13"/>
@@ -33544,7 +33593,7 @@
       <c r="AH879" s="13"/>
       <c r="AI879" s="13"/>
     </row>
-    <row r="880" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="13"/>
       <c r="B880" s="14"/>
       <c r="C880" s="13"/>
@@ -33581,7 +33630,7 @@
       <c r="AH880" s="13"/>
       <c r="AI880" s="13"/>
     </row>
-    <row r="881" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="13"/>
       <c r="B881" s="14"/>
       <c r="C881" s="13"/>
@@ -33618,7 +33667,7 @@
       <c r="AH881" s="13"/>
       <c r="AI881" s="13"/>
     </row>
-    <row r="882" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="13"/>
       <c r="B882" s="14"/>
       <c r="C882" s="13"/>
@@ -33655,7 +33704,7 @@
       <c r="AH882" s="13"/>
       <c r="AI882" s="13"/>
     </row>
-    <row r="883" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="13"/>
       <c r="B883" s="14"/>
       <c r="C883" s="13"/>
@@ -33692,7 +33741,7 @@
       <c r="AH883" s="13"/>
       <c r="AI883" s="13"/>
     </row>
-    <row r="884" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="13"/>
       <c r="B884" s="14"/>
       <c r="C884" s="13"/>
@@ -33729,7 +33778,7 @@
       <c r="AH884" s="13"/>
       <c r="AI884" s="13"/>
     </row>
-    <row r="885" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="13"/>
       <c r="B885" s="14"/>
       <c r="C885" s="13"/>
@@ -33766,7 +33815,7 @@
       <c r="AH885" s="13"/>
       <c r="AI885" s="13"/>
     </row>
-    <row r="886" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="13"/>
       <c r="B886" s="14"/>
       <c r="C886" s="13"/>
@@ -33803,7 +33852,7 @@
       <c r="AH886" s="13"/>
       <c r="AI886" s="13"/>
     </row>
-    <row r="887" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="13"/>
       <c r="B887" s="14"/>
       <c r="C887" s="13"/>
@@ -33840,7 +33889,7 @@
       <c r="AH887" s="13"/>
       <c r="AI887" s="13"/>
     </row>
-    <row r="888" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="13"/>
       <c r="B888" s="14"/>
       <c r="C888" s="13"/>
@@ -33877,7 +33926,7 @@
       <c r="AH888" s="13"/>
       <c r="AI888" s="13"/>
     </row>
-    <row r="889" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="13"/>
       <c r="B889" s="14"/>
       <c r="C889" s="13"/>
@@ -33914,7 +33963,7 @@
       <c r="AH889" s="13"/>
       <c r="AI889" s="13"/>
     </row>
-    <row r="890" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="13"/>
       <c r="B890" s="14"/>
       <c r="C890" s="13"/>
@@ -33951,7 +34000,7 @@
       <c r="AH890" s="13"/>
       <c r="AI890" s="13"/>
     </row>
-    <row r="891" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="13"/>
       <c r="B891" s="14"/>
       <c r="C891" s="13"/>
@@ -33988,7 +34037,7 @@
       <c r="AH891" s="13"/>
       <c r="AI891" s="13"/>
     </row>
-    <row r="892" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="13"/>
       <c r="B892" s="14"/>
       <c r="C892" s="13"/>
@@ -34025,7 +34074,7 @@
       <c r="AH892" s="13"/>
       <c r="AI892" s="13"/>
     </row>
-    <row r="893" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="13"/>
       <c r="B893" s="14"/>
       <c r="C893" s="13"/>
@@ -34062,7 +34111,7 @@
       <c r="AH893" s="13"/>
       <c r="AI893" s="13"/>
     </row>
-    <row r="894" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="13"/>
       <c r="B894" s="14"/>
       <c r="C894" s="13"/>
@@ -34099,7 +34148,7 @@
       <c r="AH894" s="13"/>
       <c r="AI894" s="13"/>
     </row>
-    <row r="895" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="13"/>
       <c r="B895" s="14"/>
       <c r="C895" s="13"/>
@@ -34136,7 +34185,7 @@
       <c r="AH895" s="13"/>
       <c r="AI895" s="13"/>
     </row>
-    <row r="896" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="13"/>
       <c r="B896" s="14"/>
       <c r="C896" s="13"/>
@@ -34173,7 +34222,7 @@
       <c r="AH896" s="13"/>
       <c r="AI896" s="13"/>
     </row>
-    <row r="897" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="13"/>
       <c r="B897" s="14"/>
       <c r="C897" s="13"/>
@@ -34210,7 +34259,7 @@
       <c r="AH897" s="13"/>
       <c r="AI897" s="13"/>
     </row>
-    <row r="898" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="13"/>
       <c r="B898" s="14"/>
       <c r="C898" s="13"/>
@@ -34247,7 +34296,7 @@
       <c r="AH898" s="13"/>
       <c r="AI898" s="13"/>
     </row>
-    <row r="899" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="13"/>
       <c r="B899" s="14"/>
       <c r="C899" s="13"/>
@@ -34284,7 +34333,7 @@
       <c r="AH899" s="13"/>
       <c r="AI899" s="13"/>
     </row>
-    <row r="900" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="13"/>
       <c r="B900" s="14"/>
       <c r="C900" s="13"/>
@@ -34321,7 +34370,7 @@
       <c r="AH900" s="13"/>
       <c r="AI900" s="13"/>
     </row>
-    <row r="901" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="13"/>
       <c r="B901" s="14"/>
       <c r="C901" s="13"/>
@@ -34358,7 +34407,7 @@
       <c r="AH901" s="13"/>
       <c r="AI901" s="13"/>
     </row>
-    <row r="902" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="13"/>
       <c r="B902" s="14"/>
       <c r="C902" s="13"/>
@@ -34395,7 +34444,7 @@
       <c r="AH902" s="13"/>
       <c r="AI902" s="13"/>
     </row>
-    <row r="903" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="13"/>
       <c r="B903" s="14"/>
       <c r="C903" s="13"/>
@@ -34432,7 +34481,7 @@
       <c r="AH903" s="13"/>
       <c r="AI903" s="13"/>
     </row>
-    <row r="904" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="13"/>
       <c r="B904" s="14"/>
       <c r="C904" s="13"/>
@@ -34469,7 +34518,7 @@
       <c r="AH904" s="13"/>
       <c r="AI904" s="13"/>
     </row>
-    <row r="905" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="13"/>
       <c r="B905" s="14"/>
       <c r="C905" s="13"/>
@@ -34506,7 +34555,7 @@
       <c r="AH905" s="13"/>
       <c r="AI905" s="13"/>
     </row>
-    <row r="906" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="13"/>
       <c r="B906" s="14"/>
       <c r="C906" s="13"/>
@@ -34543,7 +34592,7 @@
       <c r="AH906" s="13"/>
       <c r="AI906" s="13"/>
     </row>
-    <row r="907" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="13"/>
       <c r="B907" s="14"/>
       <c r="C907" s="13"/>
@@ -34580,7 +34629,7 @@
       <c r="AH907" s="13"/>
       <c r="AI907" s="13"/>
     </row>
-    <row r="908" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="13"/>
       <c r="B908" s="14"/>
       <c r="C908" s="13"/>
@@ -34617,7 +34666,7 @@
       <c r="AH908" s="13"/>
       <c r="AI908" s="13"/>
     </row>
-    <row r="909" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="13"/>
       <c r="B909" s="14"/>
       <c r="C909" s="13"/>
@@ -34654,7 +34703,7 @@
       <c r="AH909" s="13"/>
       <c r="AI909" s="13"/>
     </row>
-    <row r="910" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="13"/>
       <c r="B910" s="14"/>
       <c r="C910" s="13"/>
@@ -34691,7 +34740,7 @@
       <c r="AH910" s="13"/>
       <c r="AI910" s="13"/>
     </row>
-    <row r="911" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="13"/>
       <c r="B911" s="14"/>
       <c r="C911" s="13"/>
@@ -34728,7 +34777,7 @@
       <c r="AH911" s="13"/>
       <c r="AI911" s="13"/>
     </row>
-    <row r="912" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="13"/>
       <c r="B912" s="14"/>
       <c r="C912" s="13"/>
@@ -34765,7 +34814,7 @@
       <c r="AH912" s="13"/>
       <c r="AI912" s="13"/>
     </row>
-    <row r="913" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="13"/>
       <c r="B913" s="14"/>
       <c r="C913" s="13"/>
@@ -34802,7 +34851,7 @@
       <c r="AH913" s="13"/>
       <c r="AI913" s="13"/>
     </row>
-    <row r="914" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="13"/>
       <c r="B914" s="14"/>
       <c r="C914" s="13"/>
@@ -34839,7 +34888,7 @@
       <c r="AH914" s="13"/>
       <c r="AI914" s="13"/>
     </row>
-    <row r="915" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="13"/>
       <c r="B915" s="14"/>
       <c r="C915" s="13"/>
@@ -34876,7 +34925,7 @@
       <c r="AH915" s="13"/>
       <c r="AI915" s="13"/>
     </row>
-    <row r="916" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="13"/>
       <c r="B916" s="14"/>
       <c r="C916" s="13"/>
@@ -34913,7 +34962,7 @@
       <c r="AH916" s="13"/>
       <c r="AI916" s="13"/>
     </row>
-    <row r="917" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="13"/>
       <c r="B917" s="14"/>
       <c r="C917" s="13"/>
@@ -34950,7 +34999,7 @@
       <c r="AH917" s="13"/>
       <c r="AI917" s="13"/>
     </row>
-    <row r="918" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="13"/>
       <c r="B918" s="14"/>
       <c r="C918" s="13"/>
@@ -34987,7 +35036,7 @@
       <c r="AH918" s="13"/>
       <c r="AI918" s="13"/>
     </row>
-    <row r="919" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="13"/>
       <c r="B919" s="14"/>
       <c r="C919" s="13"/>
@@ -35024,7 +35073,7 @@
       <c r="AH919" s="13"/>
       <c r="AI919" s="13"/>
     </row>
-    <row r="920" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="13"/>
       <c r="B920" s="14"/>
       <c r="C920" s="13"/>
@@ -35061,7 +35110,7 @@
       <c r="AH920" s="13"/>
       <c r="AI920" s="13"/>
     </row>
-    <row r="921" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="13"/>
       <c r="B921" s="14"/>
       <c r="C921" s="13"/>
@@ -35098,7 +35147,7 @@
       <c r="AH921" s="13"/>
       <c r="AI921" s="13"/>
     </row>
-    <row r="922" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="13"/>
       <c r="B922" s="14"/>
       <c r="C922" s="13"/>
@@ -35135,7 +35184,7 @@
       <c r="AH922" s="13"/>
       <c r="AI922" s="13"/>
     </row>
-    <row r="923" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="13"/>
       <c r="B923" s="14"/>
       <c r="C923" s="13"/>
@@ -35172,7 +35221,7 @@
       <c r="AH923" s="13"/>
       <c r="AI923" s="13"/>
     </row>
-    <row r="924" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="13"/>
       <c r="B924" s="14"/>
       <c r="C924" s="13"/>
@@ -35209,7 +35258,7 @@
       <c r="AH924" s="13"/>
       <c r="AI924" s="13"/>
     </row>
-    <row r="925" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="13"/>
       <c r="B925" s="14"/>
       <c r="C925" s="13"/>
@@ -35246,7 +35295,7 @@
       <c r="AH925" s="13"/>
       <c r="AI925" s="13"/>
     </row>
-    <row r="926" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="13"/>
       <c r="B926" s="14"/>
       <c r="C926" s="13"/>
@@ -35283,7 +35332,7 @@
       <c r="AH926" s="13"/>
       <c r="AI926" s="13"/>
     </row>
-    <row r="927" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="13"/>
       <c r="B927" s="14"/>
       <c r="C927" s="13"/>
@@ -35320,7 +35369,7 @@
       <c r="AH927" s="13"/>
       <c r="AI927" s="13"/>
     </row>
-    <row r="928" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="13"/>
       <c r="B928" s="14"/>
       <c r="C928" s="13"/>
@@ -35357,7 +35406,7 @@
       <c r="AH928" s="13"/>
       <c r="AI928" s="13"/>
     </row>
-    <row r="929" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="13"/>
       <c r="B929" s="14"/>
       <c r="C929" s="13"/>
@@ -35394,7 +35443,7 @@
       <c r="AH929" s="13"/>
       <c r="AI929" s="13"/>
     </row>
-    <row r="930" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="13"/>
       <c r="B930" s="14"/>
       <c r="C930" s="13"/>
@@ -35431,7 +35480,7 @@
       <c r="AH930" s="13"/>
       <c r="AI930" s="13"/>
     </row>
-    <row r="931" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="13"/>
       <c r="B931" s="14"/>
       <c r="C931" s="13"/>
@@ -35468,7 +35517,7 @@
       <c r="AH931" s="13"/>
       <c r="AI931" s="13"/>
     </row>
-    <row r="932" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="13"/>
       <c r="B932" s="14"/>
       <c r="C932" s="13"/>
@@ -35505,7 +35554,7 @@
       <c r="AH932" s="13"/>
       <c r="AI932" s="13"/>
     </row>
-    <row r="933" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="13"/>
       <c r="B933" s="14"/>
       <c r="C933" s="13"/>
@@ -35542,7 +35591,7 @@
       <c r="AH933" s="13"/>
       <c r="AI933" s="13"/>
     </row>
-    <row r="934" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="13"/>
       <c r="B934" s="14"/>
       <c r="C934" s="13"/>
@@ -35579,7 +35628,7 @@
       <c r="AH934" s="13"/>
       <c r="AI934" s="13"/>
     </row>
-    <row r="935" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="13"/>
       <c r="B935" s="14"/>
       <c r="C935" s="13"/>
@@ -35616,7 +35665,7 @@
       <c r="AH935" s="13"/>
       <c r="AI935" s="13"/>
     </row>
-    <row r="936" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="13"/>
       <c r="B936" s="14"/>
       <c r="C936" s="13"/>
@@ -35653,7 +35702,7 @@
       <c r="AH936" s="13"/>
       <c r="AI936" s="13"/>
     </row>
-    <row r="937" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="13"/>
       <c r="B937" s="14"/>
       <c r="C937" s="13"/>
@@ -35690,7 +35739,7 @@
       <c r="AH937" s="13"/>
       <c r="AI937" s="13"/>
     </row>
-    <row r="938" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="13"/>
       <c r="B938" s="14"/>
       <c r="C938" s="13"/>
@@ -35727,7 +35776,7 @@
       <c r="AH938" s="13"/>
       <c r="AI938" s="13"/>
     </row>
-    <row r="939" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="13"/>
       <c r="B939" s="14"/>
       <c r="C939" s="13"/>
@@ -35764,7 +35813,7 @@
       <c r="AH939" s="13"/>
       <c r="AI939" s="13"/>
     </row>
-    <row r="940" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="13"/>
       <c r="B940" s="14"/>
       <c r="C940" s="13"/>
@@ -35801,7 +35850,7 @@
       <c r="AH940" s="13"/>
       <c r="AI940" s="13"/>
     </row>
-    <row r="941" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="13"/>
       <c r="B941" s="14"/>
       <c r="C941" s="13"/>
@@ -35838,7 +35887,7 @@
       <c r="AH941" s="13"/>
       <c r="AI941" s="13"/>
     </row>
-    <row r="942" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="13"/>
       <c r="B942" s="14"/>
       <c r="C942" s="13"/>
@@ -35875,7 +35924,7 @@
       <c r="AH942" s="13"/>
       <c r="AI942" s="13"/>
     </row>
-    <row r="943" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="13"/>
       <c r="B943" s="14"/>
       <c r="C943" s="13"/>
@@ -35912,7 +35961,7 @@
       <c r="AH943" s="13"/>
       <c r="AI943" s="13"/>
     </row>
-    <row r="944" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="13"/>
       <c r="B944" s="14"/>
       <c r="C944" s="13"/>
@@ -35949,7 +35998,7 @@
       <c r="AH944" s="13"/>
       <c r="AI944" s="13"/>
     </row>
-    <row r="945" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="13"/>
       <c r="B945" s="14"/>
       <c r="C945" s="13"/>
@@ -35986,7 +36035,7 @@
       <c r="AH945" s="13"/>
       <c r="AI945" s="13"/>
     </row>
-    <row r="946" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="13"/>
       <c r="B946" s="14"/>
       <c r="C946" s="13"/>
@@ -36023,7 +36072,7 @@
       <c r="AH946" s="13"/>
       <c r="AI946" s="13"/>
     </row>
-    <row r="947" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="13"/>
       <c r="B947" s="14"/>
       <c r="C947" s="13"/>
@@ -36060,7 +36109,7 @@
       <c r="AH947" s="13"/>
       <c r="AI947" s="13"/>
     </row>
-    <row r="948" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="13"/>
       <c r="B948" s="14"/>
       <c r="C948" s="13"/>
@@ -36097,7 +36146,7 @@
       <c r="AH948" s="13"/>
       <c r="AI948" s="13"/>
     </row>
-    <row r="949" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="13"/>
       <c r="B949" s="14"/>
       <c r="C949" s="13"/>
@@ -36134,7 +36183,7 @@
       <c r="AH949" s="13"/>
       <c r="AI949" s="13"/>
     </row>
-    <row r="950" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="13"/>
       <c r="B950" s="14"/>
       <c r="C950" s="13"/>
@@ -36171,7 +36220,7 @@
       <c r="AH950" s="13"/>
       <c r="AI950" s="13"/>
     </row>
-    <row r="951" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="13"/>
       <c r="B951" s="14"/>
       <c r="C951" s="13"/>
@@ -36208,7 +36257,7 @@
       <c r="AH951" s="13"/>
       <c r="AI951" s="13"/>
     </row>
-    <row r="952" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="13"/>
       <c r="B952" s="14"/>
       <c r="C952" s="13"/>
@@ -36245,7 +36294,7 @@
       <c r="AH952" s="13"/>
       <c r="AI952" s="13"/>
     </row>
-    <row r="953" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="13"/>
       <c r="B953" s="14"/>
       <c r="C953" s="13"/>
@@ -36282,7 +36331,7 @@
       <c r="AH953" s="13"/>
       <c r="AI953" s="13"/>
     </row>
-    <row r="954" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="13"/>
       <c r="B954" s="14"/>
       <c r="C954" s="13"/>
@@ -36319,7 +36368,7 @@
       <c r="AH954" s="13"/>
       <c r="AI954" s="13"/>
     </row>
-    <row r="955" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="13"/>
       <c r="B955" s="14"/>
       <c r="C955" s="13"/>
@@ -36356,7 +36405,7 @@
       <c r="AH955" s="13"/>
       <c r="AI955" s="13"/>
     </row>
-    <row r="956" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="13"/>
       <c r="B956" s="14"/>
       <c r="C956" s="13"/>
@@ -36393,7 +36442,7 @@
       <c r="AH956" s="13"/>
       <c r="AI956" s="13"/>
     </row>
-    <row r="957" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="13"/>
       <c r="B957" s="14"/>
       <c r="C957" s="13"/>
@@ -36430,7 +36479,7 @@
       <c r="AH957" s="13"/>
       <c r="AI957" s="13"/>
     </row>
-    <row r="958" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="13"/>
       <c r="B958" s="14"/>
       <c r="C958" s="13"/>
@@ -36467,7 +36516,7 @@
       <c r="AH958" s="13"/>
       <c r="AI958" s="13"/>
     </row>
-    <row r="959" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="13"/>
       <c r="B959" s="14"/>
       <c r="C959" s="13"/>
@@ -36504,7 +36553,7 @@
       <c r="AH959" s="13"/>
       <c r="AI959" s="13"/>
     </row>
-    <row r="960" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="13"/>
       <c r="B960" s="14"/>
       <c r="C960" s="13"/>
@@ -36541,7 +36590,7 @@
       <c r="AH960" s="13"/>
       <c r="AI960" s="13"/>
     </row>
-    <row r="961" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="13"/>
       <c r="B961" s="14"/>
       <c r="C961" s="13"/>
@@ -36578,7 +36627,7 @@
       <c r="AH961" s="13"/>
       <c r="AI961" s="13"/>
     </row>
-    <row r="962" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="13"/>
       <c r="B962" s="14"/>
       <c r="C962" s="13"/>
@@ -36615,7 +36664,7 @@
       <c r="AH962" s="13"/>
       <c r="AI962" s="13"/>
     </row>
-    <row r="963" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="13"/>
       <c r="B963" s="14"/>
       <c r="C963" s="13"/>
@@ -36652,7 +36701,7 @@
       <c r="AH963" s="13"/>
       <c r="AI963" s="13"/>
     </row>
-    <row r="964" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="13"/>
       <c r="B964" s="14"/>
       <c r="C964" s="13"/>
@@ -36689,7 +36738,7 @@
       <c r="AH964" s="13"/>
       <c r="AI964" s="13"/>
     </row>
-    <row r="965" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="13"/>
       <c r="B965" s="14"/>
       <c r="C965" s="13"/>
@@ -36726,7 +36775,7 @@
       <c r="AH965" s="13"/>
       <c r="AI965" s="13"/>
     </row>
-    <row r="966" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="13"/>
       <c r="B966" s="14"/>
       <c r="C966" s="13"/>
@@ -36763,7 +36812,7 @@
       <c r="AH966" s="13"/>
       <c r="AI966" s="13"/>
     </row>
-    <row r="967" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="13"/>
       <c r="B967" s="14"/>
       <c r="C967" s="13"/>
@@ -36800,7 +36849,7 @@
       <c r="AH967" s="13"/>
       <c r="AI967" s="13"/>
     </row>
-    <row r="968" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="13"/>
       <c r="B968" s="14"/>
       <c r="C968" s="13"/>
@@ -36837,7 +36886,7 @@
       <c r="AH968" s="13"/>
       <c r="AI968" s="13"/>
     </row>
-    <row r="969" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="13"/>
       <c r="B969" s="14"/>
       <c r="C969" s="13"/>
@@ -36874,7 +36923,7 @@
       <c r="AH969" s="13"/>
       <c r="AI969" s="13"/>
     </row>
-    <row r="970" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="13"/>
       <c r="B970" s="14"/>
       <c r="C970" s="13"/>
@@ -36911,7 +36960,7 @@
       <c r="AH970" s="13"/>
       <c r="AI970" s="13"/>
     </row>
-    <row r="971" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="13"/>
       <c r="B971" s="14"/>
       <c r="C971" s="13"/>
@@ -36948,7 +36997,7 @@
       <c r="AH971" s="13"/>
       <c r="AI971" s="13"/>
     </row>
-    <row r="972" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="13"/>
       <c r="B972" s="14"/>
       <c r="C972" s="13"/>
@@ -36985,7 +37034,7 @@
       <c r="AH972" s="13"/>
       <c r="AI972" s="13"/>
     </row>
-    <row r="973" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="13"/>
       <c r="B973" s="14"/>
       <c r="C973" s="13"/>
@@ -37022,7 +37071,7 @@
       <c r="AH973" s="13"/>
       <c r="AI973" s="13"/>
     </row>
-    <row r="974" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="13"/>
       <c r="B974" s="14"/>
       <c r="C974" s="13"/>
@@ -37059,7 +37108,7 @@
       <c r="AH974" s="13"/>
       <c r="AI974" s="13"/>
     </row>
-    <row r="975" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="13"/>
       <c r="B975" s="14"/>
       <c r="C975" s="13"/>
@@ -37096,7 +37145,7 @@
       <c r="AH975" s="13"/>
       <c r="AI975" s="13"/>
     </row>
-    <row r="976" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="13"/>
       <c r="B976" s="14"/>
       <c r="C976" s="13"/>
@@ -37133,7 +37182,7 @@
       <c r="AH976" s="13"/>
       <c r="AI976" s="13"/>
     </row>
-    <row r="977" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="13"/>
       <c r="B977" s="14"/>
       <c r="C977" s="13"/>
@@ -37170,7 +37219,7 @@
       <c r="AH977" s="13"/>
       <c r="AI977" s="13"/>
     </row>
-    <row r="978" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="13"/>
       <c r="B978" s="14"/>
       <c r="C978" s="13"/>
@@ -37207,7 +37256,7 @@
       <c r="AH978" s="13"/>
       <c r="AI978" s="13"/>
     </row>
-    <row r="979" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="13"/>
       <c r="B979" s="14"/>
       <c r="C979" s="13"/>
@@ -37244,7 +37293,7 @@
       <c r="AH979" s="13"/>
       <c r="AI979" s="13"/>
     </row>
-    <row r="980" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="13"/>
       <c r="B980" s="14"/>
       <c r="C980" s="13"/>
@@ -37281,7 +37330,7 @@
       <c r="AH980" s="13"/>
       <c r="AI980" s="13"/>
     </row>
-    <row r="981" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="13"/>
       <c r="B981" s="14"/>
       <c r="C981" s="13"/>
@@ -37318,7 +37367,7 @@
       <c r="AH981" s="13"/>
       <c r="AI981" s="13"/>
     </row>
-    <row r="982" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="13"/>
       <c r="B982" s="14"/>
       <c r="C982" s="13"/>
@@ -37355,7 +37404,7 @@
       <c r="AH982" s="13"/>
       <c r="AI982" s="13"/>
     </row>
-    <row r="983" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="13"/>
       <c r="B983" s="14"/>
       <c r="C983" s="13"/>
@@ -37392,7 +37441,7 @@
       <c r="AH983" s="13"/>
       <c r="AI983" s="13"/>
     </row>
-    <row r="984" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="13"/>
       <c r="B984" s="14"/>
       <c r="C984" s="13"/>
@@ -37429,7 +37478,7 @@
       <c r="AH984" s="13"/>
       <c r="AI984" s="13"/>
     </row>
-    <row r="985" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="13"/>
       <c r="B985" s="14"/>
       <c r="C985" s="13"/>
@@ -37466,7 +37515,7 @@
       <c r="AH985" s="13"/>
       <c r="AI985" s="13"/>
     </row>
-    <row r="986" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="13"/>
       <c r="B986" s="14"/>
       <c r="C986" s="13"/>
@@ -37503,7 +37552,7 @@
       <c r="AH986" s="13"/>
       <c r="AI986" s="13"/>
     </row>
-    <row r="987" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="13"/>
       <c r="B987" s="14"/>
       <c r="C987" s="13"/>
@@ -37540,7 +37589,7 @@
       <c r="AH987" s="13"/>
       <c r="AI987" s="13"/>
     </row>
-    <row r="988" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="13"/>
       <c r="B988" s="14"/>
       <c r="C988" s="13"/>
@@ -37577,7 +37626,7 @@
       <c r="AH988" s="13"/>
       <c r="AI988" s="13"/>
     </row>
-    <row r="989" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="13"/>
       <c r="B989" s="14"/>
       <c r="C989" s="13"/>
@@ -37614,7 +37663,7 @@
       <c r="AH989" s="13"/>
       <c r="AI989" s="13"/>
     </row>
-    <row r="990" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="13"/>
       <c r="B990" s="14"/>
       <c r="C990" s="13"/>
@@ -37651,7 +37700,7 @@
       <c r="AH990" s="13"/>
       <c r="AI990" s="13"/>
     </row>
-    <row r="991" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="13"/>
       <c r="B991" s="14"/>
       <c r="C991" s="13"/>
@@ -37688,7 +37737,7 @@
       <c r="AH991" s="13"/>
       <c r="AI991" s="13"/>
     </row>
-    <row r="992" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="13"/>
       <c r="B992" s="14"/>
       <c r="C992" s="13"/>
@@ -37725,7 +37774,7 @@
       <c r="AH992" s="13"/>
       <c r="AI992" s="13"/>
     </row>
-    <row r="993" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="13"/>
       <c r="B993" s="14"/>
       <c r="C993" s="13"/>
@@ -37762,7 +37811,7 @@
       <c r="AH993" s="13"/>
       <c r="AI993" s="13"/>
     </row>
-    <row r="994" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="13"/>
       <c r="B994" s="14"/>
       <c r="C994" s="13"/>
@@ -37799,7 +37848,7 @@
       <c r="AH994" s="13"/>
       <c r="AI994" s="13"/>
     </row>
-    <row r="995" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="13"/>
       <c r="B995" s="14"/>
       <c r="C995" s="13"/>
@@ -37836,7 +37885,7 @@
       <c r="AH995" s="13"/>
       <c r="AI995" s="13"/>
     </row>
-    <row r="996" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="13"/>
       <c r="B996" s="14"/>
       <c r="C996" s="13"/>
@@ -37873,7 +37922,7 @@
       <c r="AH996" s="13"/>
       <c r="AI996" s="13"/>
     </row>
-    <row r="997" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="13"/>
       <c r="B997" s="14"/>
       <c r="C997" s="13"/>
@@ -37910,7 +37959,7 @@
       <c r="AH997" s="13"/>
       <c r="AI997" s="13"/>
     </row>
-    <row r="998" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="13"/>
       <c r="B998" s="14"/>
       <c r="C998" s="13"/>
@@ -37947,7 +37996,7 @@
       <c r="AH998" s="13"/>
       <c r="AI998" s="13"/>
     </row>
-    <row r="999" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="13"/>
       <c r="B999" s="14"/>
       <c r="C999" s="13"/>
@@ -37984,7 +38033,7 @@
       <c r="AH999" s="13"/>
       <c r="AI999" s="13"/>
     </row>
-    <row r="1000" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="13"/>
       <c r="B1000" s="14"/>
       <c r="C1000" s="13"/>
@@ -38021,7 +38070,7 @@
       <c r="AH1000" s="13"/>
       <c r="AI1000" s="13"/>
     </row>
-    <row r="1001" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="13"/>
       <c r="B1001" s="14"/>
       <c r="C1001" s="13"/>
@@ -38058,7 +38107,7 @@
       <c r="AH1001" s="13"/>
       <c r="AI1001" s="13"/>
     </row>
-    <row r="1002" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="13"/>
       <c r="B1002" s="14"/>
       <c r="C1002" s="13"/>
@@ -38095,7 +38144,7 @@
       <c r="AH1002" s="13"/>
       <c r="AI1002" s="13"/>
     </row>
-    <row r="1003" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1003" s="13"/>
       <c r="B1003" s="14"/>
       <c r="C1003" s="13"/>
@@ -38132,7 +38181,7 @@
       <c r="AH1003" s="13"/>
       <c r="AI1003" s="13"/>
     </row>
-    <row r="1004" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1004" s="13"/>
       <c r="B1004" s="14"/>
       <c r="C1004" s="13"/>
@@ -38169,7 +38218,7 @@
       <c r="AH1004" s="13"/>
       <c r="AI1004" s="13"/>
     </row>
-    <row r="1005" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1005" s="13"/>
       <c r="B1005" s="14"/>
       <c r="C1005" s="13"/>
@@ -38206,7 +38255,7 @@
       <c r="AH1005" s="13"/>
       <c r="AI1005" s="13"/>
     </row>
-    <row r="1006" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1006" s="13"/>
       <c r="B1006" s="14"/>
       <c r="C1006" s="13"/>
